--- a/FOF/data/主题.xlsx
+++ b/FOF/data/主题.xlsx
@@ -25,406 +25,406 @@
     <t>代码</t>
   </si>
   <si>
+    <t>886055.WI</t>
+  </si>
+  <si>
+    <t>886052.WI</t>
+  </si>
+  <si>
+    <t>886008.WI</t>
+  </si>
+  <si>
+    <t>886029.WI</t>
+  </si>
+  <si>
+    <t>886053.WI</t>
+  </si>
+  <si>
+    <t>886026.WI</t>
+  </si>
+  <si>
+    <t>886057.WI</t>
+  </si>
+  <si>
+    <t>886011.WI</t>
+  </si>
+  <si>
     <t>886043.WI</t>
   </si>
   <si>
-    <t>886055.WI</t>
+    <t>886069.WI</t>
+  </si>
+  <si>
+    <t>886012.WI</t>
+  </si>
+  <si>
+    <t>886046.WI</t>
+  </si>
+  <si>
+    <t>886050.WI</t>
+  </si>
+  <si>
+    <t>886035.WI</t>
+  </si>
+  <si>
+    <t>886049.WI</t>
+  </si>
+  <si>
+    <t>886045.WI</t>
+  </si>
+  <si>
+    <t>886068.WI</t>
+  </si>
+  <si>
+    <t>886034.WI</t>
+  </si>
+  <si>
+    <t>886065.WI</t>
+  </si>
+  <si>
+    <t>886016.WI</t>
+  </si>
+  <si>
+    <t>886003.WI</t>
+  </si>
+  <si>
+    <t>886051.WI</t>
+  </si>
+  <si>
+    <t>886001.WI</t>
   </si>
   <si>
     <t>886031.WI</t>
   </si>
   <si>
-    <t>886049.WI</t>
-  </si>
-  <si>
-    <t>886035.WI</t>
-  </si>
-  <si>
     <t>886048.WI</t>
   </si>
   <si>
+    <t>886054.WI</t>
+  </si>
+  <si>
+    <t>886061.WI</t>
+  </si>
+  <si>
+    <t>886028.WI</t>
+  </si>
+  <si>
+    <t>886039.WI</t>
+  </si>
+  <si>
+    <t>886002.WI</t>
+  </si>
+  <si>
+    <t>886004.WI</t>
+  </si>
+  <si>
+    <t>886060.WI</t>
+  </si>
+  <si>
+    <t>886033.WI</t>
+  </si>
+  <si>
+    <t>886064.WI</t>
+  </si>
+  <si>
+    <t>886005.WI</t>
+  </si>
+  <si>
+    <t>886036.WI</t>
+  </si>
+  <si>
     <t>886024.WI</t>
   </si>
   <si>
-    <t>886051.WI</t>
-  </si>
-  <si>
-    <t>886029.WI</t>
-  </si>
-  <si>
-    <t>886026.WI</t>
+    <t>886018.WI</t>
+  </si>
+  <si>
+    <t>886058.WI</t>
+  </si>
+  <si>
+    <t>886030.WI</t>
   </si>
   <si>
     <t>886027.WI</t>
   </si>
   <si>
-    <t>886046.WI</t>
+    <t>886020.WI</t>
+  </si>
+  <si>
+    <t>886037.WI</t>
+  </si>
+  <si>
+    <t>886032.WI</t>
+  </si>
+  <si>
+    <t>886009.WI</t>
+  </si>
+  <si>
+    <t>886007.WI</t>
+  </si>
+  <si>
+    <t>886044.WI</t>
+  </si>
+  <si>
+    <t>886067.WI</t>
+  </si>
+  <si>
+    <t>886059.WI</t>
+  </si>
+  <si>
+    <t>886038.WI</t>
+  </si>
+  <si>
+    <t>886022.WI</t>
+  </si>
+  <si>
+    <t>886066.WI</t>
+  </si>
+  <si>
+    <t>886025.WI</t>
+  </si>
+  <si>
+    <t>886040.WI</t>
+  </si>
+  <si>
+    <t>886014.WI</t>
+  </si>
+  <si>
+    <t>886062.WI</t>
   </si>
   <si>
     <t>886042.WI</t>
   </si>
   <si>
-    <t>886044.WI</t>
-  </si>
-  <si>
-    <t>886053.WI</t>
-  </si>
-  <si>
-    <t>886018.WI</t>
+    <t>886015.WI</t>
+  </si>
+  <si>
+    <t>886019.WI</t>
+  </si>
+  <si>
+    <t>886021.WI</t>
+  </si>
+  <si>
+    <t>886017.WI</t>
+  </si>
+  <si>
+    <t>886041.WI</t>
+  </si>
+  <si>
+    <t>886063.WI</t>
+  </si>
+  <si>
+    <t>886006.WI</t>
+  </si>
+  <si>
+    <t>886013.WI</t>
+  </si>
+  <si>
+    <t>886010.WI</t>
   </si>
   <si>
     <t>886023.WI</t>
   </si>
   <si>
-    <t>886005.WI</t>
-  </si>
-  <si>
-    <t>886050.WI</t>
-  </si>
-  <si>
-    <t>886033.WI</t>
-  </si>
-  <si>
-    <t>886052.WI</t>
-  </si>
-  <si>
-    <t>886036.WI</t>
-  </si>
-  <si>
-    <t>886028.WI</t>
-  </si>
-  <si>
-    <t>886062.WI</t>
-  </si>
-  <si>
-    <t>886008.WI</t>
-  </si>
-  <si>
-    <t>886022.WI</t>
-  </si>
-  <si>
-    <t>886045.WI</t>
-  </si>
-  <si>
-    <t>886065.WI</t>
-  </si>
-  <si>
-    <t>886025.WI</t>
-  </si>
-  <si>
-    <t>886037.WI</t>
-  </si>
-  <si>
-    <t>886067.WI</t>
-  </si>
-  <si>
-    <t>886030.WI</t>
-  </si>
-  <si>
-    <t>886068.WI</t>
-  </si>
-  <si>
-    <t>886032.WI</t>
-  </si>
-  <si>
-    <t>886066.WI</t>
-  </si>
-  <si>
-    <t>886039.WI</t>
-  </si>
-  <si>
-    <t>886041.WI</t>
-  </si>
-  <si>
-    <t>886009.WI</t>
-  </si>
-  <si>
-    <t>886016.WI</t>
-  </si>
-  <si>
-    <t>886038.WI</t>
-  </si>
-  <si>
-    <t>886015.WI</t>
-  </si>
-  <si>
-    <t>886063.WI</t>
-  </si>
-  <si>
-    <t>886002.WI</t>
-  </si>
-  <si>
-    <t>886021.WI</t>
-  </si>
-  <si>
-    <t>886057.WI</t>
-  </si>
-  <si>
-    <t>886020.WI</t>
-  </si>
-  <si>
-    <t>886013.WI</t>
-  </si>
-  <si>
-    <t>886058.WI</t>
-  </si>
-  <si>
-    <t>886006.WI</t>
-  </si>
-  <si>
-    <t>886007.WI</t>
-  </si>
-  <si>
-    <t>886017.WI</t>
-  </si>
-  <si>
-    <t>886064.WI</t>
-  </si>
-  <si>
-    <t>886004.WI</t>
-  </si>
-  <si>
-    <t>886061.WI</t>
-  </si>
-  <si>
-    <t>886059.WI</t>
-  </si>
-  <si>
-    <t>886011.WI</t>
-  </si>
-  <si>
-    <t>886012.WI</t>
-  </si>
-  <si>
-    <t>886001.WI</t>
-  </si>
-  <si>
-    <t>886060.WI</t>
-  </si>
-  <si>
-    <t>886040.WI</t>
-  </si>
-  <si>
-    <t>886019.WI</t>
-  </si>
-  <si>
-    <t>886069.WI</t>
-  </si>
-  <si>
-    <t>886034.WI</t>
-  </si>
-  <si>
-    <t>886054.WI</t>
-  </si>
-  <si>
-    <t>886010.WI</t>
-  </si>
-  <si>
-    <t>886003.WI</t>
-  </si>
-  <si>
-    <t>886014.WI</t>
+    <t>保险指数</t>
+  </si>
+  <si>
+    <t>银行指数</t>
+  </si>
+  <si>
+    <t>建材指数</t>
+  </si>
+  <si>
+    <t>机场指数</t>
+  </si>
+  <si>
+    <t>多元金融指数</t>
+  </si>
+  <si>
+    <t>航空指数</t>
+  </si>
+  <si>
+    <t>房地产指数</t>
+  </si>
+  <si>
+    <t>贵金属指数</t>
   </si>
   <si>
     <t>酒类指数</t>
   </si>
   <si>
-    <t>保险指数</t>
+    <t>石油化工指数</t>
+  </si>
+  <si>
+    <t>钢铁指数</t>
+  </si>
+  <si>
+    <t>食品指数</t>
+  </si>
+  <si>
+    <t>生物科技指数</t>
+  </si>
+  <si>
+    <t>家用电器指数</t>
+  </si>
+  <si>
+    <t>医疗保健指数</t>
+  </si>
+  <si>
+    <t>农业指数</t>
+  </si>
+  <si>
+    <t>工程机械指数</t>
+  </si>
+  <si>
+    <t>摩托车指数</t>
+  </si>
+  <si>
+    <t>电力指数</t>
+  </si>
+  <si>
+    <t>建筑指数</t>
+  </si>
+  <si>
+    <t>煤炭指数</t>
+  </si>
+  <si>
+    <t>制药指数</t>
+  </si>
+  <si>
+    <t>能源设备指数</t>
   </si>
   <si>
     <t>港口指数</t>
   </si>
   <si>
-    <t>医疗保健指数</t>
-  </si>
-  <si>
-    <t>家用电器指数</t>
-  </si>
-  <si>
     <t>日用化工指数</t>
   </si>
   <si>
+    <t>券商指数</t>
+  </si>
+  <si>
+    <t>电脑硬件指数</t>
+  </si>
+  <si>
+    <t>陆路运输指数</t>
+  </si>
+  <si>
+    <t>餐饮旅游指数</t>
+  </si>
+  <si>
+    <t>石油天然气指数</t>
+  </si>
+  <si>
+    <t>化工原料指数</t>
+  </si>
+  <si>
+    <t>通信设备指数</t>
+  </si>
+  <si>
+    <t>汽车指数</t>
+  </si>
+  <si>
+    <t>电信指数</t>
+  </si>
+  <si>
+    <t>化纤指数</t>
+  </si>
+  <si>
+    <t>家居用品指数</t>
+  </si>
+  <si>
     <t>环保指数</t>
   </si>
   <si>
-    <t>制药指数</t>
-  </si>
-  <si>
-    <t>机场指数</t>
-  </si>
-  <si>
-    <t>航空指数</t>
+    <t>发电设备指数</t>
+  </si>
+  <si>
+    <t>互联网指数</t>
+  </si>
+  <si>
+    <t>公路指数</t>
   </si>
   <si>
     <t>海运指数</t>
   </si>
   <si>
-    <t>食品指数</t>
+    <t>重型机械指数</t>
+  </si>
+  <si>
+    <t>休闲用品指数</t>
+  </si>
+  <si>
+    <t>汽车零部件指数</t>
+  </si>
+  <si>
+    <t>包装指数</t>
+  </si>
+  <si>
+    <t>化肥农药指数</t>
+  </si>
+  <si>
+    <t>软饮料指数</t>
+  </si>
+  <si>
+    <t>水务指数</t>
+  </si>
+  <si>
+    <t>软件指数</t>
+  </si>
+  <si>
+    <t>纺织服装指数</t>
+  </si>
+  <si>
+    <t>贸易指数</t>
+  </si>
+  <si>
+    <t>燃气指数</t>
+  </si>
+  <si>
+    <t>办公用品指数</t>
+  </si>
+  <si>
+    <t>教育指数</t>
+  </si>
+  <si>
+    <t>造纸指数</t>
+  </si>
+  <si>
+    <t>电子元器件指数</t>
   </si>
   <si>
     <t>零售指数</t>
   </si>
   <si>
-    <t>软饮料指数</t>
-  </si>
-  <si>
-    <t>多元金融指数</t>
-  </si>
-  <si>
-    <t>发电设备指数</t>
+    <t>航天军工指数</t>
+  </si>
+  <si>
+    <t>综合类指数</t>
+  </si>
+  <si>
+    <t>工业机械指数</t>
+  </si>
+  <si>
+    <t>电工电网指数</t>
+  </si>
+  <si>
+    <t>文化传媒指数</t>
+  </si>
+  <si>
+    <t>半导体指数</t>
+  </si>
+  <si>
+    <t>精细化工指数</t>
+  </si>
+  <si>
+    <t>林木指数</t>
+  </si>
+  <si>
+    <t>基本金属指数</t>
   </si>
   <si>
     <t>商业服务指数</t>
-  </si>
-  <si>
-    <t>化纤指数</t>
-  </si>
-  <si>
-    <t>生物科技指数</t>
-  </si>
-  <si>
-    <t>汽车指数</t>
-  </si>
-  <si>
-    <t>银行指数</t>
-  </si>
-  <si>
-    <t>家居用品指数</t>
-  </si>
-  <si>
-    <t>陆路运输指数</t>
-  </si>
-  <si>
-    <t>电子元器件指数</t>
-  </si>
-  <si>
-    <t>建材指数</t>
-  </si>
-  <si>
-    <t>贸易指数</t>
-  </si>
-  <si>
-    <t>农业指数</t>
-  </si>
-  <si>
-    <t>电力指数</t>
-  </si>
-  <si>
-    <t>办公用品指数</t>
-  </si>
-  <si>
-    <t>休闲用品指数</t>
-  </si>
-  <si>
-    <t>水务指数</t>
-  </si>
-  <si>
-    <t>公路指数</t>
-  </si>
-  <si>
-    <t>工程机械指数</t>
-  </si>
-  <si>
-    <t>汽车零部件指数</t>
-  </si>
-  <si>
-    <t>燃气指数</t>
-  </si>
-  <si>
-    <t>餐饮旅游指数</t>
-  </si>
-  <si>
-    <t>文化传媒指数</t>
-  </si>
-  <si>
-    <t>包装指数</t>
-  </si>
-  <si>
-    <t>建筑指数</t>
-  </si>
-  <si>
-    <t>纺织服装指数</t>
-  </si>
-  <si>
-    <t>航天军工指数</t>
-  </si>
-  <si>
-    <t>半导体指数</t>
-  </si>
-  <si>
-    <t>石油天然气指数</t>
-  </si>
-  <si>
-    <t>工业机械指数</t>
-  </si>
-  <si>
-    <t>房地产指数</t>
-  </si>
-  <si>
-    <t>重型机械指数</t>
-  </si>
-  <si>
-    <t>林木指数</t>
-  </si>
-  <si>
-    <t>互联网指数</t>
-  </si>
-  <si>
-    <t>精细化工指数</t>
-  </si>
-  <si>
-    <t>化肥农药指数</t>
-  </si>
-  <si>
-    <t>电工电网指数</t>
-  </si>
-  <si>
-    <t>电信指数</t>
-  </si>
-  <si>
-    <t>化工原料指数</t>
-  </si>
-  <si>
-    <t>电脑硬件指数</t>
-  </si>
-  <si>
-    <t>软件指数</t>
-  </si>
-  <si>
-    <t>贵金属指数</t>
-  </si>
-  <si>
-    <t>钢铁指数</t>
-  </si>
-  <si>
-    <t>能源设备指数</t>
-  </si>
-  <si>
-    <t>通信设备指数</t>
-  </si>
-  <si>
-    <t>教育指数</t>
-  </si>
-  <si>
-    <t>综合类指数</t>
-  </si>
-  <si>
-    <t>石油化工指数</t>
-  </si>
-  <si>
-    <t>摩托车指数</t>
-  </si>
-  <si>
-    <t>券商指数</t>
-  </si>
-  <si>
-    <t>基本金属指数</t>
-  </si>
-  <si>
-    <t>煤炭指数</t>
-  </si>
-  <si>
-    <t>造纸指数</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
         <v>70</v>
       </c>
       <c r="C2">
-        <v>0.07375049621988117</v>
+        <v>0.07162352540571204</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -818,7 +818,7 @@
         <v>71</v>
       </c>
       <c r="C3">
-        <v>0.07322166444916145</v>
+        <v>0.02651421928177822</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -829,7 +829,7 @@
         <v>72</v>
       </c>
       <c r="C4">
-        <v>0.06907663023739707</v>
+        <v>0.004289739783785551</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -840,7 +840,7 @@
         <v>73</v>
       </c>
       <c r="C5">
-        <v>0.06744480184627433</v>
+        <v>0.002148062023014097</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -851,7 +851,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>0.05987587134465033</v>
+        <v>0.002107829264565098</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -862,7 +862,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>0.05396907654302385</v>
+        <v>0.00135321046218384</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -873,7 +873,7 @@
         <v>76</v>
       </c>
       <c r="C8">
-        <v>0.05217982199621418</v>
+        <v>0.001091604377946975</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -884,7 +884,7 @@
         <v>77</v>
       </c>
       <c r="C9">
-        <v>0.04578142151025255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -895,7 +895,7 @@
         <v>78</v>
       </c>
       <c r="C10">
-        <v>0.0429764385461453</v>
+        <v>-0.002891634691770784</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -906,7 +906,7 @@
         <v>79</v>
       </c>
       <c r="C11">
-        <v>0.03840850107796578</v>
+        <v>-0.008918553770986493</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -917,7 +917,7 @@
         <v>80</v>
       </c>
       <c r="C12">
-        <v>0.03549636680032742</v>
+        <v>-0.009354205961573547</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -928,7 +928,7 @@
         <v>81</v>
       </c>
       <c r="C13">
-        <v>0.03371776095448653</v>
+        <v>-0.00964003713750694</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -939,7 +939,7 @@
         <v>82</v>
       </c>
       <c r="C14">
-        <v>0.03338736753045768</v>
+        <v>-0.01120738432683344</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -950,7 +950,7 @@
         <v>83</v>
       </c>
       <c r="C15">
-        <v>0.02858140387213037</v>
+        <v>-0.01315044600090809</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -961,7 +961,7 @@
         <v>84</v>
       </c>
       <c r="C16">
-        <v>0.02338472996831009</v>
+        <v>-0.01536492696724323</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -972,7 +972,7 @@
         <v>85</v>
       </c>
       <c r="C17">
-        <v>0.02239675886492121</v>
+        <v>-0.01722599334604802</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -983,7 +983,7 @@
         <v>86</v>
       </c>
       <c r="C18">
-        <v>0.0222098370826187</v>
+        <v>-0.01912847425041964</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -994,7 +994,7 @@
         <v>87</v>
       </c>
       <c r="C19">
-        <v>0.02177333882702914</v>
+        <v>-0.02139933184254672</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1005,7 +1005,7 @@
         <v>88</v>
       </c>
       <c r="C20">
-        <v>0.02165389078811941</v>
+        <v>-0.02307745500251368</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1016,7 +1016,7 @@
         <v>89</v>
       </c>
       <c r="C21">
-        <v>0.02110677506382719</v>
+        <v>-0.02340132012226204</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1027,7 +1027,7 @@
         <v>90</v>
       </c>
       <c r="C22">
-        <v>0.01895121839765213</v>
+        <v>-0.02488775013701461</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>91</v>
       </c>
       <c r="C23">
-        <v>0.01840185084788049</v>
+        <v>-0.02492009095350045</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>92</v>
       </c>
       <c r="C24">
-        <v>0.01674076459159024</v>
+        <v>-0.02572935008201627</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>93</v>
       </c>
       <c r="C25">
-        <v>0.01548936463474115</v>
+        <v>-0.02574097910472506</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1071,7 +1071,7 @@
         <v>94</v>
       </c>
       <c r="C26">
-        <v>0.01430592939409814</v>
+        <v>-0.02625418732915896</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>95</v>
       </c>
       <c r="C27">
-        <v>0.01422966274503668</v>
+        <v>-0.02854406336779192</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>96</v>
       </c>
       <c r="C28">
-        <v>0.01177868083158851</v>
+        <v>-0.0285700751225153</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>97</v>
       </c>
       <c r="C29">
-        <v>0.008112321726782223</v>
+        <v>-0.02907745411835305</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>98</v>
       </c>
       <c r="C30">
-        <v>0.006981136919588682</v>
+        <v>-0.03043925003260417</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1126,7 +1126,7 @@
         <v>99</v>
       </c>
       <c r="C31">
-        <v>0.00538249654250067</v>
+        <v>-0.03190387917286297</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>0.005255028235249704</v>
+        <v>-0.03190884745177758</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>101</v>
       </c>
       <c r="C33">
-        <v>0.003963557794836925</v>
+        <v>-0.03234069724829791</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>102</v>
       </c>
       <c r="C34">
-        <v>0.00259381206459941</v>
+        <v>-0.03384009359924123</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>103</v>
       </c>
       <c r="C35">
-        <v>0.002261079527172916</v>
+        <v>-0.03384198897783197</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1181,7 +1181,7 @@
         <v>104</v>
       </c>
       <c r="C36">
-        <v>0.001430247447356425</v>
+        <v>-0.03575935266210595</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>105</v>
       </c>
       <c r="C37">
-        <v>0.000310574931579044</v>
+        <v>-0.03599926217491178</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>106</v>
       </c>
       <c r="C38">
-        <v>-8.716909363326586e-05</v>
+        <v>-0.0363088962638447</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="C39">
-        <v>-0.0004933225051254597</v>
+        <v>-0.03687659767608076</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>108</v>
       </c>
       <c r="C40">
-        <v>-0.001440832666724789</v>
+        <v>-0.03717655654636631</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>109</v>
       </c>
       <c r="C41">
-        <v>-0.002385193004787456</v>
+        <v>-0.03892262835606053</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>110</v>
       </c>
       <c r="C42">
-        <v>-0.002467864350308546</v>
+        <v>-0.03907747565899933</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>111</v>
       </c>
       <c r="C43">
-        <v>-0.003159947305441335</v>
+        <v>-0.0394568019476994</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>112</v>
       </c>
       <c r="C44">
-        <v>-0.005235236287095546</v>
+        <v>-0.04006896899972368</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>-0.006405013170885376</v>
+        <v>-0.0403832047150936</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1291,7 +1291,7 @@
         <v>114</v>
       </c>
       <c r="C46">
-        <v>-0.00715697941960125</v>
+        <v>-0.04140092309509003</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="C47">
-        <v>-0.007232804248615388</v>
+        <v>-0.04417820200862754</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>116</v>
       </c>
       <c r="C48">
-        <v>-0.009820198423420412</v>
+        <v>-0.04504926212713001</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>117</v>
       </c>
       <c r="C49">
-        <v>-0.0102991957752101</v>
+        <v>-0.0452044105550502</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>118</v>
       </c>
       <c r="C50">
-        <v>-0.01126621083998602</v>
+        <v>-0.04520825379313609</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>119</v>
       </c>
       <c r="C51">
-        <v>-0.01162941077451862</v>
+        <v>-0.04592972921778327</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>120</v>
       </c>
       <c r="C52">
-        <v>-0.01339309292234125</v>
+        <v>-0.04701557219997821</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1368,7 +1368,7 @@
         <v>121</v>
       </c>
       <c r="C53">
-        <v>-0.01688008131148044</v>
+        <v>-0.04846786598550079</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>122</v>
       </c>
       <c r="C54">
-        <v>-0.02069191516211133</v>
+        <v>-0.04851828488018151</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>123</v>
       </c>
       <c r="C55">
-        <v>-0.02110129675153538</v>
+        <v>-0.0497288819063465</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1401,7 +1401,7 @@
         <v>124</v>
       </c>
       <c r="C56">
-        <v>-0.02183850339445126</v>
+        <v>-0.05109638988676302</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>125</v>
       </c>
       <c r="C57">
-        <v>-0.02313246164363547</v>
+        <v>-0.0526292020939042</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>126</v>
       </c>
       <c r="C58">
-        <v>-0.02503015119634378</v>
+        <v>-0.05507983603986466</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>127</v>
       </c>
       <c r="C59">
-        <v>-0.02532004596230109</v>
+        <v>-0.05610017520011212</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>128</v>
       </c>
       <c r="C60">
-        <v>-0.03044864082063881</v>
+        <v>-0.05726233216800314</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>129</v>
       </c>
       <c r="C61">
-        <v>-0.0307213410215903</v>
+        <v>-0.05759701881926316</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>130</v>
       </c>
       <c r="C62">
-        <v>-0.03283080905657876</v>
+        <v>-0.05835638259062936</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>131</v>
       </c>
       <c r="C63">
-        <v>-0.03310844776220001</v>
+        <v>-0.05909845582408768</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>132</v>
       </c>
       <c r="C64">
-        <v>-0.03367182128888568</v>
+        <v>-0.05926280408899032</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>133</v>
       </c>
       <c r="C65">
-        <v>-0.04148757679260984</v>
+        <v>-0.06524603065541967</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>134</v>
       </c>
       <c r="C66">
-        <v>-0.04192584995340698</v>
+        <v>-0.06629568242813222</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>135</v>
       </c>
       <c r="C67">
-        <v>-0.05926197605413885</v>
+        <v>-0.075865120292814</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>136</v>
       </c>
       <c r="C68">
-        <v>-0.06082213684699578</v>
+        <v>-0.07948000878611206</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/主题.xlsx
+++ b/FOF/data/主题.xlsx
@@ -25,406 +25,406 @@
     <t>代码</t>
   </si>
   <si>
+    <t>886025.WI</t>
+  </si>
+  <si>
+    <t>886043.WI</t>
+  </si>
+  <si>
+    <t>886035.WI</t>
+  </si>
+  <si>
+    <t>886029.WI</t>
+  </si>
+  <si>
+    <t>886066.WI</t>
+  </si>
+  <si>
+    <t>886011.WI</t>
+  </si>
+  <si>
+    <t>886069.WI</t>
+  </si>
+  <si>
+    <t>886040.WI</t>
+  </si>
+  <si>
+    <t>886018.WI</t>
+  </si>
+  <si>
+    <t>886063.WI</t>
+  </si>
+  <si>
+    <t>886042.WI</t>
+  </si>
+  <si>
+    <t>886046.WI</t>
+  </si>
+  <si>
+    <t>886059.WI</t>
+  </si>
+  <si>
+    <t>886049.WI</t>
+  </si>
+  <si>
+    <t>886045.WI</t>
+  </si>
+  <si>
+    <t>886034.WI</t>
+  </si>
+  <si>
+    <t>886033.WI</t>
+  </si>
+  <si>
+    <t>886048.WI</t>
+  </si>
+  <si>
+    <t>886051.WI</t>
+  </si>
+  <si>
+    <t>886005.WI</t>
+  </si>
+  <si>
+    <t>886024.WI</t>
+  </si>
+  <si>
+    <t>886058.WI</t>
+  </si>
+  <si>
+    <t>886068.WI</t>
+  </si>
+  <si>
+    <t>886006.WI</t>
+  </si>
+  <si>
+    <t>886061.WI</t>
+  </si>
+  <si>
+    <t>886021.WI</t>
+  </si>
+  <si>
+    <t>886067.WI</t>
+  </si>
+  <si>
+    <t>886050.WI</t>
+  </si>
+  <si>
+    <t>886007.WI</t>
+  </si>
+  <si>
+    <t>886015.WI</t>
+  </si>
+  <si>
+    <t>886041.WI</t>
+  </si>
+  <si>
+    <t>886060.WI</t>
+  </si>
+  <si>
+    <t>886001.WI</t>
+  </si>
+  <si>
+    <t>886010.WI</t>
+  </si>
+  <si>
+    <t>886013.WI</t>
+  </si>
+  <si>
+    <t>886023.WI</t>
+  </si>
+  <si>
+    <t>886028.WI</t>
+  </si>
+  <si>
+    <t>886032.WI</t>
+  </si>
+  <si>
+    <t>886026.WI</t>
+  </si>
+  <si>
+    <t>886036.WI</t>
+  </si>
+  <si>
+    <t>886038.WI</t>
+  </si>
+  <si>
+    <t>886019.WI</t>
+  </si>
+  <si>
+    <t>886022.WI</t>
+  </si>
+  <si>
+    <t>886004.WI</t>
+  </si>
+  <si>
+    <t>886017.WI</t>
+  </si>
+  <si>
+    <t>886030.WI</t>
+  </si>
+  <si>
+    <t>886065.WI</t>
+  </si>
+  <si>
+    <t>886009.WI</t>
+  </si>
+  <si>
+    <t>886027.WI</t>
+  </si>
+  <si>
+    <t>886037.WI</t>
+  </si>
+  <si>
+    <t>886014.WI</t>
+  </si>
+  <si>
+    <t>886020.WI</t>
+  </si>
+  <si>
+    <t>886062.WI</t>
+  </si>
+  <si>
+    <t>886044.WI</t>
+  </si>
+  <si>
+    <t>886002.WI</t>
+  </si>
+  <si>
+    <t>886031.WI</t>
+  </si>
+  <si>
+    <t>886057.WI</t>
+  </si>
+  <si>
+    <t>886016.WI</t>
+  </si>
+  <si>
+    <t>886039.WI</t>
+  </si>
+  <si>
+    <t>886008.WI</t>
+  </si>
+  <si>
+    <t>886003.WI</t>
+  </si>
+  <si>
     <t>886055.WI</t>
   </si>
   <si>
+    <t>886053.WI</t>
+  </si>
+  <si>
     <t>886052.WI</t>
   </si>
   <si>
-    <t>886008.WI</t>
-  </si>
-  <si>
-    <t>886029.WI</t>
-  </si>
-  <si>
-    <t>886053.WI</t>
-  </si>
-  <si>
-    <t>886026.WI</t>
-  </si>
-  <si>
-    <t>886057.WI</t>
-  </si>
-  <si>
-    <t>886011.WI</t>
-  </si>
-  <si>
-    <t>886043.WI</t>
-  </si>
-  <si>
-    <t>886069.WI</t>
-  </si>
-  <si>
     <t>886012.WI</t>
   </si>
   <si>
-    <t>886046.WI</t>
-  </si>
-  <si>
-    <t>886050.WI</t>
-  </si>
-  <si>
-    <t>886035.WI</t>
-  </si>
-  <si>
-    <t>886049.WI</t>
-  </si>
-  <si>
-    <t>886045.WI</t>
-  </si>
-  <si>
-    <t>886068.WI</t>
-  </si>
-  <si>
-    <t>886034.WI</t>
-  </si>
-  <si>
-    <t>886065.WI</t>
-  </si>
-  <si>
-    <t>886016.WI</t>
-  </si>
-  <si>
-    <t>886003.WI</t>
-  </si>
-  <si>
-    <t>886051.WI</t>
-  </si>
-  <si>
-    <t>886001.WI</t>
-  </si>
-  <si>
-    <t>886031.WI</t>
-  </si>
-  <si>
-    <t>886048.WI</t>
+    <t>886064.WI</t>
   </si>
   <si>
     <t>886054.WI</t>
   </si>
   <si>
-    <t>886061.WI</t>
-  </si>
-  <si>
-    <t>886028.WI</t>
-  </si>
-  <si>
-    <t>886039.WI</t>
-  </si>
-  <si>
-    <t>886002.WI</t>
-  </si>
-  <si>
-    <t>886004.WI</t>
-  </si>
-  <si>
-    <t>886060.WI</t>
-  </si>
-  <si>
-    <t>886033.WI</t>
-  </si>
-  <si>
-    <t>886064.WI</t>
-  </si>
-  <si>
-    <t>886005.WI</t>
-  </si>
-  <si>
-    <t>886036.WI</t>
-  </si>
-  <si>
-    <t>886024.WI</t>
-  </si>
-  <si>
-    <t>886018.WI</t>
-  </si>
-  <si>
-    <t>886058.WI</t>
-  </si>
-  <si>
-    <t>886030.WI</t>
-  </si>
-  <si>
-    <t>886027.WI</t>
-  </si>
-  <si>
-    <t>886020.WI</t>
-  </si>
-  <si>
-    <t>886037.WI</t>
-  </si>
-  <si>
-    <t>886032.WI</t>
-  </si>
-  <si>
-    <t>886009.WI</t>
-  </si>
-  <si>
-    <t>886007.WI</t>
-  </si>
-  <si>
-    <t>886044.WI</t>
-  </si>
-  <si>
-    <t>886067.WI</t>
-  </si>
-  <si>
-    <t>886059.WI</t>
-  </si>
-  <si>
-    <t>886038.WI</t>
-  </si>
-  <si>
-    <t>886022.WI</t>
-  </si>
-  <si>
-    <t>886066.WI</t>
-  </si>
-  <si>
-    <t>886025.WI</t>
-  </si>
-  <si>
-    <t>886040.WI</t>
-  </si>
-  <si>
-    <t>886014.WI</t>
-  </si>
-  <si>
-    <t>886062.WI</t>
-  </si>
-  <si>
-    <t>886042.WI</t>
-  </si>
-  <si>
-    <t>886015.WI</t>
-  </si>
-  <si>
-    <t>886019.WI</t>
-  </si>
-  <si>
-    <t>886021.WI</t>
-  </si>
-  <si>
-    <t>886017.WI</t>
-  </si>
-  <si>
-    <t>886041.WI</t>
-  </si>
-  <si>
-    <t>886063.WI</t>
-  </si>
-  <si>
-    <t>886006.WI</t>
-  </si>
-  <si>
-    <t>886013.WI</t>
-  </si>
-  <si>
-    <t>886010.WI</t>
-  </si>
-  <si>
-    <t>886023.WI</t>
+    <t>办公用品指数</t>
+  </si>
+  <si>
+    <t>酒类指数</t>
+  </si>
+  <si>
+    <t>家用电器指数</t>
+  </si>
+  <si>
+    <t>机场指数</t>
+  </si>
+  <si>
+    <t>燃气指数</t>
+  </si>
+  <si>
+    <t>贵金属指数</t>
+  </si>
+  <si>
+    <t>石油化工指数</t>
+  </si>
+  <si>
+    <t>教育指数</t>
+  </si>
+  <si>
+    <t>发电设备指数</t>
+  </si>
+  <si>
+    <t>半导体指数</t>
+  </si>
+  <si>
+    <t>零售指数</t>
+  </si>
+  <si>
+    <t>食品指数</t>
+  </si>
+  <si>
+    <t>软件指数</t>
+  </si>
+  <si>
+    <t>医疗保健指数</t>
+  </si>
+  <si>
+    <t>农业指数</t>
+  </si>
+  <si>
+    <t>摩托车指数</t>
+  </si>
+  <si>
+    <t>汽车指数</t>
+  </si>
+  <si>
+    <t>日用化工指数</t>
+  </si>
+  <si>
+    <t>制药指数</t>
+  </si>
+  <si>
+    <t>化纤指数</t>
+  </si>
+  <si>
+    <t>环保指数</t>
+  </si>
+  <si>
+    <t>互联网指数</t>
+  </si>
+  <si>
+    <t>工程机械指数</t>
+  </si>
+  <si>
+    <t>精细化工指数</t>
+  </si>
+  <si>
+    <t>电脑硬件指数</t>
+  </si>
+  <si>
+    <t>工业机械指数</t>
+  </si>
+  <si>
+    <t>水务指数</t>
+  </si>
+  <si>
+    <t>生物科技指数</t>
+  </si>
+  <si>
+    <t>化肥农药指数</t>
+  </si>
+  <si>
+    <t>航天军工指数</t>
+  </si>
+  <si>
+    <t>文化传媒指数</t>
+  </si>
+  <si>
+    <t>通信设备指数</t>
+  </si>
+  <si>
+    <t>能源设备指数</t>
+  </si>
+  <si>
+    <t>基本金属指数</t>
+  </si>
+  <si>
+    <t>林木指数</t>
+  </si>
+  <si>
+    <t>商业服务指数</t>
+  </si>
+  <si>
+    <t>陆路运输指数</t>
+  </si>
+  <si>
+    <t>汽车零部件指数</t>
+  </si>
+  <si>
+    <t>航空指数</t>
+  </si>
+  <si>
+    <t>家居用品指数</t>
+  </si>
+  <si>
+    <t>纺织服装指数</t>
+  </si>
+  <si>
+    <t>综合类指数</t>
+  </si>
+  <si>
+    <t>贸易指数</t>
+  </si>
+  <si>
+    <t>化工原料指数</t>
+  </si>
+  <si>
+    <t>电工电网指数</t>
+  </si>
+  <si>
+    <t>公路指数</t>
+  </si>
+  <si>
+    <t>电力指数</t>
+  </si>
+  <si>
+    <t>包装指数</t>
+  </si>
+  <si>
+    <t>海运指数</t>
+  </si>
+  <si>
+    <t>休闲用品指数</t>
+  </si>
+  <si>
+    <t>造纸指数</t>
+  </si>
+  <si>
+    <t>重型机械指数</t>
+  </si>
+  <si>
+    <t>电子元器件指数</t>
+  </si>
+  <si>
+    <t>软饮料指数</t>
+  </si>
+  <si>
+    <t>石油天然气指数</t>
+  </si>
+  <si>
+    <t>港口指数</t>
+  </si>
+  <si>
+    <t>房地产指数</t>
+  </si>
+  <si>
+    <t>建筑指数</t>
+  </si>
+  <si>
+    <t>餐饮旅游指数</t>
+  </si>
+  <si>
+    <t>建材指数</t>
+  </si>
+  <si>
+    <t>煤炭指数</t>
   </si>
   <si>
     <t>保险指数</t>
   </si>
   <si>
+    <t>多元金融指数</t>
+  </si>
+  <si>
     <t>银行指数</t>
   </si>
   <si>
-    <t>建材指数</t>
-  </si>
-  <si>
-    <t>机场指数</t>
-  </si>
-  <si>
-    <t>多元金融指数</t>
-  </si>
-  <si>
-    <t>航空指数</t>
-  </si>
-  <si>
-    <t>房地产指数</t>
-  </si>
-  <si>
-    <t>贵金属指数</t>
-  </si>
-  <si>
-    <t>酒类指数</t>
-  </si>
-  <si>
-    <t>石油化工指数</t>
-  </si>
-  <si>
     <t>钢铁指数</t>
   </si>
   <si>
-    <t>食品指数</t>
-  </si>
-  <si>
-    <t>生物科技指数</t>
-  </si>
-  <si>
-    <t>家用电器指数</t>
-  </si>
-  <si>
-    <t>医疗保健指数</t>
-  </si>
-  <si>
-    <t>农业指数</t>
-  </si>
-  <si>
-    <t>工程机械指数</t>
-  </si>
-  <si>
-    <t>摩托车指数</t>
-  </si>
-  <si>
-    <t>电力指数</t>
-  </si>
-  <si>
-    <t>建筑指数</t>
-  </si>
-  <si>
-    <t>煤炭指数</t>
-  </si>
-  <si>
-    <t>制药指数</t>
-  </si>
-  <si>
-    <t>能源设备指数</t>
-  </si>
-  <si>
-    <t>港口指数</t>
-  </si>
-  <si>
-    <t>日用化工指数</t>
+    <t>电信指数</t>
   </si>
   <si>
     <t>券商指数</t>
-  </si>
-  <si>
-    <t>电脑硬件指数</t>
-  </si>
-  <si>
-    <t>陆路运输指数</t>
-  </si>
-  <si>
-    <t>餐饮旅游指数</t>
-  </si>
-  <si>
-    <t>石油天然气指数</t>
-  </si>
-  <si>
-    <t>化工原料指数</t>
-  </si>
-  <si>
-    <t>通信设备指数</t>
-  </si>
-  <si>
-    <t>汽车指数</t>
-  </si>
-  <si>
-    <t>电信指数</t>
-  </si>
-  <si>
-    <t>化纤指数</t>
-  </si>
-  <si>
-    <t>家居用品指数</t>
-  </si>
-  <si>
-    <t>环保指数</t>
-  </si>
-  <si>
-    <t>发电设备指数</t>
-  </si>
-  <si>
-    <t>互联网指数</t>
-  </si>
-  <si>
-    <t>公路指数</t>
-  </si>
-  <si>
-    <t>海运指数</t>
-  </si>
-  <si>
-    <t>重型机械指数</t>
-  </si>
-  <si>
-    <t>休闲用品指数</t>
-  </si>
-  <si>
-    <t>汽车零部件指数</t>
-  </si>
-  <si>
-    <t>包装指数</t>
-  </si>
-  <si>
-    <t>化肥农药指数</t>
-  </si>
-  <si>
-    <t>软饮料指数</t>
-  </si>
-  <si>
-    <t>水务指数</t>
-  </si>
-  <si>
-    <t>软件指数</t>
-  </si>
-  <si>
-    <t>纺织服装指数</t>
-  </si>
-  <si>
-    <t>贸易指数</t>
-  </si>
-  <si>
-    <t>燃气指数</t>
-  </si>
-  <si>
-    <t>办公用品指数</t>
-  </si>
-  <si>
-    <t>教育指数</t>
-  </si>
-  <si>
-    <t>造纸指数</t>
-  </si>
-  <si>
-    <t>电子元器件指数</t>
-  </si>
-  <si>
-    <t>零售指数</t>
-  </si>
-  <si>
-    <t>航天军工指数</t>
-  </si>
-  <si>
-    <t>综合类指数</t>
-  </si>
-  <si>
-    <t>工业机械指数</t>
-  </si>
-  <si>
-    <t>电工电网指数</t>
-  </si>
-  <si>
-    <t>文化传媒指数</t>
-  </si>
-  <si>
-    <t>半导体指数</t>
-  </si>
-  <si>
-    <t>精细化工指数</t>
-  </si>
-  <si>
-    <t>林木指数</t>
-  </si>
-  <si>
-    <t>基本金属指数</t>
-  </si>
-  <si>
-    <t>商业服务指数</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
         <v>70</v>
       </c>
       <c r="C2">
-        <v>0.07162352540571204</v>
+        <v>0.04694101505036086</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -818,7 +818,7 @@
         <v>71</v>
       </c>
       <c r="C3">
-        <v>0.02651421928177822</v>
+        <v>0.04671938574277346</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -829,7 +829,7 @@
         <v>72</v>
       </c>
       <c r="C4">
-        <v>0.004289739783785551</v>
+        <v>0.03450368979305285</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -840,7 +840,7 @@
         <v>73</v>
       </c>
       <c r="C5">
-        <v>0.002148062023014097</v>
+        <v>0.03369619763524256</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -851,7 +851,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>0.002107829264565098</v>
+        <v>0.0314949481925344</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -862,7 +862,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>0.00135321046218384</v>
+        <v>0.03019818943911678</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -873,7 +873,7 @@
         <v>76</v>
       </c>
       <c r="C8">
-        <v>0.001091604377946975</v>
+        <v>0.0284485123895819</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -884,7 +884,7 @@
         <v>77</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.02826578613051023</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -895,7 +895,7 @@
         <v>78</v>
       </c>
       <c r="C10">
-        <v>-0.002891634691770784</v>
+        <v>0.02659385510892953</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -906,7 +906,7 @@
         <v>79</v>
       </c>
       <c r="C11">
-        <v>-0.008918553770986493</v>
+        <v>0.0256158633962249</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -917,7 +917,7 @@
         <v>80</v>
       </c>
       <c r="C12">
-        <v>-0.009354205961573547</v>
+        <v>0.02289459159482599</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -928,7 +928,7 @@
         <v>81</v>
       </c>
       <c r="C13">
-        <v>-0.00964003713750694</v>
+        <v>0.02123808579464015</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -939,7 +939,7 @@
         <v>82</v>
       </c>
       <c r="C14">
-        <v>-0.01120738432683344</v>
+        <v>0.01848817437365602</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -950,7 +950,7 @@
         <v>83</v>
       </c>
       <c r="C15">
-        <v>-0.01315044600090809</v>
+        <v>0.01811855401580198</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -961,7 +961,7 @@
         <v>84</v>
       </c>
       <c r="C16">
-        <v>-0.01536492696724323</v>
+        <v>0.01794722701289553</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -972,7 +972,7 @@
         <v>85</v>
       </c>
       <c r="C17">
-        <v>-0.01722599334604802</v>
+        <v>0.01582874233729448</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -983,7 +983,7 @@
         <v>86</v>
       </c>
       <c r="C18">
-        <v>-0.01912847425041964</v>
+        <v>0.0141313300924959</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -994,7 +994,7 @@
         <v>87</v>
       </c>
       <c r="C19">
-        <v>-0.02139933184254672</v>
+        <v>0.01302343864003563</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1005,7 +1005,7 @@
         <v>88</v>
       </c>
       <c r="C20">
-        <v>-0.02307745500251368</v>
+        <v>0.01247119302016086</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1016,7 +1016,7 @@
         <v>89</v>
       </c>
       <c r="C21">
-        <v>-0.02340132012226204</v>
+        <v>0.01221733934154212</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1027,7 +1027,7 @@
         <v>90</v>
       </c>
       <c r="C22">
-        <v>-0.02488775013701461</v>
+        <v>0.01207463972970957</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>91</v>
       </c>
       <c r="C23">
-        <v>-0.02492009095350045</v>
+        <v>0.01137302538464557</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>92</v>
       </c>
       <c r="C24">
-        <v>-0.02572935008201627</v>
+        <v>0.01095029496741073</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>93</v>
       </c>
       <c r="C25">
-        <v>-0.02574097910472506</v>
+        <v>0.01081223351105054</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1071,7 +1071,7 @@
         <v>94</v>
       </c>
       <c r="C26">
-        <v>-0.02625418732915896</v>
+        <v>0.009852009542534512</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>95</v>
       </c>
       <c r="C27">
-        <v>-0.02854406336779192</v>
+        <v>0.008694489146922946</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>96</v>
       </c>
       <c r="C28">
-        <v>-0.0285700751225153</v>
+        <v>0.008426422014718327</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>97</v>
       </c>
       <c r="C29">
-        <v>-0.02907745411835305</v>
+        <v>0.007802849486584051</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>98</v>
       </c>
       <c r="C30">
-        <v>-0.03043925003260417</v>
+        <v>0.007308442234922552</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1126,7 +1126,7 @@
         <v>99</v>
       </c>
       <c r="C31">
-        <v>-0.03190387917286297</v>
+        <v>0.006680556901911938</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>-0.03190884745177758</v>
+        <v>0.005873949723311123</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>101</v>
       </c>
       <c r="C33">
-        <v>-0.03234069724829791</v>
+        <v>0.005333165993174127</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>102</v>
       </c>
       <c r="C34">
-        <v>-0.03384009359924123</v>
+        <v>0.003602482381672711</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>103</v>
       </c>
       <c r="C35">
-        <v>-0.03384198897783197</v>
+        <v>0.003260580636784471</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1181,7 +1181,7 @@
         <v>104</v>
       </c>
       <c r="C36">
-        <v>-0.03575935266210595</v>
+        <v>0.00285863170213263</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>105</v>
       </c>
       <c r="C37">
-        <v>-0.03599926217491178</v>
+        <v>0.001570556036712079</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>106</v>
       </c>
       <c r="C38">
-        <v>-0.0363088962638447</v>
+        <v>0.001347964397349966</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="C39">
-        <v>-0.03687659767608076</v>
+        <v>0.0005295221322945132</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>108</v>
       </c>
       <c r="C40">
-        <v>-0.03717655654636631</v>
+        <v>9.745291516916055e-05</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>109</v>
       </c>
       <c r="C41">
-        <v>-0.03892262835606053</v>
+        <v>-0.0004913384135939447</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>110</v>
       </c>
       <c r="C42">
-        <v>-0.03907747565899933</v>
+        <v>-0.0009099030563310961</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>111</v>
       </c>
       <c r="C43">
-        <v>-0.0394568019476994</v>
+        <v>-0.0009310581024458697</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>112</v>
       </c>
       <c r="C44">
-        <v>-0.04006896899972368</v>
+        <v>-0.0009502076035944329</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>-0.0403832047150936</v>
+        <v>-0.001725477639523798</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1291,7 +1291,7 @@
         <v>114</v>
       </c>
       <c r="C46">
-        <v>-0.04140092309509003</v>
+        <v>-0.001927499277219136</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="C47">
-        <v>-0.04417820200862754</v>
+        <v>-0.002099513837210742</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>116</v>
       </c>
       <c r="C48">
-        <v>-0.04504926212713001</v>
+        <v>-0.003659071294633276</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>117</v>
       </c>
       <c r="C49">
-        <v>-0.0452044105550502</v>
+        <v>-0.004382530823517472</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>118</v>
       </c>
       <c r="C50">
-        <v>-0.04520825379313609</v>
+        <v>-0.004652743037418916</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>119</v>
       </c>
       <c r="C51">
-        <v>-0.04592972921778327</v>
+        <v>-0.007641082304603808</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>120</v>
       </c>
       <c r="C52">
-        <v>-0.04701557219997821</v>
+        <v>-0.00778232850637961</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1368,7 +1368,7 @@
         <v>121</v>
       </c>
       <c r="C53">
-        <v>-0.04846786598550079</v>
+        <v>-0.008537878988995717</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>122</v>
       </c>
       <c r="C54">
-        <v>-0.04851828488018151</v>
+        <v>-0.009235669217666609</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>123</v>
       </c>
       <c r="C55">
-        <v>-0.0497288819063465</v>
+        <v>-0.01155693383553391</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1401,7 +1401,7 @@
         <v>124</v>
       </c>
       <c r="C56">
-        <v>-0.05109638988676302</v>
+        <v>-0.01213703351154483</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>125</v>
       </c>
       <c r="C57">
-        <v>-0.0526292020939042</v>
+        <v>-0.01223998753447875</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>126</v>
       </c>
       <c r="C58">
-        <v>-0.05507983603986466</v>
+        <v>-0.01355456673433197</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>127</v>
       </c>
       <c r="C59">
-        <v>-0.05610017520011212</v>
+        <v>-0.01451467834831133</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>128</v>
       </c>
       <c r="C60">
-        <v>-0.05726233216800314</v>
+        <v>-0.0146704563842307</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>129</v>
       </c>
       <c r="C61">
-        <v>-0.05759701881926316</v>
+        <v>-0.01499827145570176</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>130</v>
       </c>
       <c r="C62">
-        <v>-0.05835638259062936</v>
+        <v>-0.01677597949082865</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>131</v>
       </c>
       <c r="C63">
-        <v>-0.05909845582408768</v>
+        <v>-0.01954706843636755</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>132</v>
       </c>
       <c r="C64">
-        <v>-0.05926280408899032</v>
+        <v>-0.02143827488208183</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>133</v>
       </c>
       <c r="C65">
-        <v>-0.06524603065541967</v>
+        <v>-0.02206024533251172</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>134</v>
       </c>
       <c r="C66">
-        <v>-0.06629568242813222</v>
+        <v>-0.02919511989343448</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>135</v>
       </c>
       <c r="C67">
-        <v>-0.075865120292814</v>
+        <v>-0.03536540917024433</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>136</v>
       </c>
       <c r="C68">
-        <v>-0.07948000878611206</v>
+        <v>-0.03672572437353416</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/主题.xlsx
+++ b/FOF/data/主题.xlsx
@@ -25,406 +25,406 @@
     <t>代码</t>
   </si>
   <si>
+    <t>886066.WI</t>
+  </si>
+  <si>
+    <t>886055.WI</t>
+  </si>
+  <si>
+    <t>886043.WI</t>
+  </si>
+  <si>
+    <t>886003.WI</t>
+  </si>
+  <si>
+    <t>886035.WI</t>
+  </si>
+  <si>
+    <t>886002.WI</t>
+  </si>
+  <si>
+    <t>886069.WI</t>
+  </si>
+  <si>
+    <t>886026.WI</t>
+  </si>
+  <si>
+    <t>886046.WI</t>
+  </si>
+  <si>
+    <t>886001.WI</t>
+  </si>
+  <si>
+    <t>886020.WI</t>
+  </si>
+  <si>
+    <t>886036.WI</t>
+  </si>
+  <si>
+    <t>886048.WI</t>
+  </si>
+  <si>
+    <t>886008.WI</t>
+  </si>
+  <si>
+    <t>886024.WI</t>
+  </si>
+  <si>
+    <t>886051.WI</t>
+  </si>
+  <si>
+    <t>886052.WI</t>
+  </si>
+  <si>
+    <t>886029.WI</t>
+  </si>
+  <si>
+    <t>886014.WI</t>
+  </si>
+  <si>
     <t>886025.WI</t>
   </si>
   <si>
-    <t>886043.WI</t>
-  </si>
-  <si>
-    <t>886035.WI</t>
-  </si>
-  <si>
-    <t>886029.WI</t>
-  </si>
-  <si>
-    <t>886066.WI</t>
+    <t>886018.WI</t>
+  </si>
+  <si>
+    <t>886028.WI</t>
+  </si>
+  <si>
+    <t>886013.WI</t>
+  </si>
+  <si>
+    <t>886045.WI</t>
+  </si>
+  <si>
+    <t>886062.WI</t>
+  </si>
+  <si>
+    <t>886065.WI</t>
+  </si>
+  <si>
+    <t>886060.WI</t>
+  </si>
+  <si>
+    <t>886039.WI</t>
+  </si>
+  <si>
+    <t>886034.WI</t>
+  </si>
+  <si>
+    <t>886049.WI</t>
+  </si>
+  <si>
+    <t>886006.WI</t>
+  </si>
+  <si>
+    <t>886057.WI</t>
   </si>
   <si>
     <t>886011.WI</t>
   </si>
   <si>
-    <t>886069.WI</t>
+    <t>886067.WI</t>
+  </si>
+  <si>
+    <t>886012.WI</t>
+  </si>
+  <si>
+    <t>886063.WI</t>
+  </si>
+  <si>
+    <t>886032.WI</t>
+  </si>
+  <si>
+    <t>886010.WI</t>
+  </si>
+  <si>
+    <t>886037.WI</t>
+  </si>
+  <si>
+    <t>886017.WI</t>
+  </si>
+  <si>
+    <t>886044.WI</t>
+  </si>
+  <si>
+    <t>886050.WI</t>
+  </si>
+  <si>
+    <t>886009.WI</t>
+  </si>
+  <si>
+    <t>886007.WI</t>
   </si>
   <si>
     <t>886040.WI</t>
   </si>
   <si>
-    <t>886018.WI</t>
-  </si>
-  <si>
-    <t>886063.WI</t>
+    <t>886016.WI</t>
   </si>
   <si>
     <t>886042.WI</t>
   </si>
   <si>
-    <t>886046.WI</t>
+    <t>886058.WI</t>
+  </si>
+  <si>
+    <t>886033.WI</t>
+  </si>
+  <si>
+    <t>886004.WI</t>
+  </si>
+  <si>
+    <t>886027.WI</t>
+  </si>
+  <si>
+    <t>886030.WI</t>
+  </si>
+  <si>
+    <t>886021.WI</t>
+  </si>
+  <si>
+    <t>886038.WI</t>
+  </si>
+  <si>
+    <t>886068.WI</t>
+  </si>
+  <si>
+    <t>886022.WI</t>
+  </si>
+  <si>
+    <t>886005.WI</t>
+  </si>
+  <si>
+    <t>886054.WI</t>
+  </si>
+  <si>
+    <t>886031.WI</t>
+  </si>
+  <si>
+    <t>886041.WI</t>
   </si>
   <si>
     <t>886059.WI</t>
   </si>
   <si>
-    <t>886049.WI</t>
-  </si>
-  <si>
-    <t>886045.WI</t>
-  </si>
-  <si>
-    <t>886034.WI</t>
-  </si>
-  <si>
-    <t>886033.WI</t>
-  </si>
-  <si>
-    <t>886048.WI</t>
-  </si>
-  <si>
-    <t>886051.WI</t>
-  </si>
-  <si>
-    <t>886005.WI</t>
-  </si>
-  <si>
-    <t>886024.WI</t>
-  </si>
-  <si>
-    <t>886058.WI</t>
-  </si>
-  <si>
-    <t>886068.WI</t>
-  </si>
-  <si>
-    <t>886006.WI</t>
+    <t>886019.WI</t>
+  </si>
+  <si>
+    <t>886053.WI</t>
   </si>
   <si>
     <t>886061.WI</t>
   </si>
   <si>
-    <t>886021.WI</t>
-  </si>
-  <si>
-    <t>886067.WI</t>
-  </si>
-  <si>
-    <t>886050.WI</t>
-  </si>
-  <si>
-    <t>886007.WI</t>
-  </si>
-  <si>
     <t>886015.WI</t>
   </si>
   <si>
-    <t>886041.WI</t>
-  </si>
-  <si>
-    <t>886060.WI</t>
-  </si>
-  <si>
-    <t>886001.WI</t>
-  </si>
-  <si>
-    <t>886010.WI</t>
-  </si>
-  <si>
-    <t>886013.WI</t>
-  </si>
-  <si>
     <t>886023.WI</t>
   </si>
   <si>
-    <t>886028.WI</t>
-  </si>
-  <si>
-    <t>886032.WI</t>
-  </si>
-  <si>
-    <t>886026.WI</t>
-  </si>
-  <si>
-    <t>886036.WI</t>
-  </si>
-  <si>
-    <t>886038.WI</t>
-  </si>
-  <si>
-    <t>886019.WI</t>
-  </si>
-  <si>
-    <t>886022.WI</t>
-  </si>
-  <si>
-    <t>886004.WI</t>
-  </si>
-  <si>
-    <t>886017.WI</t>
-  </si>
-  <si>
-    <t>886030.WI</t>
-  </si>
-  <si>
-    <t>886065.WI</t>
-  </si>
-  <si>
-    <t>886009.WI</t>
-  </si>
-  <si>
-    <t>886027.WI</t>
-  </si>
-  <si>
-    <t>886037.WI</t>
-  </si>
-  <si>
-    <t>886014.WI</t>
-  </si>
-  <si>
-    <t>886020.WI</t>
-  </si>
-  <si>
-    <t>886062.WI</t>
-  </si>
-  <si>
-    <t>886044.WI</t>
-  </si>
-  <si>
-    <t>886002.WI</t>
-  </si>
-  <si>
-    <t>886031.WI</t>
-  </si>
-  <si>
-    <t>886057.WI</t>
-  </si>
-  <si>
-    <t>886016.WI</t>
-  </si>
-  <si>
-    <t>886039.WI</t>
-  </si>
-  <si>
-    <t>886008.WI</t>
-  </si>
-  <si>
-    <t>886003.WI</t>
-  </si>
-  <si>
-    <t>886055.WI</t>
-  </si>
-  <si>
-    <t>886053.WI</t>
-  </si>
-  <si>
-    <t>886052.WI</t>
-  </si>
-  <si>
-    <t>886012.WI</t>
-  </si>
-  <si>
     <t>886064.WI</t>
   </si>
   <si>
-    <t>886054.WI</t>
+    <t>燃气指数</t>
+  </si>
+  <si>
+    <t>保险指数</t>
+  </si>
+  <si>
+    <t>酒类指数</t>
+  </si>
+  <si>
+    <t>煤炭指数</t>
+  </si>
+  <si>
+    <t>家用电器指数</t>
+  </si>
+  <si>
+    <t>石油天然气指数</t>
+  </si>
+  <si>
+    <t>石油化工指数</t>
+  </si>
+  <si>
+    <t>航空指数</t>
+  </si>
+  <si>
+    <t>食品指数</t>
+  </si>
+  <si>
+    <t>能源设备指数</t>
+  </si>
+  <si>
+    <t>重型机械指数</t>
+  </si>
+  <si>
+    <t>家居用品指数</t>
+  </si>
+  <si>
+    <t>日用化工指数</t>
+  </si>
+  <si>
+    <t>建材指数</t>
+  </si>
+  <si>
+    <t>环保指数</t>
+  </si>
+  <si>
+    <t>制药指数</t>
+  </si>
+  <si>
+    <t>银行指数</t>
+  </si>
+  <si>
+    <t>机场指数</t>
+  </si>
+  <si>
+    <t>造纸指数</t>
   </si>
   <si>
     <t>办公用品指数</t>
   </si>
   <si>
-    <t>酒类指数</t>
-  </si>
-  <si>
-    <t>家用电器指数</t>
-  </si>
-  <si>
-    <t>机场指数</t>
-  </si>
-  <si>
-    <t>燃气指数</t>
+    <t>发电设备指数</t>
+  </si>
+  <si>
+    <t>陆路运输指数</t>
+  </si>
+  <si>
+    <t>林木指数</t>
+  </si>
+  <si>
+    <t>农业指数</t>
+  </si>
+  <si>
+    <t>电子元器件指数</t>
+  </si>
+  <si>
+    <t>电力指数</t>
+  </si>
+  <si>
+    <t>通信设备指数</t>
+  </si>
+  <si>
+    <t>餐饮旅游指数</t>
+  </si>
+  <si>
+    <t>摩托车指数</t>
+  </si>
+  <si>
+    <t>医疗保健指数</t>
+  </si>
+  <si>
+    <t>精细化工指数</t>
+  </si>
+  <si>
+    <t>房地产指数</t>
   </si>
   <si>
     <t>贵金属指数</t>
   </si>
   <si>
-    <t>石油化工指数</t>
+    <t>水务指数</t>
+  </si>
+  <si>
+    <t>钢铁指数</t>
+  </si>
+  <si>
+    <t>半导体指数</t>
+  </si>
+  <si>
+    <t>汽车零部件指数</t>
+  </si>
+  <si>
+    <t>基本金属指数</t>
+  </si>
+  <si>
+    <t>休闲用品指数</t>
+  </si>
+  <si>
+    <t>电工电网指数</t>
+  </si>
+  <si>
+    <t>软饮料指数</t>
+  </si>
+  <si>
+    <t>生物科技指数</t>
+  </si>
+  <si>
+    <t>包装指数</t>
+  </si>
+  <si>
+    <t>化肥农药指数</t>
   </si>
   <si>
     <t>教育指数</t>
   </si>
   <si>
-    <t>发电设备指数</t>
-  </si>
-  <si>
-    <t>半导体指数</t>
+    <t>建筑指数</t>
   </si>
   <si>
     <t>零售指数</t>
   </si>
   <si>
-    <t>食品指数</t>
+    <t>互联网指数</t>
+  </si>
+  <si>
+    <t>汽车指数</t>
+  </si>
+  <si>
+    <t>化工原料指数</t>
+  </si>
+  <si>
+    <t>海运指数</t>
+  </si>
+  <si>
+    <t>公路指数</t>
+  </si>
+  <si>
+    <t>工业机械指数</t>
+  </si>
+  <si>
+    <t>纺织服装指数</t>
+  </si>
+  <si>
+    <t>工程机械指数</t>
+  </si>
+  <si>
+    <t>贸易指数</t>
+  </si>
+  <si>
+    <t>化纤指数</t>
+  </si>
+  <si>
+    <t>券商指数</t>
+  </si>
+  <si>
+    <t>港口指数</t>
+  </si>
+  <si>
+    <t>文化传媒指数</t>
   </si>
   <si>
     <t>软件指数</t>
   </si>
   <si>
-    <t>医疗保健指数</t>
-  </si>
-  <si>
-    <t>农业指数</t>
-  </si>
-  <si>
-    <t>摩托车指数</t>
-  </si>
-  <si>
-    <t>汽车指数</t>
-  </si>
-  <si>
-    <t>日用化工指数</t>
-  </si>
-  <si>
-    <t>制药指数</t>
-  </si>
-  <si>
-    <t>化纤指数</t>
-  </si>
-  <si>
-    <t>环保指数</t>
-  </si>
-  <si>
-    <t>互联网指数</t>
-  </si>
-  <si>
-    <t>工程机械指数</t>
-  </si>
-  <si>
-    <t>精细化工指数</t>
+    <t>综合类指数</t>
+  </si>
+  <si>
+    <t>多元金融指数</t>
   </si>
   <si>
     <t>电脑硬件指数</t>
   </si>
   <si>
-    <t>工业机械指数</t>
-  </si>
-  <si>
-    <t>水务指数</t>
-  </si>
-  <si>
-    <t>生物科技指数</t>
-  </si>
-  <si>
-    <t>化肥农药指数</t>
-  </si>
-  <si>
     <t>航天军工指数</t>
   </si>
   <si>
-    <t>文化传媒指数</t>
-  </si>
-  <si>
-    <t>通信设备指数</t>
-  </si>
-  <si>
-    <t>能源设备指数</t>
-  </si>
-  <si>
-    <t>基本金属指数</t>
-  </si>
-  <si>
-    <t>林木指数</t>
-  </si>
-  <si>
     <t>商业服务指数</t>
   </si>
   <si>
-    <t>陆路运输指数</t>
-  </si>
-  <si>
-    <t>汽车零部件指数</t>
-  </si>
-  <si>
-    <t>航空指数</t>
-  </si>
-  <si>
-    <t>家居用品指数</t>
-  </si>
-  <si>
-    <t>纺织服装指数</t>
-  </si>
-  <si>
-    <t>综合类指数</t>
-  </si>
-  <si>
-    <t>贸易指数</t>
-  </si>
-  <si>
-    <t>化工原料指数</t>
-  </si>
-  <si>
-    <t>电工电网指数</t>
-  </si>
-  <si>
-    <t>公路指数</t>
-  </si>
-  <si>
-    <t>电力指数</t>
-  </si>
-  <si>
-    <t>包装指数</t>
-  </si>
-  <si>
-    <t>海运指数</t>
-  </si>
-  <si>
-    <t>休闲用品指数</t>
-  </si>
-  <si>
-    <t>造纸指数</t>
-  </si>
-  <si>
-    <t>重型机械指数</t>
-  </si>
-  <si>
-    <t>电子元器件指数</t>
-  </si>
-  <si>
-    <t>软饮料指数</t>
-  </si>
-  <si>
-    <t>石油天然气指数</t>
-  </si>
-  <si>
-    <t>港口指数</t>
-  </si>
-  <si>
-    <t>房地产指数</t>
-  </si>
-  <si>
-    <t>建筑指数</t>
-  </si>
-  <si>
-    <t>餐饮旅游指数</t>
-  </si>
-  <si>
-    <t>建材指数</t>
-  </si>
-  <si>
-    <t>煤炭指数</t>
-  </si>
-  <si>
-    <t>保险指数</t>
-  </si>
-  <si>
-    <t>多元金融指数</t>
-  </si>
-  <si>
-    <t>银行指数</t>
-  </si>
-  <si>
-    <t>钢铁指数</t>
-  </si>
-  <si>
     <t>电信指数</t>
-  </si>
-  <si>
-    <t>券商指数</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
         <v>70</v>
       </c>
       <c r="C2">
-        <v>0.04694101505036086</v>
+        <v>0.07073956302503515</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -818,7 +818,7 @@
         <v>71</v>
       </c>
       <c r="C3">
-        <v>0.04671938574277346</v>
+        <v>0.05199781290628946</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -829,7 +829,7 @@
         <v>72</v>
       </c>
       <c r="C4">
-        <v>0.03450368979305285</v>
+        <v>0.04658333404985426</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -840,7 +840,7 @@
         <v>73</v>
       </c>
       <c r="C5">
-        <v>0.03369619763524256</v>
+        <v>0.04002379658299082</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -851,7 +851,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>0.0314949481925344</v>
+        <v>0.0335024059537492</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -862,7 +862,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>0.03019818943911678</v>
+        <v>0.03214396721611035</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -873,7 +873,7 @@
         <v>76</v>
       </c>
       <c r="C8">
-        <v>0.0284485123895819</v>
+        <v>0.03109247256170788</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -884,7 +884,7 @@
         <v>77</v>
       </c>
       <c r="C9">
-        <v>0.02826578613051023</v>
+        <v>0.02421156277641945</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -895,7 +895,7 @@
         <v>78</v>
       </c>
       <c r="C10">
-        <v>0.02659385510892953</v>
+        <v>0.02261832499838512</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -906,7 +906,7 @@
         <v>79</v>
       </c>
       <c r="C11">
-        <v>0.0256158633962249</v>
+        <v>0.02214930005640925</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -917,7 +917,7 @@
         <v>80</v>
       </c>
       <c r="C12">
-        <v>0.02289459159482599</v>
+        <v>0.0215561328065399</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -928,7 +928,7 @@
         <v>81</v>
       </c>
       <c r="C13">
-        <v>0.02123808579464015</v>
+        <v>0.02052966636980735</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -939,7 +939,7 @@
         <v>82</v>
       </c>
       <c r="C14">
-        <v>0.01848817437365602</v>
+        <v>0.01677636601430366</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -950,7 +950,7 @@
         <v>83</v>
       </c>
       <c r="C15">
-        <v>0.01811855401580198</v>
+        <v>0.01653759658660636</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -961,7 +961,7 @@
         <v>84</v>
       </c>
       <c r="C16">
-        <v>0.01794722701289553</v>
+        <v>0.01516644943767087</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -972,7 +972,7 @@
         <v>85</v>
       </c>
       <c r="C17">
-        <v>0.01582874233729448</v>
+        <v>0.0134378851674366</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -983,7 +983,7 @@
         <v>86</v>
       </c>
       <c r="C18">
-        <v>0.0141313300924959</v>
+        <v>0.0127689412754175</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -994,7 +994,7 @@
         <v>87</v>
       </c>
       <c r="C19">
-        <v>0.01302343864003563</v>
+        <v>0.01131777478534879</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1005,7 +1005,7 @@
         <v>88</v>
       </c>
       <c r="C20">
-        <v>0.01247119302016086</v>
+        <v>0.010903199898461</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1016,7 +1016,7 @@
         <v>89</v>
       </c>
       <c r="C21">
-        <v>0.01221733934154212</v>
+        <v>0.01058764700631665</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1027,7 +1027,7 @@
         <v>90</v>
       </c>
       <c r="C22">
-        <v>0.01207463972970957</v>
+        <v>0.009409459164483769</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>91</v>
       </c>
       <c r="C23">
-        <v>0.01137302538464557</v>
+        <v>0.009055730775057169</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>92</v>
       </c>
       <c r="C24">
-        <v>0.01095029496741073</v>
+        <v>0.008195366056179321</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>93</v>
       </c>
       <c r="C25">
-        <v>0.01081223351105054</v>
+        <v>0.007415464073393663</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1071,7 +1071,7 @@
         <v>94</v>
       </c>
       <c r="C26">
-        <v>0.009852009542534512</v>
+        <v>0.006984216990342906</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>95</v>
       </c>
       <c r="C27">
-        <v>0.008694489146922946</v>
+        <v>0.00675867556966625</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>96</v>
       </c>
       <c r="C28">
-        <v>0.008426422014718327</v>
+        <v>0.006521962771187884</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>97</v>
       </c>
       <c r="C29">
-        <v>0.007802849486584051</v>
+        <v>0.005438839918453731</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>98</v>
       </c>
       <c r="C30">
-        <v>0.007308442234922552</v>
+        <v>0.003861570058936614</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1126,7 +1126,7 @@
         <v>99</v>
       </c>
       <c r="C31">
-        <v>0.006680556901911938</v>
+        <v>0.003667236955367859</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>0.005873949723311123</v>
+        <v>0.003493112346830252</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>101</v>
       </c>
       <c r="C33">
-        <v>0.005333165993174127</v>
+        <v>0.002837827065782061</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>102</v>
       </c>
       <c r="C34">
-        <v>0.003602482381672711</v>
+        <v>0.001288570308381809</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>103</v>
       </c>
       <c r="C35">
-        <v>0.003260580636784471</v>
+        <v>0.0008389847364134173</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1181,7 +1181,7 @@
         <v>104</v>
       </c>
       <c r="C36">
-        <v>0.00285863170213263</v>
+        <v>-0.0003175227143630277</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>105</v>
       </c>
       <c r="C37">
-        <v>0.001570556036712079</v>
+        <v>-0.0007952033820474158</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>106</v>
       </c>
       <c r="C38">
-        <v>0.001347964397349966</v>
+        <v>-0.000897274286176919</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="C39">
-        <v>0.0005295221322945132</v>
+        <v>-0.001005302115770212</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>108</v>
       </c>
       <c r="C40">
-        <v>9.745291516916055e-05</v>
+        <v>-0.001747790929015114</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>109</v>
       </c>
       <c r="C41">
-        <v>-0.0004913384135939447</v>
+        <v>-0.003727318909684474</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>110</v>
       </c>
       <c r="C42">
-        <v>-0.0009099030563310961</v>
+        <v>-0.003883364712214288</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>111</v>
       </c>
       <c r="C43">
-        <v>-0.0009310581024458697</v>
+        <v>-0.004411487719098051</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>112</v>
       </c>
       <c r="C44">
-        <v>-0.0009502076035944329</v>
+        <v>-0.004476050829661848</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>-0.001725477639523798</v>
+        <v>-0.004502814987181525</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1291,7 +1291,7 @@
         <v>114</v>
       </c>
       <c r="C46">
-        <v>-0.001927499277219136</v>
+        <v>-0.007225340164211946</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="C47">
-        <v>-0.002099513837210742</v>
+        <v>-0.008342367282647811</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>116</v>
       </c>
       <c r="C48">
-        <v>-0.003659071294633276</v>
+        <v>-0.008876440982964917</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>117</v>
       </c>
       <c r="C49">
-        <v>-0.004382530823517472</v>
+        <v>-0.008956870988369503</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>118</v>
       </c>
       <c r="C50">
-        <v>-0.004652743037418916</v>
+        <v>-0.009221329012690904</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>119</v>
       </c>
       <c r="C51">
-        <v>-0.007641082304603808</v>
+        <v>-0.009492138152904284</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>120</v>
       </c>
       <c r="C52">
-        <v>-0.00778232850637961</v>
+        <v>-0.00971584835303374</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1368,7 +1368,7 @@
         <v>121</v>
       </c>
       <c r="C53">
-        <v>-0.008537878988995717</v>
+        <v>-0.009861904780708364</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>122</v>
       </c>
       <c r="C54">
-        <v>-0.009235669217666609</v>
+        <v>-0.009882307888540054</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>123</v>
       </c>
       <c r="C55">
-        <v>-0.01155693383553391</v>
+        <v>-0.01043660492683551</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1401,7 +1401,7 @@
         <v>124</v>
       </c>
       <c r="C56">
-        <v>-0.01213703351154483</v>
+        <v>-0.01289769290638965</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>125</v>
       </c>
       <c r="C57">
-        <v>-0.01223998753447875</v>
+        <v>-0.01307184501535585</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>126</v>
       </c>
       <c r="C58">
-        <v>-0.01355456673433197</v>
+        <v>-0.01463011909745637</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>127</v>
       </c>
       <c r="C59">
-        <v>-0.01451467834831133</v>
+        <v>-0.01742969949253059</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>128</v>
       </c>
       <c r="C60">
-        <v>-0.0146704563842307</v>
+        <v>-0.01763982579848566</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>129</v>
       </c>
       <c r="C61">
-        <v>-0.01499827145570176</v>
+        <v>-0.0194845416580598</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>130</v>
       </c>
       <c r="C62">
-        <v>-0.01677597949082865</v>
+        <v>-0.01972167741182029</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>131</v>
       </c>
       <c r="C63">
-        <v>-0.01954706843636755</v>
+        <v>-0.02023774205410289</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>132</v>
       </c>
       <c r="C64">
-        <v>-0.02143827488208183</v>
+        <v>-0.02136497433865858</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>133</v>
       </c>
       <c r="C65">
-        <v>-0.02206024533251172</v>
+        <v>-0.02344287296601444</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>134</v>
       </c>
       <c r="C66">
-        <v>-0.02919511989343448</v>
+        <v>-0.02374652970130198</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>135</v>
       </c>
       <c r="C67">
-        <v>-0.03536540917024433</v>
+        <v>-0.02477359848689731</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>136</v>
       </c>
       <c r="C68">
-        <v>-0.03672572437353416</v>
+        <v>-0.04295004481022924</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/主题.xlsx
+++ b/FOF/data/主题.xlsx
@@ -25,43 +25,196 @@
     <t>代码</t>
   </si>
   <si>
+    <t>886043.WI</t>
+  </si>
+  <si>
+    <t>886035.WI</t>
+  </si>
+  <si>
+    <t>886044.WI</t>
+  </si>
+  <si>
+    <t>886055.WI</t>
+  </si>
+  <si>
+    <t>886057.WI</t>
+  </si>
+  <si>
+    <t>886033.WI</t>
+  </si>
+  <si>
+    <t>886052.WI</t>
+  </si>
+  <si>
+    <t>886059.WI</t>
+  </si>
+  <si>
+    <t>886046.WI</t>
+  </si>
+  <si>
+    <t>886051.WI</t>
+  </si>
+  <si>
+    <t>886014.WI</t>
+  </si>
+  <si>
+    <t>886045.WI</t>
+  </si>
+  <si>
+    <t>886011.WI</t>
+  </si>
+  <si>
     <t>886066.WI</t>
   </si>
   <si>
-    <t>886055.WI</t>
-  </si>
-  <si>
-    <t>886043.WI</t>
+    <t>886058.WI</t>
+  </si>
+  <si>
+    <t>886061.WI</t>
+  </si>
+  <si>
+    <t>886049.WI</t>
   </si>
   <si>
     <t>886003.WI</t>
   </si>
   <si>
-    <t>886035.WI</t>
+    <t>886025.WI</t>
+  </si>
+  <si>
+    <t>886062.WI</t>
+  </si>
+  <si>
+    <t>886027.WI</t>
   </si>
   <si>
     <t>886002.WI</t>
   </si>
   <si>
+    <t>886054.WI</t>
+  </si>
+  <si>
+    <t>886039.WI</t>
+  </si>
+  <si>
+    <t>886029.WI</t>
+  </si>
+  <si>
+    <t>886036.WI</t>
+  </si>
+  <si>
+    <t>886050.WI</t>
+  </si>
+  <si>
+    <t>886028.WI</t>
+  </si>
+  <si>
+    <t>886012.WI</t>
+  </si>
+  <si>
+    <t>886001.WI</t>
+  </si>
+  <si>
+    <t>886010.WI</t>
+  </si>
+  <si>
+    <t>886022.WI</t>
+  </si>
+  <si>
+    <t>886026.WI</t>
+  </si>
+  <si>
+    <t>886034.WI</t>
+  </si>
+  <si>
+    <t>886023.WI</t>
+  </si>
+  <si>
+    <t>886007.WI</t>
+  </si>
+  <si>
+    <t>886005.WI</t>
+  </si>
+  <si>
+    <t>886053.WI</t>
+  </si>
+  <si>
+    <t>886048.WI</t>
+  </si>
+  <si>
+    <t>886013.WI</t>
+  </si>
+  <si>
+    <t>886032.WI</t>
+  </si>
+  <si>
+    <t>886042.WI</t>
+  </si>
+  <si>
+    <t>886065.WI</t>
+  </si>
+  <si>
     <t>886069.WI</t>
   </si>
   <si>
-    <t>886026.WI</t>
-  </si>
-  <si>
-    <t>886046.WI</t>
-  </si>
-  <si>
-    <t>886001.WI</t>
+    <t>886037.WI</t>
+  </si>
+  <si>
+    <t>886038.WI</t>
+  </si>
+  <si>
+    <t>886040.WI</t>
+  </si>
+  <si>
+    <t>886030.WI</t>
+  </si>
+  <si>
+    <t>886041.WI</t>
   </si>
   <si>
     <t>886020.WI</t>
   </si>
   <si>
-    <t>886036.WI</t>
-  </si>
-  <si>
-    <t>886048.WI</t>
+    <t>886031.WI</t>
+  </si>
+  <si>
+    <t>886017.WI</t>
+  </si>
+  <si>
+    <t>886016.WI</t>
+  </si>
+  <si>
+    <t>886006.WI</t>
+  </si>
+  <si>
+    <t>886004.WI</t>
+  </si>
+  <si>
+    <t>886015.WI</t>
+  </si>
+  <si>
+    <t>886018.WI</t>
+  </si>
+  <si>
+    <t>886067.WI</t>
+  </si>
+  <si>
+    <t>886009.WI</t>
+  </si>
+  <si>
+    <t>886021.WI</t>
+  </si>
+  <si>
+    <t>886019.WI</t>
+  </si>
+  <si>
+    <t>886068.WI</t>
+  </si>
+  <si>
+    <t>886064.WI</t>
+  </si>
+  <si>
+    <t>886060.WI</t>
   </si>
   <si>
     <t>886008.WI</t>
@@ -70,199 +223,199 @@
     <t>886024.WI</t>
   </si>
   <si>
-    <t>886051.WI</t>
-  </si>
-  <si>
-    <t>886052.WI</t>
-  </si>
-  <si>
-    <t>886029.WI</t>
-  </si>
-  <si>
-    <t>886014.WI</t>
-  </si>
-  <si>
-    <t>886025.WI</t>
-  </si>
-  <si>
-    <t>886018.WI</t>
-  </si>
-  <si>
-    <t>886028.WI</t>
-  </si>
-  <si>
-    <t>886013.WI</t>
-  </si>
-  <si>
-    <t>886045.WI</t>
-  </si>
-  <si>
-    <t>886062.WI</t>
-  </si>
-  <si>
-    <t>886065.WI</t>
-  </si>
-  <si>
-    <t>886060.WI</t>
-  </si>
-  <si>
-    <t>886039.WI</t>
-  </si>
-  <si>
-    <t>886034.WI</t>
-  </si>
-  <si>
-    <t>886049.WI</t>
-  </si>
-  <si>
-    <t>886006.WI</t>
-  </si>
-  <si>
-    <t>886057.WI</t>
-  </si>
-  <si>
-    <t>886011.WI</t>
-  </si>
-  <si>
-    <t>886067.WI</t>
-  </si>
-  <si>
-    <t>886012.WI</t>
-  </si>
-  <si>
     <t>886063.WI</t>
   </si>
   <si>
-    <t>886032.WI</t>
-  </si>
-  <si>
-    <t>886010.WI</t>
-  </si>
-  <si>
-    <t>886037.WI</t>
-  </si>
-  <si>
-    <t>886017.WI</t>
-  </si>
-  <si>
-    <t>886044.WI</t>
-  </si>
-  <si>
-    <t>886050.WI</t>
-  </si>
-  <si>
-    <t>886009.WI</t>
-  </si>
-  <si>
-    <t>886007.WI</t>
-  </si>
-  <si>
-    <t>886040.WI</t>
-  </si>
-  <si>
-    <t>886016.WI</t>
-  </si>
-  <si>
-    <t>886042.WI</t>
-  </si>
-  <si>
-    <t>886058.WI</t>
-  </si>
-  <si>
-    <t>886033.WI</t>
-  </si>
-  <si>
-    <t>886004.WI</t>
-  </si>
-  <si>
-    <t>886027.WI</t>
-  </si>
-  <si>
-    <t>886030.WI</t>
-  </si>
-  <si>
-    <t>886021.WI</t>
-  </si>
-  <si>
-    <t>886038.WI</t>
-  </si>
-  <si>
-    <t>886068.WI</t>
-  </si>
-  <si>
-    <t>886022.WI</t>
-  </si>
-  <si>
-    <t>886005.WI</t>
-  </si>
-  <si>
-    <t>886054.WI</t>
-  </si>
-  <si>
-    <t>886031.WI</t>
-  </si>
-  <si>
-    <t>886041.WI</t>
-  </si>
-  <si>
-    <t>886059.WI</t>
-  </si>
-  <si>
-    <t>886019.WI</t>
-  </si>
-  <si>
-    <t>886053.WI</t>
-  </si>
-  <si>
-    <t>886061.WI</t>
-  </si>
-  <si>
-    <t>886015.WI</t>
-  </si>
-  <si>
-    <t>886023.WI</t>
-  </si>
-  <si>
-    <t>886064.WI</t>
+    <t>酒类指数</t>
+  </si>
+  <si>
+    <t>家用电器指数</t>
+  </si>
+  <si>
+    <t>软饮料指数</t>
+  </si>
+  <si>
+    <t>保险指数</t>
+  </si>
+  <si>
+    <t>房地产指数</t>
+  </si>
+  <si>
+    <t>汽车指数</t>
+  </si>
+  <si>
+    <t>银行指数</t>
+  </si>
+  <si>
+    <t>软件指数</t>
+  </si>
+  <si>
+    <t>食品指数</t>
+  </si>
+  <si>
+    <t>制药指数</t>
+  </si>
+  <si>
+    <t>造纸指数</t>
+  </si>
+  <si>
+    <t>农业指数</t>
+  </si>
+  <si>
+    <t>贵金属指数</t>
   </si>
   <si>
     <t>燃气指数</t>
   </si>
   <si>
-    <t>保险指数</t>
-  </si>
-  <si>
-    <t>酒类指数</t>
+    <t>互联网指数</t>
+  </si>
+  <si>
+    <t>电脑硬件指数</t>
+  </si>
+  <si>
+    <t>医疗保健指数</t>
   </si>
   <si>
     <t>煤炭指数</t>
   </si>
   <si>
-    <t>家用电器指数</t>
+    <t>办公用品指数</t>
+  </si>
+  <si>
+    <t>电子元器件指数</t>
+  </si>
+  <si>
+    <t>海运指数</t>
   </si>
   <si>
     <t>石油天然气指数</t>
   </si>
   <si>
+    <t>券商指数</t>
+  </si>
+  <si>
+    <t>餐饮旅游指数</t>
+  </si>
+  <si>
+    <t>机场指数</t>
+  </si>
+  <si>
+    <t>家居用品指数</t>
+  </si>
+  <si>
+    <t>生物科技指数</t>
+  </si>
+  <si>
+    <t>陆路运输指数</t>
+  </si>
+  <si>
+    <t>钢铁指数</t>
+  </si>
+  <si>
+    <t>能源设备指数</t>
+  </si>
+  <si>
+    <t>基本金属指数</t>
+  </si>
+  <si>
+    <t>贸易指数</t>
+  </si>
+  <si>
+    <t>航空指数</t>
+  </si>
+  <si>
+    <t>摩托车指数</t>
+  </si>
+  <si>
+    <t>商业服务指数</t>
+  </si>
+  <si>
+    <t>化肥农药指数</t>
+  </si>
+  <si>
+    <t>化纤指数</t>
+  </si>
+  <si>
+    <t>多元金融指数</t>
+  </si>
+  <si>
+    <t>日用化工指数</t>
+  </si>
+  <si>
+    <t>林木指数</t>
+  </si>
+  <si>
+    <t>汽车零部件指数</t>
+  </si>
+  <si>
+    <t>零售指数</t>
+  </si>
+  <si>
+    <t>电力指数</t>
+  </si>
+  <si>
     <t>石油化工指数</t>
   </si>
   <si>
-    <t>航空指数</t>
-  </si>
-  <si>
-    <t>食品指数</t>
-  </si>
-  <si>
-    <t>能源设备指数</t>
+    <t>休闲用品指数</t>
+  </si>
+  <si>
+    <t>纺织服装指数</t>
+  </si>
+  <si>
+    <t>教育指数</t>
+  </si>
+  <si>
+    <t>公路指数</t>
+  </si>
+  <si>
+    <t>文化传媒指数</t>
   </si>
   <si>
     <t>重型机械指数</t>
   </si>
   <si>
-    <t>家居用品指数</t>
-  </si>
-  <si>
-    <t>日用化工指数</t>
+    <t>港口指数</t>
+  </si>
+  <si>
+    <t>电工电网指数</t>
+  </si>
+  <si>
+    <t>建筑指数</t>
+  </si>
+  <si>
+    <t>精细化工指数</t>
+  </si>
+  <si>
+    <t>化工原料指数</t>
+  </si>
+  <si>
+    <t>航天军工指数</t>
+  </si>
+  <si>
+    <t>发电设备指数</t>
+  </si>
+  <si>
+    <t>水务指数</t>
+  </si>
+  <si>
+    <t>包装指数</t>
+  </si>
+  <si>
+    <t>工业机械指数</t>
+  </si>
+  <si>
+    <t>综合类指数</t>
+  </si>
+  <si>
+    <t>工程机械指数</t>
+  </si>
+  <si>
+    <t>电信指数</t>
+  </si>
+  <si>
+    <t>通信设备指数</t>
   </si>
   <si>
     <t>建材指数</t>
@@ -271,160 +424,7 @@
     <t>环保指数</t>
   </si>
   <si>
-    <t>制药指数</t>
-  </si>
-  <si>
-    <t>银行指数</t>
-  </si>
-  <si>
-    <t>机场指数</t>
-  </si>
-  <si>
-    <t>造纸指数</t>
-  </si>
-  <si>
-    <t>办公用品指数</t>
-  </si>
-  <si>
-    <t>发电设备指数</t>
-  </si>
-  <si>
-    <t>陆路运输指数</t>
-  </si>
-  <si>
-    <t>林木指数</t>
-  </si>
-  <si>
-    <t>农业指数</t>
-  </si>
-  <si>
-    <t>电子元器件指数</t>
-  </si>
-  <si>
-    <t>电力指数</t>
-  </si>
-  <si>
-    <t>通信设备指数</t>
-  </si>
-  <si>
-    <t>餐饮旅游指数</t>
-  </si>
-  <si>
-    <t>摩托车指数</t>
-  </si>
-  <si>
-    <t>医疗保健指数</t>
-  </si>
-  <si>
-    <t>精细化工指数</t>
-  </si>
-  <si>
-    <t>房地产指数</t>
-  </si>
-  <si>
-    <t>贵金属指数</t>
-  </si>
-  <si>
-    <t>水务指数</t>
-  </si>
-  <si>
-    <t>钢铁指数</t>
-  </si>
-  <si>
     <t>半导体指数</t>
-  </si>
-  <si>
-    <t>汽车零部件指数</t>
-  </si>
-  <si>
-    <t>基本金属指数</t>
-  </si>
-  <si>
-    <t>休闲用品指数</t>
-  </si>
-  <si>
-    <t>电工电网指数</t>
-  </si>
-  <si>
-    <t>软饮料指数</t>
-  </si>
-  <si>
-    <t>生物科技指数</t>
-  </si>
-  <si>
-    <t>包装指数</t>
-  </si>
-  <si>
-    <t>化肥农药指数</t>
-  </si>
-  <si>
-    <t>教育指数</t>
-  </si>
-  <si>
-    <t>建筑指数</t>
-  </si>
-  <si>
-    <t>零售指数</t>
-  </si>
-  <si>
-    <t>互联网指数</t>
-  </si>
-  <si>
-    <t>汽车指数</t>
-  </si>
-  <si>
-    <t>化工原料指数</t>
-  </si>
-  <si>
-    <t>海运指数</t>
-  </si>
-  <si>
-    <t>公路指数</t>
-  </si>
-  <si>
-    <t>工业机械指数</t>
-  </si>
-  <si>
-    <t>纺织服装指数</t>
-  </si>
-  <si>
-    <t>工程机械指数</t>
-  </si>
-  <si>
-    <t>贸易指数</t>
-  </si>
-  <si>
-    <t>化纤指数</t>
-  </si>
-  <si>
-    <t>券商指数</t>
-  </si>
-  <si>
-    <t>港口指数</t>
-  </si>
-  <si>
-    <t>文化传媒指数</t>
-  </si>
-  <si>
-    <t>软件指数</t>
-  </si>
-  <si>
-    <t>综合类指数</t>
-  </si>
-  <si>
-    <t>多元金融指数</t>
-  </si>
-  <si>
-    <t>电脑硬件指数</t>
-  </si>
-  <si>
-    <t>航天军工指数</t>
-  </si>
-  <si>
-    <t>商业服务指数</t>
-  </si>
-  <si>
-    <t>电信指数</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
         <v>70</v>
       </c>
       <c r="C2">
-        <v>0.07073956302503515</v>
+        <v>0.06453888085593884</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -818,7 +818,7 @@
         <v>71</v>
       </c>
       <c r="C3">
-        <v>0.05199781290628946</v>
+        <v>0.05929670459539249</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -829,7 +829,7 @@
         <v>72</v>
       </c>
       <c r="C4">
-        <v>0.04658333404985426</v>
+        <v>0.0572915922294488</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -840,7 +840,7 @@
         <v>73</v>
       </c>
       <c r="C5">
-        <v>0.04002379658299082</v>
+        <v>0.04047035429840729</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -851,7 +851,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>0.0335024059537492</v>
+        <v>0.03034662621851081</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -862,7 +862,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>0.03214396721611035</v>
+        <v>0.02962401489937183</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -873,7 +873,7 @@
         <v>76</v>
       </c>
       <c r="C8">
-        <v>0.03109247256170788</v>
+        <v>0.0268147315173668</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -884,7 +884,7 @@
         <v>77</v>
       </c>
       <c r="C9">
-        <v>0.02421156277641945</v>
+        <v>0.02348500932114383</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -895,7 +895,7 @@
         <v>78</v>
       </c>
       <c r="C10">
-        <v>0.02261832499838512</v>
+        <v>0.02181020020700686</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -906,7 +906,7 @@
         <v>79</v>
       </c>
       <c r="C11">
-        <v>0.02214930005640925</v>
+        <v>0.0167650949951077</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -917,7 +917,7 @@
         <v>80</v>
       </c>
       <c r="C12">
-        <v>0.0215561328065399</v>
+        <v>0.01523902796347332</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -928,7 +928,7 @@
         <v>81</v>
       </c>
       <c r="C13">
-        <v>0.02052966636980735</v>
+        <v>0.01373409308265727</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -939,7 +939,7 @@
         <v>82</v>
       </c>
       <c r="C14">
-        <v>0.01677636601430366</v>
+        <v>0.01288072223661407</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -950,7 +950,7 @@
         <v>83</v>
       </c>
       <c r="C15">
-        <v>0.01653759658660636</v>
+        <v>0.01265409150637886</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -961,7 +961,7 @@
         <v>84</v>
       </c>
       <c r="C16">
-        <v>0.01516644943767087</v>
+        <v>0.01148384515112388</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -972,7 +972,7 @@
         <v>85</v>
       </c>
       <c r="C17">
-        <v>0.0134378851674366</v>
+        <v>0.010658889493812</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -983,7 +983,7 @@
         <v>86</v>
       </c>
       <c r="C18">
-        <v>0.0127689412754175</v>
+        <v>0.009144094555748161</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -994,7 +994,7 @@
         <v>87</v>
       </c>
       <c r="C19">
-        <v>0.01131777478534879</v>
+        <v>0.008422543302170737</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1005,7 +1005,7 @@
         <v>88</v>
       </c>
       <c r="C20">
-        <v>0.010903199898461</v>
+        <v>0.006487744047350308</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1016,7 +1016,7 @@
         <v>89</v>
       </c>
       <c r="C21">
-        <v>0.01058764700631665</v>
+        <v>0.004886140784264414</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1027,7 +1027,7 @@
         <v>90</v>
       </c>
       <c r="C22">
-        <v>0.009409459164483769</v>
+        <v>0.004332088088728092</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>91</v>
       </c>
       <c r="C23">
-        <v>0.009055730775057169</v>
+        <v>0.003745268784529188</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>92</v>
       </c>
       <c r="C24">
-        <v>0.008195366056179321</v>
+        <v>0.003100812178521428</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>93</v>
       </c>
       <c r="C25">
-        <v>0.007415464073393663</v>
+        <v>0.001535021928647629</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1071,7 +1071,7 @@
         <v>94</v>
       </c>
       <c r="C26">
-        <v>0.006984216990342906</v>
+        <v>0.001247204228357335</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>95</v>
       </c>
       <c r="C27">
-        <v>0.00675867556966625</v>
+        <v>0.001052268528042521</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>96</v>
       </c>
       <c r="C28">
-        <v>0.006521962771187884</v>
+        <v>0.0009551403295859906</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>97</v>
       </c>
       <c r="C29">
-        <v>0.005438839918453731</v>
+        <v>0.0002088931414774287</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>98</v>
       </c>
       <c r="C30">
-        <v>0.003861570058936614</v>
+        <v>0.0001451803512584338</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1126,7 +1126,7 @@
         <v>99</v>
       </c>
       <c r="C31">
-        <v>0.003667236955367859</v>
+        <v>1.882476750258988e-05</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>0.003493112346830252</v>
+        <v>-2.986946249816658e-05</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>101</v>
       </c>
       <c r="C33">
-        <v>0.002837827065782061</v>
+        <v>-0.0004055531232043386</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>102</v>
       </c>
       <c r="C34">
-        <v>0.001288570308381809</v>
+        <v>-0.0009005653004555692</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>103</v>
       </c>
       <c r="C35">
-        <v>0.0008389847364134173</v>
+        <v>-0.001916064444498655</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1181,7 +1181,7 @@
         <v>104</v>
       </c>
       <c r="C36">
-        <v>-0.0003175227143630277</v>
+        <v>-0.002171260385703699</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>105</v>
       </c>
       <c r="C37">
-        <v>-0.0007952033820474158</v>
+        <v>-0.002959646836799612</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>106</v>
       </c>
       <c r="C38">
-        <v>-0.000897274286176919</v>
+        <v>-0.002966595090469815</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="C39">
-        <v>-0.001005302115770212</v>
+        <v>-0.003002165548340874</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>108</v>
       </c>
       <c r="C40">
-        <v>-0.001747790929015114</v>
+        <v>-0.003776879758478957</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>109</v>
       </c>
       <c r="C41">
-        <v>-0.003727318909684474</v>
+        <v>-0.003890781019662559</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>110</v>
       </c>
       <c r="C42">
-        <v>-0.003883364712214288</v>
+        <v>-0.004269165515940587</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>111</v>
       </c>
       <c r="C43">
-        <v>-0.004411487719098051</v>
+        <v>-0.004573107674323951</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>112</v>
       </c>
       <c r="C44">
-        <v>-0.004476050829661848</v>
+        <v>-0.004787514495699918</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>-0.004502814987181525</v>
+        <v>-0.005108306523188944</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1291,7 +1291,7 @@
         <v>114</v>
       </c>
       <c r="C46">
-        <v>-0.007225340164211946</v>
+        <v>-0.005108594716541903</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="C47">
-        <v>-0.008342367282647811</v>
+        <v>-0.005932276438445738</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>116</v>
       </c>
       <c r="C48">
-        <v>-0.008876440982964917</v>
+        <v>-0.01027054986895248</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>117</v>
       </c>
       <c r="C49">
-        <v>-0.008956870988369503</v>
+        <v>-0.01169455179639356</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>118</v>
       </c>
       <c r="C50">
-        <v>-0.009221329012690904</v>
+        <v>-0.01193651485280822</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>119</v>
       </c>
       <c r="C51">
-        <v>-0.009492138152904284</v>
+        <v>-0.01280113530860283</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>120</v>
       </c>
       <c r="C52">
-        <v>-0.00971584835303374</v>
+        <v>-0.01337734146207425</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1368,7 +1368,7 @@
         <v>121</v>
       </c>
       <c r="C53">
-        <v>-0.009861904780708364</v>
+        <v>-0.01346480614307821</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>122</v>
       </c>
       <c r="C54">
-        <v>-0.009882307888540054</v>
+        <v>-0.0140345367549124</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>123</v>
       </c>
       <c r="C55">
-        <v>-0.01043660492683551</v>
+        <v>-0.01606492932434889</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1401,7 +1401,7 @@
         <v>124</v>
       </c>
       <c r="C56">
-        <v>-0.01289769290638965</v>
+        <v>-0.01757821324565068</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>125</v>
       </c>
       <c r="C57">
-        <v>-0.01307184501535585</v>
+        <v>-0.01898808056303825</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>126</v>
       </c>
       <c r="C58">
-        <v>-0.01463011909745637</v>
+        <v>-0.01903514223764957</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>127</v>
       </c>
       <c r="C59">
-        <v>-0.01742969949253059</v>
+        <v>-0.01990323595588084</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>128</v>
       </c>
       <c r="C60">
-        <v>-0.01763982579848566</v>
+        <v>-0.02036228688095665</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>129</v>
       </c>
       <c r="C61">
-        <v>-0.0194845416580598</v>
+        <v>-0.02063672339886613</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>130</v>
       </c>
       <c r="C62">
-        <v>-0.01972167741182029</v>
+        <v>-0.02168756763231472</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>131</v>
       </c>
       <c r="C63">
-        <v>-0.02023774205410289</v>
+        <v>-0.02183982270287133</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>132</v>
       </c>
       <c r="C64">
-        <v>-0.02136497433865858</v>
+        <v>-0.02186885136554639</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>133</v>
       </c>
       <c r="C65">
-        <v>-0.02344287296601444</v>
+        <v>-0.02546351388123547</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>134</v>
       </c>
       <c r="C66">
-        <v>-0.02374652970130198</v>
+        <v>-0.0286251313343322</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>135</v>
       </c>
       <c r="C67">
-        <v>-0.02477359848689731</v>
+        <v>-0.03079463043309116</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>136</v>
       </c>
       <c r="C68">
-        <v>-0.04295004481022924</v>
+        <v>-0.04125565906316442</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/主题.xlsx
+++ b/FOF/data/主题.xlsx
@@ -25,406 +25,406 @@
     <t>代码</t>
   </si>
   <si>
+    <t>886059.WI</t>
+  </si>
+  <si>
+    <t>886025.WI</t>
+  </si>
+  <si>
+    <t>886061.WI</t>
+  </si>
+  <si>
+    <t>886015.WI</t>
+  </si>
+  <si>
+    <t>886063.WI</t>
+  </si>
+  <si>
+    <t>886058.WI</t>
+  </si>
+  <si>
+    <t>886060.WI</t>
+  </si>
+  <si>
+    <t>886018.WI</t>
+  </si>
+  <si>
+    <t>886062.WI</t>
+  </si>
+  <si>
+    <t>886034.WI</t>
+  </si>
+  <si>
+    <t>886023.WI</t>
+  </si>
+  <si>
+    <t>886041.WI</t>
+  </si>
+  <si>
+    <t>886050.WI</t>
+  </si>
+  <si>
+    <t>886024.WI</t>
+  </si>
+  <si>
+    <t>886029.WI</t>
+  </si>
+  <si>
+    <t>886006.WI</t>
+  </si>
+  <si>
+    <t>886040.WI</t>
+  </si>
+  <si>
+    <t>886049.WI</t>
+  </si>
+  <si>
+    <t>886021.WI</t>
+  </si>
+  <si>
+    <t>886017.WI</t>
+  </si>
+  <si>
+    <t>886009.WI</t>
+  </si>
+  <si>
+    <t>886037.WI</t>
+  </si>
+  <si>
+    <t>886019.WI</t>
+  </si>
+  <si>
+    <t>886065.WI</t>
+  </si>
+  <si>
+    <t>886032.WI</t>
+  </si>
+  <si>
+    <t>886066.WI</t>
+  </si>
+  <si>
+    <t>886038.WI</t>
+  </si>
+  <si>
+    <t>886069.WI</t>
+  </si>
+  <si>
+    <t>886067.WI</t>
+  </si>
+  <si>
+    <t>886048.WI</t>
+  </si>
+  <si>
+    <t>886033.WI</t>
+  </si>
+  <si>
+    <t>886053.WI</t>
+  </si>
+  <si>
+    <t>886004.WI</t>
+  </si>
+  <si>
+    <t>886031.WI</t>
+  </si>
+  <si>
+    <t>886064.WI</t>
+  </si>
+  <si>
+    <t>886005.WI</t>
+  </si>
+  <si>
+    <t>886001.WI</t>
+  </si>
+  <si>
+    <t>886042.WI</t>
+  </si>
+  <si>
+    <t>886014.WI</t>
+  </si>
+  <si>
+    <t>886051.WI</t>
+  </si>
+  <si>
+    <t>886028.WI</t>
+  </si>
+  <si>
+    <t>886022.WI</t>
+  </si>
+  <si>
+    <t>886007.WI</t>
+  </si>
+  <si>
+    <t>886020.WI</t>
+  </si>
+  <si>
+    <t>886039.WI</t>
+  </si>
+  <si>
+    <t>886045.WI</t>
+  </si>
+  <si>
+    <t>886027.WI</t>
+  </si>
+  <si>
+    <t>886008.WI</t>
+  </si>
+  <si>
+    <t>886016.WI</t>
+  </si>
+  <si>
+    <t>886010.WI</t>
+  </si>
+  <si>
+    <t>886054.WI</t>
+  </si>
+  <si>
+    <t>886013.WI</t>
+  </si>
+  <si>
+    <t>886030.WI</t>
+  </si>
+  <si>
+    <t>886011.WI</t>
+  </si>
+  <si>
+    <t>886068.WI</t>
+  </si>
+  <si>
+    <t>886046.WI</t>
+  </si>
+  <si>
+    <t>886036.WI</t>
+  </si>
+  <si>
+    <t>886002.WI</t>
+  </si>
+  <si>
+    <t>886035.WI</t>
+  </si>
+  <si>
+    <t>886026.WI</t>
+  </si>
+  <si>
+    <t>886044.WI</t>
+  </si>
+  <si>
+    <t>886057.WI</t>
+  </si>
+  <si>
+    <t>886012.WI</t>
+  </si>
+  <si>
     <t>886043.WI</t>
   </si>
   <si>
-    <t>886035.WI</t>
-  </si>
-  <si>
-    <t>886044.WI</t>
+    <t>886052.WI</t>
   </si>
   <si>
     <t>886055.WI</t>
   </si>
   <si>
-    <t>886057.WI</t>
-  </si>
-  <si>
-    <t>886033.WI</t>
-  </si>
-  <si>
-    <t>886052.WI</t>
-  </si>
-  <si>
-    <t>886059.WI</t>
-  </si>
-  <si>
-    <t>886046.WI</t>
-  </si>
-  <si>
-    <t>886051.WI</t>
-  </si>
-  <si>
-    <t>886014.WI</t>
-  </si>
-  <si>
-    <t>886045.WI</t>
-  </si>
-  <si>
-    <t>886011.WI</t>
-  </si>
-  <si>
-    <t>886066.WI</t>
-  </si>
-  <si>
-    <t>886058.WI</t>
-  </si>
-  <si>
-    <t>886061.WI</t>
-  </si>
-  <si>
-    <t>886049.WI</t>
-  </si>
-  <si>
     <t>886003.WI</t>
   </si>
   <si>
-    <t>886025.WI</t>
-  </si>
-  <si>
-    <t>886062.WI</t>
-  </si>
-  <si>
-    <t>886027.WI</t>
-  </si>
-  <si>
-    <t>886002.WI</t>
-  </si>
-  <si>
-    <t>886054.WI</t>
-  </si>
-  <si>
-    <t>886039.WI</t>
-  </si>
-  <si>
-    <t>886029.WI</t>
-  </si>
-  <si>
-    <t>886036.WI</t>
-  </si>
-  <si>
-    <t>886050.WI</t>
-  </si>
-  <si>
-    <t>886028.WI</t>
-  </si>
-  <si>
-    <t>886012.WI</t>
-  </si>
-  <si>
-    <t>886001.WI</t>
-  </si>
-  <si>
-    <t>886010.WI</t>
-  </si>
-  <si>
-    <t>886022.WI</t>
-  </si>
-  <si>
-    <t>886026.WI</t>
-  </si>
-  <si>
-    <t>886034.WI</t>
-  </si>
-  <si>
-    <t>886023.WI</t>
-  </si>
-  <si>
-    <t>886007.WI</t>
-  </si>
-  <si>
-    <t>886005.WI</t>
-  </si>
-  <si>
-    <t>886053.WI</t>
-  </si>
-  <si>
-    <t>886048.WI</t>
-  </si>
-  <si>
-    <t>886013.WI</t>
-  </si>
-  <si>
-    <t>886032.WI</t>
-  </si>
-  <si>
-    <t>886042.WI</t>
-  </si>
-  <si>
-    <t>886065.WI</t>
-  </si>
-  <si>
-    <t>886069.WI</t>
-  </si>
-  <si>
-    <t>886037.WI</t>
-  </si>
-  <si>
-    <t>886038.WI</t>
-  </si>
-  <si>
-    <t>886040.WI</t>
-  </si>
-  <si>
-    <t>886030.WI</t>
-  </si>
-  <si>
-    <t>886041.WI</t>
-  </si>
-  <si>
-    <t>886020.WI</t>
-  </si>
-  <si>
-    <t>886031.WI</t>
-  </si>
-  <si>
-    <t>886017.WI</t>
-  </si>
-  <si>
-    <t>886016.WI</t>
-  </si>
-  <si>
-    <t>886006.WI</t>
-  </si>
-  <si>
-    <t>886004.WI</t>
-  </si>
-  <si>
-    <t>886015.WI</t>
-  </si>
-  <si>
-    <t>886018.WI</t>
-  </si>
-  <si>
-    <t>886067.WI</t>
-  </si>
-  <si>
-    <t>886009.WI</t>
-  </si>
-  <si>
-    <t>886021.WI</t>
-  </si>
-  <si>
-    <t>886019.WI</t>
-  </si>
-  <si>
-    <t>886068.WI</t>
-  </si>
-  <si>
-    <t>886064.WI</t>
-  </si>
-  <si>
-    <t>886060.WI</t>
-  </si>
-  <si>
-    <t>886008.WI</t>
-  </si>
-  <si>
-    <t>886024.WI</t>
-  </si>
-  <si>
-    <t>886063.WI</t>
+    <t>软件指数</t>
+  </si>
+  <si>
+    <t>办公用品指数</t>
+  </si>
+  <si>
+    <t>电脑硬件指数</t>
+  </si>
+  <si>
+    <t>航天军工指数</t>
+  </si>
+  <si>
+    <t>半导体指数</t>
+  </si>
+  <si>
+    <t>互联网指数</t>
+  </si>
+  <si>
+    <t>通信设备指数</t>
+  </si>
+  <si>
+    <t>发电设备指数</t>
+  </si>
+  <si>
+    <t>电子元器件指数</t>
+  </si>
+  <si>
+    <t>摩托车指数</t>
+  </si>
+  <si>
+    <t>商业服务指数</t>
+  </si>
+  <si>
+    <t>文化传媒指数</t>
+  </si>
+  <si>
+    <t>生物科技指数</t>
+  </si>
+  <si>
+    <t>环保指数</t>
+  </si>
+  <si>
+    <t>机场指数</t>
+  </si>
+  <si>
+    <t>精细化工指数</t>
+  </si>
+  <si>
+    <t>教育指数</t>
+  </si>
+  <si>
+    <t>医疗保健指数</t>
+  </si>
+  <si>
+    <t>工业机械指数</t>
+  </si>
+  <si>
+    <t>电工电网指数</t>
+  </si>
+  <si>
+    <t>包装指数</t>
+  </si>
+  <si>
+    <t>休闲用品指数</t>
+  </si>
+  <si>
+    <t>综合类指数</t>
+  </si>
+  <si>
+    <t>电力指数</t>
+  </si>
+  <si>
+    <t>汽车零部件指数</t>
+  </si>
+  <si>
+    <t>燃气指数</t>
+  </si>
+  <si>
+    <t>纺织服装指数</t>
+  </si>
+  <si>
+    <t>石油化工指数</t>
+  </si>
+  <si>
+    <t>水务指数</t>
+  </si>
+  <si>
+    <t>日用化工指数</t>
+  </si>
+  <si>
+    <t>汽车指数</t>
+  </si>
+  <si>
+    <t>多元金融指数</t>
+  </si>
+  <si>
+    <t>化工原料指数</t>
+  </si>
+  <si>
+    <t>港口指数</t>
+  </si>
+  <si>
+    <t>电信指数</t>
+  </si>
+  <si>
+    <t>化纤指数</t>
+  </si>
+  <si>
+    <t>能源设备指数</t>
+  </si>
+  <si>
+    <t>零售指数</t>
+  </si>
+  <si>
+    <t>造纸指数</t>
+  </si>
+  <si>
+    <t>制药指数</t>
+  </si>
+  <si>
+    <t>陆路运输指数</t>
+  </si>
+  <si>
+    <t>贸易指数</t>
+  </si>
+  <si>
+    <t>化肥农药指数</t>
+  </si>
+  <si>
+    <t>重型机械指数</t>
+  </si>
+  <si>
+    <t>餐饮旅游指数</t>
+  </si>
+  <si>
+    <t>农业指数</t>
+  </si>
+  <si>
+    <t>海运指数</t>
+  </si>
+  <si>
+    <t>建材指数</t>
+  </si>
+  <si>
+    <t>建筑指数</t>
+  </si>
+  <si>
+    <t>基本金属指数</t>
+  </si>
+  <si>
+    <t>券商指数</t>
+  </si>
+  <si>
+    <t>林木指数</t>
+  </si>
+  <si>
+    <t>公路指数</t>
+  </si>
+  <si>
+    <t>贵金属指数</t>
+  </si>
+  <si>
+    <t>工程机械指数</t>
+  </si>
+  <si>
+    <t>食品指数</t>
+  </si>
+  <si>
+    <t>家居用品指数</t>
+  </si>
+  <si>
+    <t>石油天然气指数</t>
+  </si>
+  <si>
+    <t>家用电器指数</t>
+  </si>
+  <si>
+    <t>航空指数</t>
+  </si>
+  <si>
+    <t>软饮料指数</t>
+  </si>
+  <si>
+    <t>房地产指数</t>
+  </si>
+  <si>
+    <t>钢铁指数</t>
   </si>
   <si>
     <t>酒类指数</t>
   </si>
   <si>
-    <t>家用电器指数</t>
-  </si>
-  <si>
-    <t>软饮料指数</t>
+    <t>银行指数</t>
   </si>
   <si>
     <t>保险指数</t>
   </si>
   <si>
-    <t>房地产指数</t>
-  </si>
-  <si>
-    <t>汽车指数</t>
-  </si>
-  <si>
-    <t>银行指数</t>
-  </si>
-  <si>
-    <t>软件指数</t>
-  </si>
-  <si>
-    <t>食品指数</t>
-  </si>
-  <si>
-    <t>制药指数</t>
-  </si>
-  <si>
-    <t>造纸指数</t>
-  </si>
-  <si>
-    <t>农业指数</t>
-  </si>
-  <si>
-    <t>贵金属指数</t>
-  </si>
-  <si>
-    <t>燃气指数</t>
-  </si>
-  <si>
-    <t>互联网指数</t>
-  </si>
-  <si>
-    <t>电脑硬件指数</t>
-  </si>
-  <si>
-    <t>医疗保健指数</t>
-  </si>
-  <si>
     <t>煤炭指数</t>
-  </si>
-  <si>
-    <t>办公用品指数</t>
-  </si>
-  <si>
-    <t>电子元器件指数</t>
-  </si>
-  <si>
-    <t>海运指数</t>
-  </si>
-  <si>
-    <t>石油天然气指数</t>
-  </si>
-  <si>
-    <t>券商指数</t>
-  </si>
-  <si>
-    <t>餐饮旅游指数</t>
-  </si>
-  <si>
-    <t>机场指数</t>
-  </si>
-  <si>
-    <t>家居用品指数</t>
-  </si>
-  <si>
-    <t>生物科技指数</t>
-  </si>
-  <si>
-    <t>陆路运输指数</t>
-  </si>
-  <si>
-    <t>钢铁指数</t>
-  </si>
-  <si>
-    <t>能源设备指数</t>
-  </si>
-  <si>
-    <t>基本金属指数</t>
-  </si>
-  <si>
-    <t>贸易指数</t>
-  </si>
-  <si>
-    <t>航空指数</t>
-  </si>
-  <si>
-    <t>摩托车指数</t>
-  </si>
-  <si>
-    <t>商业服务指数</t>
-  </si>
-  <si>
-    <t>化肥农药指数</t>
-  </si>
-  <si>
-    <t>化纤指数</t>
-  </si>
-  <si>
-    <t>多元金融指数</t>
-  </si>
-  <si>
-    <t>日用化工指数</t>
-  </si>
-  <si>
-    <t>林木指数</t>
-  </si>
-  <si>
-    <t>汽车零部件指数</t>
-  </si>
-  <si>
-    <t>零售指数</t>
-  </si>
-  <si>
-    <t>电力指数</t>
-  </si>
-  <si>
-    <t>石油化工指数</t>
-  </si>
-  <si>
-    <t>休闲用品指数</t>
-  </si>
-  <si>
-    <t>纺织服装指数</t>
-  </si>
-  <si>
-    <t>教育指数</t>
-  </si>
-  <si>
-    <t>公路指数</t>
-  </si>
-  <si>
-    <t>文化传媒指数</t>
-  </si>
-  <si>
-    <t>重型机械指数</t>
-  </si>
-  <si>
-    <t>港口指数</t>
-  </si>
-  <si>
-    <t>电工电网指数</t>
-  </si>
-  <si>
-    <t>建筑指数</t>
-  </si>
-  <si>
-    <t>精细化工指数</t>
-  </si>
-  <si>
-    <t>化工原料指数</t>
-  </si>
-  <si>
-    <t>航天军工指数</t>
-  </si>
-  <si>
-    <t>发电设备指数</t>
-  </si>
-  <si>
-    <t>水务指数</t>
-  </si>
-  <si>
-    <t>包装指数</t>
-  </si>
-  <si>
-    <t>工业机械指数</t>
-  </si>
-  <si>
-    <t>综合类指数</t>
-  </si>
-  <si>
-    <t>工程机械指数</t>
-  </si>
-  <si>
-    <t>电信指数</t>
-  </si>
-  <si>
-    <t>通信设备指数</t>
-  </si>
-  <si>
-    <t>建材指数</t>
-  </si>
-  <si>
-    <t>环保指数</t>
-  </si>
-  <si>
-    <t>半导体指数</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
         <v>70</v>
       </c>
       <c r="C2">
-        <v>0.06453888085593884</v>
+        <v>0.09602253471436106</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -818,7 +818,7 @@
         <v>71</v>
       </c>
       <c r="C3">
-        <v>0.05929670459539249</v>
+        <v>0.08630520714856238</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -829,7 +829,7 @@
         <v>72</v>
       </c>
       <c r="C4">
-        <v>0.0572915922294488</v>
+        <v>0.08337388081837527</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -840,7 +840,7 @@
         <v>73</v>
       </c>
       <c r="C5">
-        <v>0.04047035429840729</v>
+        <v>0.06996826382495613</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -851,7 +851,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>0.03034662621851081</v>
+        <v>0.06796424377596577</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -862,7 +862,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>0.02962401489937183</v>
+        <v>0.06190383596369453</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -873,7 +873,7 @@
         <v>76</v>
       </c>
       <c r="C8">
-        <v>0.0268147315173668</v>
+        <v>0.05867090927849072</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -884,7 +884,7 @@
         <v>77</v>
       </c>
       <c r="C9">
-        <v>0.02348500932114383</v>
+        <v>0.05796728622335978</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -895,7 +895,7 @@
         <v>78</v>
       </c>
       <c r="C10">
-        <v>0.02181020020700686</v>
+        <v>0.05389536059460509</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -906,7 +906,7 @@
         <v>79</v>
       </c>
       <c r="C11">
-        <v>0.0167650949951077</v>
+        <v>0.04974087251605019</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -917,7 +917,7 @@
         <v>80</v>
       </c>
       <c r="C12">
-        <v>0.01523902796347332</v>
+        <v>0.04852999667940217</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -928,7 +928,7 @@
         <v>81</v>
       </c>
       <c r="C13">
-        <v>0.01373409308265727</v>
+        <v>0.04680176491651644</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -939,7 +939,7 @@
         <v>82</v>
       </c>
       <c r="C14">
-        <v>0.01288072223661407</v>
+        <v>0.04323918527000559</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -950,7 +950,7 @@
         <v>83</v>
       </c>
       <c r="C15">
-        <v>0.01265409150637886</v>
+        <v>0.04304793181623934</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -961,7 +961,7 @@
         <v>84</v>
       </c>
       <c r="C16">
-        <v>0.01148384515112388</v>
+        <v>0.04089378369780206</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -972,7 +972,7 @@
         <v>85</v>
       </c>
       <c r="C17">
-        <v>0.010658889493812</v>
+        <v>0.04053271641213385</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -983,7 +983,7 @@
         <v>86</v>
       </c>
       <c r="C18">
-        <v>0.009144094555748161</v>
+        <v>0.04008558181513422</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -994,7 +994,7 @@
         <v>87</v>
       </c>
       <c r="C19">
-        <v>0.008422543302170737</v>
+        <v>0.0389926882260403</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1005,7 +1005,7 @@
         <v>88</v>
       </c>
       <c r="C20">
-        <v>0.006487744047350308</v>
+        <v>0.03812809654214577</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1016,7 +1016,7 @@
         <v>89</v>
       </c>
       <c r="C21">
-        <v>0.004886140784264414</v>
+        <v>0.03650105836137629</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1027,7 +1027,7 @@
         <v>90</v>
       </c>
       <c r="C22">
-        <v>0.004332088088728092</v>
+        <v>0.03612825610867554</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>91</v>
       </c>
       <c r="C23">
-        <v>0.003745268784529188</v>
+        <v>0.03352593455642761</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>92</v>
       </c>
       <c r="C24">
-        <v>0.003100812178521428</v>
+        <v>0.031563281768614</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>93</v>
       </c>
       <c r="C25">
-        <v>0.001535021928647629</v>
+        <v>0.02731495540159412</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1071,7 +1071,7 @@
         <v>94</v>
       </c>
       <c r="C26">
-        <v>0.001247204228357335</v>
+        <v>0.02367115027456412</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>95</v>
       </c>
       <c r="C27">
-        <v>0.001052268528042521</v>
+        <v>0.02341032463740689</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>96</v>
       </c>
       <c r="C28">
-        <v>0.0009551403295859906</v>
+        <v>0.02235704314198173</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>97</v>
       </c>
       <c r="C29">
-        <v>0.0002088931414774287</v>
+        <v>0.02197452151229884</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>98</v>
       </c>
       <c r="C30">
-        <v>0.0001451803512584338</v>
+        <v>0.02081310120379642</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1126,7 +1126,7 @@
         <v>99</v>
       </c>
       <c r="C31">
-        <v>1.882476750258988e-05</v>
+        <v>0.02065618224020205</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>-2.986946249816658e-05</v>
+        <v>0.02048058307233291</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>101</v>
       </c>
       <c r="C33">
-        <v>-0.0004055531232043386</v>
+        <v>0.01942821796566041</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>102</v>
       </c>
       <c r="C34">
-        <v>-0.0009005653004555692</v>
+        <v>0.01929002280607173</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>103</v>
       </c>
       <c r="C35">
-        <v>-0.001916064444498655</v>
+        <v>0.01849467285869921</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1181,7 +1181,7 @@
         <v>104</v>
       </c>
       <c r="C36">
-        <v>-0.002171260385703699</v>
+        <v>0.01842081128113371</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>105</v>
       </c>
       <c r="C37">
-        <v>-0.002959646836799612</v>
+        <v>0.01680826775360122</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>106</v>
       </c>
       <c r="C38">
-        <v>-0.002966595090469815</v>
+        <v>0.01452080016549173</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="C39">
-        <v>-0.003002165548340874</v>
+        <v>0.01366658187058079</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>108</v>
       </c>
       <c r="C40">
-        <v>-0.003776879758478957</v>
+        <v>0.01276289243154816</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>109</v>
       </c>
       <c r="C41">
-        <v>-0.003890781019662559</v>
+        <v>0.01244633969921494</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>110</v>
       </c>
       <c r="C42">
-        <v>-0.004269165515940587</v>
+        <v>0.009544786901444224</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>111</v>
       </c>
       <c r="C43">
-        <v>-0.004573107674323951</v>
+        <v>0.009211405876330403</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>112</v>
       </c>
       <c r="C44">
-        <v>-0.004787514495699918</v>
+        <v>0.007246166581458713</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>-0.005108306523188944</v>
+        <v>0.007014792028118499</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1291,7 +1291,7 @@
         <v>114</v>
       </c>
       <c r="C46">
-        <v>-0.005108594716541903</v>
+        <v>0.004629435655166159</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="C47">
-        <v>-0.005932276438445738</v>
+        <v>0.004351057257663937</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>116</v>
       </c>
       <c r="C48">
-        <v>-0.01027054986895248</v>
+        <v>0.004080986653046903</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>117</v>
       </c>
       <c r="C49">
-        <v>-0.01169455179639356</v>
+        <v>0.003908036436585105</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>118</v>
       </c>
       <c r="C50">
-        <v>-0.01193651485280822</v>
+        <v>0.002494382589397492</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>119</v>
       </c>
       <c r="C51">
-        <v>-0.01280113530860283</v>
+        <v>0.002069008141745599</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>120</v>
       </c>
       <c r="C52">
-        <v>-0.01337734146207425</v>
+        <v>-0.000769802798360697</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1368,7 +1368,7 @@
         <v>121</v>
       </c>
       <c r="C53">
-        <v>-0.01346480614307821</v>
+        <v>-0.002788296262076551</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>122</v>
       </c>
       <c r="C54">
-        <v>-0.0140345367549124</v>
+        <v>-0.006947764618473906</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>123</v>
       </c>
       <c r="C55">
-        <v>-0.01606492932434889</v>
+        <v>-0.007134954748037381</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1401,7 +1401,7 @@
         <v>124</v>
       </c>
       <c r="C56">
-        <v>-0.01757821324565068</v>
+        <v>-0.009870933263872117</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>125</v>
       </c>
       <c r="C57">
-        <v>-0.01898808056303825</v>
+        <v>-0.01331962620546789</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>126</v>
       </c>
       <c r="C58">
-        <v>-0.01903514223764957</v>
+        <v>-0.01431799730562455</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>127</v>
       </c>
       <c r="C59">
-        <v>-0.01990323595588084</v>
+        <v>-0.01508956247259829</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>128</v>
       </c>
       <c r="C60">
-        <v>-0.02036228688095665</v>
+        <v>-0.01579895751978644</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>129</v>
       </c>
       <c r="C61">
-        <v>-0.02063672339886613</v>
+        <v>-0.01791077237879013</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>130</v>
       </c>
       <c r="C62">
-        <v>-0.02168756763231472</v>
+        <v>-0.02427292610454557</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>131</v>
       </c>
       <c r="C63">
-        <v>-0.02183982270287133</v>
+        <v>-0.02489997168603364</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>132</v>
       </c>
       <c r="C64">
-        <v>-0.02186885136554639</v>
+        <v>-0.02922740502490762</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>133</v>
       </c>
       <c r="C65">
-        <v>-0.02546351388123547</v>
+        <v>-0.03015674324654094</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>134</v>
       </c>
       <c r="C66">
-        <v>-0.0286251313343322</v>
+        <v>-0.03850731698437238</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>135</v>
       </c>
       <c r="C67">
-        <v>-0.03079463043309116</v>
+        <v>-0.04361406314649763</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>136</v>
       </c>
       <c r="C68">
-        <v>-0.04125565906316442</v>
+        <v>-0.05032157672730153</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/主题.xlsx
+++ b/FOF/data/主题.xlsx
@@ -25,406 +25,406 @@
     <t>代码</t>
   </si>
   <si>
+    <t>886064.WI</t>
+  </si>
+  <si>
+    <t>886008.WI</t>
+  </si>
+  <si>
+    <t>886033.WI</t>
+  </si>
+  <si>
+    <t>886013.WI</t>
+  </si>
+  <si>
+    <t>886001.WI</t>
+  </si>
+  <si>
+    <t>886010.WI</t>
+  </si>
+  <si>
+    <t>886007.WI</t>
+  </si>
+  <si>
+    <t>886043.WI</t>
+  </si>
+  <si>
+    <t>886042.WI</t>
+  </si>
+  <si>
+    <t>886069.WI</t>
+  </si>
+  <si>
+    <t>886017.WI</t>
+  </si>
+  <si>
+    <t>886005.WI</t>
+  </si>
+  <si>
+    <t>886038.WI</t>
+  </si>
+  <si>
+    <t>886018.WI</t>
+  </si>
+  <si>
+    <t>886036.WI</t>
+  </si>
+  <si>
+    <t>886004.WI</t>
+  </si>
+  <si>
+    <t>886048.WI</t>
+  </si>
+  <si>
+    <t>886066.WI</t>
+  </si>
+  <si>
+    <t>886012.WI</t>
+  </si>
+  <si>
+    <t>886035.WI</t>
+  </si>
+  <si>
+    <t>886053.WI</t>
+  </si>
+  <si>
+    <t>886046.WI</t>
+  </si>
+  <si>
+    <t>886055.WI</t>
+  </si>
+  <si>
+    <t>886006.WI</t>
+  </si>
+  <si>
+    <t>886002.WI</t>
+  </si>
+  <si>
+    <t>886011.WI</t>
+  </si>
+  <si>
+    <t>886019.WI</t>
+  </si>
+  <si>
+    <t>886041.WI</t>
+  </si>
+  <si>
+    <t>886022.WI</t>
+  </si>
+  <si>
+    <t>886026.WI</t>
+  </si>
+  <si>
+    <t>886003.WI</t>
+  </si>
+  <si>
     <t>886059.WI</t>
   </si>
   <si>
+    <t>886051.WI</t>
+  </si>
+  <si>
+    <t>886009.WI</t>
+  </si>
+  <si>
+    <t>886032.WI</t>
+  </si>
+  <si>
+    <t>886034.WI</t>
+  </si>
+  <si>
+    <t>886027.WI</t>
+  </si>
+  <si>
+    <t>886061.WI</t>
+  </si>
+  <si>
+    <t>886028.WI</t>
+  </si>
+  <si>
+    <t>886020.WI</t>
+  </si>
+  <si>
+    <t>886030.WI</t>
+  </si>
+  <si>
+    <t>886023.WI</t>
+  </si>
+  <si>
+    <t>886050.WI</t>
+  </si>
+  <si>
+    <t>886021.WI</t>
+  </si>
+  <si>
+    <t>886058.WI</t>
+  </si>
+  <si>
     <t>886025.WI</t>
   </si>
   <si>
-    <t>886061.WI</t>
+    <t>886065.WI</t>
+  </si>
+  <si>
+    <t>886037.WI</t>
+  </si>
+  <si>
+    <t>886016.WI</t>
+  </si>
+  <si>
+    <t>886049.WI</t>
+  </si>
+  <si>
+    <t>886045.WI</t>
+  </si>
+  <si>
+    <t>886057.WI</t>
+  </si>
+  <si>
+    <t>886044.WI</t>
+  </si>
+  <si>
+    <t>886068.WI</t>
+  </si>
+  <si>
+    <t>886067.WI</t>
+  </si>
+  <si>
+    <t>886040.WI</t>
+  </si>
+  <si>
+    <t>886039.WI</t>
+  </si>
+  <si>
+    <t>886031.WI</t>
+  </si>
+  <si>
+    <t>886024.WI</t>
+  </si>
+  <si>
+    <t>886063.WI</t>
+  </si>
+  <si>
+    <t>886062.WI</t>
   </si>
   <si>
     <t>886015.WI</t>
   </si>
   <si>
-    <t>886063.WI</t>
-  </si>
-  <si>
-    <t>886058.WI</t>
+    <t>886052.WI</t>
+  </si>
+  <si>
+    <t>886054.WI</t>
+  </si>
+  <si>
+    <t>886029.WI</t>
+  </si>
+  <si>
+    <t>886014.WI</t>
   </si>
   <si>
     <t>886060.WI</t>
   </si>
   <si>
-    <t>886018.WI</t>
-  </si>
-  <si>
-    <t>886062.WI</t>
-  </si>
-  <si>
-    <t>886034.WI</t>
-  </si>
-  <si>
-    <t>886023.WI</t>
-  </si>
-  <si>
-    <t>886041.WI</t>
-  </si>
-  <si>
-    <t>886050.WI</t>
-  </si>
-  <si>
-    <t>886024.WI</t>
-  </si>
-  <si>
-    <t>886029.WI</t>
-  </si>
-  <si>
-    <t>886006.WI</t>
-  </si>
-  <si>
-    <t>886040.WI</t>
-  </si>
-  <si>
-    <t>886049.WI</t>
-  </si>
-  <si>
-    <t>886021.WI</t>
-  </si>
-  <si>
-    <t>886017.WI</t>
-  </si>
-  <si>
-    <t>886009.WI</t>
-  </si>
-  <si>
-    <t>886037.WI</t>
-  </si>
-  <si>
-    <t>886019.WI</t>
-  </si>
-  <si>
-    <t>886065.WI</t>
-  </si>
-  <si>
-    <t>886032.WI</t>
-  </si>
-  <si>
-    <t>886066.WI</t>
-  </si>
-  <si>
-    <t>886038.WI</t>
-  </si>
-  <si>
-    <t>886069.WI</t>
-  </si>
-  <si>
-    <t>886067.WI</t>
-  </si>
-  <si>
-    <t>886048.WI</t>
-  </si>
-  <si>
-    <t>886033.WI</t>
-  </si>
-  <si>
-    <t>886053.WI</t>
-  </si>
-  <si>
-    <t>886004.WI</t>
-  </si>
-  <si>
-    <t>886031.WI</t>
-  </si>
-  <si>
-    <t>886064.WI</t>
-  </si>
-  <si>
-    <t>886005.WI</t>
-  </si>
-  <si>
-    <t>886001.WI</t>
-  </si>
-  <si>
-    <t>886042.WI</t>
-  </si>
-  <si>
-    <t>886014.WI</t>
-  </si>
-  <si>
-    <t>886051.WI</t>
-  </si>
-  <si>
-    <t>886028.WI</t>
-  </si>
-  <si>
-    <t>886022.WI</t>
-  </si>
-  <si>
-    <t>886007.WI</t>
-  </si>
-  <si>
-    <t>886020.WI</t>
-  </si>
-  <si>
-    <t>886039.WI</t>
-  </si>
-  <si>
-    <t>886045.WI</t>
-  </si>
-  <si>
-    <t>886027.WI</t>
-  </si>
-  <si>
-    <t>886008.WI</t>
-  </si>
-  <si>
-    <t>886016.WI</t>
-  </si>
-  <si>
-    <t>886010.WI</t>
-  </si>
-  <si>
-    <t>886054.WI</t>
-  </si>
-  <si>
-    <t>886013.WI</t>
-  </si>
-  <si>
-    <t>886030.WI</t>
-  </si>
-  <si>
-    <t>886011.WI</t>
-  </si>
-  <si>
-    <t>886068.WI</t>
-  </si>
-  <si>
-    <t>886046.WI</t>
-  </si>
-  <si>
-    <t>886036.WI</t>
-  </si>
-  <si>
-    <t>886002.WI</t>
-  </si>
-  <si>
-    <t>886035.WI</t>
-  </si>
-  <si>
-    <t>886026.WI</t>
-  </si>
-  <si>
-    <t>886044.WI</t>
-  </si>
-  <si>
-    <t>886057.WI</t>
-  </si>
-  <si>
-    <t>886012.WI</t>
-  </si>
-  <si>
-    <t>886043.WI</t>
-  </si>
-  <si>
-    <t>886052.WI</t>
-  </si>
-  <si>
-    <t>886055.WI</t>
-  </si>
-  <si>
-    <t>886003.WI</t>
+    <t>电信指数</t>
+  </si>
+  <si>
+    <t>建材指数</t>
+  </si>
+  <si>
+    <t>汽车指数</t>
+  </si>
+  <si>
+    <t>林木指数</t>
+  </si>
+  <si>
+    <t>能源设备指数</t>
+  </si>
+  <si>
+    <t>基本金属指数</t>
+  </si>
+  <si>
+    <t>化肥农药指数</t>
+  </si>
+  <si>
+    <t>酒类指数</t>
+  </si>
+  <si>
+    <t>零售指数</t>
+  </si>
+  <si>
+    <t>石油化工指数</t>
+  </si>
+  <si>
+    <t>电工电网指数</t>
+  </si>
+  <si>
+    <t>化纤指数</t>
+  </si>
+  <si>
+    <t>纺织服装指数</t>
+  </si>
+  <si>
+    <t>发电设备指数</t>
+  </si>
+  <si>
+    <t>家居用品指数</t>
+  </si>
+  <si>
+    <t>化工原料指数</t>
+  </si>
+  <si>
+    <t>日用化工指数</t>
+  </si>
+  <si>
+    <t>燃气指数</t>
+  </si>
+  <si>
+    <t>钢铁指数</t>
+  </si>
+  <si>
+    <t>家用电器指数</t>
+  </si>
+  <si>
+    <t>多元金融指数</t>
+  </si>
+  <si>
+    <t>食品指数</t>
+  </si>
+  <si>
+    <t>保险指数</t>
+  </si>
+  <si>
+    <t>精细化工指数</t>
+  </si>
+  <si>
+    <t>石油天然气指数</t>
+  </si>
+  <si>
+    <t>贵金属指数</t>
+  </si>
+  <si>
+    <t>综合类指数</t>
+  </si>
+  <si>
+    <t>文化传媒指数</t>
+  </si>
+  <si>
+    <t>贸易指数</t>
+  </si>
+  <si>
+    <t>航空指数</t>
+  </si>
+  <si>
+    <t>煤炭指数</t>
   </si>
   <si>
     <t>软件指数</t>
   </si>
   <si>
+    <t>制药指数</t>
+  </si>
+  <si>
+    <t>包装指数</t>
+  </si>
+  <si>
+    <t>汽车零部件指数</t>
+  </si>
+  <si>
+    <t>摩托车指数</t>
+  </si>
+  <si>
+    <t>海运指数</t>
+  </si>
+  <si>
+    <t>电脑硬件指数</t>
+  </si>
+  <si>
+    <t>陆路运输指数</t>
+  </si>
+  <si>
+    <t>重型机械指数</t>
+  </si>
+  <si>
+    <t>公路指数</t>
+  </si>
+  <si>
+    <t>商业服务指数</t>
+  </si>
+  <si>
+    <t>生物科技指数</t>
+  </si>
+  <si>
+    <t>工业机械指数</t>
+  </si>
+  <si>
+    <t>互联网指数</t>
+  </si>
+  <si>
     <t>办公用品指数</t>
   </si>
   <si>
-    <t>电脑硬件指数</t>
+    <t>电力指数</t>
+  </si>
+  <si>
+    <t>休闲用品指数</t>
+  </si>
+  <si>
+    <t>建筑指数</t>
+  </si>
+  <si>
+    <t>医疗保健指数</t>
+  </si>
+  <si>
+    <t>农业指数</t>
+  </si>
+  <si>
+    <t>房地产指数</t>
+  </si>
+  <si>
+    <t>软饮料指数</t>
+  </si>
+  <si>
+    <t>工程机械指数</t>
+  </si>
+  <si>
+    <t>水务指数</t>
+  </si>
+  <si>
+    <t>教育指数</t>
+  </si>
+  <si>
+    <t>餐饮旅游指数</t>
+  </si>
+  <si>
+    <t>港口指数</t>
+  </si>
+  <si>
+    <t>环保指数</t>
+  </si>
+  <si>
+    <t>半导体指数</t>
+  </si>
+  <si>
+    <t>电子元器件指数</t>
   </si>
   <si>
     <t>航天军工指数</t>
   </si>
   <si>
-    <t>半导体指数</t>
-  </si>
-  <si>
-    <t>互联网指数</t>
+    <t>银行指数</t>
+  </si>
+  <si>
+    <t>券商指数</t>
+  </si>
+  <si>
+    <t>机场指数</t>
+  </si>
+  <si>
+    <t>造纸指数</t>
   </si>
   <si>
     <t>通信设备指数</t>
-  </si>
-  <si>
-    <t>发电设备指数</t>
-  </si>
-  <si>
-    <t>电子元器件指数</t>
-  </si>
-  <si>
-    <t>摩托车指数</t>
-  </si>
-  <si>
-    <t>商业服务指数</t>
-  </si>
-  <si>
-    <t>文化传媒指数</t>
-  </si>
-  <si>
-    <t>生物科技指数</t>
-  </si>
-  <si>
-    <t>环保指数</t>
-  </si>
-  <si>
-    <t>机场指数</t>
-  </si>
-  <si>
-    <t>精细化工指数</t>
-  </si>
-  <si>
-    <t>教育指数</t>
-  </si>
-  <si>
-    <t>医疗保健指数</t>
-  </si>
-  <si>
-    <t>工业机械指数</t>
-  </si>
-  <si>
-    <t>电工电网指数</t>
-  </si>
-  <si>
-    <t>包装指数</t>
-  </si>
-  <si>
-    <t>休闲用品指数</t>
-  </si>
-  <si>
-    <t>综合类指数</t>
-  </si>
-  <si>
-    <t>电力指数</t>
-  </si>
-  <si>
-    <t>汽车零部件指数</t>
-  </si>
-  <si>
-    <t>燃气指数</t>
-  </si>
-  <si>
-    <t>纺织服装指数</t>
-  </si>
-  <si>
-    <t>石油化工指数</t>
-  </si>
-  <si>
-    <t>水务指数</t>
-  </si>
-  <si>
-    <t>日用化工指数</t>
-  </si>
-  <si>
-    <t>汽车指数</t>
-  </si>
-  <si>
-    <t>多元金融指数</t>
-  </si>
-  <si>
-    <t>化工原料指数</t>
-  </si>
-  <si>
-    <t>港口指数</t>
-  </si>
-  <si>
-    <t>电信指数</t>
-  </si>
-  <si>
-    <t>化纤指数</t>
-  </si>
-  <si>
-    <t>能源设备指数</t>
-  </si>
-  <si>
-    <t>零售指数</t>
-  </si>
-  <si>
-    <t>造纸指数</t>
-  </si>
-  <si>
-    <t>制药指数</t>
-  </si>
-  <si>
-    <t>陆路运输指数</t>
-  </si>
-  <si>
-    <t>贸易指数</t>
-  </si>
-  <si>
-    <t>化肥农药指数</t>
-  </si>
-  <si>
-    <t>重型机械指数</t>
-  </si>
-  <si>
-    <t>餐饮旅游指数</t>
-  </si>
-  <si>
-    <t>农业指数</t>
-  </si>
-  <si>
-    <t>海运指数</t>
-  </si>
-  <si>
-    <t>建材指数</t>
-  </si>
-  <si>
-    <t>建筑指数</t>
-  </si>
-  <si>
-    <t>基本金属指数</t>
-  </si>
-  <si>
-    <t>券商指数</t>
-  </si>
-  <si>
-    <t>林木指数</t>
-  </si>
-  <si>
-    <t>公路指数</t>
-  </si>
-  <si>
-    <t>贵金属指数</t>
-  </si>
-  <si>
-    <t>工程机械指数</t>
-  </si>
-  <si>
-    <t>食品指数</t>
-  </si>
-  <si>
-    <t>家居用品指数</t>
-  </si>
-  <si>
-    <t>石油天然气指数</t>
-  </si>
-  <si>
-    <t>家用电器指数</t>
-  </si>
-  <si>
-    <t>航空指数</t>
-  </si>
-  <si>
-    <t>软饮料指数</t>
-  </si>
-  <si>
-    <t>房地产指数</t>
-  </si>
-  <si>
-    <t>钢铁指数</t>
-  </si>
-  <si>
-    <t>酒类指数</t>
-  </si>
-  <si>
-    <t>银行指数</t>
-  </si>
-  <si>
-    <t>保险指数</t>
-  </si>
-  <si>
-    <t>煤炭指数</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
         <v>70</v>
       </c>
       <c r="C2">
-        <v>0.09602253471436106</v>
+        <v>0.02671413689539981</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -818,7 +818,7 @@
         <v>71</v>
       </c>
       <c r="C3">
-        <v>0.08630520714856238</v>
+        <v>0.02538472221890209</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -829,7 +829,7 @@
         <v>72</v>
       </c>
       <c r="C4">
-        <v>0.08337388081837527</v>
+        <v>0.01273520912507342</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -840,7 +840,7 @@
         <v>73</v>
       </c>
       <c r="C5">
-        <v>0.06996826382495613</v>
+        <v>0.01180973512910466</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -851,7 +851,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>0.06796424377596577</v>
+        <v>0.01108459280718743</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -862,7 +862,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>0.06190383596369453</v>
+        <v>0.009168694728682203</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -873,7 +873,7 @@
         <v>76</v>
       </c>
       <c r="C8">
-        <v>0.05867090927849072</v>
+        <v>0.006791718406803149</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -884,7 +884,7 @@
         <v>77</v>
       </c>
       <c r="C9">
-        <v>0.05796728622335978</v>
+        <v>0.00617360939968048</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -895,7 +895,7 @@
         <v>78</v>
       </c>
       <c r="C10">
-        <v>0.05389536059460509</v>
+        <v>0.005196922752171762</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -906,7 +906,7 @@
         <v>79</v>
       </c>
       <c r="C11">
-        <v>0.04974087251605019</v>
+        <v>0.004508318362279828</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -917,7 +917,7 @@
         <v>80</v>
       </c>
       <c r="C12">
-        <v>0.04852999667940217</v>
+        <v>0.004372836803870017</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -928,7 +928,7 @@
         <v>81</v>
       </c>
       <c r="C13">
-        <v>0.04680176491651644</v>
+        <v>0.002552631148707851</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -939,7 +939,7 @@
         <v>82</v>
       </c>
       <c r="C14">
-        <v>0.04323918527000559</v>
+        <v>0.001139936827493138</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -950,7 +950,7 @@
         <v>83</v>
       </c>
       <c r="C15">
-        <v>0.04304793181623934</v>
+        <v>0.0005416455148492538</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -961,7 +961,7 @@
         <v>84</v>
       </c>
       <c r="C16">
-        <v>0.04089378369780206</v>
+        <v>0.0004723170986122849</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -972,7 +972,7 @@
         <v>85</v>
       </c>
       <c r="C17">
-        <v>0.04053271641213385</v>
+        <v>0.0003531358287673925</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -983,7 +983,7 @@
         <v>86</v>
       </c>
       <c r="C18">
-        <v>0.04008558181513422</v>
+        <v>-0.0001231106825737571</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -994,7 +994,7 @@
         <v>87</v>
       </c>
       <c r="C19">
-        <v>0.0389926882260403</v>
+        <v>-0.001405501593353731</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1005,7 +1005,7 @@
         <v>88</v>
       </c>
       <c r="C20">
-        <v>0.03812809654214577</v>
+        <v>-0.001483740450088256</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1016,7 +1016,7 @@
         <v>89</v>
       </c>
       <c r="C21">
-        <v>0.03650105836137629</v>
+        <v>-0.002320935672027513</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1027,7 +1027,7 @@
         <v>90</v>
       </c>
       <c r="C22">
-        <v>0.03612825610867554</v>
+        <v>-0.0027023723396572</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>91</v>
       </c>
       <c r="C23">
-        <v>0.03352593455642761</v>
+        <v>-0.004316485686786886</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>92</v>
       </c>
       <c r="C24">
-        <v>0.031563281768614</v>
+        <v>-0.004540492228572224</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>93</v>
       </c>
       <c r="C25">
-        <v>0.02731495540159412</v>
+        <v>-0.004551614629744849</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1071,7 +1071,7 @@
         <v>94</v>
       </c>
       <c r="C26">
-        <v>0.02367115027456412</v>
+        <v>-0.005206914161393739</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>95</v>
       </c>
       <c r="C27">
-        <v>0.02341032463740689</v>
+        <v>-0.005354245649977774</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>96</v>
       </c>
       <c r="C28">
-        <v>0.02235704314198173</v>
+        <v>-0.006236339816739322</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>97</v>
       </c>
       <c r="C29">
-        <v>0.02197452151229884</v>
+        <v>-0.007575734221717423</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>98</v>
       </c>
       <c r="C30">
-        <v>0.02081310120379642</v>
+        <v>-0.007884561261913614</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1126,7 +1126,7 @@
         <v>99</v>
       </c>
       <c r="C31">
-        <v>0.02065618224020205</v>
+        <v>-0.008279915868981469</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>0.02048058307233291</v>
+        <v>-0.008414631494146452</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>101</v>
       </c>
       <c r="C33">
-        <v>0.01942821796566041</v>
+        <v>-0.01007171448010868</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>102</v>
       </c>
       <c r="C34">
-        <v>0.01929002280607173</v>
+        <v>-0.01034623384673472</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>103</v>
       </c>
       <c r="C35">
-        <v>0.01849467285869921</v>
+        <v>-0.01076479015986442</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1181,7 +1181,7 @@
         <v>104</v>
       </c>
       <c r="C36">
-        <v>0.01842081128113371</v>
+        <v>-0.0111396350555325</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>105</v>
       </c>
       <c r="C37">
-        <v>0.01680826775360122</v>
+        <v>-0.01178422685086833</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>106</v>
       </c>
       <c r="C38">
-        <v>0.01452080016549173</v>
+        <v>-0.0120356567861325</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="C39">
-        <v>0.01366658187058079</v>
+        <v>-0.0120477860370195</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>108</v>
       </c>
       <c r="C40">
-        <v>0.01276289243154816</v>
+        <v>-0.01217688134808992</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>109</v>
       </c>
       <c r="C41">
-        <v>0.01244633969921494</v>
+        <v>-0.01340603540007812</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>110</v>
       </c>
       <c r="C42">
-        <v>0.009544786901444224</v>
+        <v>-0.01355893490962057</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>111</v>
       </c>
       <c r="C43">
-        <v>0.009211405876330403</v>
+        <v>-0.01432283755944275</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>112</v>
       </c>
       <c r="C44">
-        <v>0.007246166581458713</v>
+        <v>-0.0145190328375524</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>0.007014792028118499</v>
+        <v>-0.01458971117117802</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1291,7 +1291,7 @@
         <v>114</v>
       </c>
       <c r="C46">
-        <v>0.004629435655166159</v>
+        <v>-0.01459820286188585</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="C47">
-        <v>0.004351057257663937</v>
+        <v>-0.01517022055525974</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>116</v>
       </c>
       <c r="C48">
-        <v>0.004080986653046903</v>
+        <v>-0.01542915525928212</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>117</v>
       </c>
       <c r="C49">
-        <v>0.003908036436585105</v>
+        <v>-0.01557389091465045</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>118</v>
       </c>
       <c r="C50">
-        <v>0.002494382589397492</v>
+        <v>-0.01563188955656869</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>119</v>
       </c>
       <c r="C51">
-        <v>0.002069008141745599</v>
+        <v>-0.01659377036713239</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>120</v>
       </c>
       <c r="C52">
-        <v>-0.000769802798360697</v>
+        <v>-0.01761185831712309</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1368,7 +1368,7 @@
         <v>121</v>
       </c>
       <c r="C53">
-        <v>-0.002788296262076551</v>
+        <v>-0.01763485130091391</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>122</v>
       </c>
       <c r="C54">
-        <v>-0.006947764618473906</v>
+        <v>-0.01767361475137519</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>123</v>
       </c>
       <c r="C55">
-        <v>-0.007134954748037381</v>
+        <v>-0.01791965544262075</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1401,7 +1401,7 @@
         <v>124</v>
       </c>
       <c r="C56">
-        <v>-0.009870933263872117</v>
+        <v>-0.01835553325236172</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>125</v>
       </c>
       <c r="C57">
-        <v>-0.01331962620546789</v>
+        <v>-0.01836550259086811</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>126</v>
       </c>
       <c r="C58">
-        <v>-0.01431799730562455</v>
+        <v>-0.01860207241643796</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>127</v>
       </c>
       <c r="C59">
-        <v>-0.01508956247259829</v>
+        <v>-0.01985627599307815</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>128</v>
       </c>
       <c r="C60">
-        <v>-0.01579895751978644</v>
+        <v>-0.02066409255451596</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>129</v>
       </c>
       <c r="C61">
-        <v>-0.01791077237879013</v>
+        <v>-0.02104006264394476</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>130</v>
       </c>
       <c r="C62">
-        <v>-0.02427292610454557</v>
+        <v>-0.02299432204063667</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>131</v>
       </c>
       <c r="C63">
-        <v>-0.02489997168603364</v>
+        <v>-0.02377603790264793</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>132</v>
       </c>
       <c r="C64">
-        <v>-0.02922740502490762</v>
+        <v>-0.02422546482470556</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>133</v>
       </c>
       <c r="C65">
-        <v>-0.03015674324654094</v>
+        <v>-0.02674848670946839</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>134</v>
       </c>
       <c r="C66">
-        <v>-0.03850731698437238</v>
+        <v>-0.02678286113239547</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>135</v>
       </c>
       <c r="C67">
-        <v>-0.04361406314649763</v>
+        <v>-0.02881750389094961</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>136</v>
       </c>
       <c r="C68">
-        <v>-0.05032157672730153</v>
+        <v>-0.03074738407348721</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/主题.xlsx
+++ b/FOF/data/主题.xlsx
@@ -25,406 +25,406 @@
     <t>代码</t>
   </si>
   <si>
+    <t>886011.WI</t>
+  </si>
+  <si>
+    <t>886045.WI</t>
+  </si>
+  <si>
+    <t>886048.WI</t>
+  </si>
+  <si>
+    <t>886002.WI</t>
+  </si>
+  <si>
+    <t>886029.WI</t>
+  </si>
+  <si>
+    <t>886049.WI</t>
+  </si>
+  <si>
+    <t>886051.WI</t>
+  </si>
+  <si>
+    <t>886055.WI</t>
+  </si>
+  <si>
+    <t>886052.WI</t>
+  </si>
+  <si>
+    <t>886025.WI</t>
+  </si>
+  <si>
+    <t>886015.WI</t>
+  </si>
+  <si>
+    <t>886067.WI</t>
+  </si>
+  <si>
+    <t>886050.WI</t>
+  </si>
+  <si>
+    <t>886042.WI</t>
+  </si>
+  <si>
+    <t>886039.WI</t>
+  </si>
+  <si>
+    <t>886018.WI</t>
+  </si>
+  <si>
+    <t>886028.WI</t>
+  </si>
+  <si>
+    <t>886065.WI</t>
+  </si>
+  <si>
+    <t>886069.WI</t>
+  </si>
+  <si>
+    <t>886030.WI</t>
+  </si>
+  <si>
+    <t>886016.WI</t>
+  </si>
+  <si>
+    <t>886009.WI</t>
+  </si>
+  <si>
+    <t>886068.WI</t>
+  </si>
+  <si>
+    <t>886040.WI</t>
+  </si>
+  <si>
+    <t>886005.WI</t>
+  </si>
+  <si>
+    <t>886001.WI</t>
+  </si>
+  <si>
+    <t>886036.WI</t>
+  </si>
+  <si>
+    <t>886038.WI</t>
+  </si>
+  <si>
+    <t>886017.WI</t>
+  </si>
+  <si>
+    <t>886046.WI</t>
+  </si>
+  <si>
+    <t>886066.WI</t>
+  </si>
+  <si>
+    <t>886061.WI</t>
+  </si>
+  <si>
+    <t>886032.WI</t>
+  </si>
+  <si>
+    <t>886004.WI</t>
+  </si>
+  <si>
+    <t>886054.WI</t>
+  </si>
+  <si>
+    <t>886019.WI</t>
+  </si>
+  <si>
+    <t>886023.WI</t>
+  </si>
+  <si>
+    <t>886043.WI</t>
+  </si>
+  <si>
+    <t>886034.WI</t>
+  </si>
+  <si>
+    <t>886057.WI</t>
+  </si>
+  <si>
+    <t>886021.WI</t>
+  </si>
+  <si>
+    <t>886022.WI</t>
+  </si>
+  <si>
+    <t>886026.WI</t>
+  </si>
+  <si>
+    <t>886031.WI</t>
+  </si>
+  <si>
+    <t>886041.WI</t>
+  </si>
+  <si>
+    <t>886062.WI</t>
+  </si>
+  <si>
+    <t>886037.WI</t>
+  </si>
+  <si>
+    <t>886024.WI</t>
+  </si>
+  <si>
+    <t>886044.WI</t>
+  </si>
+  <si>
+    <t>886013.WI</t>
+  </si>
+  <si>
+    <t>886006.WI</t>
+  </si>
+  <si>
+    <t>886027.WI</t>
+  </si>
+  <si>
+    <t>886033.WI</t>
+  </si>
+  <si>
+    <t>886053.WI</t>
+  </si>
+  <si>
+    <t>886020.WI</t>
+  </si>
+  <si>
+    <t>886058.WI</t>
+  </si>
+  <si>
+    <t>886063.WI</t>
+  </si>
+  <si>
+    <t>886059.WI</t>
+  </si>
+  <si>
+    <t>886014.WI</t>
+  </si>
+  <si>
+    <t>886035.WI</t>
+  </si>
+  <si>
+    <t>886060.WI</t>
+  </si>
+  <si>
+    <t>886010.WI</t>
+  </si>
+  <si>
     <t>886064.WI</t>
   </si>
   <si>
+    <t>886003.WI</t>
+  </si>
+  <si>
+    <t>886007.WI</t>
+  </si>
+  <si>
     <t>886008.WI</t>
   </si>
   <si>
-    <t>886033.WI</t>
-  </si>
-  <si>
-    <t>886013.WI</t>
-  </si>
-  <si>
-    <t>886001.WI</t>
-  </si>
-  <si>
-    <t>886010.WI</t>
-  </si>
-  <si>
-    <t>886007.WI</t>
-  </si>
-  <si>
-    <t>886043.WI</t>
-  </si>
-  <si>
-    <t>886042.WI</t>
-  </si>
-  <si>
-    <t>886069.WI</t>
-  </si>
-  <si>
-    <t>886017.WI</t>
-  </si>
-  <si>
-    <t>886005.WI</t>
-  </si>
-  <si>
-    <t>886038.WI</t>
-  </si>
-  <si>
-    <t>886018.WI</t>
-  </si>
-  <si>
-    <t>886036.WI</t>
-  </si>
-  <si>
-    <t>886004.WI</t>
-  </si>
-  <si>
-    <t>886048.WI</t>
-  </si>
-  <si>
-    <t>886066.WI</t>
-  </si>
-  <si>
     <t>886012.WI</t>
   </si>
   <si>
-    <t>886035.WI</t>
-  </si>
-  <si>
-    <t>886053.WI</t>
-  </si>
-  <si>
-    <t>886046.WI</t>
-  </si>
-  <si>
-    <t>886055.WI</t>
-  </si>
-  <si>
-    <t>886006.WI</t>
-  </si>
-  <si>
-    <t>886002.WI</t>
-  </si>
-  <si>
-    <t>886011.WI</t>
-  </si>
-  <si>
-    <t>886019.WI</t>
-  </si>
-  <si>
-    <t>886041.WI</t>
-  </si>
-  <si>
-    <t>886022.WI</t>
-  </si>
-  <si>
-    <t>886026.WI</t>
-  </si>
-  <si>
-    <t>886003.WI</t>
-  </si>
-  <si>
-    <t>886059.WI</t>
-  </si>
-  <si>
-    <t>886051.WI</t>
-  </si>
-  <si>
-    <t>886009.WI</t>
-  </si>
-  <si>
-    <t>886032.WI</t>
-  </si>
-  <si>
-    <t>886034.WI</t>
-  </si>
-  <si>
-    <t>886027.WI</t>
-  </si>
-  <si>
-    <t>886061.WI</t>
-  </si>
-  <si>
-    <t>886028.WI</t>
-  </si>
-  <si>
-    <t>886020.WI</t>
-  </si>
-  <si>
-    <t>886030.WI</t>
-  </si>
-  <si>
-    <t>886023.WI</t>
-  </si>
-  <si>
-    <t>886050.WI</t>
-  </si>
-  <si>
-    <t>886021.WI</t>
-  </si>
-  <si>
-    <t>886058.WI</t>
-  </si>
-  <si>
-    <t>886025.WI</t>
-  </si>
-  <si>
-    <t>886065.WI</t>
-  </si>
-  <si>
-    <t>886037.WI</t>
-  </si>
-  <si>
-    <t>886016.WI</t>
-  </si>
-  <si>
-    <t>886049.WI</t>
-  </si>
-  <si>
-    <t>886045.WI</t>
-  </si>
-  <si>
-    <t>886057.WI</t>
-  </si>
-  <si>
-    <t>886044.WI</t>
-  </si>
-  <si>
-    <t>886068.WI</t>
-  </si>
-  <si>
-    <t>886067.WI</t>
-  </si>
-  <si>
-    <t>886040.WI</t>
-  </si>
-  <si>
-    <t>886039.WI</t>
-  </si>
-  <si>
-    <t>886031.WI</t>
-  </si>
-  <si>
-    <t>886024.WI</t>
-  </si>
-  <si>
-    <t>886063.WI</t>
-  </si>
-  <si>
-    <t>886062.WI</t>
-  </si>
-  <si>
-    <t>886015.WI</t>
-  </si>
-  <si>
-    <t>886052.WI</t>
-  </si>
-  <si>
-    <t>886054.WI</t>
-  </si>
-  <si>
-    <t>886029.WI</t>
-  </si>
-  <si>
-    <t>886014.WI</t>
-  </si>
-  <si>
-    <t>886060.WI</t>
+    <t>贵金属指数</t>
+  </si>
+  <si>
+    <t>农业指数</t>
+  </si>
+  <si>
+    <t>日用化工指数</t>
+  </si>
+  <si>
+    <t>石油天然气指数</t>
+  </si>
+  <si>
+    <t>机场指数</t>
+  </si>
+  <si>
+    <t>医疗保健指数</t>
+  </si>
+  <si>
+    <t>制药指数</t>
+  </si>
+  <si>
+    <t>保险指数</t>
+  </si>
+  <si>
+    <t>银行指数</t>
+  </si>
+  <si>
+    <t>办公用品指数</t>
+  </si>
+  <si>
+    <t>航天军工指数</t>
+  </si>
+  <si>
+    <t>水务指数</t>
+  </si>
+  <si>
+    <t>生物科技指数</t>
+  </si>
+  <si>
+    <t>零售指数</t>
+  </si>
+  <si>
+    <t>餐饮旅游指数</t>
+  </si>
+  <si>
+    <t>发电设备指数</t>
+  </si>
+  <si>
+    <t>陆路运输指数</t>
+  </si>
+  <si>
+    <t>电力指数</t>
+  </si>
+  <si>
+    <t>石油化工指数</t>
+  </si>
+  <si>
+    <t>公路指数</t>
+  </si>
+  <si>
+    <t>建筑指数</t>
+  </si>
+  <si>
+    <t>包装指数</t>
+  </si>
+  <si>
+    <t>工程机械指数</t>
+  </si>
+  <si>
+    <t>教育指数</t>
+  </si>
+  <si>
+    <t>化纤指数</t>
+  </si>
+  <si>
+    <t>能源设备指数</t>
+  </si>
+  <si>
+    <t>家居用品指数</t>
+  </si>
+  <si>
+    <t>纺织服装指数</t>
+  </si>
+  <si>
+    <t>电工电网指数</t>
+  </si>
+  <si>
+    <t>食品指数</t>
+  </si>
+  <si>
+    <t>燃气指数</t>
+  </si>
+  <si>
+    <t>电脑硬件指数</t>
+  </si>
+  <si>
+    <t>汽车零部件指数</t>
+  </si>
+  <si>
+    <t>化工原料指数</t>
+  </si>
+  <si>
+    <t>券商指数</t>
+  </si>
+  <si>
+    <t>综合类指数</t>
+  </si>
+  <si>
+    <t>商业服务指数</t>
+  </si>
+  <si>
+    <t>酒类指数</t>
+  </si>
+  <si>
+    <t>摩托车指数</t>
+  </si>
+  <si>
+    <t>房地产指数</t>
+  </si>
+  <si>
+    <t>工业机械指数</t>
+  </si>
+  <si>
+    <t>贸易指数</t>
+  </si>
+  <si>
+    <t>航空指数</t>
+  </si>
+  <si>
+    <t>港口指数</t>
+  </si>
+  <si>
+    <t>文化传媒指数</t>
+  </si>
+  <si>
+    <t>电子元器件指数</t>
+  </si>
+  <si>
+    <t>休闲用品指数</t>
+  </si>
+  <si>
+    <t>环保指数</t>
+  </si>
+  <si>
+    <t>软饮料指数</t>
+  </si>
+  <si>
+    <t>林木指数</t>
+  </si>
+  <si>
+    <t>精细化工指数</t>
+  </si>
+  <si>
+    <t>海运指数</t>
+  </si>
+  <si>
+    <t>汽车指数</t>
+  </si>
+  <si>
+    <t>多元金融指数</t>
+  </si>
+  <si>
+    <t>重型机械指数</t>
+  </si>
+  <si>
+    <t>互联网指数</t>
+  </si>
+  <si>
+    <t>半导体指数</t>
+  </si>
+  <si>
+    <t>软件指数</t>
+  </si>
+  <si>
+    <t>造纸指数</t>
+  </si>
+  <si>
+    <t>家用电器指数</t>
+  </si>
+  <si>
+    <t>通信设备指数</t>
+  </si>
+  <si>
+    <t>基本金属指数</t>
   </si>
   <si>
     <t>电信指数</t>
   </si>
   <si>
+    <t>煤炭指数</t>
+  </si>
+  <si>
+    <t>化肥农药指数</t>
+  </si>
+  <si>
     <t>建材指数</t>
   </si>
   <si>
-    <t>汽车指数</t>
-  </si>
-  <si>
-    <t>林木指数</t>
-  </si>
-  <si>
-    <t>能源设备指数</t>
-  </si>
-  <si>
-    <t>基本金属指数</t>
-  </si>
-  <si>
-    <t>化肥农药指数</t>
-  </si>
-  <si>
-    <t>酒类指数</t>
-  </si>
-  <si>
-    <t>零售指数</t>
-  </si>
-  <si>
-    <t>石油化工指数</t>
-  </si>
-  <si>
-    <t>电工电网指数</t>
-  </si>
-  <si>
-    <t>化纤指数</t>
-  </si>
-  <si>
-    <t>纺织服装指数</t>
-  </si>
-  <si>
-    <t>发电设备指数</t>
-  </si>
-  <si>
-    <t>家居用品指数</t>
-  </si>
-  <si>
-    <t>化工原料指数</t>
-  </si>
-  <si>
-    <t>日用化工指数</t>
-  </si>
-  <si>
-    <t>燃气指数</t>
-  </si>
-  <si>
     <t>钢铁指数</t>
-  </si>
-  <si>
-    <t>家用电器指数</t>
-  </si>
-  <si>
-    <t>多元金融指数</t>
-  </si>
-  <si>
-    <t>食品指数</t>
-  </si>
-  <si>
-    <t>保险指数</t>
-  </si>
-  <si>
-    <t>精细化工指数</t>
-  </si>
-  <si>
-    <t>石油天然气指数</t>
-  </si>
-  <si>
-    <t>贵金属指数</t>
-  </si>
-  <si>
-    <t>综合类指数</t>
-  </si>
-  <si>
-    <t>文化传媒指数</t>
-  </si>
-  <si>
-    <t>贸易指数</t>
-  </si>
-  <si>
-    <t>航空指数</t>
-  </si>
-  <si>
-    <t>煤炭指数</t>
-  </si>
-  <si>
-    <t>软件指数</t>
-  </si>
-  <si>
-    <t>制药指数</t>
-  </si>
-  <si>
-    <t>包装指数</t>
-  </si>
-  <si>
-    <t>汽车零部件指数</t>
-  </si>
-  <si>
-    <t>摩托车指数</t>
-  </si>
-  <si>
-    <t>海运指数</t>
-  </si>
-  <si>
-    <t>电脑硬件指数</t>
-  </si>
-  <si>
-    <t>陆路运输指数</t>
-  </si>
-  <si>
-    <t>重型机械指数</t>
-  </si>
-  <si>
-    <t>公路指数</t>
-  </si>
-  <si>
-    <t>商业服务指数</t>
-  </si>
-  <si>
-    <t>生物科技指数</t>
-  </si>
-  <si>
-    <t>工业机械指数</t>
-  </si>
-  <si>
-    <t>互联网指数</t>
-  </si>
-  <si>
-    <t>办公用品指数</t>
-  </si>
-  <si>
-    <t>电力指数</t>
-  </si>
-  <si>
-    <t>休闲用品指数</t>
-  </si>
-  <si>
-    <t>建筑指数</t>
-  </si>
-  <si>
-    <t>医疗保健指数</t>
-  </si>
-  <si>
-    <t>农业指数</t>
-  </si>
-  <si>
-    <t>房地产指数</t>
-  </si>
-  <si>
-    <t>软饮料指数</t>
-  </si>
-  <si>
-    <t>工程机械指数</t>
-  </si>
-  <si>
-    <t>水务指数</t>
-  </si>
-  <si>
-    <t>教育指数</t>
-  </si>
-  <si>
-    <t>餐饮旅游指数</t>
-  </si>
-  <si>
-    <t>港口指数</t>
-  </si>
-  <si>
-    <t>环保指数</t>
-  </si>
-  <si>
-    <t>半导体指数</t>
-  </si>
-  <si>
-    <t>电子元器件指数</t>
-  </si>
-  <si>
-    <t>航天军工指数</t>
-  </si>
-  <si>
-    <t>银行指数</t>
-  </si>
-  <si>
-    <t>券商指数</t>
-  </si>
-  <si>
-    <t>机场指数</t>
-  </si>
-  <si>
-    <t>造纸指数</t>
-  </si>
-  <si>
-    <t>通信设备指数</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
         <v>70</v>
       </c>
       <c r="C2">
-        <v>0.02671413689539981</v>
+        <v>0.02486627170004074</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -818,7 +818,7 @@
         <v>71</v>
       </c>
       <c r="C3">
-        <v>0.02538472221890209</v>
+        <v>0.009958690359486821</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -829,7 +829,7 @@
         <v>72</v>
       </c>
       <c r="C4">
-        <v>0.01273520912507342</v>
+        <v>0.007856671276771587</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -840,7 +840,7 @@
         <v>73</v>
       </c>
       <c r="C5">
-        <v>0.01180973512910466</v>
+        <v>0.006466324609177621</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -851,7 +851,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>0.01108459280718743</v>
+        <v>0.00148612204571319</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -862,7 +862,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>0.009168694728682203</v>
+        <v>-0.001261307663337763</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -873,7 +873,7 @@
         <v>76</v>
       </c>
       <c r="C8">
-        <v>0.006791718406803149</v>
+        <v>-0.009798047222071449</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -884,7 +884,7 @@
         <v>77</v>
       </c>
       <c r="C9">
-        <v>0.00617360939968048</v>
+        <v>-0.01361908632750253</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -895,7 +895,7 @@
         <v>78</v>
       </c>
       <c r="C10">
-        <v>0.005196922752171762</v>
+        <v>-0.01940400823507049</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -906,7 +906,7 @@
         <v>79</v>
       </c>
       <c r="C11">
-        <v>0.004508318362279828</v>
+        <v>-0.02038052324109829</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -917,7 +917,7 @@
         <v>80</v>
       </c>
       <c r="C12">
-        <v>0.004372836803870017</v>
+        <v>-0.02133188259776575</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -928,7 +928,7 @@
         <v>81</v>
       </c>
       <c r="C13">
-        <v>0.002552631148707851</v>
+        <v>-0.02216061906195754</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -939,7 +939,7 @@
         <v>82</v>
       </c>
       <c r="C14">
-        <v>0.001139936827493138</v>
+        <v>-0.02271671657214869</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -950,7 +950,7 @@
         <v>83</v>
       </c>
       <c r="C15">
-        <v>0.0005416455148492538</v>
+        <v>-0.02484378165034606</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -961,7 +961,7 @@
         <v>84</v>
       </c>
       <c r="C16">
-        <v>0.0004723170986122849</v>
+        <v>-0.0254920536872385</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -972,7 +972,7 @@
         <v>85</v>
       </c>
       <c r="C17">
-        <v>0.0003531358287673925</v>
+        <v>-0.03206344371022385</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -983,7 +983,7 @@
         <v>86</v>
       </c>
       <c r="C18">
-        <v>-0.0001231106825737571</v>
+        <v>-0.03422406285017077</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -994,7 +994,7 @@
         <v>87</v>
       </c>
       <c r="C19">
-        <v>-0.001405501593353731</v>
+        <v>-0.03481039792815621</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1005,7 +1005,7 @@
         <v>88</v>
       </c>
       <c r="C20">
-        <v>-0.001483740450088256</v>
+        <v>-0.03536289055173181</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1016,7 +1016,7 @@
         <v>89</v>
       </c>
       <c r="C21">
-        <v>-0.002320935672027513</v>
+        <v>-0.03870198675119252</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1027,7 +1027,7 @@
         <v>90</v>
       </c>
       <c r="C22">
-        <v>-0.0027023723396572</v>
+        <v>-0.03962377627285751</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>91</v>
       </c>
       <c r="C23">
-        <v>-0.004316485686786886</v>
+        <v>-0.04080047220923888</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>92</v>
       </c>
       <c r="C24">
-        <v>-0.004540492228572224</v>
+        <v>-0.04428438737350859</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>93</v>
       </c>
       <c r="C25">
-        <v>-0.004551614629744849</v>
+        <v>-0.04573223276562333</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1071,7 +1071,7 @@
         <v>94</v>
       </c>
       <c r="C26">
-        <v>-0.005206914161393739</v>
+        <v>-0.0464179058154025</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>95</v>
       </c>
       <c r="C27">
-        <v>-0.005354245649977774</v>
+        <v>-0.0467715128129006</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>96</v>
       </c>
       <c r="C28">
-        <v>-0.006236339816739322</v>
+        <v>-0.04689672761766073</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>97</v>
       </c>
       <c r="C29">
-        <v>-0.007575734221717423</v>
+        <v>-0.04706656961213118</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>98</v>
       </c>
       <c r="C30">
-        <v>-0.007884561261913614</v>
+        <v>-0.04800554312941585</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1126,7 +1126,7 @@
         <v>99</v>
       </c>
       <c r="C31">
-        <v>-0.008279915868981469</v>
+        <v>-0.04889269307921218</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>-0.008414631494146452</v>
+        <v>-0.04914507107935762</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>101</v>
       </c>
       <c r="C33">
-        <v>-0.01007171448010868</v>
+        <v>-0.04935316154649916</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>102</v>
       </c>
       <c r="C34">
-        <v>-0.01034623384673472</v>
+        <v>-0.04955543010889585</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>103</v>
       </c>
       <c r="C35">
-        <v>-0.01076479015986442</v>
+        <v>-0.05033337844973607</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1181,7 +1181,7 @@
         <v>104</v>
       </c>
       <c r="C36">
-        <v>-0.0111396350555325</v>
+        <v>-0.05034383380103913</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>105</v>
       </c>
       <c r="C37">
-        <v>-0.01178422685086833</v>
+        <v>-0.05056646062837356</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>106</v>
       </c>
       <c r="C38">
-        <v>-0.0120356567861325</v>
+        <v>-0.05277858845179917</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="C39">
-        <v>-0.0120477860370195</v>
+        <v>-0.0528640905345622</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>108</v>
       </c>
       <c r="C40">
-        <v>-0.01217688134808992</v>
+        <v>-0.05475959318978485</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>109</v>
       </c>
       <c r="C41">
-        <v>-0.01340603540007812</v>
+        <v>-0.05488547727637327</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>110</v>
       </c>
       <c r="C42">
-        <v>-0.01355893490962057</v>
+        <v>-0.05542690456593713</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>111</v>
       </c>
       <c r="C43">
-        <v>-0.01432283755944275</v>
+        <v>-0.05769302802916598</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>112</v>
       </c>
       <c r="C44">
-        <v>-0.0145190328375524</v>
+        <v>-0.05890752147180511</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>-0.01458971117117802</v>
+        <v>-0.05953003662716438</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1291,7 +1291,7 @@
         <v>114</v>
       </c>
       <c r="C46">
-        <v>-0.01459820286188585</v>
+        <v>-0.06039779304175164</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="C47">
-        <v>-0.01517022055525974</v>
+        <v>-0.0605772508032717</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>116</v>
       </c>
       <c r="C48">
-        <v>-0.01542915525928212</v>
+        <v>-0.06181964597581791</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>117</v>
       </c>
       <c r="C49">
-        <v>-0.01557389091465045</v>
+        <v>-0.0621110092604038</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>118</v>
       </c>
       <c r="C50">
-        <v>-0.01563188955656869</v>
+        <v>-0.06238329561511413</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>119</v>
       </c>
       <c r="C51">
-        <v>-0.01659377036713239</v>
+        <v>-0.06407251244787482</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>120</v>
       </c>
       <c r="C52">
-        <v>-0.01761185831712309</v>
+        <v>-0.06441700908183767</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1368,7 +1368,7 @@
         <v>121</v>
       </c>
       <c r="C53">
-        <v>-0.01763485130091391</v>
+        <v>-0.0644926916916525</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>122</v>
       </c>
       <c r="C54">
-        <v>-0.01767361475137519</v>
+        <v>-0.06476360465110742</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>123</v>
       </c>
       <c r="C55">
-        <v>-0.01791965544262075</v>
+        <v>-0.06547137853348906</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1401,7 +1401,7 @@
         <v>124</v>
       </c>
       <c r="C56">
-        <v>-0.01835553325236172</v>
+        <v>-0.06628570844477588</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>125</v>
       </c>
       <c r="C57">
-        <v>-0.01836550259086811</v>
+        <v>-0.06643090877973368</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>126</v>
       </c>
       <c r="C58">
-        <v>-0.01860207241643796</v>
+        <v>-0.06925810832741219</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>127</v>
       </c>
       <c r="C59">
-        <v>-0.01985627599307815</v>
+        <v>-0.07023618784691865</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>128</v>
       </c>
       <c r="C60">
-        <v>-0.02066409255451596</v>
+        <v>-0.07212019028466543</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>129</v>
       </c>
       <c r="C61">
-        <v>-0.02104006264394476</v>
+        <v>-0.07299438270492919</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>130</v>
       </c>
       <c r="C62">
-        <v>-0.02299432204063667</v>
+        <v>-0.0755318593596338</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>131</v>
       </c>
       <c r="C63">
-        <v>-0.02377603790264793</v>
+        <v>-0.07581865946744026</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>132</v>
       </c>
       <c r="C64">
-        <v>-0.02422546482470556</v>
+        <v>-0.07582053316553794</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>133</v>
       </c>
       <c r="C65">
-        <v>-0.02674848670946839</v>
+        <v>-0.07935556942242084</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>134</v>
       </c>
       <c r="C66">
-        <v>-0.02678286113239547</v>
+        <v>-0.08079623049052409</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>135</v>
       </c>
       <c r="C67">
-        <v>-0.02881750389094961</v>
+        <v>-0.08204237686983196</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>136</v>
       </c>
       <c r="C68">
-        <v>-0.03074738407348721</v>
+        <v>-0.09222100576166981</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/主题.xlsx
+++ b/FOF/data/主题.xlsx
@@ -25,406 +25,406 @@
     <t>代码</t>
   </si>
   <si>
+    <t>886063.WI</t>
+  </si>
+  <si>
+    <t>886061.WI</t>
+  </si>
+  <si>
+    <t>886015.WI</t>
+  </si>
+  <si>
+    <t>886044.WI</t>
+  </si>
+  <si>
+    <t>886018.WI</t>
+  </si>
+  <si>
+    <t>886059.WI</t>
+  </si>
+  <si>
+    <t>886025.WI</t>
+  </si>
+  <si>
+    <t>886043.WI</t>
+  </si>
+  <si>
+    <t>886012.WI</t>
+  </si>
+  <si>
+    <t>886035.WI</t>
+  </si>
+  <si>
+    <t>886002.WI</t>
+  </si>
+  <si>
+    <t>886045.WI</t>
+  </si>
+  <si>
+    <t>886067.WI</t>
+  </si>
+  <si>
+    <t>886046.WI</t>
+  </si>
+  <si>
+    <t>886003.WI</t>
+  </si>
+  <si>
+    <t>886068.WI</t>
+  </si>
+  <si>
+    <t>886051.WI</t>
+  </si>
+  <si>
+    <t>886005.WI</t>
+  </si>
+  <si>
+    <t>886019.WI</t>
+  </si>
+  <si>
+    <t>886052.WI</t>
+  </si>
+  <si>
+    <t>886010.WI</t>
+  </si>
+  <si>
     <t>886011.WI</t>
   </si>
   <si>
-    <t>886045.WI</t>
+    <t>886050.WI</t>
+  </si>
+  <si>
+    <t>886065.WI</t>
+  </si>
+  <si>
+    <t>886004.WI</t>
+  </si>
+  <si>
+    <t>886058.WI</t>
+  </si>
+  <si>
+    <t>886030.WI</t>
+  </si>
+  <si>
+    <t>886034.WI</t>
+  </si>
+  <si>
+    <t>886049.WI</t>
+  </si>
+  <si>
+    <t>886038.WI</t>
+  </si>
+  <si>
+    <t>886031.WI</t>
+  </si>
+  <si>
+    <t>886006.WI</t>
+  </si>
+  <si>
+    <t>886024.WI</t>
+  </si>
+  <si>
+    <t>886017.WI</t>
+  </si>
+  <si>
+    <t>886027.WI</t>
+  </si>
+  <si>
+    <t>886021.WI</t>
+  </si>
+  <si>
+    <t>886020.WI</t>
+  </si>
+  <si>
+    <t>886028.WI</t>
+  </si>
+  <si>
+    <t>886069.WI</t>
+  </si>
+  <si>
+    <t>886016.WI</t>
+  </si>
+  <si>
+    <t>886036.WI</t>
+  </si>
+  <si>
+    <t>886055.WI</t>
+  </si>
+  <si>
+    <t>886054.WI</t>
+  </si>
+  <si>
+    <t>886007.WI</t>
+  </si>
+  <si>
+    <t>886001.WI</t>
+  </si>
+  <si>
+    <t>886042.WI</t>
+  </si>
+  <si>
+    <t>886040.WI</t>
+  </si>
+  <si>
+    <t>886060.WI</t>
+  </si>
+  <si>
+    <t>886029.WI</t>
+  </si>
+  <si>
+    <t>886037.WI</t>
+  </si>
+  <si>
+    <t>886013.WI</t>
+  </si>
+  <si>
+    <t>886026.WI</t>
+  </si>
+  <si>
+    <t>886057.WI</t>
+  </si>
+  <si>
+    <t>886041.WI</t>
+  </si>
+  <si>
+    <t>886039.WI</t>
   </si>
   <si>
     <t>886048.WI</t>
   </si>
   <si>
-    <t>886002.WI</t>
-  </si>
-  <si>
-    <t>886029.WI</t>
-  </si>
-  <si>
-    <t>886049.WI</t>
-  </si>
-  <si>
-    <t>886051.WI</t>
-  </si>
-  <si>
-    <t>886055.WI</t>
-  </si>
-  <si>
-    <t>886052.WI</t>
-  </si>
-  <si>
-    <t>886025.WI</t>
-  </si>
-  <si>
-    <t>886015.WI</t>
-  </si>
-  <si>
-    <t>886067.WI</t>
-  </si>
-  <si>
-    <t>886050.WI</t>
-  </si>
-  <si>
-    <t>886042.WI</t>
-  </si>
-  <si>
-    <t>886039.WI</t>
-  </si>
-  <si>
-    <t>886018.WI</t>
-  </si>
-  <si>
-    <t>886028.WI</t>
-  </si>
-  <si>
-    <t>886065.WI</t>
-  </si>
-  <si>
-    <t>886069.WI</t>
-  </si>
-  <si>
-    <t>886030.WI</t>
-  </si>
-  <si>
-    <t>886016.WI</t>
+    <t>886053.WI</t>
+  </si>
+  <si>
+    <t>886008.WI</t>
+  </si>
+  <si>
+    <t>886066.WI</t>
+  </si>
+  <si>
+    <t>886033.WI</t>
+  </si>
+  <si>
+    <t>886023.WI</t>
+  </si>
+  <si>
+    <t>886062.WI</t>
+  </si>
+  <si>
+    <t>886032.WI</t>
   </si>
   <si>
     <t>886009.WI</t>
   </si>
   <si>
-    <t>886068.WI</t>
-  </si>
-  <si>
-    <t>886040.WI</t>
-  </si>
-  <si>
-    <t>886005.WI</t>
-  </si>
-  <si>
-    <t>886001.WI</t>
-  </si>
-  <si>
-    <t>886036.WI</t>
-  </si>
-  <si>
-    <t>886038.WI</t>
-  </si>
-  <si>
-    <t>886017.WI</t>
-  </si>
-  <si>
-    <t>886046.WI</t>
-  </si>
-  <si>
-    <t>886066.WI</t>
-  </si>
-  <si>
-    <t>886061.WI</t>
-  </si>
-  <si>
-    <t>886032.WI</t>
-  </si>
-  <si>
-    <t>886004.WI</t>
-  </si>
-  <si>
-    <t>886054.WI</t>
-  </si>
-  <si>
-    <t>886019.WI</t>
-  </si>
-  <si>
-    <t>886023.WI</t>
-  </si>
-  <si>
-    <t>886043.WI</t>
-  </si>
-  <si>
-    <t>886034.WI</t>
-  </si>
-  <si>
-    <t>886057.WI</t>
-  </si>
-  <si>
-    <t>886021.WI</t>
+    <t>886014.WI</t>
   </si>
   <si>
     <t>886022.WI</t>
   </si>
   <si>
-    <t>886026.WI</t>
-  </si>
-  <si>
-    <t>886031.WI</t>
-  </si>
-  <si>
-    <t>886041.WI</t>
-  </si>
-  <si>
-    <t>886062.WI</t>
-  </si>
-  <si>
-    <t>886037.WI</t>
-  </si>
-  <si>
-    <t>886024.WI</t>
-  </si>
-  <si>
-    <t>886044.WI</t>
-  </si>
-  <si>
-    <t>886013.WI</t>
-  </si>
-  <si>
-    <t>886006.WI</t>
-  </si>
-  <si>
-    <t>886027.WI</t>
-  </si>
-  <si>
-    <t>886033.WI</t>
-  </si>
-  <si>
-    <t>886053.WI</t>
-  </si>
-  <si>
-    <t>886020.WI</t>
-  </si>
-  <si>
-    <t>886058.WI</t>
-  </si>
-  <si>
-    <t>886063.WI</t>
-  </si>
-  <si>
-    <t>886059.WI</t>
-  </si>
-  <si>
-    <t>886014.WI</t>
-  </si>
-  <si>
-    <t>886035.WI</t>
-  </si>
-  <si>
-    <t>886060.WI</t>
-  </si>
-  <si>
-    <t>886010.WI</t>
-  </si>
-  <si>
     <t>886064.WI</t>
   </si>
   <si>
-    <t>886003.WI</t>
-  </si>
-  <si>
-    <t>886007.WI</t>
-  </si>
-  <si>
-    <t>886008.WI</t>
-  </si>
-  <si>
-    <t>886012.WI</t>
+    <t>半导体指数</t>
+  </si>
+  <si>
+    <t>电脑硬件指数</t>
+  </si>
+  <si>
+    <t>航天军工指数</t>
+  </si>
+  <si>
+    <t>软饮料指数</t>
+  </si>
+  <si>
+    <t>发电设备指数</t>
+  </si>
+  <si>
+    <t>软件指数</t>
+  </si>
+  <si>
+    <t>办公用品指数</t>
+  </si>
+  <si>
+    <t>酒类指数</t>
+  </si>
+  <si>
+    <t>钢铁指数</t>
+  </si>
+  <si>
+    <t>家用电器指数</t>
+  </si>
+  <si>
+    <t>石油天然气指数</t>
+  </si>
+  <si>
+    <t>农业指数</t>
+  </si>
+  <si>
+    <t>水务指数</t>
+  </si>
+  <si>
+    <t>食品指数</t>
+  </si>
+  <si>
+    <t>煤炭指数</t>
+  </si>
+  <si>
+    <t>工程机械指数</t>
+  </si>
+  <si>
+    <t>制药指数</t>
+  </si>
+  <si>
+    <t>化纤指数</t>
+  </si>
+  <si>
+    <t>综合类指数</t>
+  </si>
+  <si>
+    <t>银行指数</t>
+  </si>
+  <si>
+    <t>基本金属指数</t>
   </si>
   <si>
     <t>贵金属指数</t>
   </si>
   <si>
-    <t>农业指数</t>
+    <t>生物科技指数</t>
+  </si>
+  <si>
+    <t>电力指数</t>
+  </si>
+  <si>
+    <t>化工原料指数</t>
+  </si>
+  <si>
+    <t>互联网指数</t>
+  </si>
+  <si>
+    <t>公路指数</t>
+  </si>
+  <si>
+    <t>摩托车指数</t>
+  </si>
+  <si>
+    <t>医疗保健指数</t>
+  </si>
+  <si>
+    <t>纺织服装指数</t>
+  </si>
+  <si>
+    <t>港口指数</t>
+  </si>
+  <si>
+    <t>精细化工指数</t>
+  </si>
+  <si>
+    <t>环保指数</t>
+  </si>
+  <si>
+    <t>电工电网指数</t>
+  </si>
+  <si>
+    <t>海运指数</t>
+  </si>
+  <si>
+    <t>工业机械指数</t>
+  </si>
+  <si>
+    <t>重型机械指数</t>
+  </si>
+  <si>
+    <t>陆路运输指数</t>
+  </si>
+  <si>
+    <t>石油化工指数</t>
+  </si>
+  <si>
+    <t>建筑指数</t>
+  </si>
+  <si>
+    <t>家居用品指数</t>
+  </si>
+  <si>
+    <t>保险指数</t>
+  </si>
+  <si>
+    <t>券商指数</t>
+  </si>
+  <si>
+    <t>化肥农药指数</t>
+  </si>
+  <si>
+    <t>能源设备指数</t>
+  </si>
+  <si>
+    <t>零售指数</t>
+  </si>
+  <si>
+    <t>教育指数</t>
+  </si>
+  <si>
+    <t>通信设备指数</t>
+  </si>
+  <si>
+    <t>机场指数</t>
+  </si>
+  <si>
+    <t>休闲用品指数</t>
+  </si>
+  <si>
+    <t>林木指数</t>
+  </si>
+  <si>
+    <t>航空指数</t>
+  </si>
+  <si>
+    <t>房地产指数</t>
+  </si>
+  <si>
+    <t>文化传媒指数</t>
+  </si>
+  <si>
+    <t>餐饮旅游指数</t>
   </si>
   <si>
     <t>日用化工指数</t>
   </si>
   <si>
-    <t>石油天然气指数</t>
-  </si>
-  <si>
-    <t>机场指数</t>
-  </si>
-  <si>
-    <t>医疗保健指数</t>
-  </si>
-  <si>
-    <t>制药指数</t>
-  </si>
-  <si>
-    <t>保险指数</t>
-  </si>
-  <si>
-    <t>银行指数</t>
-  </si>
-  <si>
-    <t>办公用品指数</t>
-  </si>
-  <si>
-    <t>航天军工指数</t>
-  </si>
-  <si>
-    <t>水务指数</t>
-  </si>
-  <si>
-    <t>生物科技指数</t>
-  </si>
-  <si>
-    <t>零售指数</t>
-  </si>
-  <si>
-    <t>餐饮旅游指数</t>
-  </si>
-  <si>
-    <t>发电设备指数</t>
-  </si>
-  <si>
-    <t>陆路运输指数</t>
-  </si>
-  <si>
-    <t>电力指数</t>
-  </si>
-  <si>
-    <t>石油化工指数</t>
-  </si>
-  <si>
-    <t>公路指数</t>
-  </si>
-  <si>
-    <t>建筑指数</t>
+    <t>多元金融指数</t>
+  </si>
+  <si>
+    <t>建材指数</t>
+  </si>
+  <si>
+    <t>燃气指数</t>
+  </si>
+  <si>
+    <t>汽车指数</t>
+  </si>
+  <si>
+    <t>商业服务指数</t>
+  </si>
+  <si>
+    <t>电子元器件指数</t>
+  </si>
+  <si>
+    <t>汽车零部件指数</t>
   </si>
   <si>
     <t>包装指数</t>
   </si>
   <si>
-    <t>工程机械指数</t>
-  </si>
-  <si>
-    <t>教育指数</t>
-  </si>
-  <si>
-    <t>化纤指数</t>
-  </si>
-  <si>
-    <t>能源设备指数</t>
-  </si>
-  <si>
-    <t>家居用品指数</t>
-  </si>
-  <si>
-    <t>纺织服装指数</t>
-  </si>
-  <si>
-    <t>电工电网指数</t>
-  </si>
-  <si>
-    <t>食品指数</t>
-  </si>
-  <si>
-    <t>燃气指数</t>
-  </si>
-  <si>
-    <t>电脑硬件指数</t>
-  </si>
-  <si>
-    <t>汽车零部件指数</t>
-  </si>
-  <si>
-    <t>化工原料指数</t>
-  </si>
-  <si>
-    <t>券商指数</t>
-  </si>
-  <si>
-    <t>综合类指数</t>
-  </si>
-  <si>
-    <t>商业服务指数</t>
-  </si>
-  <si>
-    <t>酒类指数</t>
-  </si>
-  <si>
-    <t>摩托车指数</t>
-  </si>
-  <si>
-    <t>房地产指数</t>
-  </si>
-  <si>
-    <t>工业机械指数</t>
+    <t>造纸指数</t>
   </si>
   <si>
     <t>贸易指数</t>
   </si>
   <si>
-    <t>航空指数</t>
-  </si>
-  <si>
-    <t>港口指数</t>
-  </si>
-  <si>
-    <t>文化传媒指数</t>
-  </si>
-  <si>
-    <t>电子元器件指数</t>
-  </si>
-  <si>
-    <t>休闲用品指数</t>
-  </si>
-  <si>
-    <t>环保指数</t>
-  </si>
-  <si>
-    <t>软饮料指数</t>
-  </si>
-  <si>
-    <t>林木指数</t>
-  </si>
-  <si>
-    <t>精细化工指数</t>
-  </si>
-  <si>
-    <t>海运指数</t>
-  </si>
-  <si>
-    <t>汽车指数</t>
-  </si>
-  <si>
-    <t>多元金融指数</t>
-  </si>
-  <si>
-    <t>重型机械指数</t>
-  </si>
-  <si>
-    <t>互联网指数</t>
-  </si>
-  <si>
-    <t>半导体指数</t>
-  </si>
-  <si>
-    <t>软件指数</t>
-  </si>
-  <si>
-    <t>造纸指数</t>
-  </si>
-  <si>
-    <t>家用电器指数</t>
-  </si>
-  <si>
-    <t>通信设备指数</t>
-  </si>
-  <si>
-    <t>基本金属指数</t>
-  </si>
-  <si>
     <t>电信指数</t>
-  </si>
-  <si>
-    <t>煤炭指数</t>
-  </si>
-  <si>
-    <t>化肥农药指数</t>
-  </si>
-  <si>
-    <t>建材指数</t>
-  </si>
-  <si>
-    <t>钢铁指数</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
         <v>70</v>
       </c>
       <c r="C2">
-        <v>0.02486627170004074</v>
+        <v>0.06201792416908614</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -818,7 +818,7 @@
         <v>71</v>
       </c>
       <c r="C3">
-        <v>0.009958690359486821</v>
+        <v>0.04115375741398775</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -829,7 +829,7 @@
         <v>72</v>
       </c>
       <c r="C4">
-        <v>0.007856671276771587</v>
+        <v>0.02915463274643582</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -840,7 +840,7 @@
         <v>73</v>
       </c>
       <c r="C5">
-        <v>0.006466324609177621</v>
+        <v>0.008299173838347551</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -851,7 +851,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>0.00148612204571319</v>
+        <v>-0.001434386841072777</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -862,7 +862,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>-0.001261307663337763</v>
+        <v>-0.006559686458668335</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -873,7 +873,7 @@
         <v>76</v>
       </c>
       <c r="C8">
-        <v>-0.009798047222071449</v>
+        <v>-0.007159295884171302</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -884,7 +884,7 @@
         <v>77</v>
       </c>
       <c r="C9">
-        <v>-0.01361908632750253</v>
+        <v>-0.008239928439469302</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -895,7 +895,7 @@
         <v>78</v>
       </c>
       <c r="C10">
-        <v>-0.01940400823507049</v>
+        <v>-0.009769490278525694</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -906,7 +906,7 @@
         <v>79</v>
       </c>
       <c r="C11">
-        <v>-0.02038052324109829</v>
+        <v>-0.01268323238920277</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -917,7 +917,7 @@
         <v>80</v>
       </c>
       <c r="C12">
-        <v>-0.02133188259776575</v>
+        <v>-0.01285546740922294</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -928,7 +928,7 @@
         <v>81</v>
       </c>
       <c r="C13">
-        <v>-0.02216061906195754</v>
+        <v>-0.01667805291660995</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -939,7 +939,7 @@
         <v>82</v>
       </c>
       <c r="C14">
-        <v>-0.02271671657214869</v>
+        <v>-0.01681968551704993</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -950,7 +950,7 @@
         <v>83</v>
       </c>
       <c r="C15">
-        <v>-0.02484378165034606</v>
+        <v>-0.0190941237707708</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -961,7 +961,7 @@
         <v>84</v>
       </c>
       <c r="C16">
-        <v>-0.0254920536872385</v>
+        <v>-0.01982121766633715</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -972,7 +972,7 @@
         <v>85</v>
       </c>
       <c r="C17">
-        <v>-0.03206344371022385</v>
+        <v>-0.02083003950688744</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -983,7 +983,7 @@
         <v>86</v>
       </c>
       <c r="C18">
-        <v>-0.03422406285017077</v>
+        <v>-0.02123600642335444</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -994,7 +994,7 @@
         <v>87</v>
       </c>
       <c r="C19">
-        <v>-0.03481039792815621</v>
+        <v>-0.02237145229982351</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1005,7 +1005,7 @@
         <v>88</v>
       </c>
       <c r="C20">
-        <v>-0.03536289055173181</v>
+        <v>-0.0243881308322863</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1016,7 +1016,7 @@
         <v>89</v>
       </c>
       <c r="C21">
-        <v>-0.03870198675119252</v>
+        <v>-0.02665440602279334</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1027,7 +1027,7 @@
         <v>90</v>
       </c>
       <c r="C22">
-        <v>-0.03962377627285751</v>
+        <v>-0.02767264563432292</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>91</v>
       </c>
       <c r="C23">
-        <v>-0.04080047220923888</v>
+        <v>-0.02789757376680835</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>92</v>
       </c>
       <c r="C24">
-        <v>-0.04428438737350859</v>
+        <v>-0.02805774635656899</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>93</v>
       </c>
       <c r="C25">
-        <v>-0.04573223276562333</v>
+        <v>-0.02892482613441083</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1071,7 +1071,7 @@
         <v>94</v>
       </c>
       <c r="C26">
-        <v>-0.0464179058154025</v>
+        <v>-0.02965651258981927</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>95</v>
       </c>
       <c r="C27">
-        <v>-0.0467715128129006</v>
+        <v>-0.03031061297589721</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>96</v>
       </c>
       <c r="C28">
-        <v>-0.04689672761766073</v>
+        <v>-0.03121241925428486</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>97</v>
       </c>
       <c r="C29">
-        <v>-0.04706656961213118</v>
+        <v>-0.03157501854761291</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>98</v>
       </c>
       <c r="C30">
-        <v>-0.04800554312941585</v>
+        <v>-0.03223276611446968</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1126,7 +1126,7 @@
         <v>99</v>
       </c>
       <c r="C31">
-        <v>-0.04889269307921218</v>
+        <v>-0.03225331723461067</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>-0.04914507107935762</v>
+        <v>-0.03326125132803581</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>101</v>
       </c>
       <c r="C33">
-        <v>-0.04935316154649916</v>
+        <v>-0.03341340462456488</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>102</v>
       </c>
       <c r="C34">
-        <v>-0.04955543010889585</v>
+        <v>-0.03347405023605388</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>103</v>
       </c>
       <c r="C35">
-        <v>-0.05033337844973607</v>
+        <v>-0.03347880939096182</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1181,7 +1181,7 @@
         <v>104</v>
       </c>
       <c r="C36">
-        <v>-0.05034383380103913</v>
+        <v>-0.03374536843908005</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>105</v>
       </c>
       <c r="C37">
-        <v>-0.05056646062837356</v>
+        <v>-0.03418782589407443</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>106</v>
       </c>
       <c r="C38">
-        <v>-0.05277858845179917</v>
+        <v>-0.03465260016405458</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="C39">
-        <v>-0.0528640905345622</v>
+        <v>-0.03502193813041166</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>108</v>
       </c>
       <c r="C40">
-        <v>-0.05475959318978485</v>
+        <v>-0.03514273341555429</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>109</v>
       </c>
       <c r="C41">
-        <v>-0.05488547727637327</v>
+        <v>-0.03552643935764654</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>110</v>
       </c>
       <c r="C42">
-        <v>-0.05542690456593713</v>
+        <v>-0.035866809552481</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>111</v>
       </c>
       <c r="C43">
-        <v>-0.05769302802916598</v>
+        <v>-0.03638745587529235</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>112</v>
       </c>
       <c r="C44">
-        <v>-0.05890752147180511</v>
+        <v>-0.03643242832803939</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>-0.05953003662716438</v>
+        <v>-0.03728989316828057</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1291,7 +1291,7 @@
         <v>114</v>
       </c>
       <c r="C46">
-        <v>-0.06039779304175164</v>
+        <v>-0.03833279474983242</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="C47">
-        <v>-0.0605772508032717</v>
+        <v>-0.0385116227484964</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>116</v>
       </c>
       <c r="C48">
-        <v>-0.06181964597581791</v>
+        <v>-0.03863240789838362</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>117</v>
       </c>
       <c r="C49">
-        <v>-0.0621110092604038</v>
+        <v>-0.03876894414977294</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>118</v>
       </c>
       <c r="C50">
-        <v>-0.06238329561511413</v>
+        <v>-0.03907906823440321</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>119</v>
       </c>
       <c r="C51">
-        <v>-0.06407251244787482</v>
+        <v>-0.03996864516534027</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>120</v>
       </c>
       <c r="C52">
-        <v>-0.06441700908183767</v>
+        <v>-0.04001806280948716</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1368,7 +1368,7 @@
         <v>121</v>
       </c>
       <c r="C53">
-        <v>-0.0644926916916525</v>
+        <v>-0.04119387476420866</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>122</v>
       </c>
       <c r="C54">
-        <v>-0.06476360465110742</v>
+        <v>-0.04209036521208442</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>123</v>
       </c>
       <c r="C55">
-        <v>-0.06547137853348906</v>
+        <v>-0.04273652030175668</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1401,7 +1401,7 @@
         <v>124</v>
       </c>
       <c r="C56">
-        <v>-0.06628570844477588</v>
+        <v>-0.04287285514246186</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>125</v>
       </c>
       <c r="C57">
-        <v>-0.06643090877973368</v>
+        <v>-0.04353629692674899</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>126</v>
       </c>
       <c r="C58">
-        <v>-0.06925810832741219</v>
+        <v>-0.04660817709805121</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>127</v>
       </c>
       <c r="C59">
-        <v>-0.07023618784691865</v>
+        <v>-0.04759449663845561</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>128</v>
       </c>
       <c r="C60">
-        <v>-0.07212019028466543</v>
+        <v>-0.04834107225932593</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>129</v>
       </c>
       <c r="C61">
-        <v>-0.07299438270492919</v>
+        <v>-0.04895034521950603</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>130</v>
       </c>
       <c r="C62">
-        <v>-0.0755318593596338</v>
+        <v>-0.05044555983836518</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>131</v>
       </c>
       <c r="C63">
-        <v>-0.07581865946744026</v>
+        <v>-0.05054063862568248</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>132</v>
       </c>
       <c r="C64">
-        <v>-0.07582053316553794</v>
+        <v>-0.05320138881309044</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>133</v>
       </c>
       <c r="C65">
-        <v>-0.07935556942242084</v>
+        <v>-0.05404332780149135</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>134</v>
       </c>
       <c r="C66">
-        <v>-0.08079623049052409</v>
+        <v>-0.0557283256437463</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>135</v>
       </c>
       <c r="C67">
-        <v>-0.08204237686983196</v>
+        <v>-0.05820715602749826</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>136</v>
       </c>
       <c r="C68">
-        <v>-0.09222100576166981</v>
+        <v>-0.0793451162884965</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/主题.xlsx
+++ b/FOF/data/主题.xlsx
@@ -25,406 +25,406 @@
     <t>代码</t>
   </si>
   <si>
+    <t>886064.WI</t>
+  </si>
+  <si>
+    <t>886029.WI</t>
+  </si>
+  <si>
+    <t>886050.WI</t>
+  </si>
+  <si>
+    <t>886026.WI</t>
+  </si>
+  <si>
+    <t>886049.WI</t>
+  </si>
+  <si>
+    <t>886051.WI</t>
+  </si>
+  <si>
+    <t>886068.WI</t>
+  </si>
+  <si>
+    <t>886024.WI</t>
+  </si>
+  <si>
+    <t>886054.WI</t>
+  </si>
+  <si>
+    <t>886040.WI</t>
+  </si>
+  <si>
+    <t>886028.WI</t>
+  </si>
+  <si>
+    <t>886042.WI</t>
+  </si>
+  <si>
+    <t>886007.WI</t>
+  </si>
+  <si>
+    <t>886003.WI</t>
+  </si>
+  <si>
+    <t>886052.WI</t>
+  </si>
+  <si>
+    <t>886030.WI</t>
+  </si>
+  <si>
+    <t>886012.WI</t>
+  </si>
+  <si>
+    <t>886021.WI</t>
+  </si>
+  <si>
+    <t>886013.WI</t>
+  </si>
+  <si>
+    <t>886027.WI</t>
+  </si>
+  <si>
+    <t>886053.WI</t>
+  </si>
+  <si>
+    <t>886060.WI</t>
+  </si>
+  <si>
+    <t>886066.WI</t>
+  </si>
+  <si>
+    <t>886031.WI</t>
+  </si>
+  <si>
+    <t>886016.WI</t>
+  </si>
+  <si>
+    <t>886059.WI</t>
+  </si>
+  <si>
+    <t>886058.WI</t>
+  </si>
+  <si>
+    <t>886018.WI</t>
+  </si>
+  <si>
+    <t>886041.WI</t>
+  </si>
+  <si>
+    <t>886036.WI</t>
+  </si>
+  <si>
+    <t>886019.WI</t>
+  </si>
+  <si>
+    <t>886004.WI</t>
+  </si>
+  <si>
+    <t>886065.WI</t>
+  </si>
+  <si>
+    <t>886020.WI</t>
+  </si>
+  <si>
+    <t>886033.WI</t>
+  </si>
+  <si>
+    <t>886002.WI</t>
+  </si>
+  <si>
+    <t>886048.WI</t>
+  </si>
+  <si>
+    <t>886008.WI</t>
+  </si>
+  <si>
+    <t>886014.WI</t>
+  </si>
+  <si>
+    <t>886038.WI</t>
+  </si>
+  <si>
+    <t>886005.WI</t>
+  </si>
+  <si>
+    <t>886069.WI</t>
+  </si>
+  <si>
+    <t>886006.WI</t>
+  </si>
+  <si>
+    <t>886009.WI</t>
+  </si>
+  <si>
+    <t>886034.WI</t>
+  </si>
+  <si>
+    <t>886017.WI</t>
+  </si>
+  <si>
+    <t>886022.WI</t>
+  </si>
+  <si>
+    <t>886057.WI</t>
+  </si>
+  <si>
+    <t>886039.WI</t>
+  </si>
+  <si>
+    <t>886067.WI</t>
+  </si>
+  <si>
+    <t>886044.WI</t>
+  </si>
+  <si>
+    <t>886043.WI</t>
+  </si>
+  <si>
+    <t>886023.WI</t>
+  </si>
+  <si>
+    <t>886010.WI</t>
+  </si>
+  <si>
+    <t>886032.WI</t>
+  </si>
+  <si>
+    <t>886045.WI</t>
+  </si>
+  <si>
+    <t>886037.WI</t>
+  </si>
+  <si>
+    <t>886025.WI</t>
+  </si>
+  <si>
+    <t>886046.WI</t>
+  </si>
+  <si>
+    <t>886062.WI</t>
+  </si>
+  <si>
+    <t>886035.WI</t>
+  </si>
+  <si>
+    <t>886001.WI</t>
+  </si>
+  <si>
+    <t>886055.WI</t>
+  </si>
+  <si>
+    <t>886061.WI</t>
+  </si>
+  <si>
+    <t>886015.WI</t>
+  </si>
+  <si>
     <t>886063.WI</t>
   </si>
   <si>
-    <t>886061.WI</t>
-  </si>
-  <si>
-    <t>886015.WI</t>
-  </si>
-  <si>
-    <t>886044.WI</t>
-  </si>
-  <si>
-    <t>886018.WI</t>
-  </si>
-  <si>
-    <t>886059.WI</t>
-  </si>
-  <si>
-    <t>886025.WI</t>
-  </si>
-  <si>
-    <t>886043.WI</t>
-  </si>
-  <si>
-    <t>886012.WI</t>
-  </si>
-  <si>
-    <t>886035.WI</t>
-  </si>
-  <si>
-    <t>886002.WI</t>
-  </si>
-  <si>
-    <t>886045.WI</t>
-  </si>
-  <si>
-    <t>886067.WI</t>
-  </si>
-  <si>
-    <t>886046.WI</t>
-  </si>
-  <si>
-    <t>886003.WI</t>
-  </si>
-  <si>
-    <t>886068.WI</t>
-  </si>
-  <si>
-    <t>886051.WI</t>
-  </si>
-  <si>
-    <t>886005.WI</t>
-  </si>
-  <si>
-    <t>886019.WI</t>
-  </si>
-  <si>
-    <t>886052.WI</t>
-  </si>
-  <si>
-    <t>886010.WI</t>
-  </si>
-  <si>
     <t>886011.WI</t>
   </si>
   <si>
-    <t>886050.WI</t>
-  </si>
-  <si>
-    <t>886065.WI</t>
-  </si>
-  <si>
-    <t>886004.WI</t>
-  </si>
-  <si>
-    <t>886058.WI</t>
-  </si>
-  <si>
-    <t>886030.WI</t>
-  </si>
-  <si>
-    <t>886034.WI</t>
-  </si>
-  <si>
-    <t>886049.WI</t>
-  </si>
-  <si>
-    <t>886038.WI</t>
-  </si>
-  <si>
-    <t>886031.WI</t>
-  </si>
-  <si>
-    <t>886006.WI</t>
-  </si>
-  <si>
-    <t>886024.WI</t>
-  </si>
-  <si>
-    <t>886017.WI</t>
-  </si>
-  <si>
-    <t>886027.WI</t>
-  </si>
-  <si>
-    <t>886021.WI</t>
-  </si>
-  <si>
-    <t>886020.WI</t>
-  </si>
-  <si>
-    <t>886028.WI</t>
-  </si>
-  <si>
-    <t>886069.WI</t>
-  </si>
-  <si>
-    <t>886016.WI</t>
-  </si>
-  <si>
-    <t>886036.WI</t>
-  </si>
-  <si>
-    <t>886055.WI</t>
-  </si>
-  <si>
-    <t>886054.WI</t>
-  </si>
-  <si>
-    <t>886007.WI</t>
-  </si>
-  <si>
-    <t>886001.WI</t>
-  </si>
-  <si>
-    <t>886042.WI</t>
-  </si>
-  <si>
-    <t>886040.WI</t>
-  </si>
-  <si>
-    <t>886060.WI</t>
-  </si>
-  <si>
-    <t>886029.WI</t>
-  </si>
-  <si>
-    <t>886037.WI</t>
-  </si>
-  <si>
-    <t>886013.WI</t>
-  </si>
-  <si>
-    <t>886026.WI</t>
-  </si>
-  <si>
-    <t>886057.WI</t>
-  </si>
-  <si>
-    <t>886041.WI</t>
-  </si>
-  <si>
-    <t>886039.WI</t>
-  </si>
-  <si>
-    <t>886048.WI</t>
-  </si>
-  <si>
-    <t>886053.WI</t>
-  </si>
-  <si>
-    <t>886008.WI</t>
-  </si>
-  <si>
-    <t>886066.WI</t>
-  </si>
-  <si>
-    <t>886033.WI</t>
-  </si>
-  <si>
-    <t>886023.WI</t>
-  </si>
-  <si>
-    <t>886062.WI</t>
-  </si>
-  <si>
-    <t>886032.WI</t>
-  </si>
-  <si>
-    <t>886009.WI</t>
-  </si>
-  <si>
-    <t>886014.WI</t>
-  </si>
-  <si>
-    <t>886022.WI</t>
-  </si>
-  <si>
-    <t>886064.WI</t>
+    <t>电信指数</t>
+  </si>
+  <si>
+    <t>机场指数</t>
+  </si>
+  <si>
+    <t>生物科技指数</t>
+  </si>
+  <si>
+    <t>航空指数</t>
+  </si>
+  <si>
+    <t>医疗保健指数</t>
+  </si>
+  <si>
+    <t>制药指数</t>
+  </si>
+  <si>
+    <t>工程机械指数</t>
+  </si>
+  <si>
+    <t>环保指数</t>
+  </si>
+  <si>
+    <t>券商指数</t>
+  </si>
+  <si>
+    <t>教育指数</t>
+  </si>
+  <si>
+    <t>陆路运输指数</t>
+  </si>
+  <si>
+    <t>零售指数</t>
+  </si>
+  <si>
+    <t>化肥农药指数</t>
+  </si>
+  <si>
+    <t>煤炭指数</t>
+  </si>
+  <si>
+    <t>银行指数</t>
+  </si>
+  <si>
+    <t>公路指数</t>
+  </si>
+  <si>
+    <t>钢铁指数</t>
+  </si>
+  <si>
+    <t>工业机械指数</t>
+  </si>
+  <si>
+    <t>林木指数</t>
+  </si>
+  <si>
+    <t>海运指数</t>
+  </si>
+  <si>
+    <t>多元金融指数</t>
+  </si>
+  <si>
+    <t>通信设备指数</t>
+  </si>
+  <si>
+    <t>燃气指数</t>
+  </si>
+  <si>
+    <t>港口指数</t>
+  </si>
+  <si>
+    <t>建筑指数</t>
+  </si>
+  <si>
+    <t>软件指数</t>
+  </si>
+  <si>
+    <t>互联网指数</t>
+  </si>
+  <si>
+    <t>发电设备指数</t>
+  </si>
+  <si>
+    <t>文化传媒指数</t>
+  </si>
+  <si>
+    <t>家居用品指数</t>
+  </si>
+  <si>
+    <t>综合类指数</t>
+  </si>
+  <si>
+    <t>化工原料指数</t>
+  </si>
+  <si>
+    <t>电力指数</t>
+  </si>
+  <si>
+    <t>重型机械指数</t>
+  </si>
+  <si>
+    <t>汽车指数</t>
+  </si>
+  <si>
+    <t>石油天然气指数</t>
+  </si>
+  <si>
+    <t>日用化工指数</t>
+  </si>
+  <si>
+    <t>建材指数</t>
+  </si>
+  <si>
+    <t>造纸指数</t>
+  </si>
+  <si>
+    <t>纺织服装指数</t>
+  </si>
+  <si>
+    <t>化纤指数</t>
+  </si>
+  <si>
+    <t>石油化工指数</t>
+  </si>
+  <si>
+    <t>精细化工指数</t>
+  </si>
+  <si>
+    <t>包装指数</t>
+  </si>
+  <si>
+    <t>摩托车指数</t>
+  </si>
+  <si>
+    <t>电工电网指数</t>
+  </si>
+  <si>
+    <t>贸易指数</t>
+  </si>
+  <si>
+    <t>房地产指数</t>
+  </si>
+  <si>
+    <t>餐饮旅游指数</t>
+  </si>
+  <si>
+    <t>水务指数</t>
+  </si>
+  <si>
+    <t>软饮料指数</t>
+  </si>
+  <si>
+    <t>酒类指数</t>
+  </si>
+  <si>
+    <t>商业服务指数</t>
+  </si>
+  <si>
+    <t>基本金属指数</t>
+  </si>
+  <si>
+    <t>汽车零部件指数</t>
+  </si>
+  <si>
+    <t>农业指数</t>
+  </si>
+  <si>
+    <t>休闲用品指数</t>
+  </si>
+  <si>
+    <t>办公用品指数</t>
+  </si>
+  <si>
+    <t>食品指数</t>
+  </si>
+  <si>
+    <t>电子元器件指数</t>
+  </si>
+  <si>
+    <t>家用电器指数</t>
+  </si>
+  <si>
+    <t>能源设备指数</t>
+  </si>
+  <si>
+    <t>保险指数</t>
+  </si>
+  <si>
+    <t>电脑硬件指数</t>
+  </si>
+  <si>
+    <t>航天军工指数</t>
   </si>
   <si>
     <t>半导体指数</t>
   </si>
   <si>
-    <t>电脑硬件指数</t>
-  </si>
-  <si>
-    <t>航天军工指数</t>
-  </si>
-  <si>
-    <t>软饮料指数</t>
-  </si>
-  <si>
-    <t>发电设备指数</t>
-  </si>
-  <si>
-    <t>软件指数</t>
-  </si>
-  <si>
-    <t>办公用品指数</t>
-  </si>
-  <si>
-    <t>酒类指数</t>
-  </si>
-  <si>
-    <t>钢铁指数</t>
-  </si>
-  <si>
-    <t>家用电器指数</t>
-  </si>
-  <si>
-    <t>石油天然气指数</t>
-  </si>
-  <si>
-    <t>农业指数</t>
-  </si>
-  <si>
-    <t>水务指数</t>
-  </si>
-  <si>
-    <t>食品指数</t>
-  </si>
-  <si>
-    <t>煤炭指数</t>
-  </si>
-  <si>
-    <t>工程机械指数</t>
-  </si>
-  <si>
-    <t>制药指数</t>
-  </si>
-  <si>
-    <t>化纤指数</t>
-  </si>
-  <si>
-    <t>综合类指数</t>
-  </si>
-  <si>
-    <t>银行指数</t>
-  </si>
-  <si>
-    <t>基本金属指数</t>
-  </si>
-  <si>
     <t>贵金属指数</t>
-  </si>
-  <si>
-    <t>生物科技指数</t>
-  </si>
-  <si>
-    <t>电力指数</t>
-  </si>
-  <si>
-    <t>化工原料指数</t>
-  </si>
-  <si>
-    <t>互联网指数</t>
-  </si>
-  <si>
-    <t>公路指数</t>
-  </si>
-  <si>
-    <t>摩托车指数</t>
-  </si>
-  <si>
-    <t>医疗保健指数</t>
-  </si>
-  <si>
-    <t>纺织服装指数</t>
-  </si>
-  <si>
-    <t>港口指数</t>
-  </si>
-  <si>
-    <t>精细化工指数</t>
-  </si>
-  <si>
-    <t>环保指数</t>
-  </si>
-  <si>
-    <t>电工电网指数</t>
-  </si>
-  <si>
-    <t>海运指数</t>
-  </si>
-  <si>
-    <t>工业机械指数</t>
-  </si>
-  <si>
-    <t>重型机械指数</t>
-  </si>
-  <si>
-    <t>陆路运输指数</t>
-  </si>
-  <si>
-    <t>石油化工指数</t>
-  </si>
-  <si>
-    <t>建筑指数</t>
-  </si>
-  <si>
-    <t>家居用品指数</t>
-  </si>
-  <si>
-    <t>保险指数</t>
-  </si>
-  <si>
-    <t>券商指数</t>
-  </si>
-  <si>
-    <t>化肥农药指数</t>
-  </si>
-  <si>
-    <t>能源设备指数</t>
-  </si>
-  <si>
-    <t>零售指数</t>
-  </si>
-  <si>
-    <t>教育指数</t>
-  </si>
-  <si>
-    <t>通信设备指数</t>
-  </si>
-  <si>
-    <t>机场指数</t>
-  </si>
-  <si>
-    <t>休闲用品指数</t>
-  </si>
-  <si>
-    <t>林木指数</t>
-  </si>
-  <si>
-    <t>航空指数</t>
-  </si>
-  <si>
-    <t>房地产指数</t>
-  </si>
-  <si>
-    <t>文化传媒指数</t>
-  </si>
-  <si>
-    <t>餐饮旅游指数</t>
-  </si>
-  <si>
-    <t>日用化工指数</t>
-  </si>
-  <si>
-    <t>多元金融指数</t>
-  </si>
-  <si>
-    <t>建材指数</t>
-  </si>
-  <si>
-    <t>燃气指数</t>
-  </si>
-  <si>
-    <t>汽车指数</t>
-  </si>
-  <si>
-    <t>商业服务指数</t>
-  </si>
-  <si>
-    <t>电子元器件指数</t>
-  </si>
-  <si>
-    <t>汽车零部件指数</t>
-  </si>
-  <si>
-    <t>包装指数</t>
-  </si>
-  <si>
-    <t>造纸指数</t>
-  </si>
-  <si>
-    <t>贸易指数</t>
-  </si>
-  <si>
-    <t>电信指数</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
         <v>70</v>
       </c>
       <c r="C2">
-        <v>0.06201792416908614</v>
+        <v>0.08981785678915966</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -818,7 +818,7 @@
         <v>71</v>
       </c>
       <c r="C3">
-        <v>0.04115375741398775</v>
+        <v>0.06223505036382249</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -829,7 +829,7 @@
         <v>72</v>
       </c>
       <c r="C4">
-        <v>0.02915463274643582</v>
+        <v>0.04863004347043121</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -840,7 +840,7 @@
         <v>73</v>
       </c>
       <c r="C5">
-        <v>0.008299173838347551</v>
+        <v>0.04826450911029001</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -851,7 +851,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>-0.001434386841072777</v>
+        <v>0.04129725853128208</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -862,7 +862,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>-0.006559686458668335</v>
+        <v>0.03213357101721837</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -873,7 +873,7 @@
         <v>76</v>
       </c>
       <c r="C8">
-        <v>-0.007159295884171302</v>
+        <v>0.02727568512146861</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -884,7 +884,7 @@
         <v>77</v>
       </c>
       <c r="C9">
-        <v>-0.008239928439469302</v>
+        <v>0.02298571792189885</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -895,7 +895,7 @@
         <v>78</v>
       </c>
       <c r="C10">
-        <v>-0.009769490278525694</v>
+        <v>0.02294211284073078</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -906,7 +906,7 @@
         <v>79</v>
       </c>
       <c r="C11">
-        <v>-0.01268323238920277</v>
+        <v>0.01875946312658394</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -917,7 +917,7 @@
         <v>80</v>
       </c>
       <c r="C12">
-        <v>-0.01285546740922294</v>
+        <v>0.01487445790381292</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -928,7 +928,7 @@
         <v>81</v>
       </c>
       <c r="C13">
-        <v>-0.01667805291660995</v>
+        <v>0.01397766649670729</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -939,7 +939,7 @@
         <v>82</v>
       </c>
       <c r="C14">
-        <v>-0.01681968551704993</v>
+        <v>0.01217088186311344</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -950,7 +950,7 @@
         <v>83</v>
       </c>
       <c r="C15">
-        <v>-0.0190941237707708</v>
+        <v>0.01182219434124088</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -961,7 +961,7 @@
         <v>84</v>
       </c>
       <c r="C16">
-        <v>-0.01982121766633715</v>
+        <v>0.01181616859112045</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -972,7 +972,7 @@
         <v>85</v>
       </c>
       <c r="C17">
-        <v>-0.02083003950688744</v>
+        <v>0.008788230356598037</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -983,7 +983,7 @@
         <v>86</v>
       </c>
       <c r="C18">
-        <v>-0.02123600642335444</v>
+        <v>0.008493453428342734</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -994,7 +994,7 @@
         <v>87</v>
       </c>
       <c r="C19">
-        <v>-0.02237145229982351</v>
+        <v>0.00818727426370458</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1005,7 +1005,7 @@
         <v>88</v>
       </c>
       <c r="C20">
-        <v>-0.0243881308322863</v>
+        <v>0.008099648391480363</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1016,7 +1016,7 @@
         <v>89</v>
       </c>
       <c r="C21">
-        <v>-0.02665440602279334</v>
+        <v>0.008051839675408567</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1027,7 +1027,7 @@
         <v>90</v>
       </c>
       <c r="C22">
-        <v>-0.02767264563432292</v>
+        <v>0.007301668233107739</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>91</v>
       </c>
       <c r="C23">
-        <v>-0.02789757376680835</v>
+        <v>0.006625887037749134</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>92</v>
       </c>
       <c r="C24">
-        <v>-0.02805774635656899</v>
+        <v>0.006345004153360367</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>93</v>
       </c>
       <c r="C25">
-        <v>-0.02892482613441083</v>
+        <v>0.005592005465343997</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1071,7 +1071,7 @@
         <v>94</v>
       </c>
       <c r="C26">
-        <v>-0.02965651258981927</v>
+        <v>0.00462090131588444</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>95</v>
       </c>
       <c r="C27">
-        <v>-0.03031061297589721</v>
+        <v>0.003787887117606914</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>96</v>
       </c>
       <c r="C28">
-        <v>-0.03121241925428486</v>
+        <v>0.003351565713821447</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>97</v>
       </c>
       <c r="C29">
-        <v>-0.03157501854761291</v>
+        <v>0.002832341803864713</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>98</v>
       </c>
       <c r="C30">
-        <v>-0.03223276611446968</v>
+        <v>0.002660355909644752</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1126,7 +1126,7 @@
         <v>99</v>
       </c>
       <c r="C31">
-        <v>-0.03225331723461067</v>
+        <v>0.002570062727590194</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>-0.03326125132803581</v>
+        <v>0.002201595423416691</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>101</v>
       </c>
       <c r="C33">
-        <v>-0.03341340462456488</v>
+        <v>0.002051196731921667</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>102</v>
       </c>
       <c r="C34">
-        <v>-0.03347405023605388</v>
+        <v>0.0008380935012504143</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>103</v>
       </c>
       <c r="C35">
-        <v>-0.03347880939096182</v>
+        <v>0.0002415843725707134</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1181,7 +1181,7 @@
         <v>104</v>
       </c>
       <c r="C36">
-        <v>-0.03374536843908005</v>
+        <v>0.0001464275112053048</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>105</v>
       </c>
       <c r="C37">
-        <v>-0.03418782589407443</v>
+        <v>-0.001924054425783694</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>106</v>
       </c>
       <c r="C38">
-        <v>-0.03465260016405458</v>
+        <v>-0.002682235449487758</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="C39">
-        <v>-0.03502193813041166</v>
+        <v>-0.002863027901684578</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>108</v>
       </c>
       <c r="C40">
-        <v>-0.03514273341555429</v>
+        <v>-0.003961541100702903</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>109</v>
       </c>
       <c r="C41">
-        <v>-0.03552643935764654</v>
+        <v>-0.004299107553852544</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>110</v>
       </c>
       <c r="C42">
-        <v>-0.035866809552481</v>
+        <v>-0.005347592668628387</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>111</v>
       </c>
       <c r="C43">
-        <v>-0.03638745587529235</v>
+        <v>-0.006802291894379531</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>112</v>
       </c>
       <c r="C44">
-        <v>-0.03643242832803939</v>
+        <v>-0.008129258992633837</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>-0.03728989316828057</v>
+        <v>-0.008670689864690662</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1291,7 +1291,7 @@
         <v>114</v>
       </c>
       <c r="C46">
-        <v>-0.03833279474983242</v>
+        <v>-0.008718551297054011</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="C47">
-        <v>-0.0385116227484964</v>
+        <v>-0.009959934608367638</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>116</v>
       </c>
       <c r="C48">
-        <v>-0.03863240789838362</v>
+        <v>-0.0100425826011501</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>117</v>
       </c>
       <c r="C49">
-        <v>-0.03876894414977294</v>
+        <v>-0.01036849225999881</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>118</v>
       </c>
       <c r="C50">
-        <v>-0.03907906823440321</v>
+        <v>-0.01081092881474388</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>119</v>
       </c>
       <c r="C51">
-        <v>-0.03996864516534027</v>
+        <v>-0.01151012805228835</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>120</v>
       </c>
       <c r="C52">
-        <v>-0.04001806280948716</v>
+        <v>-0.01225926897137875</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1368,7 +1368,7 @@
         <v>121</v>
       </c>
       <c r="C53">
-        <v>-0.04119387476420866</v>
+        <v>-0.01341917875377607</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>122</v>
       </c>
       <c r="C54">
-        <v>-0.04209036521208442</v>
+        <v>-0.01495448624103335</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>123</v>
       </c>
       <c r="C55">
-        <v>-0.04273652030175668</v>
+        <v>-0.01530135247092757</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1401,7 +1401,7 @@
         <v>124</v>
       </c>
       <c r="C56">
-        <v>-0.04287285514246186</v>
+        <v>-0.0157313680508564</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>125</v>
       </c>
       <c r="C57">
-        <v>-0.04353629692674899</v>
+        <v>-0.01676205761072447</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>126</v>
       </c>
       <c r="C58">
-        <v>-0.04660817709805121</v>
+        <v>-0.01896752770030152</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>127</v>
       </c>
       <c r="C59">
-        <v>-0.04759449663845561</v>
+        <v>-0.02023749144899945</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>128</v>
       </c>
       <c r="C60">
-        <v>-0.04834107225932593</v>
+        <v>-0.0204341571055886</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>129</v>
       </c>
       <c r="C61">
-        <v>-0.04895034521950603</v>
+        <v>-0.02210140701524477</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>130</v>
       </c>
       <c r="C62">
-        <v>-0.05044555983836518</v>
+        <v>-0.02256091026120932</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>131</v>
       </c>
       <c r="C63">
-        <v>-0.05054063862568248</v>
+        <v>-0.02505859969766244</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>132</v>
       </c>
       <c r="C64">
-        <v>-0.05320138881309044</v>
+        <v>-0.03506278409462804</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>133</v>
       </c>
       <c r="C65">
-        <v>-0.05404332780149135</v>
+        <v>-0.03914185752643329</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>134</v>
       </c>
       <c r="C66">
-        <v>-0.0557283256437463</v>
+        <v>-0.04553222825976422</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>135</v>
       </c>
       <c r="C67">
-        <v>-0.05820715602749826</v>
+        <v>-0.0465884974429327</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>136</v>
       </c>
       <c r="C68">
-        <v>-0.0793451162884965</v>
+        <v>-0.06698520455182988</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/主题.xlsx
+++ b/FOF/data/主题.xlsx
@@ -25,406 +25,406 @@
     <t>代码</t>
   </si>
   <si>
+    <t>886048.WI</t>
+  </si>
+  <si>
+    <t>886051.WI</t>
+  </si>
+  <si>
+    <t>886050.WI</t>
+  </si>
+  <si>
+    <t>886025.WI</t>
+  </si>
+  <si>
+    <t>886027.WI</t>
+  </si>
+  <si>
+    <t>886042.WI</t>
+  </si>
+  <si>
+    <t>886032.WI</t>
+  </si>
+  <si>
+    <t>886065.WI</t>
+  </si>
+  <si>
+    <t>886009.WI</t>
+  </si>
+  <si>
+    <t>886023.WI</t>
+  </si>
+  <si>
+    <t>886049.WI</t>
+  </si>
+  <si>
+    <t>886036.WI</t>
+  </si>
+  <si>
+    <t>886022.WI</t>
+  </si>
+  <si>
+    <t>886037.WI</t>
+  </si>
+  <si>
+    <t>886031.WI</t>
+  </si>
+  <si>
+    <t>886045.WI</t>
+  </si>
+  <si>
+    <t>886060.WI</t>
+  </si>
+  <si>
+    <t>886028.WI</t>
+  </si>
+  <si>
+    <t>886044.WI</t>
+  </si>
+  <si>
+    <t>886030.WI</t>
+  </si>
+  <si>
+    <t>886039.WI</t>
+  </si>
+  <si>
+    <t>886026.WI</t>
+  </si>
+  <si>
+    <t>886061.WI</t>
+  </si>
+  <si>
+    <t>886033.WI</t>
+  </si>
+  <si>
+    <t>886011.WI</t>
+  </si>
+  <si>
+    <t>886034.WI</t>
+  </si>
+  <si>
+    <t>886040.WI</t>
+  </si>
+  <si>
     <t>886064.WI</t>
   </si>
   <si>
+    <t>886041.WI</t>
+  </si>
+  <si>
+    <t>886019.WI</t>
+  </si>
+  <si>
+    <t>886059.WI</t>
+  </si>
+  <si>
+    <t>886015.WI</t>
+  </si>
+  <si>
+    <t>886021.WI</t>
+  </si>
+  <si>
+    <t>886006.WI</t>
+  </si>
+  <si>
+    <t>886066.WI</t>
+  </si>
+  <si>
+    <t>886008.WI</t>
+  </si>
+  <si>
+    <t>886038.WI</t>
+  </si>
+  <si>
+    <t>886063.WI</t>
+  </si>
+  <si>
+    <t>886062.WI</t>
+  </si>
+  <si>
+    <t>886046.WI</t>
+  </si>
+  <si>
+    <t>886017.WI</t>
+  </si>
+  <si>
+    <t>886007.WI</t>
+  </si>
+  <si>
+    <t>886067.WI</t>
+  </si>
+  <si>
+    <t>886004.WI</t>
+  </si>
+  <si>
+    <t>886020.WI</t>
+  </si>
+  <si>
+    <t>886016.WI</t>
+  </si>
+  <si>
+    <t>886043.WI</t>
+  </si>
+  <si>
+    <t>886053.WI</t>
+  </si>
+  <si>
+    <t>886005.WI</t>
+  </si>
+  <si>
+    <t>886012.WI</t>
+  </si>
+  <si>
+    <t>886052.WI</t>
+  </si>
+  <si>
+    <t>886057.WI</t>
+  </si>
+  <si>
     <t>886029.WI</t>
   </si>
   <si>
-    <t>886050.WI</t>
-  </si>
-  <si>
-    <t>886026.WI</t>
-  </si>
-  <si>
-    <t>886049.WI</t>
-  </si>
-  <si>
-    <t>886051.WI</t>
+    <t>886010.WI</t>
+  </si>
+  <si>
+    <t>886013.WI</t>
+  </si>
+  <si>
+    <t>886055.WI</t>
+  </si>
+  <si>
+    <t>886054.WI</t>
+  </si>
+  <si>
+    <t>886058.WI</t>
   </si>
   <si>
     <t>886068.WI</t>
   </si>
   <si>
+    <t>886018.WI</t>
+  </si>
+  <si>
+    <t>886014.WI</t>
+  </si>
+  <si>
+    <t>886001.WI</t>
+  </si>
+  <si>
+    <t>886069.WI</t>
+  </si>
+  <si>
+    <t>886035.WI</t>
+  </si>
+  <si>
+    <t>886002.WI</t>
+  </si>
+  <si>
     <t>886024.WI</t>
   </si>
   <si>
-    <t>886054.WI</t>
-  </si>
-  <si>
-    <t>886040.WI</t>
-  </si>
-  <si>
-    <t>886028.WI</t>
-  </si>
-  <si>
-    <t>886042.WI</t>
-  </si>
-  <si>
-    <t>886007.WI</t>
-  </si>
-  <si>
     <t>886003.WI</t>
   </si>
   <si>
-    <t>886052.WI</t>
-  </si>
-  <si>
-    <t>886030.WI</t>
-  </si>
-  <si>
-    <t>886012.WI</t>
-  </si>
-  <si>
-    <t>886021.WI</t>
-  </si>
-  <si>
-    <t>886013.WI</t>
-  </si>
-  <si>
-    <t>886027.WI</t>
-  </si>
-  <si>
-    <t>886053.WI</t>
-  </si>
-  <si>
-    <t>886060.WI</t>
-  </si>
-  <si>
-    <t>886066.WI</t>
-  </si>
-  <si>
-    <t>886031.WI</t>
-  </si>
-  <si>
-    <t>886016.WI</t>
-  </si>
-  <si>
-    <t>886059.WI</t>
-  </si>
-  <si>
-    <t>886058.WI</t>
-  </si>
-  <si>
-    <t>886018.WI</t>
-  </si>
-  <si>
-    <t>886041.WI</t>
-  </si>
-  <si>
-    <t>886036.WI</t>
-  </si>
-  <si>
-    <t>886019.WI</t>
-  </si>
-  <si>
-    <t>886004.WI</t>
-  </si>
-  <si>
-    <t>886065.WI</t>
-  </si>
-  <si>
-    <t>886020.WI</t>
-  </si>
-  <si>
-    <t>886033.WI</t>
-  </si>
-  <si>
-    <t>886002.WI</t>
-  </si>
-  <si>
-    <t>886048.WI</t>
-  </si>
-  <si>
-    <t>886008.WI</t>
-  </si>
-  <si>
-    <t>886014.WI</t>
-  </si>
-  <si>
-    <t>886038.WI</t>
-  </si>
-  <si>
-    <t>886005.WI</t>
-  </si>
-  <si>
-    <t>886069.WI</t>
-  </si>
-  <si>
-    <t>886006.WI</t>
-  </si>
-  <si>
-    <t>886009.WI</t>
-  </si>
-  <si>
-    <t>886034.WI</t>
-  </si>
-  <si>
-    <t>886017.WI</t>
-  </si>
-  <si>
-    <t>886022.WI</t>
-  </si>
-  <si>
-    <t>886057.WI</t>
-  </si>
-  <si>
-    <t>886039.WI</t>
-  </si>
-  <si>
-    <t>886067.WI</t>
-  </si>
-  <si>
-    <t>886044.WI</t>
-  </si>
-  <si>
-    <t>886043.WI</t>
-  </si>
-  <si>
-    <t>886023.WI</t>
-  </si>
-  <si>
-    <t>886010.WI</t>
-  </si>
-  <si>
-    <t>886032.WI</t>
-  </si>
-  <si>
-    <t>886045.WI</t>
-  </si>
-  <si>
-    <t>886037.WI</t>
-  </si>
-  <si>
-    <t>886025.WI</t>
-  </si>
-  <si>
-    <t>886046.WI</t>
-  </si>
-  <si>
-    <t>886062.WI</t>
-  </si>
-  <si>
-    <t>886035.WI</t>
-  </si>
-  <si>
-    <t>886001.WI</t>
-  </si>
-  <si>
-    <t>886055.WI</t>
-  </si>
-  <si>
-    <t>886061.WI</t>
-  </si>
-  <si>
-    <t>886015.WI</t>
-  </si>
-  <si>
-    <t>886063.WI</t>
-  </si>
-  <si>
-    <t>886011.WI</t>
+    <t>日用化工指数</t>
+  </si>
+  <si>
+    <t>制药指数</t>
+  </si>
+  <si>
+    <t>生物科技指数</t>
+  </si>
+  <si>
+    <t>办公用品指数</t>
+  </si>
+  <si>
+    <t>海运指数</t>
+  </si>
+  <si>
+    <t>零售指数</t>
+  </si>
+  <si>
+    <t>汽车零部件指数</t>
+  </si>
+  <si>
+    <t>电力指数</t>
+  </si>
+  <si>
+    <t>包装指数</t>
+  </si>
+  <si>
+    <t>商业服务指数</t>
+  </si>
+  <si>
+    <t>医疗保健指数</t>
+  </si>
+  <si>
+    <t>家居用品指数</t>
+  </si>
+  <si>
+    <t>贸易指数</t>
+  </si>
+  <si>
+    <t>休闲用品指数</t>
+  </si>
+  <si>
+    <t>港口指数</t>
+  </si>
+  <si>
+    <t>农业指数</t>
+  </si>
+  <si>
+    <t>通信设备指数</t>
+  </si>
+  <si>
+    <t>陆路运输指数</t>
+  </si>
+  <si>
+    <t>软饮料指数</t>
+  </si>
+  <si>
+    <t>公路指数</t>
+  </si>
+  <si>
+    <t>餐饮旅游指数</t>
+  </si>
+  <si>
+    <t>航空指数</t>
+  </si>
+  <si>
+    <t>电脑硬件指数</t>
+  </si>
+  <si>
+    <t>汽车指数</t>
+  </si>
+  <si>
+    <t>贵金属指数</t>
+  </si>
+  <si>
+    <t>摩托车指数</t>
+  </si>
+  <si>
+    <t>教育指数</t>
   </si>
   <si>
     <t>电信指数</t>
   </si>
   <si>
+    <t>文化传媒指数</t>
+  </si>
+  <si>
+    <t>综合类指数</t>
+  </si>
+  <si>
+    <t>软件指数</t>
+  </si>
+  <si>
+    <t>航天军工指数</t>
+  </si>
+  <si>
+    <t>工业机械指数</t>
+  </si>
+  <si>
+    <t>精细化工指数</t>
+  </si>
+  <si>
+    <t>燃气指数</t>
+  </si>
+  <si>
+    <t>建材指数</t>
+  </si>
+  <si>
+    <t>纺织服装指数</t>
+  </si>
+  <si>
+    <t>半导体指数</t>
+  </si>
+  <si>
+    <t>电子元器件指数</t>
+  </si>
+  <si>
+    <t>食品指数</t>
+  </si>
+  <si>
+    <t>电工电网指数</t>
+  </si>
+  <si>
+    <t>化肥农药指数</t>
+  </si>
+  <si>
+    <t>水务指数</t>
+  </si>
+  <si>
+    <t>化工原料指数</t>
+  </si>
+  <si>
+    <t>重型机械指数</t>
+  </si>
+  <si>
+    <t>建筑指数</t>
+  </si>
+  <si>
+    <t>酒类指数</t>
+  </si>
+  <si>
+    <t>多元金融指数</t>
+  </si>
+  <si>
+    <t>化纤指数</t>
+  </si>
+  <si>
+    <t>钢铁指数</t>
+  </si>
+  <si>
+    <t>银行指数</t>
+  </si>
+  <si>
+    <t>房地产指数</t>
+  </si>
+  <si>
     <t>机场指数</t>
   </si>
   <si>
-    <t>生物科技指数</t>
-  </si>
-  <si>
-    <t>航空指数</t>
-  </si>
-  <si>
-    <t>医疗保健指数</t>
-  </si>
-  <si>
-    <t>制药指数</t>
+    <t>基本金属指数</t>
+  </si>
+  <si>
+    <t>林木指数</t>
+  </si>
+  <si>
+    <t>保险指数</t>
+  </si>
+  <si>
+    <t>券商指数</t>
+  </si>
+  <si>
+    <t>互联网指数</t>
   </si>
   <si>
     <t>工程机械指数</t>
   </si>
   <si>
+    <t>发电设备指数</t>
+  </si>
+  <si>
+    <t>造纸指数</t>
+  </si>
+  <si>
+    <t>能源设备指数</t>
+  </si>
+  <si>
+    <t>石油化工指数</t>
+  </si>
+  <si>
+    <t>家用电器指数</t>
+  </si>
+  <si>
+    <t>石油天然气指数</t>
+  </si>
+  <si>
     <t>环保指数</t>
   </si>
   <si>
-    <t>券商指数</t>
-  </si>
-  <si>
-    <t>教育指数</t>
-  </si>
-  <si>
-    <t>陆路运输指数</t>
-  </si>
-  <si>
-    <t>零售指数</t>
-  </si>
-  <si>
-    <t>化肥农药指数</t>
-  </si>
-  <si>
     <t>煤炭指数</t>
-  </si>
-  <si>
-    <t>银行指数</t>
-  </si>
-  <si>
-    <t>公路指数</t>
-  </si>
-  <si>
-    <t>钢铁指数</t>
-  </si>
-  <si>
-    <t>工业机械指数</t>
-  </si>
-  <si>
-    <t>林木指数</t>
-  </si>
-  <si>
-    <t>海运指数</t>
-  </si>
-  <si>
-    <t>多元金融指数</t>
-  </si>
-  <si>
-    <t>通信设备指数</t>
-  </si>
-  <si>
-    <t>燃气指数</t>
-  </si>
-  <si>
-    <t>港口指数</t>
-  </si>
-  <si>
-    <t>建筑指数</t>
-  </si>
-  <si>
-    <t>软件指数</t>
-  </si>
-  <si>
-    <t>互联网指数</t>
-  </si>
-  <si>
-    <t>发电设备指数</t>
-  </si>
-  <si>
-    <t>文化传媒指数</t>
-  </si>
-  <si>
-    <t>家居用品指数</t>
-  </si>
-  <si>
-    <t>综合类指数</t>
-  </si>
-  <si>
-    <t>化工原料指数</t>
-  </si>
-  <si>
-    <t>电力指数</t>
-  </si>
-  <si>
-    <t>重型机械指数</t>
-  </si>
-  <si>
-    <t>汽车指数</t>
-  </si>
-  <si>
-    <t>石油天然气指数</t>
-  </si>
-  <si>
-    <t>日用化工指数</t>
-  </si>
-  <si>
-    <t>建材指数</t>
-  </si>
-  <si>
-    <t>造纸指数</t>
-  </si>
-  <si>
-    <t>纺织服装指数</t>
-  </si>
-  <si>
-    <t>化纤指数</t>
-  </si>
-  <si>
-    <t>石油化工指数</t>
-  </si>
-  <si>
-    <t>精细化工指数</t>
-  </si>
-  <si>
-    <t>包装指数</t>
-  </si>
-  <si>
-    <t>摩托车指数</t>
-  </si>
-  <si>
-    <t>电工电网指数</t>
-  </si>
-  <si>
-    <t>贸易指数</t>
-  </si>
-  <si>
-    <t>房地产指数</t>
-  </si>
-  <si>
-    <t>餐饮旅游指数</t>
-  </si>
-  <si>
-    <t>水务指数</t>
-  </si>
-  <si>
-    <t>软饮料指数</t>
-  </si>
-  <si>
-    <t>酒类指数</t>
-  </si>
-  <si>
-    <t>商业服务指数</t>
-  </si>
-  <si>
-    <t>基本金属指数</t>
-  </si>
-  <si>
-    <t>汽车零部件指数</t>
-  </si>
-  <si>
-    <t>农业指数</t>
-  </si>
-  <si>
-    <t>休闲用品指数</t>
-  </si>
-  <si>
-    <t>办公用品指数</t>
-  </si>
-  <si>
-    <t>食品指数</t>
-  </si>
-  <si>
-    <t>电子元器件指数</t>
-  </si>
-  <si>
-    <t>家用电器指数</t>
-  </si>
-  <si>
-    <t>能源设备指数</t>
-  </si>
-  <si>
-    <t>保险指数</t>
-  </si>
-  <si>
-    <t>电脑硬件指数</t>
-  </si>
-  <si>
-    <t>航天军工指数</t>
-  </si>
-  <si>
-    <t>半导体指数</t>
-  </si>
-  <si>
-    <t>贵金属指数</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
         <v>70</v>
       </c>
       <c r="C2">
-        <v>0.08981785678915966</v>
+        <v>0.05420622932273145</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -818,7 +818,7 @@
         <v>71</v>
       </c>
       <c r="C3">
-        <v>0.06223505036382249</v>
+        <v>0.03238807106831398</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -829,7 +829,7 @@
         <v>72</v>
       </c>
       <c r="C4">
-        <v>0.04863004347043121</v>
+        <v>0.02642286418707052</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -840,7 +840,7 @@
         <v>73</v>
       </c>
       <c r="C5">
-        <v>0.04826450911029001</v>
+        <v>0.02444762733331096</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -851,7 +851,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>0.04129725853128208</v>
+        <v>0.0225836060094291</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -862,7 +862,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>0.03213357101721837</v>
+        <v>0.02095216440944658</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -873,7 +873,7 @@
         <v>76</v>
       </c>
       <c r="C8">
-        <v>0.02727568512146861</v>
+        <v>0.01882539262507987</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -884,7 +884,7 @@
         <v>77</v>
       </c>
       <c r="C9">
-        <v>0.02298571792189885</v>
+        <v>0.01717811246654977</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -895,7 +895,7 @@
         <v>78</v>
       </c>
       <c r="C10">
-        <v>0.02294211284073078</v>
+        <v>0.01473568201880515</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -906,7 +906,7 @@
         <v>79</v>
       </c>
       <c r="C11">
-        <v>0.01875946312658394</v>
+        <v>0.01408092827917273</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -917,7 +917,7 @@
         <v>80</v>
       </c>
       <c r="C12">
-        <v>0.01487445790381292</v>
+        <v>0.01358740006894199</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -928,7 +928,7 @@
         <v>81</v>
       </c>
       <c r="C13">
-        <v>0.01397766649670729</v>
+        <v>0.009375338793300436</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -939,7 +939,7 @@
         <v>82</v>
       </c>
       <c r="C14">
-        <v>0.01217088186311344</v>
+        <v>0.008710377816879111</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -950,7 +950,7 @@
         <v>83</v>
       </c>
       <c r="C15">
-        <v>0.01182219434124088</v>
+        <v>0.00833678547295591</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -961,7 +961,7 @@
         <v>84</v>
       </c>
       <c r="C16">
-        <v>0.01181616859112045</v>
+        <v>0.007452283832905415</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -972,7 +972,7 @@
         <v>85</v>
       </c>
       <c r="C17">
-        <v>0.008788230356598037</v>
+        <v>0.006874817008384548</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -983,7 +983,7 @@
         <v>86</v>
       </c>
       <c r="C18">
-        <v>0.008493453428342734</v>
+        <v>0.006788745699128906</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -994,7 +994,7 @@
         <v>87</v>
       </c>
       <c r="C19">
-        <v>0.00818727426370458</v>
+        <v>0.003438571699066362</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1005,7 +1005,7 @@
         <v>88</v>
       </c>
       <c r="C20">
-        <v>0.008099648391480363</v>
+        <v>0.002757040845684289</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1016,7 +1016,7 @@
         <v>89</v>
       </c>
       <c r="C21">
-        <v>0.008051839675408567</v>
+        <v>0.001620364653744488</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1027,7 +1027,7 @@
         <v>90</v>
       </c>
       <c r="C22">
-        <v>0.007301668233107739</v>
+        <v>0.001086562253505008</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>91</v>
       </c>
       <c r="C23">
-        <v>0.006625887037749134</v>
+        <v>0.0007827923316947594</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>92</v>
       </c>
       <c r="C24">
-        <v>0.006345004153360367</v>
+        <v>-0.001887047502591721</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>93</v>
       </c>
       <c r="C25">
-        <v>0.005592005465343997</v>
+        <v>-0.003039791597895691</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1071,7 +1071,7 @@
         <v>94</v>
       </c>
       <c r="C26">
-        <v>0.00462090131588444</v>
+        <v>-0.004688897300102912</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>95</v>
       </c>
       <c r="C27">
-        <v>0.003787887117606914</v>
+        <v>-0.005862494181130606</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>96</v>
       </c>
       <c r="C28">
-        <v>0.003351565713821447</v>
+        <v>-0.007903426912922562</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>97</v>
       </c>
       <c r="C29">
-        <v>0.002832341803864713</v>
+        <v>-0.008138484891860753</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>98</v>
       </c>
       <c r="C30">
-        <v>0.002660355909644752</v>
+        <v>-0.008231421673124184</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1126,7 +1126,7 @@
         <v>99</v>
       </c>
       <c r="C31">
-        <v>0.002570062727590194</v>
+        <v>-0.00920935105392251</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>0.002201595423416691</v>
+        <v>-0.009650815624739795</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>101</v>
       </c>
       <c r="C33">
-        <v>0.002051196731921667</v>
+        <v>-0.01044388579512467</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>102</v>
       </c>
       <c r="C34">
-        <v>0.0008380935012504143</v>
+        <v>-0.01046430769218332</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>103</v>
       </c>
       <c r="C35">
-        <v>0.0002415843725707134</v>
+        <v>-0.01051958190482027</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1181,7 +1181,7 @@
         <v>104</v>
       </c>
       <c r="C36">
-        <v>0.0001464275112053048</v>
+        <v>-0.0111579193292336</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>105</v>
       </c>
       <c r="C37">
-        <v>-0.001924054425783694</v>
+        <v>-0.01398706477724765</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>106</v>
       </c>
       <c r="C38">
-        <v>-0.002682235449487758</v>
+        <v>-0.01455939210457668</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="C39">
-        <v>-0.002863027901684578</v>
+        <v>-0.01572051752691916</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>108</v>
       </c>
       <c r="C40">
-        <v>-0.003961541100702903</v>
+        <v>-0.01582587095255505</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>109</v>
       </c>
       <c r="C41">
-        <v>-0.004299107553852544</v>
+        <v>-0.01636306209534977</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>110</v>
       </c>
       <c r="C42">
-        <v>-0.005347592668628387</v>
+        <v>-0.01724596403650269</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>111</v>
       </c>
       <c r="C43">
-        <v>-0.006802291894379531</v>
+        <v>-0.01941936172993675</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>112</v>
       </c>
       <c r="C44">
-        <v>-0.008129258992633837</v>
+        <v>-0.01944599196954344</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>-0.008670689864690662</v>
+        <v>-0.02041085332823189</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1291,7 +1291,7 @@
         <v>114</v>
       </c>
       <c r="C46">
-        <v>-0.008718551297054011</v>
+        <v>-0.02044064746460728</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="C47">
-        <v>-0.009959934608367638</v>
+        <v>-0.02147452277593331</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>116</v>
       </c>
       <c r="C48">
-        <v>-0.0100425826011501</v>
+        <v>-0.02179753436838217</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>117</v>
       </c>
       <c r="C49">
-        <v>-0.01036849225999881</v>
+        <v>-0.02447587603201928</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>118</v>
       </c>
       <c r="C50">
-        <v>-0.01081092881474388</v>
+        <v>-0.02476882894594679</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>119</v>
       </c>
       <c r="C51">
-        <v>-0.01151012805228835</v>
+        <v>-0.0251398511246077</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>120</v>
       </c>
       <c r="C52">
-        <v>-0.01225926897137875</v>
+        <v>-0.02556654689736115</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1368,7 +1368,7 @@
         <v>121</v>
       </c>
       <c r="C53">
-        <v>-0.01341917875377607</v>
+        <v>-0.02628715612821342</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>122</v>
       </c>
       <c r="C54">
-        <v>-0.01495448624103335</v>
+        <v>-0.02769473409784451</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>123</v>
       </c>
       <c r="C55">
-        <v>-0.01530135247092757</v>
+        <v>-0.02826963704795471</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1401,7 +1401,7 @@
         <v>124</v>
       </c>
       <c r="C56">
-        <v>-0.0157313680508564</v>
+        <v>-0.02845800586012115</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>125</v>
       </c>
       <c r="C57">
-        <v>-0.01676205761072447</v>
+        <v>-0.02865427257743236</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>126</v>
       </c>
       <c r="C58">
-        <v>-0.01896752770030152</v>
+        <v>-0.02915337592294764</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>127</v>
       </c>
       <c r="C59">
-        <v>-0.02023749144899945</v>
+        <v>-0.03144948370617207</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>128</v>
       </c>
       <c r="C60">
-        <v>-0.0204341571055886</v>
+        <v>-0.03292813070451439</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>129</v>
       </c>
       <c r="C61">
-        <v>-0.02210140701524477</v>
+        <v>-0.0333806159266431</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>130</v>
       </c>
       <c r="C62">
-        <v>-0.02256091026120932</v>
+        <v>-0.03412991724497982</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>131</v>
       </c>
       <c r="C63">
-        <v>-0.02505859969766244</v>
+        <v>-0.03514457305542029</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>132</v>
       </c>
       <c r="C64">
-        <v>-0.03506278409462804</v>
+        <v>-0.03563808567295335</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>133</v>
       </c>
       <c r="C65">
-        <v>-0.03914185752643329</v>
+        <v>-0.03799352515368637</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>134</v>
       </c>
       <c r="C66">
-        <v>-0.04553222825976422</v>
+        <v>-0.04794124959264168</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>135</v>
       </c>
       <c r="C67">
-        <v>-0.0465884974429327</v>
+        <v>-0.05770728694235894</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>136</v>
       </c>
       <c r="C68">
-        <v>-0.06698520455182988</v>
+        <v>-0.06771294406927997</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/主题.xlsx
+++ b/FOF/data/主题.xlsx
@@ -25,406 +25,406 @@
     <t>代码</t>
   </si>
   <si>
+    <t>886050.WI</t>
+  </si>
+  <si>
+    <t>886029.WI</t>
+  </si>
+  <si>
+    <t>886039.WI</t>
+  </si>
+  <si>
+    <t>886005.WI</t>
+  </si>
+  <si>
+    <t>886049.WI</t>
+  </si>
+  <si>
+    <t>886025.WI</t>
+  </si>
+  <si>
+    <t>886062.WI</t>
+  </si>
+  <si>
+    <t>886008.WI</t>
+  </si>
+  <si>
+    <t>886051.WI</t>
+  </si>
+  <si>
+    <t>886069.WI</t>
+  </si>
+  <si>
+    <t>886007.WI</t>
+  </si>
+  <si>
+    <t>886043.WI</t>
+  </si>
+  <si>
+    <t>886006.WI</t>
+  </si>
+  <si>
+    <t>886066.WI</t>
+  </si>
+  <si>
+    <t>886046.WI</t>
+  </si>
+  <si>
+    <t>886004.WI</t>
+  </si>
+  <si>
+    <t>886010.WI</t>
+  </si>
+  <si>
+    <t>886060.WI</t>
+  </si>
+  <si>
     <t>886048.WI</t>
   </si>
   <si>
-    <t>886051.WI</t>
-  </si>
-  <si>
-    <t>886050.WI</t>
-  </si>
-  <si>
-    <t>886025.WI</t>
+    <t>886044.WI</t>
+  </si>
+  <si>
+    <t>886028.WI</t>
+  </si>
+  <si>
+    <t>886009.WI</t>
+  </si>
+  <si>
+    <t>886012.WI</t>
+  </si>
+  <si>
+    <t>886063.WI</t>
+  </si>
+  <si>
+    <t>886017.WI</t>
+  </si>
+  <si>
+    <t>886013.WI</t>
+  </si>
+  <si>
+    <t>886023.WI</t>
+  </si>
+  <si>
+    <t>886052.WI</t>
+  </si>
+  <si>
+    <t>886021.WI</t>
+  </si>
+  <si>
+    <t>886068.WI</t>
+  </si>
+  <si>
+    <t>886042.WI</t>
+  </si>
+  <si>
+    <t>886061.WI</t>
+  </si>
+  <si>
+    <t>886057.WI</t>
+  </si>
+  <si>
+    <t>886045.WI</t>
+  </si>
+  <si>
+    <t>886040.WI</t>
+  </si>
+  <si>
+    <t>886055.WI</t>
+  </si>
+  <si>
+    <t>886001.WI</t>
+  </si>
+  <si>
+    <t>886035.WI</t>
+  </si>
+  <si>
+    <t>886032.WI</t>
+  </si>
+  <si>
+    <t>886036.WI</t>
+  </si>
+  <si>
+    <t>886064.WI</t>
+  </si>
+  <si>
+    <t>886020.WI</t>
+  </si>
+  <si>
+    <t>886038.WI</t>
+  </si>
+  <si>
+    <t>886030.WI</t>
+  </si>
+  <si>
+    <t>886033.WI</t>
+  </si>
+  <si>
+    <t>886002.WI</t>
+  </si>
+  <si>
+    <t>886016.WI</t>
+  </si>
+  <si>
+    <t>886022.WI</t>
+  </si>
+  <si>
+    <t>886067.WI</t>
+  </si>
+  <si>
+    <t>886026.WI</t>
+  </si>
+  <si>
+    <t>886031.WI</t>
+  </si>
+  <si>
+    <t>886059.WI</t>
+  </si>
+  <si>
+    <t>886041.WI</t>
+  </si>
+  <si>
+    <t>886054.WI</t>
+  </si>
+  <si>
+    <t>886014.WI</t>
+  </si>
+  <si>
+    <t>886015.WI</t>
+  </si>
+  <si>
+    <t>886018.WI</t>
+  </si>
+  <si>
+    <t>886019.WI</t>
+  </si>
+  <si>
+    <t>886065.WI</t>
+  </si>
+  <si>
+    <t>886034.WI</t>
+  </si>
+  <si>
+    <t>886058.WI</t>
+  </si>
+  <si>
+    <t>886037.WI</t>
+  </si>
+  <si>
+    <t>886024.WI</t>
+  </si>
+  <si>
+    <t>886003.WI</t>
+  </si>
+  <si>
+    <t>886053.WI</t>
   </si>
   <si>
     <t>886027.WI</t>
   </si>
   <si>
-    <t>886042.WI</t>
-  </si>
-  <si>
-    <t>886032.WI</t>
-  </si>
-  <si>
-    <t>886065.WI</t>
-  </si>
-  <si>
-    <t>886009.WI</t>
-  </si>
-  <si>
-    <t>886023.WI</t>
-  </si>
-  <si>
-    <t>886049.WI</t>
-  </si>
-  <si>
-    <t>886036.WI</t>
-  </si>
-  <si>
-    <t>886022.WI</t>
-  </si>
-  <si>
-    <t>886037.WI</t>
-  </si>
-  <si>
-    <t>886031.WI</t>
-  </si>
-  <si>
-    <t>886045.WI</t>
-  </si>
-  <si>
-    <t>886060.WI</t>
-  </si>
-  <si>
-    <t>886028.WI</t>
-  </si>
-  <si>
-    <t>886044.WI</t>
-  </si>
-  <si>
-    <t>886030.WI</t>
-  </si>
-  <si>
-    <t>886039.WI</t>
-  </si>
-  <si>
-    <t>886026.WI</t>
-  </si>
-  <si>
-    <t>886061.WI</t>
-  </si>
-  <si>
-    <t>886033.WI</t>
-  </si>
-  <si>
     <t>886011.WI</t>
   </si>
   <si>
-    <t>886034.WI</t>
-  </si>
-  <si>
-    <t>886040.WI</t>
-  </si>
-  <si>
-    <t>886064.WI</t>
-  </si>
-  <si>
-    <t>886041.WI</t>
-  </si>
-  <si>
-    <t>886019.WI</t>
-  </si>
-  <si>
-    <t>886059.WI</t>
-  </si>
-  <si>
-    <t>886015.WI</t>
-  </si>
-  <si>
-    <t>886021.WI</t>
-  </si>
-  <si>
-    <t>886006.WI</t>
-  </si>
-  <si>
-    <t>886066.WI</t>
-  </si>
-  <si>
-    <t>886008.WI</t>
-  </si>
-  <si>
-    <t>886038.WI</t>
-  </si>
-  <si>
-    <t>886063.WI</t>
-  </si>
-  <si>
-    <t>886062.WI</t>
-  </si>
-  <si>
-    <t>886046.WI</t>
-  </si>
-  <si>
-    <t>886017.WI</t>
-  </si>
-  <si>
-    <t>886007.WI</t>
-  </si>
-  <si>
-    <t>886067.WI</t>
-  </si>
-  <si>
-    <t>886004.WI</t>
-  </si>
-  <si>
-    <t>886020.WI</t>
-  </si>
-  <si>
-    <t>886016.WI</t>
-  </si>
-  <si>
-    <t>886043.WI</t>
-  </si>
-  <si>
-    <t>886053.WI</t>
-  </si>
-  <si>
-    <t>886005.WI</t>
-  </si>
-  <si>
-    <t>886012.WI</t>
-  </si>
-  <si>
-    <t>886052.WI</t>
-  </si>
-  <si>
-    <t>886057.WI</t>
-  </si>
-  <si>
-    <t>886029.WI</t>
-  </si>
-  <si>
-    <t>886010.WI</t>
-  </si>
-  <si>
-    <t>886013.WI</t>
-  </si>
-  <si>
-    <t>886055.WI</t>
-  </si>
-  <si>
-    <t>886054.WI</t>
-  </si>
-  <si>
-    <t>886058.WI</t>
-  </si>
-  <si>
-    <t>886068.WI</t>
-  </si>
-  <si>
-    <t>886018.WI</t>
-  </si>
-  <si>
-    <t>886014.WI</t>
-  </si>
-  <si>
-    <t>886001.WI</t>
-  </si>
-  <si>
-    <t>886069.WI</t>
-  </si>
-  <si>
-    <t>886035.WI</t>
-  </si>
-  <si>
-    <t>886002.WI</t>
-  </si>
-  <si>
-    <t>886024.WI</t>
-  </si>
-  <si>
-    <t>886003.WI</t>
+    <t>生物科技指数</t>
+  </si>
+  <si>
+    <t>机场指数</t>
+  </si>
+  <si>
+    <t>餐饮旅游指数</t>
+  </si>
+  <si>
+    <t>化纤指数</t>
+  </si>
+  <si>
+    <t>医疗保健指数</t>
+  </si>
+  <si>
+    <t>办公用品指数</t>
+  </si>
+  <si>
+    <t>电子元器件指数</t>
+  </si>
+  <si>
+    <t>建材指数</t>
+  </si>
+  <si>
+    <t>制药指数</t>
+  </si>
+  <si>
+    <t>石油化工指数</t>
+  </si>
+  <si>
+    <t>化肥农药指数</t>
+  </si>
+  <si>
+    <t>酒类指数</t>
+  </si>
+  <si>
+    <t>精细化工指数</t>
+  </si>
+  <si>
+    <t>燃气指数</t>
+  </si>
+  <si>
+    <t>食品指数</t>
+  </si>
+  <si>
+    <t>化工原料指数</t>
+  </si>
+  <si>
+    <t>基本金属指数</t>
+  </si>
+  <si>
+    <t>通信设备指数</t>
   </si>
   <si>
     <t>日用化工指数</t>
   </si>
   <si>
-    <t>制药指数</t>
-  </si>
-  <si>
-    <t>生物科技指数</t>
-  </si>
-  <si>
-    <t>办公用品指数</t>
+    <t>软饮料指数</t>
+  </si>
+  <si>
+    <t>陆路运输指数</t>
+  </si>
+  <si>
+    <t>包装指数</t>
+  </si>
+  <si>
+    <t>钢铁指数</t>
+  </si>
+  <si>
+    <t>半导体指数</t>
+  </si>
+  <si>
+    <t>电工电网指数</t>
+  </si>
+  <si>
+    <t>林木指数</t>
+  </si>
+  <si>
+    <t>商业服务指数</t>
+  </si>
+  <si>
+    <t>银行指数</t>
+  </si>
+  <si>
+    <t>工业机械指数</t>
+  </si>
+  <si>
+    <t>工程机械指数</t>
+  </si>
+  <si>
+    <t>零售指数</t>
+  </si>
+  <si>
+    <t>电脑硬件指数</t>
+  </si>
+  <si>
+    <t>房地产指数</t>
+  </si>
+  <si>
+    <t>农业指数</t>
+  </si>
+  <si>
+    <t>教育指数</t>
+  </si>
+  <si>
+    <t>保险指数</t>
+  </si>
+  <si>
+    <t>能源设备指数</t>
+  </si>
+  <si>
+    <t>家用电器指数</t>
+  </si>
+  <si>
+    <t>汽车零部件指数</t>
+  </si>
+  <si>
+    <t>家居用品指数</t>
+  </si>
+  <si>
+    <t>电信指数</t>
+  </si>
+  <si>
+    <t>重型机械指数</t>
+  </si>
+  <si>
+    <t>纺织服装指数</t>
+  </si>
+  <si>
+    <t>公路指数</t>
+  </si>
+  <si>
+    <t>汽车指数</t>
+  </si>
+  <si>
+    <t>石油天然气指数</t>
+  </si>
+  <si>
+    <t>建筑指数</t>
+  </si>
+  <si>
+    <t>贸易指数</t>
+  </si>
+  <si>
+    <t>水务指数</t>
+  </si>
+  <si>
+    <t>航空指数</t>
+  </si>
+  <si>
+    <t>港口指数</t>
+  </si>
+  <si>
+    <t>软件指数</t>
+  </si>
+  <si>
+    <t>文化传媒指数</t>
+  </si>
+  <si>
+    <t>券商指数</t>
+  </si>
+  <si>
+    <t>造纸指数</t>
+  </si>
+  <si>
+    <t>航天军工指数</t>
+  </si>
+  <si>
+    <t>发电设备指数</t>
+  </si>
+  <si>
+    <t>综合类指数</t>
+  </si>
+  <si>
+    <t>电力指数</t>
+  </si>
+  <si>
+    <t>摩托车指数</t>
+  </si>
+  <si>
+    <t>互联网指数</t>
+  </si>
+  <si>
+    <t>休闲用品指数</t>
+  </si>
+  <si>
+    <t>环保指数</t>
+  </si>
+  <si>
+    <t>煤炭指数</t>
+  </si>
+  <si>
+    <t>多元金融指数</t>
   </si>
   <si>
     <t>海运指数</t>
   </si>
   <si>
-    <t>零售指数</t>
-  </si>
-  <si>
-    <t>汽车零部件指数</t>
-  </si>
-  <si>
-    <t>电力指数</t>
-  </si>
-  <si>
-    <t>包装指数</t>
-  </si>
-  <si>
-    <t>商业服务指数</t>
-  </si>
-  <si>
-    <t>医疗保健指数</t>
-  </si>
-  <si>
-    <t>家居用品指数</t>
-  </si>
-  <si>
-    <t>贸易指数</t>
-  </si>
-  <si>
-    <t>休闲用品指数</t>
-  </si>
-  <si>
-    <t>港口指数</t>
-  </si>
-  <si>
-    <t>农业指数</t>
-  </si>
-  <si>
-    <t>通信设备指数</t>
-  </si>
-  <si>
-    <t>陆路运输指数</t>
-  </si>
-  <si>
-    <t>软饮料指数</t>
-  </si>
-  <si>
-    <t>公路指数</t>
-  </si>
-  <si>
-    <t>餐饮旅游指数</t>
-  </si>
-  <si>
-    <t>航空指数</t>
-  </si>
-  <si>
-    <t>电脑硬件指数</t>
-  </si>
-  <si>
-    <t>汽车指数</t>
-  </si>
-  <si>
     <t>贵金属指数</t>
-  </si>
-  <si>
-    <t>摩托车指数</t>
-  </si>
-  <si>
-    <t>教育指数</t>
-  </si>
-  <si>
-    <t>电信指数</t>
-  </si>
-  <si>
-    <t>文化传媒指数</t>
-  </si>
-  <si>
-    <t>综合类指数</t>
-  </si>
-  <si>
-    <t>软件指数</t>
-  </si>
-  <si>
-    <t>航天军工指数</t>
-  </si>
-  <si>
-    <t>工业机械指数</t>
-  </si>
-  <si>
-    <t>精细化工指数</t>
-  </si>
-  <si>
-    <t>燃气指数</t>
-  </si>
-  <si>
-    <t>建材指数</t>
-  </si>
-  <si>
-    <t>纺织服装指数</t>
-  </si>
-  <si>
-    <t>半导体指数</t>
-  </si>
-  <si>
-    <t>电子元器件指数</t>
-  </si>
-  <si>
-    <t>食品指数</t>
-  </si>
-  <si>
-    <t>电工电网指数</t>
-  </si>
-  <si>
-    <t>化肥农药指数</t>
-  </si>
-  <si>
-    <t>水务指数</t>
-  </si>
-  <si>
-    <t>化工原料指数</t>
-  </si>
-  <si>
-    <t>重型机械指数</t>
-  </si>
-  <si>
-    <t>建筑指数</t>
-  </si>
-  <si>
-    <t>酒类指数</t>
-  </si>
-  <si>
-    <t>多元金融指数</t>
-  </si>
-  <si>
-    <t>化纤指数</t>
-  </si>
-  <si>
-    <t>钢铁指数</t>
-  </si>
-  <si>
-    <t>银行指数</t>
-  </si>
-  <si>
-    <t>房地产指数</t>
-  </si>
-  <si>
-    <t>机场指数</t>
-  </si>
-  <si>
-    <t>基本金属指数</t>
-  </si>
-  <si>
-    <t>林木指数</t>
-  </si>
-  <si>
-    <t>保险指数</t>
-  </si>
-  <si>
-    <t>券商指数</t>
-  </si>
-  <si>
-    <t>互联网指数</t>
-  </si>
-  <si>
-    <t>工程机械指数</t>
-  </si>
-  <si>
-    <t>发电设备指数</t>
-  </si>
-  <si>
-    <t>造纸指数</t>
-  </si>
-  <si>
-    <t>能源设备指数</t>
-  </si>
-  <si>
-    <t>石油化工指数</t>
-  </si>
-  <si>
-    <t>家用电器指数</t>
-  </si>
-  <si>
-    <t>石油天然气指数</t>
-  </si>
-  <si>
-    <t>环保指数</t>
-  </si>
-  <si>
-    <t>煤炭指数</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
         <v>70</v>
       </c>
       <c r="C2">
-        <v>0.05420622932273145</v>
+        <v>0.1036002266968183</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -818,7 +818,7 @@
         <v>71</v>
       </c>
       <c r="C3">
-        <v>0.03238807106831398</v>
+        <v>0.09834119205016423</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -829,7 +829,7 @@
         <v>72</v>
       </c>
       <c r="C4">
-        <v>0.02642286418707052</v>
+        <v>0.09413288236546169</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -840,7 +840,7 @@
         <v>73</v>
       </c>
       <c r="C5">
-        <v>0.02444762733331096</v>
+        <v>0.08805507773972576</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -851,7 +851,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>0.0225836060094291</v>
+        <v>0.08668600249939407</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -862,7 +862,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>0.02095216440944658</v>
+        <v>0.08430710029197774</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -873,7 +873,7 @@
         <v>76</v>
       </c>
       <c r="C8">
-        <v>0.01882539262507987</v>
+        <v>0.07609857481593552</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -884,7 +884,7 @@
         <v>77</v>
       </c>
       <c r="C9">
-        <v>0.01717811246654977</v>
+        <v>0.07590348656152934</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -895,7 +895,7 @@
         <v>78</v>
       </c>
       <c r="C10">
-        <v>0.01473568201880515</v>
+        <v>0.0725036435448243</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -906,7 +906,7 @@
         <v>79</v>
       </c>
       <c r="C11">
-        <v>0.01408092827917273</v>
+        <v>0.06737954991513795</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -917,7 +917,7 @@
         <v>80</v>
       </c>
       <c r="C12">
-        <v>0.01358740006894199</v>
+        <v>0.06709638627224002</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -928,7 +928,7 @@
         <v>81</v>
       </c>
       <c r="C13">
-        <v>0.009375338793300436</v>
+        <v>0.06516805224520072</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -939,7 +939,7 @@
         <v>82</v>
       </c>
       <c r="C14">
-        <v>0.008710377816879111</v>
+        <v>0.06413897249438127</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -950,7 +950,7 @@
         <v>83</v>
       </c>
       <c r="C15">
-        <v>0.00833678547295591</v>
+        <v>0.05875497555131171</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -961,7 +961,7 @@
         <v>84</v>
       </c>
       <c r="C16">
-        <v>0.007452283832905415</v>
+        <v>0.05561471378183613</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -972,7 +972,7 @@
         <v>85</v>
       </c>
       <c r="C17">
-        <v>0.006874817008384548</v>
+        <v>0.05541818968444878</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -983,7 +983,7 @@
         <v>86</v>
       </c>
       <c r="C18">
-        <v>0.006788745699128906</v>
+        <v>0.05434323739694258</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -994,7 +994,7 @@
         <v>87</v>
       </c>
       <c r="C19">
-        <v>0.003438571699066362</v>
+        <v>0.05097466802030093</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1005,7 +1005,7 @@
         <v>88</v>
       </c>
       <c r="C20">
-        <v>0.002757040845684289</v>
+        <v>0.0506179370967883</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1016,7 +1016,7 @@
         <v>89</v>
       </c>
       <c r="C21">
-        <v>0.001620364653744488</v>
+        <v>0.04662041753288015</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1027,7 +1027,7 @@
         <v>90</v>
       </c>
       <c r="C22">
-        <v>0.001086562253505008</v>
+        <v>0.04518609374051352</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>91</v>
       </c>
       <c r="C23">
-        <v>0.0007827923316947594</v>
+        <v>0.04272876963324057</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>92</v>
       </c>
       <c r="C24">
-        <v>-0.001887047502591721</v>
+        <v>0.04248858246415033</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>93</v>
       </c>
       <c r="C25">
-        <v>-0.003039791597895691</v>
+        <v>0.04057131933861724</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1071,7 +1071,7 @@
         <v>94</v>
       </c>
       <c r="C26">
-        <v>-0.004688897300102912</v>
+        <v>0.03726875065296276</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>95</v>
       </c>
       <c r="C27">
-        <v>-0.005862494181130606</v>
+        <v>0.03646361193027925</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>96</v>
       </c>
       <c r="C28">
-        <v>-0.007903426912922562</v>
+        <v>0.03453600758507824</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>97</v>
       </c>
       <c r="C29">
-        <v>-0.008138484891860753</v>
+        <v>0.03447079115815055</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>98</v>
       </c>
       <c r="C30">
-        <v>-0.008231421673124184</v>
+        <v>0.03317394154915165</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1126,7 +1126,7 @@
         <v>99</v>
       </c>
       <c r="C31">
-        <v>-0.00920935105392251</v>
+        <v>0.03303850298841771</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>-0.009650815624739795</v>
+        <v>0.03241091169762367</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>101</v>
       </c>
       <c r="C33">
-        <v>-0.01044388579512467</v>
+        <v>0.03226178635368981</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>102</v>
       </c>
       <c r="C34">
-        <v>-0.01046430769218332</v>
+        <v>0.03149998629037087</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>103</v>
       </c>
       <c r="C35">
-        <v>-0.01051958190482027</v>
+        <v>0.03107459962573089</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1181,7 +1181,7 @@
         <v>104</v>
       </c>
       <c r="C36">
-        <v>-0.0111579193292336</v>
+        <v>0.03087898904790864</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>105</v>
       </c>
       <c r="C37">
-        <v>-0.01398706477724765</v>
+        <v>0.03020102344532627</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>106</v>
       </c>
       <c r="C38">
-        <v>-0.01455939210457668</v>
+        <v>0.03017679997530442</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="C39">
-        <v>-0.01572051752691916</v>
+        <v>0.02964556650348249</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>108</v>
       </c>
       <c r="C40">
-        <v>-0.01582587095255505</v>
+        <v>0.02707344346154361</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>109</v>
       </c>
       <c r="C41">
-        <v>-0.01636306209534977</v>
+        <v>0.02690866515445034</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>110</v>
       </c>
       <c r="C42">
-        <v>-0.01724596403650269</v>
+        <v>0.02686526245826526</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>111</v>
       </c>
       <c r="C43">
-        <v>-0.01941936172993675</v>
+        <v>0.02670063161680147</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>112</v>
       </c>
       <c r="C44">
-        <v>-0.01944599196954344</v>
+        <v>0.02476160345539258</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>-0.02041085332823189</v>
+        <v>0.02439958271662834</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1291,7 +1291,7 @@
         <v>114</v>
       </c>
       <c r="C46">
-        <v>-0.02044064746460728</v>
+        <v>0.02439477021046632</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="C47">
-        <v>-0.02147452277593331</v>
+        <v>0.02431452235710663</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>116</v>
       </c>
       <c r="C48">
-        <v>-0.02179753436838217</v>
+        <v>0.01991858586792894</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>117</v>
       </c>
       <c r="C49">
-        <v>-0.02447587603201928</v>
+        <v>0.01870910752184707</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>118</v>
       </c>
       <c r="C50">
-        <v>-0.02476882894594679</v>
+        <v>0.01784618567630369</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>119</v>
       </c>
       <c r="C51">
-        <v>-0.0251398511246077</v>
+        <v>0.01771255920833714</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>120</v>
       </c>
       <c r="C52">
-        <v>-0.02556654689736115</v>
+        <v>0.01749220861521961</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1368,7 +1368,7 @@
         <v>121</v>
       </c>
       <c r="C53">
-        <v>-0.02628715612821342</v>
+        <v>0.01737831923316246</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>122</v>
       </c>
       <c r="C54">
-        <v>-0.02769473409784451</v>
+        <v>0.01560108330571475</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>123</v>
       </c>
       <c r="C55">
-        <v>-0.02826963704795471</v>
+        <v>0.01500212674359358</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1401,7 +1401,7 @@
         <v>124</v>
       </c>
       <c r="C56">
-        <v>-0.02845800586012115</v>
+        <v>0.01458664976744073</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>125</v>
       </c>
       <c r="C57">
-        <v>-0.02865427257743236</v>
+        <v>0.01416589899064613</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>126</v>
       </c>
       <c r="C58">
-        <v>-0.02915337592294764</v>
+        <v>0.01293365296717797</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>127</v>
       </c>
       <c r="C59">
-        <v>-0.03144948370617207</v>
+        <v>0.01132160511064417</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>128</v>
       </c>
       <c r="C60">
-        <v>-0.03292813070451439</v>
+        <v>0.009692228545812087</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>129</v>
       </c>
       <c r="C61">
-        <v>-0.0333806159266431</v>
+        <v>0.008997603474747651</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>130</v>
       </c>
       <c r="C62">
-        <v>-0.03412991724497982</v>
+        <v>0.008752334928827432</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>131</v>
       </c>
       <c r="C63">
-        <v>-0.03514457305542029</v>
+        <v>0.008623398615702049</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>132</v>
       </c>
       <c r="C64">
-        <v>-0.03563808567295335</v>
+        <v>0.008435823147819654</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>133</v>
       </c>
       <c r="C65">
-        <v>-0.03799352515368637</v>
+        <v>0.007308122357465585</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>134</v>
       </c>
       <c r="C66">
-        <v>-0.04794124959264168</v>
+        <v>0.00676521663337315</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>135</v>
       </c>
       <c r="C67">
-        <v>-0.05770728694235894</v>
+        <v>0.0005300341012437482</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>136</v>
       </c>
       <c r="C68">
-        <v>-0.06771294406927997</v>
+        <v>-0.02251556674090849</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/主题.xlsx
+++ b/FOF/data/主题.xlsx
@@ -25,406 +25,406 @@
     <t>代码</t>
   </si>
   <si>
+    <t>886055.WI</t>
+  </si>
+  <si>
+    <t>886031.WI</t>
+  </si>
+  <si>
+    <t>886054.WI</t>
+  </si>
+  <si>
+    <t>886052.WI</t>
+  </si>
+  <si>
+    <t>886059.WI</t>
+  </si>
+  <si>
+    <t>886060.WI</t>
+  </si>
+  <si>
+    <t>886027.WI</t>
+  </si>
+  <si>
+    <t>886043.WI</t>
+  </si>
+  <si>
+    <t>886062.WI</t>
+  </si>
+  <si>
+    <t>886061.WI</t>
+  </si>
+  <si>
+    <t>886035.WI</t>
+  </si>
+  <si>
+    <t>886065.WI</t>
+  </si>
+  <si>
+    <t>886041.WI</t>
+  </si>
+  <si>
+    <t>886064.WI</t>
+  </si>
+  <si>
+    <t>886053.WI</t>
+  </si>
+  <si>
+    <t>886023.WI</t>
+  </si>
+  <si>
+    <t>886030.WI</t>
+  </si>
+  <si>
+    <t>886044.WI</t>
+  </si>
+  <si>
+    <t>886037.WI</t>
+  </si>
+  <si>
+    <t>886017.WI</t>
+  </si>
+  <si>
+    <t>886009.WI</t>
+  </si>
+  <si>
+    <t>886046.WI</t>
+  </si>
+  <si>
+    <t>886057.WI</t>
+  </si>
+  <si>
+    <t>886063.WI</t>
+  </si>
+  <si>
+    <t>886058.WI</t>
+  </si>
+  <si>
+    <t>886028.WI</t>
+  </si>
+  <si>
+    <t>886049.WI</t>
+  </si>
+  <si>
+    <t>886029.WI</t>
+  </si>
+  <si>
+    <t>886067.WI</t>
+  </si>
+  <si>
+    <t>886026.WI</t>
+  </si>
+  <si>
+    <t>886033.WI</t>
+  </si>
+  <si>
+    <t>886021.WI</t>
+  </si>
+  <si>
+    <t>886032.WI</t>
+  </si>
+  <si>
+    <t>886045.WI</t>
+  </si>
+  <si>
+    <t>886018.WI</t>
+  </si>
+  <si>
+    <t>886013.WI</t>
+  </si>
+  <si>
+    <t>886020.WI</t>
+  </si>
+  <si>
+    <t>886012.WI</t>
+  </si>
+  <si>
+    <t>886042.WI</t>
+  </si>
+  <si>
+    <t>886008.WI</t>
+  </si>
+  <si>
+    <t>886006.WI</t>
+  </si>
+  <si>
+    <t>886048.WI</t>
+  </si>
+  <si>
+    <t>886038.WI</t>
+  </si>
+  <si>
+    <t>886015.WI</t>
+  </si>
+  <si>
+    <t>886016.WI</t>
+  </si>
+  <si>
+    <t>886068.WI</t>
+  </si>
+  <si>
+    <t>886014.WI</t>
+  </si>
+  <si>
+    <t>886051.WI</t>
+  </si>
+  <si>
+    <t>886002.WI</t>
+  </si>
+  <si>
+    <t>886022.WI</t>
+  </si>
+  <si>
     <t>886050.WI</t>
   </si>
   <si>
-    <t>886029.WI</t>
+    <t>886066.WI</t>
+  </si>
+  <si>
+    <t>886004.WI</t>
+  </si>
+  <si>
+    <t>886007.WI</t>
+  </si>
+  <si>
+    <t>886010.WI</t>
+  </si>
+  <si>
+    <t>886003.WI</t>
+  </si>
+  <si>
+    <t>886019.WI</t>
+  </si>
+  <si>
+    <t>886024.WI</t>
+  </si>
+  <si>
+    <t>886011.WI</t>
+  </si>
+  <si>
+    <t>886036.WI</t>
+  </si>
+  <si>
+    <t>886034.WI</t>
+  </si>
+  <si>
+    <t>886005.WI</t>
+  </si>
+  <si>
+    <t>886069.WI</t>
   </si>
   <si>
     <t>886039.WI</t>
   </si>
   <si>
-    <t>886005.WI</t>
-  </si>
-  <si>
-    <t>886049.WI</t>
+    <t>886001.WI</t>
+  </si>
+  <si>
+    <t>886040.WI</t>
   </si>
   <si>
     <t>886025.WI</t>
   </si>
   <si>
-    <t>886062.WI</t>
-  </si>
-  <si>
-    <t>886008.WI</t>
-  </si>
-  <si>
-    <t>886051.WI</t>
-  </si>
-  <si>
-    <t>886069.WI</t>
-  </si>
-  <si>
-    <t>886007.WI</t>
-  </si>
-  <si>
-    <t>886043.WI</t>
-  </si>
-  <si>
-    <t>886006.WI</t>
-  </si>
-  <si>
-    <t>886066.WI</t>
-  </si>
-  <si>
-    <t>886046.WI</t>
-  </si>
-  <si>
-    <t>886004.WI</t>
-  </si>
-  <si>
-    <t>886010.WI</t>
-  </si>
-  <si>
-    <t>886060.WI</t>
-  </si>
-  <si>
-    <t>886048.WI</t>
-  </si>
-  <si>
-    <t>886044.WI</t>
-  </si>
-  <si>
-    <t>886028.WI</t>
-  </si>
-  <si>
-    <t>886009.WI</t>
-  </si>
-  <si>
-    <t>886012.WI</t>
-  </si>
-  <si>
-    <t>886063.WI</t>
-  </si>
-  <si>
-    <t>886017.WI</t>
-  </si>
-  <si>
-    <t>886013.WI</t>
-  </si>
-  <si>
-    <t>886023.WI</t>
-  </si>
-  <si>
-    <t>886052.WI</t>
-  </si>
-  <si>
-    <t>886021.WI</t>
-  </si>
-  <si>
-    <t>886068.WI</t>
-  </si>
-  <si>
-    <t>886042.WI</t>
-  </si>
-  <si>
-    <t>886061.WI</t>
-  </si>
-  <si>
-    <t>886057.WI</t>
-  </si>
-  <si>
-    <t>886045.WI</t>
-  </si>
-  <si>
-    <t>886040.WI</t>
-  </si>
-  <si>
-    <t>886055.WI</t>
-  </si>
-  <si>
-    <t>886001.WI</t>
-  </si>
-  <si>
-    <t>886035.WI</t>
-  </si>
-  <si>
-    <t>886032.WI</t>
-  </si>
-  <si>
-    <t>886036.WI</t>
-  </si>
-  <si>
-    <t>886064.WI</t>
-  </si>
-  <si>
-    <t>886020.WI</t>
-  </si>
-  <si>
-    <t>886038.WI</t>
-  </si>
-  <si>
-    <t>886030.WI</t>
-  </si>
-  <si>
-    <t>886033.WI</t>
-  </si>
-  <si>
-    <t>886002.WI</t>
-  </si>
-  <si>
-    <t>886016.WI</t>
-  </si>
-  <si>
-    <t>886022.WI</t>
-  </si>
-  <si>
-    <t>886067.WI</t>
-  </si>
-  <si>
-    <t>886026.WI</t>
-  </si>
-  <si>
-    <t>886031.WI</t>
-  </si>
-  <si>
-    <t>886059.WI</t>
-  </si>
-  <si>
-    <t>886041.WI</t>
-  </si>
-  <si>
-    <t>886054.WI</t>
-  </si>
-  <si>
-    <t>886014.WI</t>
-  </si>
-  <si>
-    <t>886015.WI</t>
-  </si>
-  <si>
-    <t>886018.WI</t>
-  </si>
-  <si>
-    <t>886019.WI</t>
-  </si>
-  <si>
-    <t>886065.WI</t>
-  </si>
-  <si>
-    <t>886034.WI</t>
-  </si>
-  <si>
-    <t>886058.WI</t>
-  </si>
-  <si>
-    <t>886037.WI</t>
-  </si>
-  <si>
-    <t>886024.WI</t>
-  </si>
-  <si>
-    <t>886003.WI</t>
-  </si>
-  <si>
-    <t>886053.WI</t>
-  </si>
-  <si>
-    <t>886027.WI</t>
-  </si>
-  <si>
-    <t>886011.WI</t>
+    <t>保险指数</t>
+  </si>
+  <si>
+    <t>港口指数</t>
+  </si>
+  <si>
+    <t>券商指数</t>
+  </si>
+  <si>
+    <t>银行指数</t>
+  </si>
+  <si>
+    <t>软件指数</t>
+  </si>
+  <si>
+    <t>通信设备指数</t>
+  </si>
+  <si>
+    <t>海运指数</t>
+  </si>
+  <si>
+    <t>酒类指数</t>
+  </si>
+  <si>
+    <t>电子元器件指数</t>
+  </si>
+  <si>
+    <t>电脑硬件指数</t>
+  </si>
+  <si>
+    <t>家用电器指数</t>
+  </si>
+  <si>
+    <t>电力指数</t>
+  </si>
+  <si>
+    <t>文化传媒指数</t>
+  </si>
+  <si>
+    <t>电信指数</t>
+  </si>
+  <si>
+    <t>多元金融指数</t>
+  </si>
+  <si>
+    <t>商业服务指数</t>
+  </si>
+  <si>
+    <t>公路指数</t>
+  </si>
+  <si>
+    <t>软饮料指数</t>
+  </si>
+  <si>
+    <t>休闲用品指数</t>
+  </si>
+  <si>
+    <t>电工电网指数</t>
+  </si>
+  <si>
+    <t>包装指数</t>
+  </si>
+  <si>
+    <t>食品指数</t>
+  </si>
+  <si>
+    <t>房地产指数</t>
+  </si>
+  <si>
+    <t>半导体指数</t>
+  </si>
+  <si>
+    <t>互联网指数</t>
+  </si>
+  <si>
+    <t>陆路运输指数</t>
+  </si>
+  <si>
+    <t>医疗保健指数</t>
+  </si>
+  <si>
+    <t>机场指数</t>
+  </si>
+  <si>
+    <t>水务指数</t>
+  </si>
+  <si>
+    <t>航空指数</t>
+  </si>
+  <si>
+    <t>汽车指数</t>
+  </si>
+  <si>
+    <t>工业机械指数</t>
+  </si>
+  <si>
+    <t>汽车零部件指数</t>
+  </si>
+  <si>
+    <t>农业指数</t>
+  </si>
+  <si>
+    <t>发电设备指数</t>
+  </si>
+  <si>
+    <t>林木指数</t>
+  </si>
+  <si>
+    <t>重型机械指数</t>
+  </si>
+  <si>
+    <t>钢铁指数</t>
+  </si>
+  <si>
+    <t>零售指数</t>
+  </si>
+  <si>
+    <t>建材指数</t>
+  </si>
+  <si>
+    <t>精细化工指数</t>
+  </si>
+  <si>
+    <t>日用化工指数</t>
+  </si>
+  <si>
+    <t>纺织服装指数</t>
+  </si>
+  <si>
+    <t>航天军工指数</t>
+  </si>
+  <si>
+    <t>建筑指数</t>
+  </si>
+  <si>
+    <t>工程机械指数</t>
+  </si>
+  <si>
+    <t>造纸指数</t>
+  </si>
+  <si>
+    <t>制药指数</t>
+  </si>
+  <si>
+    <t>石油天然气指数</t>
+  </si>
+  <si>
+    <t>贸易指数</t>
   </si>
   <si>
     <t>生物科技指数</t>
   </si>
   <si>
-    <t>机场指数</t>
+    <t>燃气指数</t>
+  </si>
+  <si>
+    <t>化工原料指数</t>
+  </si>
+  <si>
+    <t>化肥农药指数</t>
+  </si>
+  <si>
+    <t>基本金属指数</t>
+  </si>
+  <si>
+    <t>煤炭指数</t>
+  </si>
+  <si>
+    <t>综合类指数</t>
+  </si>
+  <si>
+    <t>环保指数</t>
+  </si>
+  <si>
+    <t>贵金属指数</t>
+  </si>
+  <si>
+    <t>家居用品指数</t>
+  </si>
+  <si>
+    <t>摩托车指数</t>
+  </si>
+  <si>
+    <t>化纤指数</t>
+  </si>
+  <si>
+    <t>石油化工指数</t>
   </si>
   <si>
     <t>餐饮旅游指数</t>
   </si>
   <si>
-    <t>化纤指数</t>
-  </si>
-  <si>
-    <t>医疗保健指数</t>
+    <t>能源设备指数</t>
+  </si>
+  <si>
+    <t>教育指数</t>
   </si>
   <si>
     <t>办公用品指数</t>
-  </si>
-  <si>
-    <t>电子元器件指数</t>
-  </si>
-  <si>
-    <t>建材指数</t>
-  </si>
-  <si>
-    <t>制药指数</t>
-  </si>
-  <si>
-    <t>石油化工指数</t>
-  </si>
-  <si>
-    <t>化肥农药指数</t>
-  </si>
-  <si>
-    <t>酒类指数</t>
-  </si>
-  <si>
-    <t>精细化工指数</t>
-  </si>
-  <si>
-    <t>燃气指数</t>
-  </si>
-  <si>
-    <t>食品指数</t>
-  </si>
-  <si>
-    <t>化工原料指数</t>
-  </si>
-  <si>
-    <t>基本金属指数</t>
-  </si>
-  <si>
-    <t>通信设备指数</t>
-  </si>
-  <si>
-    <t>日用化工指数</t>
-  </si>
-  <si>
-    <t>软饮料指数</t>
-  </si>
-  <si>
-    <t>陆路运输指数</t>
-  </si>
-  <si>
-    <t>包装指数</t>
-  </si>
-  <si>
-    <t>钢铁指数</t>
-  </si>
-  <si>
-    <t>半导体指数</t>
-  </si>
-  <si>
-    <t>电工电网指数</t>
-  </si>
-  <si>
-    <t>林木指数</t>
-  </si>
-  <si>
-    <t>商业服务指数</t>
-  </si>
-  <si>
-    <t>银行指数</t>
-  </si>
-  <si>
-    <t>工业机械指数</t>
-  </si>
-  <si>
-    <t>工程机械指数</t>
-  </si>
-  <si>
-    <t>零售指数</t>
-  </si>
-  <si>
-    <t>电脑硬件指数</t>
-  </si>
-  <si>
-    <t>房地产指数</t>
-  </si>
-  <si>
-    <t>农业指数</t>
-  </si>
-  <si>
-    <t>教育指数</t>
-  </si>
-  <si>
-    <t>保险指数</t>
-  </si>
-  <si>
-    <t>能源设备指数</t>
-  </si>
-  <si>
-    <t>家用电器指数</t>
-  </si>
-  <si>
-    <t>汽车零部件指数</t>
-  </si>
-  <si>
-    <t>家居用品指数</t>
-  </si>
-  <si>
-    <t>电信指数</t>
-  </si>
-  <si>
-    <t>重型机械指数</t>
-  </si>
-  <si>
-    <t>纺织服装指数</t>
-  </si>
-  <si>
-    <t>公路指数</t>
-  </si>
-  <si>
-    <t>汽车指数</t>
-  </si>
-  <si>
-    <t>石油天然气指数</t>
-  </si>
-  <si>
-    <t>建筑指数</t>
-  </si>
-  <si>
-    <t>贸易指数</t>
-  </si>
-  <si>
-    <t>水务指数</t>
-  </si>
-  <si>
-    <t>航空指数</t>
-  </si>
-  <si>
-    <t>港口指数</t>
-  </si>
-  <si>
-    <t>软件指数</t>
-  </si>
-  <si>
-    <t>文化传媒指数</t>
-  </si>
-  <si>
-    <t>券商指数</t>
-  </si>
-  <si>
-    <t>造纸指数</t>
-  </si>
-  <si>
-    <t>航天军工指数</t>
-  </si>
-  <si>
-    <t>发电设备指数</t>
-  </si>
-  <si>
-    <t>综合类指数</t>
-  </si>
-  <si>
-    <t>电力指数</t>
-  </si>
-  <si>
-    <t>摩托车指数</t>
-  </si>
-  <si>
-    <t>互联网指数</t>
-  </si>
-  <si>
-    <t>休闲用品指数</t>
-  </si>
-  <si>
-    <t>环保指数</t>
-  </si>
-  <si>
-    <t>煤炭指数</t>
-  </si>
-  <si>
-    <t>多元金融指数</t>
-  </si>
-  <si>
-    <t>海运指数</t>
-  </si>
-  <si>
-    <t>贵金属指数</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
         <v>70</v>
       </c>
       <c r="C2">
-        <v>0.1036002266968183</v>
+        <v>0.02477747539310671</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -818,7 +818,7 @@
         <v>71</v>
       </c>
       <c r="C3">
-        <v>0.09834119205016423</v>
+        <v>0.01499816704777501</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -829,7 +829,7 @@
         <v>72</v>
       </c>
       <c r="C4">
-        <v>0.09413288236546169</v>
+        <v>0.01330354726835781</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -840,7 +840,7 @@
         <v>73</v>
       </c>
       <c r="C5">
-        <v>0.08805507773972576</v>
+        <v>0.01296758128669917</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -851,7 +851,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>0.08668600249939407</v>
+        <v>0.009165538374410032</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -862,7 +862,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>0.08430710029197774</v>
+        <v>0.005453723206213068</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -873,7 +873,7 @@
         <v>76</v>
       </c>
       <c r="C8">
-        <v>0.07609857481593552</v>
+        <v>-0.00887886302231311</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -884,7 +884,7 @@
         <v>77</v>
       </c>
       <c r="C9">
-        <v>0.07590348656152934</v>
+        <v>-0.008947594804717962</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -895,7 +895,7 @@
         <v>78</v>
       </c>
       <c r="C10">
-        <v>0.0725036435448243</v>
+        <v>-0.01012070441732493</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -906,7 +906,7 @@
         <v>79</v>
       </c>
       <c r="C11">
-        <v>0.06737954991513795</v>
+        <v>-0.01172851213345982</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -917,7 +917,7 @@
         <v>80</v>
       </c>
       <c r="C12">
-        <v>0.06709638627224002</v>
+        <v>-0.01353081450922455</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -928,7 +928,7 @@
         <v>81</v>
       </c>
       <c r="C13">
-        <v>0.06516805224520072</v>
+        <v>-0.01409401780175024</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -939,7 +939,7 @@
         <v>82</v>
       </c>
       <c r="C14">
-        <v>0.06413897249438127</v>
+        <v>-0.01470186596735124</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -950,7 +950,7 @@
         <v>83</v>
       </c>
       <c r="C15">
-        <v>0.05875497555131171</v>
+        <v>-0.0148489949408589</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -961,7 +961,7 @@
         <v>84</v>
       </c>
       <c r="C16">
-        <v>0.05561471378183613</v>
+        <v>-0.01506063248162082</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -972,7 +972,7 @@
         <v>85</v>
       </c>
       <c r="C17">
-        <v>0.05541818968444878</v>
+        <v>-0.01541326991141445</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -983,7 +983,7 @@
         <v>86</v>
       </c>
       <c r="C18">
-        <v>0.05434323739694258</v>
+        <v>-0.01670776902224591</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -994,7 +994,7 @@
         <v>87</v>
       </c>
       <c r="C19">
-        <v>0.05097466802030093</v>
+        <v>-0.01786388871994926</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1005,7 +1005,7 @@
         <v>88</v>
       </c>
       <c r="C20">
-        <v>0.0506179370967883</v>
+        <v>-0.01901464413917053</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1016,7 +1016,7 @@
         <v>89</v>
       </c>
       <c r="C21">
-        <v>0.04662041753288015</v>
+        <v>-0.01978406226179652</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1027,7 +1027,7 @@
         <v>90</v>
       </c>
       <c r="C22">
-        <v>0.04518609374051352</v>
+        <v>-0.02233955060198367</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>91</v>
       </c>
       <c r="C23">
-        <v>0.04272876963324057</v>
+        <v>-0.02406217749547246</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>92</v>
       </c>
       <c r="C24">
-        <v>0.04248858246415033</v>
+        <v>-0.0259185690557634</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>93</v>
       </c>
       <c r="C25">
-        <v>0.04057131933861724</v>
+        <v>-0.02666055328099204</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1071,7 +1071,7 @@
         <v>94</v>
       </c>
       <c r="C26">
-        <v>0.03726875065296276</v>
+        <v>-0.02736749038574171</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>95</v>
       </c>
       <c r="C27">
-        <v>0.03646361193027925</v>
+        <v>-0.02761376030469864</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>96</v>
       </c>
       <c r="C28">
-        <v>0.03453600758507824</v>
+        <v>-0.02778791312196327</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>97</v>
       </c>
       <c r="C29">
-        <v>0.03447079115815055</v>
+        <v>-0.03001470013401442</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>98</v>
       </c>
       <c r="C30">
-        <v>0.03317394154915165</v>
+        <v>-0.03084216796094741</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1126,7 +1126,7 @@
         <v>99</v>
       </c>
       <c r="C31">
-        <v>0.03303850298841771</v>
+        <v>-0.03108024728897874</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>0.03241091169762367</v>
+        <v>-0.03126459005195259</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>101</v>
       </c>
       <c r="C33">
-        <v>0.03226178635368981</v>
+        <v>-0.03255025112390586</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>102</v>
       </c>
       <c r="C34">
-        <v>0.03149998629037087</v>
+        <v>-0.03402947022812286</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>103</v>
       </c>
       <c r="C35">
-        <v>0.03107459962573089</v>
+        <v>-0.03517497032778305</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1181,7 +1181,7 @@
         <v>104</v>
       </c>
       <c r="C36">
-        <v>0.03087898904790864</v>
+        <v>-0.0381050043565101</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>105</v>
       </c>
       <c r="C37">
-        <v>0.03020102344532627</v>
+        <v>-0.03845205216877667</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>106</v>
       </c>
       <c r="C38">
-        <v>0.03017679997530442</v>
+        <v>-0.03852658377503104</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="C39">
-        <v>0.02964556650348249</v>
+        <v>-0.04038406469687328</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>108</v>
       </c>
       <c r="C40">
-        <v>0.02707344346154361</v>
+        <v>-0.04071915764943912</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>109</v>
       </c>
       <c r="C41">
-        <v>0.02690866515445034</v>
+        <v>-0.0417764686664347</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>110</v>
       </c>
       <c r="C42">
-        <v>0.02686526245826526</v>
+        <v>-0.04277399778880864</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>111</v>
       </c>
       <c r="C43">
-        <v>0.02670063161680147</v>
+        <v>-0.04289661831322789</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>112</v>
       </c>
       <c r="C44">
-        <v>0.02476160345539258</v>
+        <v>-0.04292068655953263</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>0.02439958271662834</v>
+        <v>-0.04408432610430413</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1291,7 +1291,7 @@
         <v>114</v>
       </c>
       <c r="C46">
-        <v>0.02439477021046632</v>
+        <v>-0.04627330338419189</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="C47">
-        <v>0.02431452235710663</v>
+        <v>-0.04817360508141888</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>116</v>
       </c>
       <c r="C48">
-        <v>0.01991858586792894</v>
+        <v>-0.05111234956886079</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>117</v>
       </c>
       <c r="C49">
-        <v>0.01870910752184707</v>
+        <v>-0.05202868619878154</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>118</v>
       </c>
       <c r="C50">
-        <v>0.01784618567630369</v>
+        <v>-0.05280290083962269</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>119</v>
       </c>
       <c r="C51">
-        <v>0.01771255920833714</v>
+        <v>-0.05319047417729583</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>120</v>
       </c>
       <c r="C52">
-        <v>0.01749220861521961</v>
+        <v>-0.05529734263586461</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1368,7 +1368,7 @@
         <v>121</v>
       </c>
       <c r="C53">
-        <v>0.01737831923316246</v>
+        <v>-0.05909857255550077</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>122</v>
       </c>
       <c r="C54">
-        <v>0.01560108330571475</v>
+        <v>-0.05911441297786479</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>123</v>
       </c>
       <c r="C55">
-        <v>0.01500212674359358</v>
+        <v>-0.05971878253337704</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1401,7 +1401,7 @@
         <v>124</v>
       </c>
       <c r="C56">
-        <v>0.01458664976744073</v>
+        <v>-0.05985114302481254</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>125</v>
       </c>
       <c r="C57">
-        <v>0.01416589899064613</v>
+        <v>-0.06060692648187183</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>126</v>
       </c>
       <c r="C58">
-        <v>0.01293365296717797</v>
+        <v>-0.06222316111548964</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>127</v>
       </c>
       <c r="C59">
-        <v>0.01132160511064417</v>
+        <v>-0.06275129271962165</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>128</v>
       </c>
       <c r="C60">
-        <v>0.009692228545812087</v>
+        <v>-0.0658851210004241</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>129</v>
       </c>
       <c r="C61">
-        <v>0.008997603474747651</v>
+        <v>-0.07123232318043349</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>130</v>
       </c>
       <c r="C62">
-        <v>0.008752334928827432</v>
+        <v>-0.07374514327885673</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>131</v>
       </c>
       <c r="C63">
-        <v>0.008623398615702049</v>
+        <v>-0.07631838773153932</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>132</v>
       </c>
       <c r="C64">
-        <v>0.008435823147819654</v>
+        <v>-0.08069162893036852</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>133</v>
       </c>
       <c r="C65">
-        <v>0.007308122357465585</v>
+        <v>-0.08250848602041327</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>134</v>
       </c>
       <c r="C66">
-        <v>0.00676521663337315</v>
+        <v>-0.08557414524202756</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>135</v>
       </c>
       <c r="C67">
-        <v>0.0005300341012437482</v>
+        <v>-0.08798447485291827</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>136</v>
       </c>
       <c r="C68">
-        <v>-0.02251556674090849</v>
+        <v>-0.1227469146228064</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/主题.xlsx
+++ b/FOF/data/主题.xlsx
@@ -25,403 +25,403 @@
     <t>代码</t>
   </si>
   <si>
+    <t>886054.WI</t>
+  </si>
+  <si>
+    <t>886013.WI</t>
+  </si>
+  <si>
+    <t>886015.WI</t>
+  </si>
+  <si>
+    <t>886053.WI</t>
+  </si>
+  <si>
+    <t>886059.WI</t>
+  </si>
+  <si>
+    <t>886010.WI</t>
+  </si>
+  <si>
+    <t>886019.WI</t>
+  </si>
+  <si>
+    <t>886022.WI</t>
+  </si>
+  <si>
+    <t>886027.WI</t>
+  </si>
+  <si>
+    <t>886045.WI</t>
+  </si>
+  <si>
+    <t>886017.WI</t>
+  </si>
+  <si>
+    <t>886037.WI</t>
+  </si>
+  <si>
+    <t>886061.WI</t>
+  </si>
+  <si>
+    <t>886042.WI</t>
+  </si>
+  <si>
+    <t>886058.WI</t>
+  </si>
+  <si>
+    <t>886018.WI</t>
+  </si>
+  <si>
+    <t>886031.WI</t>
+  </si>
+  <si>
+    <t>886057.WI</t>
+  </si>
+  <si>
+    <t>886063.WI</t>
+  </si>
+  <si>
+    <t>886021.WI</t>
+  </si>
+  <si>
+    <t>886016.WI</t>
+  </si>
+  <si>
+    <t>886024.WI</t>
+  </si>
+  <si>
+    <t>886067.WI</t>
+  </si>
+  <si>
+    <t>886023.WI</t>
+  </si>
+  <si>
+    <t>886052.WI</t>
+  </si>
+  <si>
+    <t>886041.WI</t>
+  </si>
+  <si>
+    <t>886064.WI</t>
+  </si>
+  <si>
     <t>886055.WI</t>
   </si>
   <si>
-    <t>886031.WI</t>
-  </si>
-  <si>
-    <t>886054.WI</t>
-  </si>
-  <si>
-    <t>886052.WI</t>
-  </si>
-  <si>
-    <t>886059.WI</t>
+    <t>886005.WI</t>
+  </si>
+  <si>
+    <t>886035.WI</t>
+  </si>
+  <si>
+    <t>886002.WI</t>
+  </si>
+  <si>
+    <t>886069.WI</t>
+  </si>
+  <si>
+    <t>886040.WI</t>
+  </si>
+  <si>
+    <t>886026.WI</t>
+  </si>
+  <si>
+    <t>886001.WI</t>
+  </si>
+  <si>
+    <t>886004.WI</t>
+  </si>
+  <si>
+    <t>886020.WI</t>
+  </si>
+  <si>
+    <t>886012.WI</t>
+  </si>
+  <si>
+    <t>886048.WI</t>
+  </si>
+  <si>
+    <t>886014.WI</t>
+  </si>
+  <si>
+    <t>886038.WI</t>
+  </si>
+  <si>
+    <t>886030.WI</t>
+  </si>
+  <si>
+    <t>886003.WI</t>
   </si>
   <si>
     <t>886060.WI</t>
   </si>
   <si>
-    <t>886027.WI</t>
+    <t>886066.WI</t>
+  </si>
+  <si>
+    <t>886009.WI</t>
+  </si>
+  <si>
+    <t>886034.WI</t>
+  </si>
+  <si>
+    <t>886028.WI</t>
+  </si>
+  <si>
+    <t>886036.WI</t>
+  </si>
+  <si>
+    <t>886062.WI</t>
+  </si>
+  <si>
+    <t>886032.WI</t>
   </si>
   <si>
     <t>886043.WI</t>
   </si>
   <si>
-    <t>886062.WI</t>
-  </si>
-  <si>
-    <t>886061.WI</t>
-  </si>
-  <si>
-    <t>886035.WI</t>
+    <t>886068.WI</t>
+  </si>
+  <si>
+    <t>886008.WI</t>
+  </si>
+  <si>
+    <t>886007.WI</t>
+  </si>
+  <si>
+    <t>886011.WI</t>
+  </si>
+  <si>
+    <t>886044.WI</t>
   </si>
   <si>
     <t>886065.WI</t>
   </si>
   <si>
-    <t>886041.WI</t>
-  </si>
-  <si>
-    <t>886064.WI</t>
-  </si>
-  <si>
-    <t>886053.WI</t>
-  </si>
-  <si>
-    <t>886023.WI</t>
-  </si>
-  <si>
-    <t>886030.WI</t>
-  </si>
-  <si>
-    <t>886044.WI</t>
-  </si>
-  <si>
-    <t>886037.WI</t>
-  </si>
-  <si>
-    <t>886017.WI</t>
-  </si>
-  <si>
-    <t>886009.WI</t>
+    <t>886006.WI</t>
   </si>
   <si>
     <t>886046.WI</t>
   </si>
   <si>
-    <t>886057.WI</t>
-  </si>
-  <si>
-    <t>886063.WI</t>
-  </si>
-  <si>
-    <t>886058.WI</t>
-  </si>
-  <si>
-    <t>886028.WI</t>
+    <t>886029.WI</t>
+  </si>
+  <si>
+    <t>886051.WI</t>
   </si>
   <si>
     <t>886049.WI</t>
   </si>
   <si>
-    <t>886029.WI</t>
-  </si>
-  <si>
-    <t>886067.WI</t>
-  </si>
-  <si>
-    <t>886026.WI</t>
-  </si>
-  <si>
     <t>886033.WI</t>
   </si>
   <si>
-    <t>886021.WI</t>
-  </si>
-  <si>
-    <t>886032.WI</t>
-  </si>
-  <si>
-    <t>886045.WI</t>
-  </si>
-  <si>
-    <t>886018.WI</t>
-  </si>
-  <si>
-    <t>886013.WI</t>
-  </si>
-  <si>
-    <t>886020.WI</t>
-  </si>
-  <si>
-    <t>886012.WI</t>
-  </si>
-  <si>
-    <t>886042.WI</t>
-  </si>
-  <si>
-    <t>886008.WI</t>
-  </si>
-  <si>
-    <t>886006.WI</t>
-  </si>
-  <si>
-    <t>886048.WI</t>
-  </si>
-  <si>
-    <t>886038.WI</t>
-  </si>
-  <si>
-    <t>886015.WI</t>
-  </si>
-  <si>
-    <t>886016.WI</t>
-  </si>
-  <si>
-    <t>886068.WI</t>
-  </si>
-  <si>
-    <t>886014.WI</t>
-  </si>
-  <si>
-    <t>886051.WI</t>
-  </si>
-  <si>
-    <t>886002.WI</t>
-  </si>
-  <si>
-    <t>886022.WI</t>
-  </si>
-  <si>
     <t>886050.WI</t>
   </si>
   <si>
-    <t>886066.WI</t>
-  </si>
-  <si>
-    <t>886004.WI</t>
-  </si>
-  <si>
-    <t>886007.WI</t>
-  </si>
-  <si>
-    <t>886010.WI</t>
-  </si>
-  <si>
-    <t>886003.WI</t>
-  </si>
-  <si>
-    <t>886019.WI</t>
-  </si>
-  <si>
-    <t>886024.WI</t>
-  </si>
-  <si>
-    <t>886011.WI</t>
-  </si>
-  <si>
-    <t>886036.WI</t>
-  </si>
-  <si>
-    <t>886034.WI</t>
-  </si>
-  <si>
-    <t>886005.WI</t>
-  </si>
-  <si>
-    <t>886069.WI</t>
-  </si>
-  <si>
     <t>886039.WI</t>
   </si>
   <si>
-    <t>886001.WI</t>
-  </si>
-  <si>
-    <t>886040.WI</t>
-  </si>
-  <si>
     <t>886025.WI</t>
   </si>
   <si>
+    <t>券商指数</t>
+  </si>
+  <si>
+    <t>林木指数</t>
+  </si>
+  <si>
+    <t>航天军工指数</t>
+  </si>
+  <si>
+    <t>多元金融指数</t>
+  </si>
+  <si>
+    <t>软件指数</t>
+  </si>
+  <si>
+    <t>基本金属指数</t>
+  </si>
+  <si>
+    <t>综合类指数</t>
+  </si>
+  <si>
+    <t>贸易指数</t>
+  </si>
+  <si>
+    <t>海运指数</t>
+  </si>
+  <si>
+    <t>农业指数</t>
+  </si>
+  <si>
+    <t>电工电网指数</t>
+  </si>
+  <si>
+    <t>休闲用品指数</t>
+  </si>
+  <si>
+    <t>电脑硬件指数</t>
+  </si>
+  <si>
+    <t>零售指数</t>
+  </si>
+  <si>
+    <t>互联网指数</t>
+  </si>
+  <si>
+    <t>发电设备指数</t>
+  </si>
+  <si>
+    <t>港口指数</t>
+  </si>
+  <si>
+    <t>房地产指数</t>
+  </si>
+  <si>
+    <t>半导体指数</t>
+  </si>
+  <si>
+    <t>工业机械指数</t>
+  </si>
+  <si>
+    <t>建筑指数</t>
+  </si>
+  <si>
+    <t>环保指数</t>
+  </si>
+  <si>
+    <t>水务指数</t>
+  </si>
+  <si>
+    <t>商业服务指数</t>
+  </si>
+  <si>
+    <t>银行指数</t>
+  </si>
+  <si>
+    <t>文化传媒指数</t>
+  </si>
+  <si>
+    <t>电信指数</t>
+  </si>
+  <si>
     <t>保险指数</t>
   </si>
   <si>
-    <t>港口指数</t>
-  </si>
-  <si>
-    <t>券商指数</t>
-  </si>
-  <si>
-    <t>银行指数</t>
-  </si>
-  <si>
-    <t>软件指数</t>
+    <t>化纤指数</t>
+  </si>
+  <si>
+    <t>家用电器指数</t>
+  </si>
+  <si>
+    <t>石油天然气指数</t>
+  </si>
+  <si>
+    <t>石油化工指数</t>
+  </si>
+  <si>
+    <t>教育指数</t>
+  </si>
+  <si>
+    <t>航空指数</t>
+  </si>
+  <si>
+    <t>能源设备指数</t>
+  </si>
+  <si>
+    <t>化工原料指数</t>
+  </si>
+  <si>
+    <t>重型机械指数</t>
+  </si>
+  <si>
+    <t>钢铁指数</t>
+  </si>
+  <si>
+    <t>日用化工指数</t>
+  </si>
+  <si>
+    <t>造纸指数</t>
+  </si>
+  <si>
+    <t>纺织服装指数</t>
+  </si>
+  <si>
+    <t>公路指数</t>
+  </si>
+  <si>
+    <t>煤炭指数</t>
   </si>
   <si>
     <t>通信设备指数</t>
   </si>
   <si>
-    <t>海运指数</t>
+    <t>燃气指数</t>
+  </si>
+  <si>
+    <t>包装指数</t>
+  </si>
+  <si>
+    <t>摩托车指数</t>
+  </si>
+  <si>
+    <t>陆路运输指数</t>
+  </si>
+  <si>
+    <t>家居用品指数</t>
+  </si>
+  <si>
+    <t>电子元器件指数</t>
+  </si>
+  <si>
+    <t>汽车零部件指数</t>
   </si>
   <si>
     <t>酒类指数</t>
   </si>
   <si>
-    <t>电子元器件指数</t>
-  </si>
-  <si>
-    <t>电脑硬件指数</t>
-  </si>
-  <si>
-    <t>家用电器指数</t>
+    <t>工程机械指数</t>
+  </si>
+  <si>
+    <t>建材指数</t>
+  </si>
+  <si>
+    <t>化肥农药指数</t>
+  </si>
+  <si>
+    <t>贵金属指数</t>
+  </si>
+  <si>
+    <t>软饮料指数</t>
   </si>
   <si>
     <t>电力指数</t>
   </si>
   <si>
-    <t>文化传媒指数</t>
-  </si>
-  <si>
-    <t>电信指数</t>
-  </si>
-  <si>
-    <t>多元金融指数</t>
-  </si>
-  <si>
-    <t>商业服务指数</t>
-  </si>
-  <si>
-    <t>公路指数</t>
-  </si>
-  <si>
-    <t>软饮料指数</t>
-  </si>
-  <si>
-    <t>休闲用品指数</t>
-  </si>
-  <si>
-    <t>电工电网指数</t>
-  </si>
-  <si>
-    <t>包装指数</t>
+    <t>精细化工指数</t>
   </si>
   <si>
     <t>食品指数</t>
   </si>
   <si>
-    <t>房地产指数</t>
-  </si>
-  <si>
-    <t>半导体指数</t>
-  </si>
-  <si>
-    <t>互联网指数</t>
-  </si>
-  <si>
-    <t>陆路运输指数</t>
+    <t>机场指数</t>
+  </si>
+  <si>
+    <t>制药指数</t>
   </si>
   <si>
     <t>医疗保健指数</t>
   </si>
   <si>
-    <t>机场指数</t>
-  </si>
-  <si>
-    <t>水务指数</t>
-  </si>
-  <si>
-    <t>航空指数</t>
-  </si>
-  <si>
     <t>汽车指数</t>
   </si>
   <si>
-    <t>工业机械指数</t>
-  </si>
-  <si>
-    <t>汽车零部件指数</t>
-  </si>
-  <si>
-    <t>农业指数</t>
-  </si>
-  <si>
-    <t>发电设备指数</t>
-  </si>
-  <si>
-    <t>林木指数</t>
-  </si>
-  <si>
-    <t>重型机械指数</t>
-  </si>
-  <si>
-    <t>钢铁指数</t>
-  </si>
-  <si>
-    <t>零售指数</t>
-  </si>
-  <si>
-    <t>建材指数</t>
-  </si>
-  <si>
-    <t>精细化工指数</t>
-  </si>
-  <si>
-    <t>日用化工指数</t>
-  </si>
-  <si>
-    <t>纺织服装指数</t>
-  </si>
-  <si>
-    <t>航天军工指数</t>
-  </si>
-  <si>
-    <t>建筑指数</t>
-  </si>
-  <si>
-    <t>工程机械指数</t>
-  </si>
-  <si>
-    <t>造纸指数</t>
-  </si>
-  <si>
-    <t>制药指数</t>
-  </si>
-  <si>
-    <t>石油天然气指数</t>
-  </si>
-  <si>
-    <t>贸易指数</t>
-  </si>
-  <si>
     <t>生物科技指数</t>
   </si>
   <si>
-    <t>燃气指数</t>
-  </si>
-  <si>
-    <t>化工原料指数</t>
-  </si>
-  <si>
-    <t>化肥农药指数</t>
-  </si>
-  <si>
-    <t>基本金属指数</t>
-  </si>
-  <si>
-    <t>煤炭指数</t>
-  </si>
-  <si>
-    <t>综合类指数</t>
-  </si>
-  <si>
-    <t>环保指数</t>
-  </si>
-  <si>
-    <t>贵金属指数</t>
-  </si>
-  <si>
-    <t>家居用品指数</t>
-  </si>
-  <si>
-    <t>摩托车指数</t>
-  </si>
-  <si>
-    <t>化纤指数</t>
-  </si>
-  <si>
-    <t>石油化工指数</t>
-  </si>
-  <si>
     <t>餐饮旅游指数</t>
-  </si>
-  <si>
-    <t>能源设备指数</t>
-  </si>
-  <si>
-    <t>教育指数</t>
   </si>
   <si>
     <t>办公用品指数</t>
@@ -807,7 +807,7 @@
         <v>70</v>
       </c>
       <c r="C2">
-        <v>0.02477747539310671</v>
+        <v>0.08636489384299773</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -818,7 +818,7 @@
         <v>71</v>
       </c>
       <c r="C3">
-        <v>0.01499816704777501</v>
+        <v>0.06688937959158348</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -829,7 +829,7 @@
         <v>72</v>
       </c>
       <c r="C4">
-        <v>0.01330354726835781</v>
+        <v>0.06008490920566123</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -840,7 +840,7 @@
         <v>73</v>
       </c>
       <c r="C5">
-        <v>0.01296758128669917</v>
+        <v>0.05286185559728063</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -851,7 +851,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>0.009165538374410032</v>
+        <v>0.03458620184750494</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -862,7 +862,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>0.005453723206213068</v>
+        <v>0.03070232452619082</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -873,7 +873,7 @@
         <v>76</v>
       </c>
       <c r="C8">
-        <v>-0.00887886302231311</v>
+        <v>0.02844671309684865</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -884,7 +884,7 @@
         <v>77</v>
       </c>
       <c r="C9">
-        <v>-0.008947594804717962</v>
+        <v>0.02808322618552928</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -895,7 +895,7 @@
         <v>78</v>
       </c>
       <c r="C10">
-        <v>-0.01012070441732493</v>
+        <v>0.02806390167576156</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -906,7 +906,7 @@
         <v>79</v>
       </c>
       <c r="C11">
-        <v>-0.01172851213345982</v>
+        <v>0.02386795187910673</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -917,7 +917,7 @@
         <v>80</v>
       </c>
       <c r="C12">
-        <v>-0.01353081450922455</v>
+        <v>0.02317982628184656</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -928,7 +928,7 @@
         <v>81</v>
       </c>
       <c r="C13">
-        <v>-0.01409401780175024</v>
+        <v>0.02195556122176434</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -939,7 +939,7 @@
         <v>82</v>
       </c>
       <c r="C14">
-        <v>-0.01470186596735124</v>
+        <v>0.02123025962877612</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -950,7 +950,7 @@
         <v>83</v>
       </c>
       <c r="C15">
-        <v>-0.0148489949408589</v>
+        <v>0.02067581648502825</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -961,7 +961,7 @@
         <v>84</v>
       </c>
       <c r="C16">
-        <v>-0.01506063248162082</v>
+        <v>0.02055978139895243</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -972,7 +972,7 @@
         <v>85</v>
       </c>
       <c r="C17">
-        <v>-0.01541326991141445</v>
+        <v>0.01957581119782303</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -983,7 +983,7 @@
         <v>86</v>
       </c>
       <c r="C18">
-        <v>-0.01670776902224591</v>
+        <v>0.01733271792742852</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -994,7 +994,7 @@
         <v>87</v>
       </c>
       <c r="C19">
-        <v>-0.01786388871994926</v>
+        <v>0.01668719386383244</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1005,7 +1005,7 @@
         <v>88</v>
       </c>
       <c r="C20">
-        <v>-0.01901464413917053</v>
+        <v>0.01524926883609479</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1016,7 +1016,7 @@
         <v>89</v>
       </c>
       <c r="C21">
-        <v>-0.01978406226179652</v>
+        <v>0.01472134554498239</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1027,7 +1027,7 @@
         <v>90</v>
       </c>
       <c r="C22">
-        <v>-0.02233955060198367</v>
+        <v>0.01412980540820419</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>91</v>
       </c>
       <c r="C23">
-        <v>-0.02406217749547246</v>
+        <v>0.01351325210356924</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>92</v>
       </c>
       <c r="C24">
-        <v>-0.0259185690557634</v>
+        <v>0.01294474120653444</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>93</v>
       </c>
       <c r="C25">
-        <v>-0.02666055328099204</v>
+        <v>0.01285396528087768</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1071,7 +1071,7 @@
         <v>94</v>
       </c>
       <c r="C26">
-        <v>-0.02736749038574171</v>
+        <v>0.01247079488555047</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>95</v>
       </c>
       <c r="C27">
-        <v>-0.02761376030469864</v>
+        <v>0.01188037620357152</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>96</v>
       </c>
       <c r="C28">
-        <v>-0.02778791312196327</v>
+        <v>0.01178937914473854</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>97</v>
       </c>
       <c r="C29">
-        <v>-0.03001470013401442</v>
+        <v>0.01150593640171182</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>98</v>
       </c>
       <c r="C30">
-        <v>-0.03084216796094741</v>
+        <v>0.01136064975223183</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1126,7 +1126,7 @@
         <v>99</v>
       </c>
       <c r="C31">
-        <v>-0.03108024728897874</v>
+        <v>0.01066949317945975</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>-0.03126459005195259</v>
+        <v>0.01063968679117311</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>101</v>
       </c>
       <c r="C33">
-        <v>-0.03255025112390586</v>
+        <v>0.01051421299928457</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>102</v>
       </c>
       <c r="C34">
-        <v>-0.03402947022812286</v>
+        <v>0.01047781066710973</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>103</v>
       </c>
       <c r="C35">
-        <v>-0.03517497032778305</v>
+        <v>0.009447250344706504</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1181,7 +1181,7 @@
         <v>104</v>
       </c>
       <c r="C36">
-        <v>-0.0381050043565101</v>
+        <v>0.009316594145036383</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>105</v>
       </c>
       <c r="C37">
-        <v>-0.03845205216877667</v>
+        <v>0.007072675356351255</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>106</v>
       </c>
       <c r="C38">
-        <v>-0.03852658377503104</v>
+        <v>0.007003981235398582</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="C39">
-        <v>-0.04038406469687328</v>
+        <v>0.006947233079317661</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>108</v>
       </c>
       <c r="C40">
-        <v>-0.04071915764943912</v>
+        <v>0.006716929798405546</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>109</v>
       </c>
       <c r="C41">
-        <v>-0.0417764686664347</v>
+        <v>0.006166149194795079</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>110</v>
       </c>
       <c r="C42">
-        <v>-0.04277399778880864</v>
+        <v>0.005798514831015567</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>111</v>
       </c>
       <c r="C43">
-        <v>-0.04289661831322789</v>
+        <v>0.005433855880740746</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>112</v>
       </c>
       <c r="C44">
-        <v>-0.04292068655953263</v>
+        <v>0.005263980695917825</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>-0.04408432610430413</v>
+        <v>0.003577360997726542</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1291,7 +1291,7 @@
         <v>114</v>
       </c>
       <c r="C46">
-        <v>-0.04627330338419189</v>
+        <v>0.003251295616811145</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="C47">
-        <v>-0.04817360508141888</v>
+        <v>-0.0001044555465818942</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>116</v>
       </c>
       <c r="C48">
-        <v>-0.05111234956886079</v>
+        <v>-0.0005061032688262745</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>117</v>
       </c>
       <c r="C49">
-        <v>-0.05202868619878154</v>
+        <v>-0.0005689325531409439</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>118</v>
       </c>
       <c r="C50">
-        <v>-0.05280290083962269</v>
+        <v>-0.0008531847780681723</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>119</v>
       </c>
       <c r="C51">
-        <v>-0.05319047417729583</v>
+        <v>-0.0008920874384481525</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>120</v>
       </c>
       <c r="C52">
-        <v>-0.05529734263586461</v>
+        <v>-0.002751033241550904</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1368,7 +1368,7 @@
         <v>121</v>
       </c>
       <c r="C53">
-        <v>-0.05909857255550077</v>
+        <v>-0.004274459312534007</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>122</v>
       </c>
       <c r="C54">
-        <v>-0.05911441297786479</v>
+        <v>-0.004362014482831578</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>123</v>
       </c>
       <c r="C55">
-        <v>-0.05971878253337704</v>
+        <v>-0.004426653224708255</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1401,7 +1401,7 @@
         <v>124</v>
       </c>
       <c r="C56">
-        <v>-0.05985114302481254</v>
+        <v>-0.004691263602877416</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>125</v>
       </c>
       <c r="C57">
-        <v>-0.06060692648187183</v>
+        <v>-0.007868196688028961</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>126</v>
       </c>
       <c r="C58">
-        <v>-0.06222316111548964</v>
+        <v>-0.009283762494007752</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>127</v>
       </c>
       <c r="C59">
-        <v>-0.06275129271962165</v>
+        <v>-0.01032820293101233</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>128</v>
       </c>
       <c r="C60">
-        <v>-0.0658851210004241</v>
+        <v>-0.01326811456046106</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>129</v>
       </c>
       <c r="C61">
-        <v>-0.07123232318043349</v>
+        <v>-0.01334186179093166</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>130</v>
       </c>
       <c r="C62">
-        <v>-0.07374514327885673</v>
+        <v>-0.0162895492696028</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>131</v>
       </c>
       <c r="C63">
-        <v>-0.07631838773153932</v>
+        <v>-0.01866339698539543</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>132</v>
       </c>
       <c r="C64">
-        <v>-0.08069162893036852</v>
+        <v>-0.0198781822694073</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>133</v>
       </c>
       <c r="C65">
-        <v>-0.08250848602041327</v>
+        <v>-0.02344878767670511</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>134</v>
       </c>
       <c r="C66">
-        <v>-0.08557414524202756</v>
+        <v>-0.02927581038471627</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>135</v>
       </c>
       <c r="C67">
-        <v>-0.08798447485291827</v>
+        <v>-0.03796279348225062</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>136</v>
       </c>
       <c r="C68">
-        <v>-0.1227469146228064</v>
+        <v>-0.04710980401680254</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/主题.xlsx
+++ b/FOF/data/主题.xlsx
@@ -25,406 +25,406 @@
     <t>代码</t>
   </si>
   <si>
+    <t>886060.WI</t>
+  </si>
+  <si>
+    <t>886063.WI</t>
+  </si>
+  <si>
+    <t>886018.WI</t>
+  </si>
+  <si>
+    <t>886035.WI</t>
+  </si>
+  <si>
+    <t>886064.WI</t>
+  </si>
+  <si>
+    <t>886062.WI</t>
+  </si>
+  <si>
+    <t>886017.WI</t>
+  </si>
+  <si>
+    <t>886037.WI</t>
+  </si>
+  <si>
+    <t>886001.WI</t>
+  </si>
+  <si>
+    <t>886043.WI</t>
+  </si>
+  <si>
+    <t>886008.WI</t>
+  </si>
+  <si>
+    <t>886040.WI</t>
+  </si>
+  <si>
+    <t>886039.WI</t>
+  </si>
+  <si>
+    <t>886026.WI</t>
+  </si>
+  <si>
+    <t>886019.WI</t>
+  </si>
+  <si>
+    <t>886014.WI</t>
+  </si>
+  <si>
+    <t>886032.WI</t>
+  </si>
+  <si>
+    <t>886003.WI</t>
+  </si>
+  <si>
+    <t>886004.WI</t>
+  </si>
+  <si>
+    <t>886021.WI</t>
+  </si>
+  <si>
+    <t>886005.WI</t>
+  </si>
+  <si>
+    <t>886036.WI</t>
+  </si>
+  <si>
+    <t>886041.WI</t>
+  </si>
+  <si>
+    <t>886020.WI</t>
+  </si>
+  <si>
+    <t>886046.WI</t>
+  </si>
+  <si>
+    <t>886059.WI</t>
+  </si>
+  <si>
+    <t>886007.WI</t>
+  </si>
+  <si>
+    <t>886069.WI</t>
+  </si>
+  <si>
+    <t>886002.WI</t>
+  </si>
+  <si>
+    <t>886031.WI</t>
+  </si>
+  <si>
+    <t>886015.WI</t>
+  </si>
+  <si>
+    <t>886067.WI</t>
+  </si>
+  <si>
+    <t>886061.WI</t>
+  </si>
+  <si>
+    <t>886045.WI</t>
+  </si>
+  <si>
+    <t>886009.WI</t>
+  </si>
+  <si>
+    <t>886066.WI</t>
+  </si>
+  <si>
+    <t>886033.WI</t>
+  </si>
+  <si>
+    <t>886058.WI</t>
+  </si>
+  <si>
+    <t>886012.WI</t>
+  </si>
+  <si>
+    <t>886042.WI</t>
+  </si>
+  <si>
+    <t>886022.WI</t>
+  </si>
+  <si>
+    <t>886034.WI</t>
+  </si>
+  <si>
+    <t>886048.WI</t>
+  </si>
+  <si>
+    <t>886010.WI</t>
+  </si>
+  <si>
+    <t>886006.WI</t>
+  </si>
+  <si>
+    <t>886023.WI</t>
+  </si>
+  <si>
+    <t>886038.WI</t>
+  </si>
+  <si>
+    <t>886051.WI</t>
+  </si>
+  <si>
+    <t>886030.WI</t>
+  </si>
+  <si>
+    <t>886068.WI</t>
+  </si>
+  <si>
+    <t>886028.WI</t>
+  </si>
+  <si>
+    <t>886055.WI</t>
+  </si>
+  <si>
+    <t>886057.WI</t>
+  </si>
+  <si>
+    <t>886065.WI</t>
+  </si>
+  <si>
+    <t>886052.WI</t>
+  </si>
+  <si>
+    <t>886024.WI</t>
+  </si>
+  <si>
+    <t>886016.WI</t>
+  </si>
+  <si>
+    <t>886050.WI</t>
+  </si>
+  <si>
+    <t>886044.WI</t>
+  </si>
+  <si>
+    <t>886013.WI</t>
+  </si>
+  <si>
     <t>886054.WI</t>
   </si>
   <si>
-    <t>886013.WI</t>
-  </si>
-  <si>
-    <t>886015.WI</t>
+    <t>886025.WI</t>
+  </si>
+  <si>
+    <t>886049.WI</t>
+  </si>
+  <si>
+    <t>886029.WI</t>
+  </si>
+  <si>
+    <t>886027.WI</t>
+  </si>
+  <si>
+    <t>886011.WI</t>
   </si>
   <si>
     <t>886053.WI</t>
   </si>
   <si>
-    <t>886059.WI</t>
-  </si>
-  <si>
-    <t>886010.WI</t>
-  </si>
-  <si>
-    <t>886019.WI</t>
-  </si>
-  <si>
-    <t>886022.WI</t>
-  </si>
-  <si>
-    <t>886027.WI</t>
-  </si>
-  <si>
-    <t>886045.WI</t>
-  </si>
-  <si>
-    <t>886017.WI</t>
-  </si>
-  <si>
-    <t>886037.WI</t>
-  </si>
-  <si>
-    <t>886061.WI</t>
-  </si>
-  <si>
-    <t>886042.WI</t>
-  </si>
-  <si>
-    <t>886058.WI</t>
-  </si>
-  <si>
-    <t>886018.WI</t>
-  </si>
-  <si>
-    <t>886031.WI</t>
-  </si>
-  <si>
-    <t>886057.WI</t>
-  </si>
-  <si>
-    <t>886063.WI</t>
-  </si>
-  <si>
-    <t>886021.WI</t>
-  </si>
-  <si>
-    <t>886016.WI</t>
-  </si>
-  <si>
-    <t>886024.WI</t>
-  </si>
-  <si>
-    <t>886067.WI</t>
-  </si>
-  <si>
-    <t>886023.WI</t>
-  </si>
-  <si>
-    <t>886052.WI</t>
-  </si>
-  <si>
-    <t>886041.WI</t>
-  </si>
-  <si>
-    <t>886064.WI</t>
-  </si>
-  <si>
-    <t>886055.WI</t>
-  </si>
-  <si>
-    <t>886005.WI</t>
-  </si>
-  <si>
-    <t>886035.WI</t>
-  </si>
-  <si>
-    <t>886002.WI</t>
-  </si>
-  <si>
-    <t>886069.WI</t>
-  </si>
-  <si>
-    <t>886040.WI</t>
-  </si>
-  <si>
-    <t>886026.WI</t>
-  </si>
-  <si>
-    <t>886001.WI</t>
-  </si>
-  <si>
-    <t>886004.WI</t>
-  </si>
-  <si>
-    <t>886020.WI</t>
-  </si>
-  <si>
-    <t>886012.WI</t>
-  </si>
-  <si>
-    <t>886048.WI</t>
-  </si>
-  <si>
-    <t>886014.WI</t>
-  </si>
-  <si>
-    <t>886038.WI</t>
-  </si>
-  <si>
-    <t>886030.WI</t>
-  </si>
-  <si>
-    <t>886003.WI</t>
-  </si>
-  <si>
-    <t>886060.WI</t>
-  </si>
-  <si>
-    <t>886066.WI</t>
-  </si>
-  <si>
-    <t>886009.WI</t>
-  </si>
-  <si>
-    <t>886034.WI</t>
-  </si>
-  <si>
-    <t>886028.WI</t>
-  </si>
-  <si>
-    <t>886036.WI</t>
-  </si>
-  <si>
-    <t>886062.WI</t>
-  </si>
-  <si>
-    <t>886032.WI</t>
-  </si>
-  <si>
-    <t>886043.WI</t>
-  </si>
-  <si>
-    <t>886068.WI</t>
-  </si>
-  <si>
-    <t>886008.WI</t>
-  </si>
-  <si>
-    <t>886007.WI</t>
-  </si>
-  <si>
-    <t>886011.WI</t>
-  </si>
-  <si>
-    <t>886044.WI</t>
-  </si>
-  <si>
-    <t>886065.WI</t>
-  </si>
-  <si>
-    <t>886006.WI</t>
-  </si>
-  <si>
-    <t>886046.WI</t>
-  </si>
-  <si>
-    <t>886029.WI</t>
-  </si>
-  <si>
-    <t>886051.WI</t>
-  </si>
-  <si>
-    <t>886049.WI</t>
-  </si>
-  <si>
-    <t>886033.WI</t>
-  </si>
-  <si>
-    <t>886050.WI</t>
-  </si>
-  <si>
-    <t>886039.WI</t>
-  </si>
-  <si>
-    <t>886025.WI</t>
+    <t>通信设备指数</t>
+  </si>
+  <si>
+    <t>半导体指数</t>
+  </si>
+  <si>
+    <t>发电设备指数</t>
+  </si>
+  <si>
+    <t>家用电器指数</t>
+  </si>
+  <si>
+    <t>电信指数</t>
+  </si>
+  <si>
+    <t>电子元器件指数</t>
+  </si>
+  <si>
+    <t>电工电网指数</t>
+  </si>
+  <si>
+    <t>休闲用品指数</t>
+  </si>
+  <si>
+    <t>能源设备指数</t>
+  </si>
+  <si>
+    <t>酒类指数</t>
+  </si>
+  <si>
+    <t>建材指数</t>
+  </si>
+  <si>
+    <t>教育指数</t>
+  </si>
+  <si>
+    <t>餐饮旅游指数</t>
+  </si>
+  <si>
+    <t>航空指数</t>
+  </si>
+  <si>
+    <t>综合类指数</t>
+  </si>
+  <si>
+    <t>造纸指数</t>
+  </si>
+  <si>
+    <t>汽车零部件指数</t>
+  </si>
+  <si>
+    <t>煤炭指数</t>
+  </si>
+  <si>
+    <t>化工原料指数</t>
+  </si>
+  <si>
+    <t>工业机械指数</t>
+  </si>
+  <si>
+    <t>化纤指数</t>
+  </si>
+  <si>
+    <t>家居用品指数</t>
+  </si>
+  <si>
+    <t>文化传媒指数</t>
+  </si>
+  <si>
+    <t>重型机械指数</t>
+  </si>
+  <si>
+    <t>食品指数</t>
+  </si>
+  <si>
+    <t>软件指数</t>
+  </si>
+  <si>
+    <t>化肥农药指数</t>
+  </si>
+  <si>
+    <t>石油化工指数</t>
+  </si>
+  <si>
+    <t>石油天然气指数</t>
+  </si>
+  <si>
+    <t>港口指数</t>
+  </si>
+  <si>
+    <t>航天军工指数</t>
+  </si>
+  <si>
+    <t>水务指数</t>
+  </si>
+  <si>
+    <t>电脑硬件指数</t>
+  </si>
+  <si>
+    <t>农业指数</t>
+  </si>
+  <si>
+    <t>包装指数</t>
+  </si>
+  <si>
+    <t>燃气指数</t>
+  </si>
+  <si>
+    <t>汽车指数</t>
+  </si>
+  <si>
+    <t>互联网指数</t>
+  </si>
+  <si>
+    <t>钢铁指数</t>
+  </si>
+  <si>
+    <t>零售指数</t>
+  </si>
+  <si>
+    <t>贸易指数</t>
+  </si>
+  <si>
+    <t>摩托车指数</t>
+  </si>
+  <si>
+    <t>日用化工指数</t>
+  </si>
+  <si>
+    <t>基本金属指数</t>
+  </si>
+  <si>
+    <t>精细化工指数</t>
+  </si>
+  <si>
+    <t>商业服务指数</t>
+  </si>
+  <si>
+    <t>纺织服装指数</t>
+  </si>
+  <si>
+    <t>制药指数</t>
+  </si>
+  <si>
+    <t>公路指数</t>
+  </si>
+  <si>
+    <t>工程机械指数</t>
+  </si>
+  <si>
+    <t>陆路运输指数</t>
+  </si>
+  <si>
+    <t>保险指数</t>
+  </si>
+  <si>
+    <t>房地产指数</t>
+  </si>
+  <si>
+    <t>电力指数</t>
+  </si>
+  <si>
+    <t>银行指数</t>
+  </si>
+  <si>
+    <t>环保指数</t>
+  </si>
+  <si>
+    <t>建筑指数</t>
+  </si>
+  <si>
+    <t>生物科技指数</t>
+  </si>
+  <si>
+    <t>软饮料指数</t>
+  </si>
+  <si>
+    <t>林木指数</t>
   </si>
   <si>
     <t>券商指数</t>
   </si>
   <si>
-    <t>林木指数</t>
-  </si>
-  <si>
-    <t>航天军工指数</t>
+    <t>办公用品指数</t>
+  </si>
+  <si>
+    <t>医疗保健指数</t>
+  </si>
+  <si>
+    <t>机场指数</t>
+  </si>
+  <si>
+    <t>海运指数</t>
+  </si>
+  <si>
+    <t>贵金属指数</t>
   </si>
   <si>
     <t>多元金融指数</t>
-  </si>
-  <si>
-    <t>软件指数</t>
-  </si>
-  <si>
-    <t>基本金属指数</t>
-  </si>
-  <si>
-    <t>综合类指数</t>
-  </si>
-  <si>
-    <t>贸易指数</t>
-  </si>
-  <si>
-    <t>海运指数</t>
-  </si>
-  <si>
-    <t>农业指数</t>
-  </si>
-  <si>
-    <t>电工电网指数</t>
-  </si>
-  <si>
-    <t>休闲用品指数</t>
-  </si>
-  <si>
-    <t>电脑硬件指数</t>
-  </si>
-  <si>
-    <t>零售指数</t>
-  </si>
-  <si>
-    <t>互联网指数</t>
-  </si>
-  <si>
-    <t>发电设备指数</t>
-  </si>
-  <si>
-    <t>港口指数</t>
-  </si>
-  <si>
-    <t>房地产指数</t>
-  </si>
-  <si>
-    <t>半导体指数</t>
-  </si>
-  <si>
-    <t>工业机械指数</t>
-  </si>
-  <si>
-    <t>建筑指数</t>
-  </si>
-  <si>
-    <t>环保指数</t>
-  </si>
-  <si>
-    <t>水务指数</t>
-  </si>
-  <si>
-    <t>商业服务指数</t>
-  </si>
-  <si>
-    <t>银行指数</t>
-  </si>
-  <si>
-    <t>文化传媒指数</t>
-  </si>
-  <si>
-    <t>电信指数</t>
-  </si>
-  <si>
-    <t>保险指数</t>
-  </si>
-  <si>
-    <t>化纤指数</t>
-  </si>
-  <si>
-    <t>家用电器指数</t>
-  </si>
-  <si>
-    <t>石油天然气指数</t>
-  </si>
-  <si>
-    <t>石油化工指数</t>
-  </si>
-  <si>
-    <t>教育指数</t>
-  </si>
-  <si>
-    <t>航空指数</t>
-  </si>
-  <si>
-    <t>能源设备指数</t>
-  </si>
-  <si>
-    <t>化工原料指数</t>
-  </si>
-  <si>
-    <t>重型机械指数</t>
-  </si>
-  <si>
-    <t>钢铁指数</t>
-  </si>
-  <si>
-    <t>日用化工指数</t>
-  </si>
-  <si>
-    <t>造纸指数</t>
-  </si>
-  <si>
-    <t>纺织服装指数</t>
-  </si>
-  <si>
-    <t>公路指数</t>
-  </si>
-  <si>
-    <t>煤炭指数</t>
-  </si>
-  <si>
-    <t>通信设备指数</t>
-  </si>
-  <si>
-    <t>燃气指数</t>
-  </si>
-  <si>
-    <t>包装指数</t>
-  </si>
-  <si>
-    <t>摩托车指数</t>
-  </si>
-  <si>
-    <t>陆路运输指数</t>
-  </si>
-  <si>
-    <t>家居用品指数</t>
-  </si>
-  <si>
-    <t>电子元器件指数</t>
-  </si>
-  <si>
-    <t>汽车零部件指数</t>
-  </si>
-  <si>
-    <t>酒类指数</t>
-  </si>
-  <si>
-    <t>工程机械指数</t>
-  </si>
-  <si>
-    <t>建材指数</t>
-  </si>
-  <si>
-    <t>化肥农药指数</t>
-  </si>
-  <si>
-    <t>贵金属指数</t>
-  </si>
-  <si>
-    <t>软饮料指数</t>
-  </si>
-  <si>
-    <t>电力指数</t>
-  </si>
-  <si>
-    <t>精细化工指数</t>
-  </si>
-  <si>
-    <t>食品指数</t>
-  </si>
-  <si>
-    <t>机场指数</t>
-  </si>
-  <si>
-    <t>制药指数</t>
-  </si>
-  <si>
-    <t>医疗保健指数</t>
-  </si>
-  <si>
-    <t>汽车指数</t>
-  </si>
-  <si>
-    <t>生物科技指数</t>
-  </si>
-  <si>
-    <t>餐饮旅游指数</t>
-  </si>
-  <si>
-    <t>办公用品指数</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
         <v>70</v>
       </c>
       <c r="C2">
-        <v>0.08636489384299773</v>
+        <v>0.06349579711908881</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -818,7 +818,7 @@
         <v>71</v>
       </c>
       <c r="C3">
-        <v>0.06688937959158348</v>
+        <v>0.05226477593214973</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -829,7 +829,7 @@
         <v>72</v>
       </c>
       <c r="C4">
-        <v>0.06008490920566123</v>
+        <v>0.05043716103057561</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -840,7 +840,7 @@
         <v>73</v>
       </c>
       <c r="C5">
-        <v>0.05286185559728063</v>
+        <v>0.05015555764520019</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -851,7 +851,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>0.03458620184750494</v>
+        <v>0.04984401066326583</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -862,7 +862,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>0.03070232452619082</v>
+        <v>0.04881762809885171</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -873,7 +873,7 @@
         <v>76</v>
       </c>
       <c r="C8">
-        <v>0.02844671309684865</v>
+        <v>0.04878808107672139</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -884,7 +884,7 @@
         <v>77</v>
       </c>
       <c r="C9">
-        <v>0.02808322618552928</v>
+        <v>0.04405728262572239</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -895,7 +895,7 @@
         <v>78</v>
       </c>
       <c r="C10">
-        <v>0.02806390167576156</v>
+        <v>0.04320193150602991</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -906,7 +906,7 @@
         <v>79</v>
       </c>
       <c r="C11">
-        <v>0.02386795187910673</v>
+        <v>0.04294726915835478</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -917,7 +917,7 @@
         <v>80</v>
       </c>
       <c r="C12">
-        <v>0.02317982628184656</v>
+        <v>0.04109316870399082</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -928,7 +928,7 @@
         <v>81</v>
       </c>
       <c r="C13">
-        <v>0.02195556122176434</v>
+        <v>0.04007315754442042</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -939,7 +939,7 @@
         <v>82</v>
       </c>
       <c r="C14">
-        <v>0.02123025962877612</v>
+        <v>0.03902589468160489</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -950,7 +950,7 @@
         <v>83</v>
       </c>
       <c r="C15">
-        <v>0.02067581648502825</v>
+        <v>0.03885767348634439</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -961,7 +961,7 @@
         <v>84</v>
       </c>
       <c r="C16">
-        <v>0.02055978139895243</v>
+        <v>0.03760115304035283</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -972,7 +972,7 @@
         <v>85</v>
       </c>
       <c r="C17">
-        <v>0.01957581119782303</v>
+        <v>0.03334102671638206</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -983,7 +983,7 @@
         <v>86</v>
       </c>
       <c r="C18">
-        <v>0.01733271792742852</v>
+        <v>0.0333309554098622</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -994,7 +994,7 @@
         <v>87</v>
       </c>
       <c r="C19">
-        <v>0.01668719386383244</v>
+        <v>0.03238345033845769</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1005,7 +1005,7 @@
         <v>88</v>
       </c>
       <c r="C20">
-        <v>0.01524926883609479</v>
+        <v>0.03235198606249434</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1016,7 +1016,7 @@
         <v>89</v>
       </c>
       <c r="C21">
-        <v>0.01472134554498239</v>
+        <v>0.03176365035869022</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1027,7 +1027,7 @@
         <v>90</v>
       </c>
       <c r="C22">
-        <v>0.01412980540820419</v>
+        <v>0.03138739299240489</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>91</v>
       </c>
       <c r="C23">
-        <v>0.01351325210356924</v>
+        <v>0.03120313918069106</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>92</v>
       </c>
       <c r="C24">
-        <v>0.01294474120653444</v>
+        <v>0.02927450226304695</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>93</v>
       </c>
       <c r="C25">
-        <v>0.01285396528087768</v>
+        <v>0.02864853501693454</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1071,7 +1071,7 @@
         <v>94</v>
       </c>
       <c r="C26">
-        <v>0.01247079488555047</v>
+        <v>0.02787261133536822</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>95</v>
       </c>
       <c r="C27">
-        <v>0.01188037620357152</v>
+        <v>0.02713021449396491</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>96</v>
       </c>
       <c r="C28">
-        <v>0.01178937914473854</v>
+        <v>0.02700110156269298</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>97</v>
       </c>
       <c r="C29">
-        <v>0.01150593640171182</v>
+        <v>0.02678457247188293</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>98</v>
       </c>
       <c r="C30">
-        <v>0.01136064975223183</v>
+        <v>0.02647690008750625</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1126,7 +1126,7 @@
         <v>99</v>
       </c>
       <c r="C31">
-        <v>0.01066949317945975</v>
+        <v>0.02573513135420447</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>0.01063968679117311</v>
+        <v>0.02564020185281524</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>101</v>
       </c>
       <c r="C33">
-        <v>0.01051421299928457</v>
+        <v>0.02528248273616973</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>102</v>
       </c>
       <c r="C34">
-        <v>0.01047781066710973</v>
+        <v>0.0252461557774013</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>103</v>
       </c>
       <c r="C35">
-        <v>0.009447250344706504</v>
+        <v>0.0252319780196113</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1181,7 +1181,7 @@
         <v>104</v>
       </c>
       <c r="C36">
-        <v>0.009316594145036383</v>
+        <v>0.02431205807255266</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>105</v>
       </c>
       <c r="C37">
-        <v>0.007072675356351255</v>
+        <v>0.02429534602844474</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>106</v>
       </c>
       <c r="C38">
-        <v>0.007003981235398582</v>
+        <v>0.02398604221553224</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="C39">
-        <v>0.006947233079317661</v>
+        <v>0.02338733141357285</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>108</v>
       </c>
       <c r="C40">
-        <v>0.006716929798405546</v>
+        <v>0.02326989380327604</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>109</v>
       </c>
       <c r="C41">
-        <v>0.006166149194795079</v>
+        <v>0.02266541995235305</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>110</v>
       </c>
       <c r="C42">
-        <v>0.005798514831015567</v>
+        <v>0.02237901165809575</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>111</v>
       </c>
       <c r="C43">
-        <v>0.005433855880740746</v>
+        <v>0.02200446401991352</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>112</v>
       </c>
       <c r="C44">
-        <v>0.005263980695917825</v>
+        <v>0.02036905858172666</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>0.003577360997726542</v>
+        <v>0.01896541115750949</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1291,7 +1291,7 @@
         <v>114</v>
       </c>
       <c r="C46">
-        <v>0.003251295616811145</v>
+        <v>0.01707503275292455</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="C47">
-        <v>-0.0001044555465818942</v>
+        <v>0.01656084484893006</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>116</v>
       </c>
       <c r="C48">
-        <v>-0.0005061032688262745</v>
+        <v>0.01617271108440455</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>117</v>
       </c>
       <c r="C49">
-        <v>-0.0005689325531409439</v>
+        <v>0.01611101000567405</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>118</v>
       </c>
       <c r="C50">
-        <v>-0.0008531847780681723</v>
+        <v>0.0159201568978633</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>119</v>
       </c>
       <c r="C51">
-        <v>-0.0008920874384481525</v>
+        <v>0.01565024900996037</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>120</v>
       </c>
       <c r="C52">
-        <v>-0.002751033241550904</v>
+        <v>0.01336278151168546</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1368,7 +1368,7 @@
         <v>121</v>
       </c>
       <c r="C53">
-        <v>-0.004274459312534007</v>
+        <v>0.01138839251965451</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>122</v>
       </c>
       <c r="C54">
-        <v>-0.004362014482831578</v>
+        <v>0.009680409484429386</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>123</v>
       </c>
       <c r="C55">
-        <v>-0.004426653224708255</v>
+        <v>0.009053993319809051</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1401,7 +1401,7 @@
         <v>124</v>
       </c>
       <c r="C56">
-        <v>-0.004691263602877416</v>
+        <v>0.008776274043770238</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>125</v>
       </c>
       <c r="C57">
-        <v>-0.007868196688028961</v>
+        <v>0.007957618934533617</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>126</v>
       </c>
       <c r="C58">
-        <v>-0.009283762494007752</v>
+        <v>0.007770729494079642</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>127</v>
       </c>
       <c r="C59">
-        <v>-0.01032820293101233</v>
+        <v>0.002703129954382488</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>128</v>
       </c>
       <c r="C60">
-        <v>-0.01326811456046106</v>
+        <v>0.001518647135944518</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>129</v>
       </c>
       <c r="C61">
-        <v>-0.01334186179093166</v>
+        <v>0.001247601163233636</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>130</v>
       </c>
       <c r="C62">
-        <v>-0.0162895492696028</v>
+        <v>0.0001923251417477179</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>131</v>
       </c>
       <c r="C63">
-        <v>-0.01866339698539543</v>
+        <v>1.916792574263582e-05</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>132</v>
       </c>
       <c r="C64">
-        <v>-0.0198781822694073</v>
+        <v>-0.001669639877313056</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>133</v>
       </c>
       <c r="C65">
-        <v>-0.02344878767670511</v>
+        <v>-0.01103841554194174</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>134</v>
       </c>
       <c r="C66">
-        <v>-0.02927581038471627</v>
+        <v>-0.01153170427917249</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>135</v>
       </c>
       <c r="C67">
-        <v>-0.03796279348225062</v>
+        <v>-0.01394416672260124</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>136</v>
       </c>
       <c r="C68">
-        <v>-0.04710980401680254</v>
+        <v>-0.01461575824042549</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/主题.xlsx
+++ b/FOF/data/主题.xlsx
@@ -25,406 +25,406 @@
     <t>代码</t>
   </si>
   <si>
+    <t>886053.WI</t>
+  </si>
+  <si>
+    <t>886027.WI</t>
+  </si>
+  <si>
+    <t>886052.WI</t>
+  </si>
+  <si>
+    <t>886055.WI</t>
+  </si>
+  <si>
+    <t>886012.WI</t>
+  </si>
+  <si>
+    <t>886043.WI</t>
+  </si>
+  <si>
+    <t>886024.WI</t>
+  </si>
+  <si>
+    <t>886058.WI</t>
+  </si>
+  <si>
+    <t>886059.WI</t>
+  </si>
+  <si>
+    <t>886054.WI</t>
+  </si>
+  <si>
+    <t>886010.WI</t>
+  </si>
+  <si>
+    <t>886008.WI</t>
+  </si>
+  <si>
+    <t>886050.WI</t>
+  </si>
+  <si>
+    <t>886020.WI</t>
+  </si>
+  <si>
+    <t>886003.WI</t>
+  </si>
+  <si>
+    <t>886004.WI</t>
+  </si>
+  <si>
+    <t>886051.WI</t>
+  </si>
+  <si>
+    <t>886064.WI</t>
+  </si>
+  <si>
+    <t>886016.WI</t>
+  </si>
+  <si>
+    <t>886049.WI</t>
+  </si>
+  <si>
+    <t>886013.WI</t>
+  </si>
+  <si>
+    <t>886037.WI</t>
+  </si>
+  <si>
+    <t>886015.WI</t>
+  </si>
+  <si>
+    <t>886046.WI</t>
+  </si>
+  <si>
+    <t>886006.WI</t>
+  </si>
+  <si>
+    <t>886066.WI</t>
+  </si>
+  <si>
+    <t>886023.WI</t>
+  </si>
+  <si>
+    <t>886057.WI</t>
+  </si>
+  <si>
+    <t>886026.WI</t>
+  </si>
+  <si>
+    <t>886014.WI</t>
+  </si>
+  <si>
+    <t>886022.WI</t>
+  </si>
+  <si>
+    <t>886067.WI</t>
+  </si>
+  <si>
+    <t>886021.WI</t>
+  </si>
+  <si>
+    <t>886048.WI</t>
+  </si>
+  <si>
+    <t>886031.WI</t>
+  </si>
+  <si>
+    <t>886030.WI</t>
+  </si>
+  <si>
+    <t>886042.WI</t>
+  </si>
+  <si>
+    <t>886035.WI</t>
+  </si>
+  <si>
+    <t>886005.WI</t>
+  </si>
+  <si>
+    <t>886038.WI</t>
+  </si>
+  <si>
+    <t>886007.WI</t>
+  </si>
+  <si>
+    <t>886019.WI</t>
+  </si>
+  <si>
+    <t>886018.WI</t>
+  </si>
+  <si>
+    <t>886061.WI</t>
+  </si>
+  <si>
+    <t>886025.WI</t>
+  </si>
+  <si>
+    <t>886041.WI</t>
+  </si>
+  <si>
+    <t>886032.WI</t>
+  </si>
+  <si>
+    <t>886001.WI</t>
+  </si>
+  <si>
+    <t>886036.WI</t>
+  </si>
+  <si>
+    <t>886002.WI</t>
+  </si>
+  <si>
+    <t>886068.WI</t>
+  </si>
+  <si>
+    <t>886039.WI</t>
+  </si>
+  <si>
+    <t>886069.WI</t>
+  </si>
+  <si>
+    <t>886065.WI</t>
+  </si>
+  <si>
+    <t>886017.WI</t>
+  </si>
+  <si>
+    <t>886028.WI</t>
+  </si>
+  <si>
+    <t>886062.WI</t>
+  </si>
+  <si>
+    <t>886040.WI</t>
+  </si>
+  <si>
+    <t>886033.WI</t>
+  </si>
+  <si>
     <t>886060.WI</t>
   </si>
   <si>
+    <t>886029.WI</t>
+  </si>
+  <si>
+    <t>886034.WI</t>
+  </si>
+  <si>
+    <t>886045.WI</t>
+  </si>
+  <si>
+    <t>886011.WI</t>
+  </si>
+  <si>
+    <t>886044.WI</t>
+  </si>
+  <si>
+    <t>886009.WI</t>
+  </si>
+  <si>
     <t>886063.WI</t>
   </si>
   <si>
-    <t>886018.WI</t>
-  </si>
-  <si>
-    <t>886035.WI</t>
-  </si>
-  <si>
-    <t>886064.WI</t>
-  </si>
-  <si>
-    <t>886062.WI</t>
-  </si>
-  <si>
-    <t>886017.WI</t>
-  </si>
-  <si>
-    <t>886037.WI</t>
-  </si>
-  <si>
-    <t>886001.WI</t>
-  </si>
-  <si>
-    <t>886043.WI</t>
-  </si>
-  <si>
-    <t>886008.WI</t>
-  </si>
-  <si>
-    <t>886040.WI</t>
-  </si>
-  <si>
-    <t>886039.WI</t>
-  </si>
-  <si>
-    <t>886026.WI</t>
-  </si>
-  <si>
-    <t>886019.WI</t>
-  </si>
-  <si>
-    <t>886014.WI</t>
-  </si>
-  <si>
-    <t>886032.WI</t>
-  </si>
-  <si>
-    <t>886003.WI</t>
-  </si>
-  <si>
-    <t>886004.WI</t>
-  </si>
-  <si>
-    <t>886021.WI</t>
-  </si>
-  <si>
-    <t>886005.WI</t>
-  </si>
-  <si>
-    <t>886036.WI</t>
-  </si>
-  <si>
-    <t>886041.WI</t>
-  </si>
-  <si>
-    <t>886020.WI</t>
-  </si>
-  <si>
-    <t>886046.WI</t>
-  </si>
-  <si>
-    <t>886059.WI</t>
-  </si>
-  <si>
-    <t>886007.WI</t>
-  </si>
-  <si>
-    <t>886069.WI</t>
-  </si>
-  <si>
-    <t>886002.WI</t>
-  </si>
-  <si>
-    <t>886031.WI</t>
-  </si>
-  <si>
-    <t>886015.WI</t>
-  </si>
-  <si>
-    <t>886067.WI</t>
-  </si>
-  <si>
-    <t>886061.WI</t>
-  </si>
-  <si>
-    <t>886045.WI</t>
-  </si>
-  <si>
-    <t>886009.WI</t>
-  </si>
-  <si>
-    <t>886066.WI</t>
-  </si>
-  <si>
-    <t>886033.WI</t>
-  </si>
-  <si>
-    <t>886058.WI</t>
-  </si>
-  <si>
-    <t>886012.WI</t>
-  </si>
-  <si>
-    <t>886042.WI</t>
-  </si>
-  <si>
-    <t>886022.WI</t>
-  </si>
-  <si>
-    <t>886034.WI</t>
-  </si>
-  <si>
-    <t>886048.WI</t>
-  </si>
-  <si>
-    <t>886010.WI</t>
-  </si>
-  <si>
-    <t>886006.WI</t>
-  </si>
-  <si>
-    <t>886023.WI</t>
-  </si>
-  <si>
-    <t>886038.WI</t>
-  </si>
-  <si>
-    <t>886051.WI</t>
-  </si>
-  <si>
-    <t>886030.WI</t>
-  </si>
-  <si>
-    <t>886068.WI</t>
-  </si>
-  <si>
-    <t>886028.WI</t>
-  </si>
-  <si>
-    <t>886055.WI</t>
-  </si>
-  <si>
-    <t>886057.WI</t>
-  </si>
-  <si>
-    <t>886065.WI</t>
-  </si>
-  <si>
-    <t>886052.WI</t>
-  </si>
-  <si>
-    <t>886024.WI</t>
-  </si>
-  <si>
-    <t>886016.WI</t>
-  </si>
-  <si>
-    <t>886050.WI</t>
-  </si>
-  <si>
-    <t>886044.WI</t>
-  </si>
-  <si>
-    <t>886013.WI</t>
-  </si>
-  <si>
-    <t>886054.WI</t>
-  </si>
-  <si>
-    <t>886025.WI</t>
-  </si>
-  <si>
-    <t>886049.WI</t>
-  </si>
-  <si>
-    <t>886029.WI</t>
-  </si>
-  <si>
-    <t>886027.WI</t>
-  </si>
-  <si>
-    <t>886011.WI</t>
-  </si>
-  <si>
-    <t>886053.WI</t>
+    <t>多元金融指数</t>
+  </si>
+  <si>
+    <t>海运指数</t>
+  </si>
+  <si>
+    <t>银行指数</t>
+  </si>
+  <si>
+    <t>保险指数</t>
+  </si>
+  <si>
+    <t>钢铁指数</t>
+  </si>
+  <si>
+    <t>酒类指数</t>
+  </si>
+  <si>
+    <t>环保指数</t>
+  </si>
+  <si>
+    <t>互联网指数</t>
+  </si>
+  <si>
+    <t>软件指数</t>
+  </si>
+  <si>
+    <t>券商指数</t>
+  </si>
+  <si>
+    <t>基本金属指数</t>
+  </si>
+  <si>
+    <t>建材指数</t>
+  </si>
+  <si>
+    <t>生物科技指数</t>
+  </si>
+  <si>
+    <t>重型机械指数</t>
+  </si>
+  <si>
+    <t>煤炭指数</t>
+  </si>
+  <si>
+    <t>化工原料指数</t>
+  </si>
+  <si>
+    <t>制药指数</t>
+  </si>
+  <si>
+    <t>电信指数</t>
+  </si>
+  <si>
+    <t>建筑指数</t>
+  </si>
+  <si>
+    <t>医疗保健指数</t>
+  </si>
+  <si>
+    <t>林木指数</t>
+  </si>
+  <si>
+    <t>休闲用品指数</t>
+  </si>
+  <si>
+    <t>航天军工指数</t>
+  </si>
+  <si>
+    <t>食品指数</t>
+  </si>
+  <si>
+    <t>精细化工指数</t>
+  </si>
+  <si>
+    <t>燃气指数</t>
+  </si>
+  <si>
+    <t>商业服务指数</t>
+  </si>
+  <si>
+    <t>房地产指数</t>
+  </si>
+  <si>
+    <t>航空指数</t>
+  </si>
+  <si>
+    <t>造纸指数</t>
+  </si>
+  <si>
+    <t>贸易指数</t>
+  </si>
+  <si>
+    <t>水务指数</t>
+  </si>
+  <si>
+    <t>工业机械指数</t>
+  </si>
+  <si>
+    <t>日用化工指数</t>
+  </si>
+  <si>
+    <t>港口指数</t>
+  </si>
+  <si>
+    <t>公路指数</t>
+  </si>
+  <si>
+    <t>零售指数</t>
+  </si>
+  <si>
+    <t>家用电器指数</t>
+  </si>
+  <si>
+    <t>化纤指数</t>
+  </si>
+  <si>
+    <t>纺织服装指数</t>
+  </si>
+  <si>
+    <t>化肥农药指数</t>
+  </si>
+  <si>
+    <t>综合类指数</t>
+  </si>
+  <si>
+    <t>发电设备指数</t>
+  </si>
+  <si>
+    <t>电脑硬件指数</t>
+  </si>
+  <si>
+    <t>办公用品指数</t>
+  </si>
+  <si>
+    <t>文化传媒指数</t>
+  </si>
+  <si>
+    <t>汽车零部件指数</t>
+  </si>
+  <si>
+    <t>能源设备指数</t>
+  </si>
+  <si>
+    <t>家居用品指数</t>
+  </si>
+  <si>
+    <t>石油天然气指数</t>
+  </si>
+  <si>
+    <t>工程机械指数</t>
+  </si>
+  <si>
+    <t>餐饮旅游指数</t>
+  </si>
+  <si>
+    <t>石油化工指数</t>
+  </si>
+  <si>
+    <t>电力指数</t>
+  </si>
+  <si>
+    <t>电工电网指数</t>
+  </si>
+  <si>
+    <t>陆路运输指数</t>
+  </si>
+  <si>
+    <t>电子元器件指数</t>
+  </si>
+  <si>
+    <t>教育指数</t>
+  </si>
+  <si>
+    <t>汽车指数</t>
   </si>
   <si>
     <t>通信设备指数</t>
   </si>
   <si>
+    <t>机场指数</t>
+  </si>
+  <si>
+    <t>摩托车指数</t>
+  </si>
+  <si>
+    <t>农业指数</t>
+  </si>
+  <si>
+    <t>贵金属指数</t>
+  </si>
+  <si>
+    <t>软饮料指数</t>
+  </si>
+  <si>
+    <t>包装指数</t>
+  </si>
+  <si>
     <t>半导体指数</t>
-  </si>
-  <si>
-    <t>发电设备指数</t>
-  </si>
-  <si>
-    <t>家用电器指数</t>
-  </si>
-  <si>
-    <t>电信指数</t>
-  </si>
-  <si>
-    <t>电子元器件指数</t>
-  </si>
-  <si>
-    <t>电工电网指数</t>
-  </si>
-  <si>
-    <t>休闲用品指数</t>
-  </si>
-  <si>
-    <t>能源设备指数</t>
-  </si>
-  <si>
-    <t>酒类指数</t>
-  </si>
-  <si>
-    <t>建材指数</t>
-  </si>
-  <si>
-    <t>教育指数</t>
-  </si>
-  <si>
-    <t>餐饮旅游指数</t>
-  </si>
-  <si>
-    <t>航空指数</t>
-  </si>
-  <si>
-    <t>综合类指数</t>
-  </si>
-  <si>
-    <t>造纸指数</t>
-  </si>
-  <si>
-    <t>汽车零部件指数</t>
-  </si>
-  <si>
-    <t>煤炭指数</t>
-  </si>
-  <si>
-    <t>化工原料指数</t>
-  </si>
-  <si>
-    <t>工业机械指数</t>
-  </si>
-  <si>
-    <t>化纤指数</t>
-  </si>
-  <si>
-    <t>家居用品指数</t>
-  </si>
-  <si>
-    <t>文化传媒指数</t>
-  </si>
-  <si>
-    <t>重型机械指数</t>
-  </si>
-  <si>
-    <t>食品指数</t>
-  </si>
-  <si>
-    <t>软件指数</t>
-  </si>
-  <si>
-    <t>化肥农药指数</t>
-  </si>
-  <si>
-    <t>石油化工指数</t>
-  </si>
-  <si>
-    <t>石油天然气指数</t>
-  </si>
-  <si>
-    <t>港口指数</t>
-  </si>
-  <si>
-    <t>航天军工指数</t>
-  </si>
-  <si>
-    <t>水务指数</t>
-  </si>
-  <si>
-    <t>电脑硬件指数</t>
-  </si>
-  <si>
-    <t>农业指数</t>
-  </si>
-  <si>
-    <t>包装指数</t>
-  </si>
-  <si>
-    <t>燃气指数</t>
-  </si>
-  <si>
-    <t>汽车指数</t>
-  </si>
-  <si>
-    <t>互联网指数</t>
-  </si>
-  <si>
-    <t>钢铁指数</t>
-  </si>
-  <si>
-    <t>零售指数</t>
-  </si>
-  <si>
-    <t>贸易指数</t>
-  </si>
-  <si>
-    <t>摩托车指数</t>
-  </si>
-  <si>
-    <t>日用化工指数</t>
-  </si>
-  <si>
-    <t>基本金属指数</t>
-  </si>
-  <si>
-    <t>精细化工指数</t>
-  </si>
-  <si>
-    <t>商业服务指数</t>
-  </si>
-  <si>
-    <t>纺织服装指数</t>
-  </si>
-  <si>
-    <t>制药指数</t>
-  </si>
-  <si>
-    <t>公路指数</t>
-  </si>
-  <si>
-    <t>工程机械指数</t>
-  </si>
-  <si>
-    <t>陆路运输指数</t>
-  </si>
-  <si>
-    <t>保险指数</t>
-  </si>
-  <si>
-    <t>房地产指数</t>
-  </si>
-  <si>
-    <t>电力指数</t>
-  </si>
-  <si>
-    <t>银行指数</t>
-  </si>
-  <si>
-    <t>环保指数</t>
-  </si>
-  <si>
-    <t>建筑指数</t>
-  </si>
-  <si>
-    <t>生物科技指数</t>
-  </si>
-  <si>
-    <t>软饮料指数</t>
-  </si>
-  <si>
-    <t>林木指数</t>
-  </si>
-  <si>
-    <t>券商指数</t>
-  </si>
-  <si>
-    <t>办公用品指数</t>
-  </si>
-  <si>
-    <t>医疗保健指数</t>
-  </si>
-  <si>
-    <t>机场指数</t>
-  </si>
-  <si>
-    <t>海运指数</t>
-  </si>
-  <si>
-    <t>贵金属指数</t>
-  </si>
-  <si>
-    <t>多元金融指数</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
         <v>70</v>
       </c>
       <c r="C2">
-        <v>0.06349579711908881</v>
+        <v>0.1103756651135486</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -818,7 +818,7 @@
         <v>71</v>
       </c>
       <c r="C3">
-        <v>0.05226477593214973</v>
+        <v>0.09824261927261535</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -829,7 +829,7 @@
         <v>72</v>
       </c>
       <c r="C4">
-        <v>0.05043716103057561</v>
+        <v>0.09042693733098539</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -840,7 +840,7 @@
         <v>73</v>
       </c>
       <c r="C5">
-        <v>0.05015555764520019</v>
+        <v>0.087455205755262</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -851,7 +851,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>0.04984401066326583</v>
+        <v>0.08662974509511123</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -862,7 +862,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>0.04881762809885171</v>
+        <v>0.08636396551802084</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -873,7 +873,7 @@
         <v>76</v>
       </c>
       <c r="C8">
-        <v>0.04878808107672139</v>
+        <v>0.083907398341313</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -884,7 +884,7 @@
         <v>77</v>
       </c>
       <c r="C9">
-        <v>0.04405728262572239</v>
+        <v>0.08363363903806187</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -895,7 +895,7 @@
         <v>78</v>
       </c>
       <c r="C10">
-        <v>0.04320193150602991</v>
+        <v>0.08196462243080194</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -906,7 +906,7 @@
         <v>79</v>
       </c>
       <c r="C11">
-        <v>0.04294726915835478</v>
+        <v>0.07870694158735203</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -917,7 +917,7 @@
         <v>80</v>
       </c>
       <c r="C12">
-        <v>0.04109316870399082</v>
+        <v>0.07830380258654035</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -928,7 +928,7 @@
         <v>81</v>
       </c>
       <c r="C13">
-        <v>0.04007315754442042</v>
+        <v>0.07651668935402589</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -939,7 +939,7 @@
         <v>82</v>
       </c>
       <c r="C14">
-        <v>0.03902589468160489</v>
+        <v>0.07636382053630753</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -950,7 +950,7 @@
         <v>83</v>
       </c>
       <c r="C15">
-        <v>0.03885767348634439</v>
+        <v>0.07556482723345881</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -961,7 +961,7 @@
         <v>84</v>
       </c>
       <c r="C16">
-        <v>0.03760115304035283</v>
+        <v>0.07358750114266499</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -972,7 +972,7 @@
         <v>85</v>
       </c>
       <c r="C17">
-        <v>0.03334102671638206</v>
+        <v>0.07321469918480572</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -983,7 +983,7 @@
         <v>86</v>
       </c>
       <c r="C18">
-        <v>0.0333309554098622</v>
+        <v>0.07273992010694874</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -994,7 +994,7 @@
         <v>87</v>
       </c>
       <c r="C19">
-        <v>0.03238345033845769</v>
+        <v>0.06909143091985426</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1005,7 +1005,7 @@
         <v>88</v>
       </c>
       <c r="C20">
-        <v>0.03235198606249434</v>
+        <v>0.06801195251732661</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1016,7 +1016,7 @@
         <v>89</v>
       </c>
       <c r="C21">
-        <v>0.03176365035869022</v>
+        <v>0.06660335901165726</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1027,7 +1027,7 @@
         <v>90</v>
       </c>
       <c r="C22">
-        <v>0.03138739299240489</v>
+        <v>0.0658903914980582</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>91</v>
       </c>
       <c r="C23">
-        <v>0.03120313918069106</v>
+        <v>0.06557128363809572</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>92</v>
       </c>
       <c r="C24">
-        <v>0.02927450226304695</v>
+        <v>0.06447179965593031</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>93</v>
       </c>
       <c r="C25">
-        <v>0.02864853501693454</v>
+        <v>0.06445321388484615</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1071,7 +1071,7 @@
         <v>94</v>
       </c>
       <c r="C26">
-        <v>0.02787261133536822</v>
+        <v>0.06427370111437103</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>95</v>
       </c>
       <c r="C27">
-        <v>0.02713021449396491</v>
+        <v>0.0630027406210929</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>96</v>
       </c>
       <c r="C28">
-        <v>0.02700110156269298</v>
+        <v>0.06204043788385283</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>97</v>
       </c>
       <c r="C29">
-        <v>0.02678457247188293</v>
+        <v>0.06201521132544352</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>98</v>
       </c>
       <c r="C30">
-        <v>0.02647690008750625</v>
+        <v>0.06198703877437217</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1126,7 +1126,7 @@
         <v>99</v>
       </c>
       <c r="C31">
-        <v>0.02573513135420447</v>
+        <v>0.06193856405639853</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>0.02564020185281524</v>
+        <v>0.06033269660074314</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>101</v>
       </c>
       <c r="C33">
-        <v>0.02528248273616973</v>
+        <v>0.05895889364073859</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>102</v>
       </c>
       <c r="C34">
-        <v>0.0252461557774013</v>
+        <v>0.05861437605452635</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>103</v>
       </c>
       <c r="C35">
-        <v>0.0252319780196113</v>
+        <v>0.05728811582517634</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1181,7 +1181,7 @@
         <v>104</v>
       </c>
       <c r="C36">
-        <v>0.02431205807255266</v>
+        <v>0.0564958190601057</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>105</v>
       </c>
       <c r="C37">
-        <v>0.02429534602844474</v>
+        <v>0.05536497373956473</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>106</v>
       </c>
       <c r="C38">
-        <v>0.02398604221553224</v>
+        <v>0.05511397367865722</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="C39">
-        <v>0.02338733141357285</v>
+        <v>0.05354008875876137</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>108</v>
       </c>
       <c r="C40">
-        <v>0.02326989380327604</v>
+        <v>0.05177893552540702</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>109</v>
       </c>
       <c r="C41">
-        <v>0.02266541995235305</v>
+        <v>0.05175627144081418</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>110</v>
       </c>
       <c r="C42">
-        <v>0.02237901165809575</v>
+        <v>0.04974856813543904</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>111</v>
       </c>
       <c r="C43">
-        <v>0.02200446401991352</v>
+        <v>0.04949867703964483</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>112</v>
       </c>
       <c r="C44">
-        <v>0.02036905858172666</v>
+        <v>0.04747494539199604</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>0.01896541115750949</v>
+        <v>0.04737518591176948</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1291,7 +1291,7 @@
         <v>114</v>
       </c>
       <c r="C46">
-        <v>0.01707503275292455</v>
+        <v>0.0466411312026167</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="C47">
-        <v>0.01656084484893006</v>
+        <v>0.04637831084357669</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>116</v>
       </c>
       <c r="C48">
-        <v>0.01617271108440455</v>
+        <v>0.04576400125498914</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>117</v>
       </c>
       <c r="C49">
-        <v>0.01611101000567405</v>
+        <v>0.04565985497351899</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>118</v>
       </c>
       <c r="C50">
-        <v>0.0159201568978633</v>
+        <v>0.04531725755634652</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>119</v>
       </c>
       <c r="C51">
-        <v>0.01565024900996037</v>
+        <v>0.04473564589556323</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>120</v>
       </c>
       <c r="C52">
-        <v>0.01336278151168546</v>
+        <v>0.04337140164543518</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1368,7 +1368,7 @@
         <v>121</v>
       </c>
       <c r="C53">
-        <v>0.01138839251965451</v>
+        <v>0.04132359431662902</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>122</v>
       </c>
       <c r="C54">
-        <v>0.009680409484429386</v>
+        <v>0.03940563890622206</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>123</v>
       </c>
       <c r="C55">
-        <v>0.009053993319809051</v>
+        <v>0.03752608672040458</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1401,7 +1401,7 @@
         <v>124</v>
       </c>
       <c r="C56">
-        <v>0.008776274043770238</v>
+        <v>0.03619493286108511</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>125</v>
       </c>
       <c r="C57">
-        <v>0.007957618934533617</v>
+        <v>0.03302388264311196</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>126</v>
       </c>
       <c r="C58">
-        <v>0.007770729494079642</v>
+        <v>0.03295265060770514</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>127</v>
       </c>
       <c r="C59">
-        <v>0.002703129954382488</v>
+        <v>0.03091814303439788</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>128</v>
       </c>
       <c r="C60">
-        <v>0.001518647135944518</v>
+        <v>0.03004803920045518</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>129</v>
       </c>
       <c r="C61">
-        <v>0.001247601163233636</v>
+        <v>0.02492337389213728</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>130</v>
       </c>
       <c r="C62">
-        <v>0.0001923251417477179</v>
+        <v>0.02299610433340882</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>131</v>
       </c>
       <c r="C63">
-        <v>1.916792574263582e-05</v>
+        <v>0.02207881788757837</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>132</v>
       </c>
       <c r="C64">
-        <v>-0.001669639877313056</v>
+        <v>0.01955529874082007</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>133</v>
       </c>
       <c r="C65">
-        <v>-0.01103841554194174</v>
+        <v>0.01918386313700182</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>134</v>
       </c>
       <c r="C66">
-        <v>-0.01153170427917249</v>
+        <v>0.01843770445149895</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>135</v>
       </c>
       <c r="C67">
-        <v>-0.01394416672260124</v>
+        <v>0.01361489705831676</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>136</v>
       </c>
       <c r="C68">
-        <v>-0.01461575824042549</v>
+        <v>0.007803423454643799</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/主题.xlsx
+++ b/FOF/data/主题.xlsx
@@ -25,406 +25,406 @@
     <t>代码</t>
   </si>
   <si>
+    <t>886045.WI</t>
+  </si>
+  <si>
+    <t>886001.WI</t>
+  </si>
+  <si>
+    <t>886066.WI</t>
+  </si>
+  <si>
+    <t>886010.WI</t>
+  </si>
+  <si>
+    <t>886025.WI</t>
+  </si>
+  <si>
+    <t>886011.WI</t>
+  </si>
+  <si>
+    <t>886063.WI</t>
+  </si>
+  <si>
+    <t>886015.WI</t>
+  </si>
+  <si>
+    <t>886018.WI</t>
+  </si>
+  <si>
+    <t>886062.WI</t>
+  </si>
+  <si>
+    <t>886055.WI</t>
+  </si>
+  <si>
+    <t>886027.WI</t>
+  </si>
+  <si>
+    <t>886019.WI</t>
+  </si>
+  <si>
+    <t>886065.WI</t>
+  </si>
+  <si>
+    <t>886022.WI</t>
+  </si>
+  <si>
+    <t>886060.WI</t>
+  </si>
+  <si>
+    <t>886037.WI</t>
+  </si>
+  <si>
+    <t>886046.WI</t>
+  </si>
+  <si>
+    <t>886040.WI</t>
+  </si>
+  <si>
+    <t>886041.WI</t>
+  </si>
+  <si>
+    <t>886028.WI</t>
+  </si>
+  <si>
+    <t>886061.WI</t>
+  </si>
+  <si>
+    <t>886013.WI</t>
+  </si>
+  <si>
+    <t>886005.WI</t>
+  </si>
+  <si>
+    <t>886036.WI</t>
+  </si>
+  <si>
+    <t>886069.WI</t>
+  </si>
+  <si>
+    <t>886024.WI</t>
+  </si>
+  <si>
+    <t>886064.WI</t>
+  </si>
+  <si>
+    <t>886030.WI</t>
+  </si>
+  <si>
+    <t>886023.WI</t>
+  </si>
+  <si>
+    <t>886050.WI</t>
+  </si>
+  <si>
+    <t>886048.WI</t>
+  </si>
+  <si>
+    <t>886044.WI</t>
+  </si>
+  <si>
+    <t>886059.WI</t>
+  </si>
+  <si>
+    <t>886021.WI</t>
+  </si>
+  <si>
+    <t>886012.WI</t>
+  </si>
+  <si>
+    <t>886067.WI</t>
+  </si>
+  <si>
+    <t>886032.WI</t>
+  </si>
+  <si>
+    <t>886017.WI</t>
+  </si>
+  <si>
+    <t>886038.WI</t>
+  </si>
+  <si>
+    <t>886039.WI</t>
+  </si>
+  <si>
+    <t>886002.WI</t>
+  </si>
+  <si>
+    <t>886004.WI</t>
+  </si>
+  <si>
+    <t>886057.WI</t>
+  </si>
+  <si>
+    <t>886016.WI</t>
+  </si>
+  <si>
+    <t>886008.WI</t>
+  </si>
+  <si>
+    <t>886014.WI</t>
+  </si>
+  <si>
+    <t>886007.WI</t>
+  </si>
+  <si>
+    <t>886020.WI</t>
+  </si>
+  <si>
+    <t>886031.WI</t>
+  </si>
+  <si>
+    <t>886042.WI</t>
+  </si>
+  <si>
+    <t>886034.WI</t>
+  </si>
+  <si>
     <t>886053.WI</t>
   </si>
   <si>
-    <t>886027.WI</t>
+    <t>886054.WI</t>
+  </si>
+  <si>
+    <t>886051.WI</t>
+  </si>
+  <si>
+    <t>886026.WI</t>
+  </si>
+  <si>
+    <t>886029.WI</t>
+  </si>
+  <si>
+    <t>886043.WI</t>
+  </si>
+  <si>
+    <t>886068.WI</t>
+  </si>
+  <si>
+    <t>886006.WI</t>
+  </si>
+  <si>
+    <t>886049.WI</t>
+  </si>
+  <si>
+    <t>886058.WI</t>
+  </si>
+  <si>
+    <t>886009.WI</t>
+  </si>
+  <si>
+    <t>886033.WI</t>
+  </si>
+  <si>
+    <t>886035.WI</t>
   </si>
   <si>
     <t>886052.WI</t>
   </si>
   <si>
-    <t>886055.WI</t>
-  </si>
-  <si>
-    <t>886012.WI</t>
-  </si>
-  <si>
-    <t>886043.WI</t>
-  </si>
-  <si>
-    <t>886024.WI</t>
-  </si>
-  <si>
-    <t>886058.WI</t>
-  </si>
-  <si>
-    <t>886059.WI</t>
-  </si>
-  <si>
-    <t>886054.WI</t>
-  </si>
-  <si>
-    <t>886010.WI</t>
-  </si>
-  <si>
-    <t>886008.WI</t>
-  </si>
-  <si>
-    <t>886050.WI</t>
-  </si>
-  <si>
-    <t>886020.WI</t>
-  </si>
-  <si>
     <t>886003.WI</t>
   </si>
   <si>
-    <t>886004.WI</t>
-  </si>
-  <si>
-    <t>886051.WI</t>
-  </si>
-  <si>
-    <t>886064.WI</t>
-  </si>
-  <si>
-    <t>886016.WI</t>
-  </si>
-  <si>
-    <t>886049.WI</t>
-  </si>
-  <si>
-    <t>886013.WI</t>
-  </si>
-  <si>
-    <t>886037.WI</t>
-  </si>
-  <si>
-    <t>886015.WI</t>
-  </si>
-  <si>
-    <t>886046.WI</t>
-  </si>
-  <si>
-    <t>886006.WI</t>
-  </si>
-  <si>
-    <t>886066.WI</t>
-  </si>
-  <si>
-    <t>886023.WI</t>
-  </si>
-  <si>
-    <t>886057.WI</t>
-  </si>
-  <si>
-    <t>886026.WI</t>
-  </si>
-  <si>
-    <t>886014.WI</t>
-  </si>
-  <si>
-    <t>886022.WI</t>
-  </si>
-  <si>
-    <t>886067.WI</t>
-  </si>
-  <si>
-    <t>886021.WI</t>
-  </si>
-  <si>
-    <t>886048.WI</t>
-  </si>
-  <si>
-    <t>886031.WI</t>
-  </si>
-  <si>
-    <t>886030.WI</t>
-  </si>
-  <si>
-    <t>886042.WI</t>
-  </si>
-  <si>
-    <t>886035.WI</t>
-  </si>
-  <si>
-    <t>886005.WI</t>
-  </si>
-  <si>
-    <t>886038.WI</t>
-  </si>
-  <si>
-    <t>886007.WI</t>
-  </si>
-  <si>
-    <t>886019.WI</t>
-  </si>
-  <si>
-    <t>886018.WI</t>
-  </si>
-  <si>
-    <t>886061.WI</t>
-  </si>
-  <si>
-    <t>886025.WI</t>
-  </si>
-  <si>
-    <t>886041.WI</t>
-  </si>
-  <si>
-    <t>886032.WI</t>
-  </si>
-  <si>
-    <t>886001.WI</t>
-  </si>
-  <si>
-    <t>886036.WI</t>
-  </si>
-  <si>
-    <t>886002.WI</t>
-  </si>
-  <si>
-    <t>886068.WI</t>
-  </si>
-  <si>
-    <t>886039.WI</t>
-  </si>
-  <si>
-    <t>886069.WI</t>
-  </si>
-  <si>
-    <t>886065.WI</t>
-  </si>
-  <si>
-    <t>886017.WI</t>
-  </si>
-  <si>
-    <t>886028.WI</t>
-  </si>
-  <si>
-    <t>886062.WI</t>
-  </si>
-  <si>
-    <t>886040.WI</t>
-  </si>
-  <si>
-    <t>886033.WI</t>
-  </si>
-  <si>
-    <t>886060.WI</t>
-  </si>
-  <si>
-    <t>886029.WI</t>
-  </si>
-  <si>
-    <t>886034.WI</t>
-  </si>
-  <si>
-    <t>886045.WI</t>
-  </si>
-  <si>
-    <t>886011.WI</t>
-  </si>
-  <si>
-    <t>886044.WI</t>
-  </si>
-  <si>
-    <t>886009.WI</t>
-  </si>
-  <si>
-    <t>886063.WI</t>
+    <t>农业指数</t>
+  </si>
+  <si>
+    <t>能源设备指数</t>
+  </si>
+  <si>
+    <t>燃气指数</t>
+  </si>
+  <si>
+    <t>基本金属指数</t>
+  </si>
+  <si>
+    <t>办公用品指数</t>
+  </si>
+  <si>
+    <t>贵金属指数</t>
+  </si>
+  <si>
+    <t>半导体指数</t>
+  </si>
+  <si>
+    <t>航天军工指数</t>
+  </si>
+  <si>
+    <t>发电设备指数</t>
+  </si>
+  <si>
+    <t>电子元器件指数</t>
+  </si>
+  <si>
+    <t>保险指数</t>
+  </si>
+  <si>
+    <t>海运指数</t>
+  </si>
+  <si>
+    <t>综合类指数</t>
+  </si>
+  <si>
+    <t>电力指数</t>
+  </si>
+  <si>
+    <t>贸易指数</t>
+  </si>
+  <si>
+    <t>通信设备指数</t>
+  </si>
+  <si>
+    <t>休闲用品指数</t>
+  </si>
+  <si>
+    <t>食品指数</t>
+  </si>
+  <si>
+    <t>教育指数</t>
+  </si>
+  <si>
+    <t>文化传媒指数</t>
+  </si>
+  <si>
+    <t>陆路运输指数</t>
+  </si>
+  <si>
+    <t>电脑硬件指数</t>
+  </si>
+  <si>
+    <t>林木指数</t>
+  </si>
+  <si>
+    <t>化纤指数</t>
+  </si>
+  <si>
+    <t>家居用品指数</t>
+  </si>
+  <si>
+    <t>石油化工指数</t>
+  </si>
+  <si>
+    <t>环保指数</t>
+  </si>
+  <si>
+    <t>电信指数</t>
+  </si>
+  <si>
+    <t>公路指数</t>
+  </si>
+  <si>
+    <t>商业服务指数</t>
+  </si>
+  <si>
+    <t>生物科技指数</t>
+  </si>
+  <si>
+    <t>日用化工指数</t>
+  </si>
+  <si>
+    <t>软饮料指数</t>
+  </si>
+  <si>
+    <t>软件指数</t>
+  </si>
+  <si>
+    <t>工业机械指数</t>
+  </si>
+  <si>
+    <t>钢铁指数</t>
+  </si>
+  <si>
+    <t>水务指数</t>
+  </si>
+  <si>
+    <t>汽车零部件指数</t>
+  </si>
+  <si>
+    <t>电工电网指数</t>
+  </si>
+  <si>
+    <t>纺织服装指数</t>
+  </si>
+  <si>
+    <t>餐饮旅游指数</t>
+  </si>
+  <si>
+    <t>石油天然气指数</t>
+  </si>
+  <si>
+    <t>化工原料指数</t>
+  </si>
+  <si>
+    <t>房地产指数</t>
+  </si>
+  <si>
+    <t>建筑指数</t>
+  </si>
+  <si>
+    <t>建材指数</t>
+  </si>
+  <si>
+    <t>造纸指数</t>
+  </si>
+  <si>
+    <t>化肥农药指数</t>
+  </si>
+  <si>
+    <t>重型机械指数</t>
+  </si>
+  <si>
+    <t>港口指数</t>
+  </si>
+  <si>
+    <t>零售指数</t>
+  </si>
+  <si>
+    <t>摩托车指数</t>
   </si>
   <si>
     <t>多元金融指数</t>
   </si>
   <si>
-    <t>海运指数</t>
+    <t>券商指数</t>
+  </si>
+  <si>
+    <t>制药指数</t>
+  </si>
+  <si>
+    <t>航空指数</t>
+  </si>
+  <si>
+    <t>机场指数</t>
+  </si>
+  <si>
+    <t>酒类指数</t>
+  </si>
+  <si>
+    <t>工程机械指数</t>
+  </si>
+  <si>
+    <t>精细化工指数</t>
+  </si>
+  <si>
+    <t>医疗保健指数</t>
+  </si>
+  <si>
+    <t>互联网指数</t>
+  </si>
+  <si>
+    <t>包装指数</t>
+  </si>
+  <si>
+    <t>汽车指数</t>
+  </si>
+  <si>
+    <t>家用电器指数</t>
   </si>
   <si>
     <t>银行指数</t>
   </si>
   <si>
-    <t>保险指数</t>
-  </si>
-  <si>
-    <t>钢铁指数</t>
-  </si>
-  <si>
-    <t>酒类指数</t>
-  </si>
-  <si>
-    <t>环保指数</t>
-  </si>
-  <si>
-    <t>互联网指数</t>
-  </si>
-  <si>
-    <t>软件指数</t>
-  </si>
-  <si>
-    <t>券商指数</t>
-  </si>
-  <si>
-    <t>基本金属指数</t>
-  </si>
-  <si>
-    <t>建材指数</t>
-  </si>
-  <si>
-    <t>生物科技指数</t>
-  </si>
-  <si>
-    <t>重型机械指数</t>
-  </si>
-  <si>
     <t>煤炭指数</t>
-  </si>
-  <si>
-    <t>化工原料指数</t>
-  </si>
-  <si>
-    <t>制药指数</t>
-  </si>
-  <si>
-    <t>电信指数</t>
-  </si>
-  <si>
-    <t>建筑指数</t>
-  </si>
-  <si>
-    <t>医疗保健指数</t>
-  </si>
-  <si>
-    <t>林木指数</t>
-  </si>
-  <si>
-    <t>休闲用品指数</t>
-  </si>
-  <si>
-    <t>航天军工指数</t>
-  </si>
-  <si>
-    <t>食品指数</t>
-  </si>
-  <si>
-    <t>精细化工指数</t>
-  </si>
-  <si>
-    <t>燃气指数</t>
-  </si>
-  <si>
-    <t>商业服务指数</t>
-  </si>
-  <si>
-    <t>房地产指数</t>
-  </si>
-  <si>
-    <t>航空指数</t>
-  </si>
-  <si>
-    <t>造纸指数</t>
-  </si>
-  <si>
-    <t>贸易指数</t>
-  </si>
-  <si>
-    <t>水务指数</t>
-  </si>
-  <si>
-    <t>工业机械指数</t>
-  </si>
-  <si>
-    <t>日用化工指数</t>
-  </si>
-  <si>
-    <t>港口指数</t>
-  </si>
-  <si>
-    <t>公路指数</t>
-  </si>
-  <si>
-    <t>零售指数</t>
-  </si>
-  <si>
-    <t>家用电器指数</t>
-  </si>
-  <si>
-    <t>化纤指数</t>
-  </si>
-  <si>
-    <t>纺织服装指数</t>
-  </si>
-  <si>
-    <t>化肥农药指数</t>
-  </si>
-  <si>
-    <t>综合类指数</t>
-  </si>
-  <si>
-    <t>发电设备指数</t>
-  </si>
-  <si>
-    <t>电脑硬件指数</t>
-  </si>
-  <si>
-    <t>办公用品指数</t>
-  </si>
-  <si>
-    <t>文化传媒指数</t>
-  </si>
-  <si>
-    <t>汽车零部件指数</t>
-  </si>
-  <si>
-    <t>能源设备指数</t>
-  </si>
-  <si>
-    <t>家居用品指数</t>
-  </si>
-  <si>
-    <t>石油天然气指数</t>
-  </si>
-  <si>
-    <t>工程机械指数</t>
-  </si>
-  <si>
-    <t>餐饮旅游指数</t>
-  </si>
-  <si>
-    <t>石油化工指数</t>
-  </si>
-  <si>
-    <t>电力指数</t>
-  </si>
-  <si>
-    <t>电工电网指数</t>
-  </si>
-  <si>
-    <t>陆路运输指数</t>
-  </si>
-  <si>
-    <t>电子元器件指数</t>
-  </si>
-  <si>
-    <t>教育指数</t>
-  </si>
-  <si>
-    <t>汽车指数</t>
-  </si>
-  <si>
-    <t>通信设备指数</t>
-  </si>
-  <si>
-    <t>机场指数</t>
-  </si>
-  <si>
-    <t>摩托车指数</t>
-  </si>
-  <si>
-    <t>农业指数</t>
-  </si>
-  <si>
-    <t>贵金属指数</t>
-  </si>
-  <si>
-    <t>软饮料指数</t>
-  </si>
-  <si>
-    <t>包装指数</t>
-  </si>
-  <si>
-    <t>半导体指数</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
         <v>70</v>
       </c>
       <c r="C2">
-        <v>0.1103756651135486</v>
+        <v>0.1421468689735585</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -818,7 +818,7 @@
         <v>71</v>
       </c>
       <c r="C3">
-        <v>0.09824261927261535</v>
+        <v>0.09174291750076469</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -829,7 +829,7 @@
         <v>72</v>
       </c>
       <c r="C4">
-        <v>0.09042693733098539</v>
+        <v>0.08076849343638637</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -840,7 +840,7 @@
         <v>73</v>
       </c>
       <c r="C5">
-        <v>0.087455205755262</v>
+        <v>0.06675225088290659</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -851,7 +851,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>0.08662974509511123</v>
+        <v>0.05526352837119619</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -862,7 +862,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>0.08636396551802084</v>
+        <v>0.04558779744280783</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -873,7 +873,7 @@
         <v>76</v>
       </c>
       <c r="C8">
-        <v>0.083907398341313</v>
+        <v>0.0436715454479597</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -884,7 +884,7 @@
         <v>77</v>
       </c>
       <c r="C9">
-        <v>0.08363363903806187</v>
+        <v>0.04255892648722193</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -895,7 +895,7 @@
         <v>78</v>
       </c>
       <c r="C10">
-        <v>0.08196462243080194</v>
+        <v>0.03662161610150072</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -906,7 +906,7 @@
         <v>79</v>
       </c>
       <c r="C11">
-        <v>0.07870694158735203</v>
+        <v>0.03617297950870424</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -917,7 +917,7 @@
         <v>80</v>
       </c>
       <c r="C12">
-        <v>0.07830380258654035</v>
+        <v>0.03449264163171373</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -928,7 +928,7 @@
         <v>81</v>
       </c>
       <c r="C13">
-        <v>0.07651668935402589</v>
+        <v>0.03435828366860272</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -939,7 +939,7 @@
         <v>82</v>
       </c>
       <c r="C14">
-        <v>0.07636382053630753</v>
+        <v>0.03236478973221146</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -950,7 +950,7 @@
         <v>83</v>
       </c>
       <c r="C15">
-        <v>0.07556482723345881</v>
+        <v>0.03192016968404832</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -961,7 +961,7 @@
         <v>84</v>
       </c>
       <c r="C16">
-        <v>0.07358750114266499</v>
+        <v>0.03097027870765268</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -972,7 +972,7 @@
         <v>85</v>
       </c>
       <c r="C17">
-        <v>0.07321469918480572</v>
+        <v>0.0302486764092349</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -983,7 +983,7 @@
         <v>86</v>
       </c>
       <c r="C18">
-        <v>0.07273992010694874</v>
+        <v>0.03002814802053311</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -994,7 +994,7 @@
         <v>87</v>
       </c>
       <c r="C19">
-        <v>0.06909143091985426</v>
+        <v>0.02998101330002845</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1005,7 +1005,7 @@
         <v>88</v>
       </c>
       <c r="C20">
-        <v>0.06801195251732661</v>
+        <v>0.02911139532792895</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1016,7 +1016,7 @@
         <v>89</v>
       </c>
       <c r="C21">
-        <v>0.06660335901165726</v>
+        <v>0.0287576294902645</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1027,7 +1027,7 @@
         <v>90</v>
       </c>
       <c r="C22">
-        <v>0.0658903914980582</v>
+        <v>0.02747700831060085</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>91</v>
       </c>
       <c r="C23">
-        <v>0.06557128363809572</v>
+        <v>0.02619774850335976</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>92</v>
       </c>
       <c r="C24">
-        <v>0.06447179965593031</v>
+        <v>0.02430609518175797</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>93</v>
       </c>
       <c r="C25">
-        <v>0.06445321388484615</v>
+        <v>0.02408416122920265</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1071,7 +1071,7 @@
         <v>94</v>
       </c>
       <c r="C26">
-        <v>0.06427370111437103</v>
+        <v>0.02405037231381058</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>95</v>
       </c>
       <c r="C27">
-        <v>0.0630027406210929</v>
+        <v>0.02244419004483644</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>96</v>
       </c>
       <c r="C28">
-        <v>0.06204043788385283</v>
+        <v>0.02196193390761891</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>97</v>
       </c>
       <c r="C29">
-        <v>0.06201521132544352</v>
+        <v>0.0212936729491211</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>98</v>
       </c>
       <c r="C30">
-        <v>0.06198703877437217</v>
+        <v>0.01990447503021109</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1126,7 +1126,7 @@
         <v>99</v>
       </c>
       <c r="C31">
-        <v>0.06193856405639853</v>
+        <v>0.01947263709260705</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>0.06033269660074314</v>
+        <v>0.01939113437362594</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>101</v>
       </c>
       <c r="C33">
-        <v>0.05895889364073859</v>
+        <v>0.01889982235966503</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>102</v>
       </c>
       <c r="C34">
-        <v>0.05861437605452635</v>
+        <v>0.01589189464155538</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>103</v>
       </c>
       <c r="C35">
-        <v>0.05728811582517634</v>
+        <v>0.01578754416515649</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1181,7 +1181,7 @@
         <v>104</v>
       </c>
       <c r="C36">
-        <v>0.0564958190601057</v>
+        <v>0.0157675052041959</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>105</v>
       </c>
       <c r="C37">
-        <v>0.05536497373956473</v>
+        <v>0.01458996096540055</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>106</v>
       </c>
       <c r="C38">
-        <v>0.05511397367865722</v>
+        <v>0.01429521146193835</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="C39">
-        <v>0.05354008875876137</v>
+        <v>0.01406227260073267</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>108</v>
       </c>
       <c r="C40">
-        <v>0.05177893552540702</v>
+        <v>0.01390746437241264</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>109</v>
       </c>
       <c r="C41">
-        <v>0.05175627144081418</v>
+        <v>0.01356516211160841</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>110</v>
       </c>
       <c r="C42">
-        <v>0.04974856813543904</v>
+        <v>0.01306429752620586</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>111</v>
       </c>
       <c r="C43">
-        <v>0.04949867703964483</v>
+        <v>0.01280013388031298</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>112</v>
       </c>
       <c r="C44">
-        <v>0.04747494539199604</v>
+        <v>0.01271275637349922</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>0.04737518591176948</v>
+        <v>0.01213432178783447</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1291,7 +1291,7 @@
         <v>114</v>
       </c>
       <c r="C46">
-        <v>0.0466411312026167</v>
+        <v>0.01095332424501883</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="C47">
-        <v>0.04637831084357669</v>
+        <v>0.01011622718760563</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>116</v>
       </c>
       <c r="C48">
-        <v>0.04576400125498914</v>
+        <v>0.009739486553964838</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>117</v>
       </c>
       <c r="C49">
-        <v>0.04565985497351899</v>
+        <v>0.009521254876423635</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>118</v>
       </c>
       <c r="C50">
-        <v>0.04531725755634652</v>
+        <v>0.00917262444521616</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>119</v>
       </c>
       <c r="C51">
-        <v>0.04473564589556323</v>
+        <v>0.007972782560043967</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>120</v>
       </c>
       <c r="C52">
-        <v>0.04337140164543518</v>
+        <v>0.007788509384715425</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1368,7 +1368,7 @@
         <v>121</v>
       </c>
       <c r="C53">
-        <v>0.04132359431662902</v>
+        <v>0.007444949291099512</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>122</v>
       </c>
       <c r="C54">
-        <v>0.03940563890622206</v>
+        <v>0.006899677281493544</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>123</v>
       </c>
       <c r="C55">
-        <v>0.03752608672040458</v>
+        <v>0.006529546146576193</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1401,7 +1401,7 @@
         <v>124</v>
       </c>
       <c r="C56">
-        <v>0.03619493286108511</v>
+        <v>0.006258676686628828</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>125</v>
       </c>
       <c r="C57">
-        <v>0.03302388264311196</v>
+        <v>0.006188616891727117</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>126</v>
       </c>
       <c r="C58">
-        <v>0.03295265060770514</v>
+        <v>0.005462208913366906</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>127</v>
       </c>
       <c r="C59">
-        <v>0.03091814303439788</v>
+        <v>0.00541106408391534</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>128</v>
       </c>
       <c r="C60">
-        <v>0.03004803920045518</v>
+        <v>0.005377648585690675</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>129</v>
       </c>
       <c r="C61">
-        <v>0.02492337389213728</v>
+        <v>0.004941337836248838</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>130</v>
       </c>
       <c r="C62">
-        <v>0.02299610433340882</v>
+        <v>0.004394454399528014</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>131</v>
       </c>
       <c r="C63">
-        <v>0.02207881788757837</v>
+        <v>0.004364232197965334</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>132</v>
       </c>
       <c r="C64">
-        <v>0.01955529874082007</v>
+        <v>0.004265297261786261</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>133</v>
       </c>
       <c r="C65">
-        <v>0.01918386313700182</v>
+        <v>-0.0003166989049773195</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>134</v>
       </c>
       <c r="C66">
-        <v>0.01843770445149895</v>
+        <v>-0.002974388445894927</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>135</v>
       </c>
       <c r="C67">
-        <v>0.01361489705831676</v>
+        <v>-0.003095508454775131</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>136</v>
       </c>
       <c r="C68">
-        <v>0.007803423454643799</v>
+        <v>-0.01116490465120945</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/主题.xlsx
+++ b/FOF/data/主题.xlsx
@@ -25,406 +25,406 @@
     <t>代码</t>
   </si>
   <si>
+    <t>886011.WI</t>
+  </si>
+  <si>
+    <t>886052.WI</t>
+  </si>
+  <si>
+    <t>886029.WI</t>
+  </si>
+  <si>
+    <t>886054.WI</t>
+  </si>
+  <si>
+    <t>886064.WI</t>
+  </si>
+  <si>
+    <t>886033.WI</t>
+  </si>
+  <si>
+    <t>886060.WI</t>
+  </si>
+  <si>
+    <t>886065.WI</t>
+  </si>
+  <si>
+    <t>886035.WI</t>
+  </si>
+  <si>
+    <t>886057.WI</t>
+  </si>
+  <si>
+    <t>886046.WI</t>
+  </si>
+  <si>
+    <t>886044.WI</t>
+  </si>
+  <si>
+    <t>886016.WI</t>
+  </si>
+  <si>
+    <t>886002.WI</t>
+  </si>
+  <si>
+    <t>886067.WI</t>
+  </si>
+  <si>
+    <t>886055.WI</t>
+  </si>
+  <si>
+    <t>886026.WI</t>
+  </si>
+  <si>
+    <t>886068.WI</t>
+  </si>
+  <si>
+    <t>886040.WI</t>
+  </si>
+  <si>
+    <t>886003.WI</t>
+  </si>
+  <si>
+    <t>886012.WI</t>
+  </si>
+  <si>
+    <t>886030.WI</t>
+  </si>
+  <si>
+    <t>886042.WI</t>
+  </si>
+  <si>
+    <t>886009.WI</t>
+  </si>
+  <si>
+    <t>886043.WI</t>
+  </si>
+  <si>
+    <t>886041.WI</t>
+  </si>
+  <si>
+    <t>886032.WI</t>
+  </si>
+  <si>
+    <t>886020.WI</t>
+  </si>
+  <si>
+    <t>886028.WI</t>
+  </si>
+  <si>
+    <t>886048.WI</t>
+  </si>
+  <si>
+    <t>886062.WI</t>
+  </si>
+  <si>
+    <t>886005.WI</t>
+  </si>
+  <si>
+    <t>886008.WI</t>
+  </si>
+  <si>
+    <t>886058.WI</t>
+  </si>
+  <si>
+    <t>886039.WI</t>
+  </si>
+  <si>
+    <t>886021.WI</t>
+  </si>
+  <si>
+    <t>886038.WI</t>
+  </si>
+  <si>
+    <t>886059.WI</t>
+  </si>
+  <si>
+    <t>886022.WI</t>
+  </si>
+  <si>
+    <t>886069.WI</t>
+  </si>
+  <si>
+    <t>886053.WI</t>
+  </si>
+  <si>
+    <t>886017.WI</t>
+  </si>
+  <si>
+    <t>886036.WI</t>
+  </si>
+  <si>
+    <t>886014.WI</t>
+  </si>
+  <si>
+    <t>886010.WI</t>
+  </si>
+  <si>
+    <t>886027.WI</t>
+  </si>
+  <si>
+    <t>886004.WI</t>
+  </si>
+  <si>
+    <t>886024.WI</t>
+  </si>
+  <si>
+    <t>886025.WI</t>
+  </si>
+  <si>
+    <t>886034.WI</t>
+  </si>
+  <si>
+    <t>886007.WI</t>
+  </si>
+  <si>
+    <t>886049.WI</t>
+  </si>
+  <si>
+    <t>886006.WI</t>
+  </si>
+  <si>
+    <t>886023.WI</t>
+  </si>
+  <si>
+    <t>886019.WI</t>
+  </si>
+  <si>
+    <t>886018.WI</t>
+  </si>
+  <si>
+    <t>886066.WI</t>
+  </si>
+  <si>
+    <t>886061.WI</t>
+  </si>
+  <si>
+    <t>886013.WI</t>
+  </si>
+  <si>
+    <t>886015.WI</t>
+  </si>
+  <si>
+    <t>886051.WI</t>
+  </si>
+  <si>
+    <t>886050.WI</t>
+  </si>
+  <si>
+    <t>886063.WI</t>
+  </si>
+  <si>
+    <t>886031.WI</t>
+  </si>
+  <si>
+    <t>886037.WI</t>
+  </si>
+  <si>
+    <t>886001.WI</t>
+  </si>
+  <si>
     <t>886045.WI</t>
   </si>
   <si>
-    <t>886001.WI</t>
-  </si>
-  <si>
-    <t>886066.WI</t>
-  </si>
-  <si>
-    <t>886010.WI</t>
-  </si>
-  <si>
-    <t>886025.WI</t>
-  </si>
-  <si>
-    <t>886011.WI</t>
-  </si>
-  <si>
-    <t>886063.WI</t>
-  </si>
-  <si>
-    <t>886015.WI</t>
-  </si>
-  <si>
-    <t>886018.WI</t>
-  </si>
-  <si>
-    <t>886062.WI</t>
-  </si>
-  <si>
-    <t>886055.WI</t>
-  </si>
-  <si>
-    <t>886027.WI</t>
-  </si>
-  <si>
-    <t>886019.WI</t>
-  </si>
-  <si>
-    <t>886065.WI</t>
-  </si>
-  <si>
-    <t>886022.WI</t>
-  </si>
-  <si>
-    <t>886060.WI</t>
-  </si>
-  <si>
-    <t>886037.WI</t>
-  </si>
-  <si>
-    <t>886046.WI</t>
-  </si>
-  <si>
-    <t>886040.WI</t>
-  </si>
-  <si>
-    <t>886041.WI</t>
-  </si>
-  <si>
-    <t>886028.WI</t>
-  </si>
-  <si>
-    <t>886061.WI</t>
-  </si>
-  <si>
-    <t>886013.WI</t>
-  </si>
-  <si>
-    <t>886005.WI</t>
-  </si>
-  <si>
-    <t>886036.WI</t>
-  </si>
-  <si>
-    <t>886069.WI</t>
-  </si>
-  <si>
-    <t>886024.WI</t>
-  </si>
-  <si>
-    <t>886064.WI</t>
-  </si>
-  <si>
-    <t>886030.WI</t>
-  </si>
-  <si>
-    <t>886023.WI</t>
-  </si>
-  <si>
-    <t>886050.WI</t>
-  </si>
-  <si>
-    <t>886048.WI</t>
-  </si>
-  <si>
-    <t>886044.WI</t>
-  </si>
-  <si>
-    <t>886059.WI</t>
-  </si>
-  <si>
-    <t>886021.WI</t>
-  </si>
-  <si>
-    <t>886012.WI</t>
-  </si>
-  <si>
-    <t>886067.WI</t>
-  </si>
-  <si>
-    <t>886032.WI</t>
-  </si>
-  <si>
-    <t>886017.WI</t>
-  </si>
-  <si>
-    <t>886038.WI</t>
-  </si>
-  <si>
-    <t>886039.WI</t>
-  </si>
-  <si>
-    <t>886002.WI</t>
-  </si>
-  <si>
-    <t>886004.WI</t>
-  </si>
-  <si>
-    <t>886057.WI</t>
-  </si>
-  <si>
-    <t>886016.WI</t>
-  </si>
-  <si>
-    <t>886008.WI</t>
-  </si>
-  <si>
-    <t>886014.WI</t>
-  </si>
-  <si>
-    <t>886007.WI</t>
-  </si>
-  <si>
-    <t>886020.WI</t>
-  </si>
-  <si>
-    <t>886031.WI</t>
-  </si>
-  <si>
-    <t>886042.WI</t>
-  </si>
-  <si>
-    <t>886034.WI</t>
-  </si>
-  <si>
-    <t>886053.WI</t>
-  </si>
-  <si>
-    <t>886054.WI</t>
-  </si>
-  <si>
-    <t>886051.WI</t>
-  </si>
-  <si>
-    <t>886026.WI</t>
-  </si>
-  <si>
-    <t>886029.WI</t>
-  </si>
-  <si>
-    <t>886043.WI</t>
-  </si>
-  <si>
-    <t>886068.WI</t>
-  </si>
-  <si>
-    <t>886006.WI</t>
-  </si>
-  <si>
-    <t>886049.WI</t>
-  </si>
-  <si>
-    <t>886058.WI</t>
-  </si>
-  <si>
-    <t>886009.WI</t>
-  </si>
-  <si>
-    <t>886033.WI</t>
-  </si>
-  <si>
-    <t>886035.WI</t>
-  </si>
-  <si>
-    <t>886052.WI</t>
-  </si>
-  <si>
-    <t>886003.WI</t>
+    <t>贵金属指数</t>
+  </si>
+  <si>
+    <t>银行指数</t>
+  </si>
+  <si>
+    <t>机场指数</t>
+  </si>
+  <si>
+    <t>券商指数</t>
+  </si>
+  <si>
+    <t>电信指数</t>
+  </si>
+  <si>
+    <t>汽车指数</t>
+  </si>
+  <si>
+    <t>通信设备指数</t>
+  </si>
+  <si>
+    <t>电力指数</t>
+  </si>
+  <si>
+    <t>家用电器指数</t>
+  </si>
+  <si>
+    <t>房地产指数</t>
+  </si>
+  <si>
+    <t>食品指数</t>
+  </si>
+  <si>
+    <t>软饮料指数</t>
+  </si>
+  <si>
+    <t>建筑指数</t>
+  </si>
+  <si>
+    <t>石油天然气指数</t>
+  </si>
+  <si>
+    <t>水务指数</t>
+  </si>
+  <si>
+    <t>保险指数</t>
+  </si>
+  <si>
+    <t>航空指数</t>
+  </si>
+  <si>
+    <t>工程机械指数</t>
+  </si>
+  <si>
+    <t>教育指数</t>
+  </si>
+  <si>
+    <t>煤炭指数</t>
+  </si>
+  <si>
+    <t>钢铁指数</t>
+  </si>
+  <si>
+    <t>公路指数</t>
+  </si>
+  <si>
+    <t>零售指数</t>
+  </si>
+  <si>
+    <t>包装指数</t>
+  </si>
+  <si>
+    <t>酒类指数</t>
+  </si>
+  <si>
+    <t>文化传媒指数</t>
+  </si>
+  <si>
+    <t>汽车零部件指数</t>
+  </si>
+  <si>
+    <t>重型机械指数</t>
+  </si>
+  <si>
+    <t>陆路运输指数</t>
+  </si>
+  <si>
+    <t>日用化工指数</t>
+  </si>
+  <si>
+    <t>电子元器件指数</t>
+  </si>
+  <si>
+    <t>化纤指数</t>
+  </si>
+  <si>
+    <t>建材指数</t>
+  </si>
+  <si>
+    <t>互联网指数</t>
+  </si>
+  <si>
+    <t>餐饮旅游指数</t>
+  </si>
+  <si>
+    <t>工业机械指数</t>
+  </si>
+  <si>
+    <t>纺织服装指数</t>
+  </si>
+  <si>
+    <t>软件指数</t>
+  </si>
+  <si>
+    <t>贸易指数</t>
+  </si>
+  <si>
+    <t>石油化工指数</t>
+  </si>
+  <si>
+    <t>多元金融指数</t>
+  </si>
+  <si>
+    <t>电工电网指数</t>
+  </si>
+  <si>
+    <t>家居用品指数</t>
+  </si>
+  <si>
+    <t>造纸指数</t>
+  </si>
+  <si>
+    <t>基本金属指数</t>
+  </si>
+  <si>
+    <t>海运指数</t>
+  </si>
+  <si>
+    <t>化工原料指数</t>
+  </si>
+  <si>
+    <t>环保指数</t>
+  </si>
+  <si>
+    <t>办公用品指数</t>
+  </si>
+  <si>
+    <t>摩托车指数</t>
+  </si>
+  <si>
+    <t>化肥农药指数</t>
+  </si>
+  <si>
+    <t>医疗保健指数</t>
+  </si>
+  <si>
+    <t>精细化工指数</t>
+  </si>
+  <si>
+    <t>商业服务指数</t>
+  </si>
+  <si>
+    <t>综合类指数</t>
+  </si>
+  <si>
+    <t>发电设备指数</t>
+  </si>
+  <si>
+    <t>燃气指数</t>
+  </si>
+  <si>
+    <t>电脑硬件指数</t>
+  </si>
+  <si>
+    <t>林木指数</t>
+  </si>
+  <si>
+    <t>航天军工指数</t>
+  </si>
+  <si>
+    <t>制药指数</t>
+  </si>
+  <si>
+    <t>生物科技指数</t>
+  </si>
+  <si>
+    <t>半导体指数</t>
+  </si>
+  <si>
+    <t>港口指数</t>
+  </si>
+  <si>
+    <t>休闲用品指数</t>
+  </si>
+  <si>
+    <t>能源设备指数</t>
   </si>
   <si>
     <t>农业指数</t>
-  </si>
-  <si>
-    <t>能源设备指数</t>
-  </si>
-  <si>
-    <t>燃气指数</t>
-  </si>
-  <si>
-    <t>基本金属指数</t>
-  </si>
-  <si>
-    <t>办公用品指数</t>
-  </si>
-  <si>
-    <t>贵金属指数</t>
-  </si>
-  <si>
-    <t>半导体指数</t>
-  </si>
-  <si>
-    <t>航天军工指数</t>
-  </si>
-  <si>
-    <t>发电设备指数</t>
-  </si>
-  <si>
-    <t>电子元器件指数</t>
-  </si>
-  <si>
-    <t>保险指数</t>
-  </si>
-  <si>
-    <t>海运指数</t>
-  </si>
-  <si>
-    <t>综合类指数</t>
-  </si>
-  <si>
-    <t>电力指数</t>
-  </si>
-  <si>
-    <t>贸易指数</t>
-  </si>
-  <si>
-    <t>通信设备指数</t>
-  </si>
-  <si>
-    <t>休闲用品指数</t>
-  </si>
-  <si>
-    <t>食品指数</t>
-  </si>
-  <si>
-    <t>教育指数</t>
-  </si>
-  <si>
-    <t>文化传媒指数</t>
-  </si>
-  <si>
-    <t>陆路运输指数</t>
-  </si>
-  <si>
-    <t>电脑硬件指数</t>
-  </si>
-  <si>
-    <t>林木指数</t>
-  </si>
-  <si>
-    <t>化纤指数</t>
-  </si>
-  <si>
-    <t>家居用品指数</t>
-  </si>
-  <si>
-    <t>石油化工指数</t>
-  </si>
-  <si>
-    <t>环保指数</t>
-  </si>
-  <si>
-    <t>电信指数</t>
-  </si>
-  <si>
-    <t>公路指数</t>
-  </si>
-  <si>
-    <t>商业服务指数</t>
-  </si>
-  <si>
-    <t>生物科技指数</t>
-  </si>
-  <si>
-    <t>日用化工指数</t>
-  </si>
-  <si>
-    <t>软饮料指数</t>
-  </si>
-  <si>
-    <t>软件指数</t>
-  </si>
-  <si>
-    <t>工业机械指数</t>
-  </si>
-  <si>
-    <t>钢铁指数</t>
-  </si>
-  <si>
-    <t>水务指数</t>
-  </si>
-  <si>
-    <t>汽车零部件指数</t>
-  </si>
-  <si>
-    <t>电工电网指数</t>
-  </si>
-  <si>
-    <t>纺织服装指数</t>
-  </si>
-  <si>
-    <t>餐饮旅游指数</t>
-  </si>
-  <si>
-    <t>石油天然气指数</t>
-  </si>
-  <si>
-    <t>化工原料指数</t>
-  </si>
-  <si>
-    <t>房地产指数</t>
-  </si>
-  <si>
-    <t>建筑指数</t>
-  </si>
-  <si>
-    <t>建材指数</t>
-  </si>
-  <si>
-    <t>造纸指数</t>
-  </si>
-  <si>
-    <t>化肥农药指数</t>
-  </si>
-  <si>
-    <t>重型机械指数</t>
-  </si>
-  <si>
-    <t>港口指数</t>
-  </si>
-  <si>
-    <t>零售指数</t>
-  </si>
-  <si>
-    <t>摩托车指数</t>
-  </si>
-  <si>
-    <t>多元金融指数</t>
-  </si>
-  <si>
-    <t>券商指数</t>
-  </si>
-  <si>
-    <t>制药指数</t>
-  </si>
-  <si>
-    <t>航空指数</t>
-  </si>
-  <si>
-    <t>机场指数</t>
-  </si>
-  <si>
-    <t>酒类指数</t>
-  </si>
-  <si>
-    <t>工程机械指数</t>
-  </si>
-  <si>
-    <t>精细化工指数</t>
-  </si>
-  <si>
-    <t>医疗保健指数</t>
-  </si>
-  <si>
-    <t>互联网指数</t>
-  </si>
-  <si>
-    <t>包装指数</t>
-  </si>
-  <si>
-    <t>汽车指数</t>
-  </si>
-  <si>
-    <t>家用电器指数</t>
-  </si>
-  <si>
-    <t>银行指数</t>
-  </si>
-  <si>
-    <t>煤炭指数</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
         <v>70</v>
       </c>
       <c r="C2">
-        <v>0.1421468689735585</v>
+        <v>0.05162635824657591</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -818,7 +818,7 @@
         <v>71</v>
       </c>
       <c r="C3">
-        <v>0.09174291750076469</v>
+        <v>0.006924403903519005</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -829,7 +829,7 @@
         <v>72</v>
       </c>
       <c r="C4">
-        <v>0.08076849343638637</v>
+        <v>-0.002858004176024664</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -840,7 +840,7 @@
         <v>73</v>
       </c>
       <c r="C5">
-        <v>0.06675225088290659</v>
+        <v>-0.004829356233825743</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -851,7 +851,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>0.05526352837119619</v>
+        <v>-0.006700804809839034</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -862,7 +862,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>0.04558779744280783</v>
+        <v>-0.007892510369626793</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -873,7 +873,7 @@
         <v>76</v>
       </c>
       <c r="C8">
-        <v>0.0436715454479597</v>
+        <v>-0.008954701762641237</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -884,7 +884,7 @@
         <v>77</v>
       </c>
       <c r="C9">
-        <v>0.04255892648722193</v>
+        <v>-0.01551089951977158</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -895,7 +895,7 @@
         <v>78</v>
       </c>
       <c r="C10">
-        <v>0.03662161610150072</v>
+        <v>-0.01602735543017131</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -906,7 +906,7 @@
         <v>79</v>
       </c>
       <c r="C11">
-        <v>0.03617297950870424</v>
+        <v>-0.01698424974545032</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -917,7 +917,7 @@
         <v>80</v>
       </c>
       <c r="C12">
-        <v>0.03449264163171373</v>
+        <v>-0.01911681275415478</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -928,7 +928,7 @@
         <v>81</v>
       </c>
       <c r="C13">
-        <v>0.03435828366860272</v>
+        <v>-0.01953408347883168</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -939,7 +939,7 @@
         <v>82</v>
       </c>
       <c r="C14">
-        <v>0.03236478973221146</v>
+        <v>-0.02077544265128806</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -950,7 +950,7 @@
         <v>83</v>
       </c>
       <c r="C15">
-        <v>0.03192016968404832</v>
+        <v>-0.02310950432876435</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -961,7 +961,7 @@
         <v>84</v>
       </c>
       <c r="C16">
-        <v>0.03097027870765268</v>
+        <v>-0.02331751646169866</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -972,7 +972,7 @@
         <v>85</v>
       </c>
       <c r="C17">
-        <v>0.0302486764092349</v>
+        <v>-0.02359263337017614</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -983,7 +983,7 @@
         <v>86</v>
       </c>
       <c r="C18">
-        <v>0.03002814802053311</v>
+        <v>-0.02413610777426844</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -994,7 +994,7 @@
         <v>87</v>
       </c>
       <c r="C19">
-        <v>0.02998101330002845</v>
+        <v>-0.02575508683292893</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1005,7 +1005,7 @@
         <v>88</v>
       </c>
       <c r="C20">
-        <v>0.02911139532792895</v>
+        <v>-0.02651003831378362</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1016,7 +1016,7 @@
         <v>89</v>
       </c>
       <c r="C21">
-        <v>0.0287576294902645</v>
+        <v>-0.02950248725775029</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1027,7 +1027,7 @@
         <v>90</v>
       </c>
       <c r="C22">
-        <v>0.02747700831060085</v>
+        <v>-0.03068010763774331</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>91</v>
       </c>
       <c r="C23">
-        <v>0.02619774850335976</v>
+        <v>-0.0334372935772842</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>92</v>
       </c>
       <c r="C24">
-        <v>0.02430609518175797</v>
+        <v>-0.03592586065422976</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>93</v>
       </c>
       <c r="C25">
-        <v>0.02408416122920265</v>
+        <v>-0.03595403896965144</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1071,7 +1071,7 @@
         <v>94</v>
       </c>
       <c r="C26">
-        <v>0.02405037231381058</v>
+        <v>-0.03602687336215671</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>95</v>
       </c>
       <c r="C27">
-        <v>0.02244419004483644</v>
+        <v>-0.03846714003856644</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>96</v>
       </c>
       <c r="C28">
-        <v>0.02196193390761891</v>
+        <v>-0.04014271564200012</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>97</v>
       </c>
       <c r="C29">
-        <v>0.0212936729491211</v>
+        <v>-0.04020672993701202</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>98</v>
       </c>
       <c r="C30">
-        <v>0.01990447503021109</v>
+        <v>-0.04136547013704428</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1126,7 +1126,7 @@
         <v>99</v>
       </c>
       <c r="C31">
-        <v>0.01947263709260705</v>
+        <v>-0.04188636797710799</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>0.01939113437362594</v>
+        <v>-0.04204683157143863</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>101</v>
       </c>
       <c r="C33">
-        <v>0.01889982235966503</v>
+        <v>-0.04269897340212625</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>102</v>
       </c>
       <c r="C34">
-        <v>0.01589189464155538</v>
+        <v>-0.04358390122917633</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>103</v>
       </c>
       <c r="C35">
-        <v>0.01578754416515649</v>
+        <v>-0.04417865530842568</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1181,7 +1181,7 @@
         <v>104</v>
       </c>
       <c r="C36">
-        <v>0.0157675052041959</v>
+        <v>-0.04461062706685703</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>105</v>
       </c>
       <c r="C37">
-        <v>0.01458996096540055</v>
+        <v>-0.04500045803816943</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>106</v>
       </c>
       <c r="C38">
-        <v>0.01429521146193835</v>
+        <v>-0.04597124536882702</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="C39">
-        <v>0.01406227260073267</v>
+        <v>-0.04648855376956063</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>108</v>
       </c>
       <c r="C40">
-        <v>0.01390746437241264</v>
+        <v>-0.0468460773863304</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>109</v>
       </c>
       <c r="C41">
-        <v>0.01356516211160841</v>
+        <v>-0.04687136414431636</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>110</v>
       </c>
       <c r="C42">
-        <v>0.01306429752620586</v>
+        <v>-0.04747371088394481</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>111</v>
       </c>
       <c r="C43">
-        <v>0.01280013388031298</v>
+        <v>-0.04935436789503178</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>112</v>
       </c>
       <c r="C44">
-        <v>0.01271275637349922</v>
+        <v>-0.05001793679724909</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>0.01213432178783447</v>
+        <v>-0.05062435672218879</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1291,7 +1291,7 @@
         <v>114</v>
       </c>
       <c r="C46">
-        <v>0.01095332424501883</v>
+        <v>-0.05133169000821203</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="C47">
-        <v>0.01011622718760563</v>
+        <v>-0.051694104375961</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>116</v>
       </c>
       <c r="C48">
-        <v>0.009739486553964838</v>
+        <v>-0.05283541528166491</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>117</v>
       </c>
       <c r="C49">
-        <v>0.009521254876423635</v>
+        <v>-0.05320236525091393</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>118</v>
       </c>
       <c r="C50">
-        <v>0.00917262444521616</v>
+        <v>-0.0533381925011418</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>119</v>
       </c>
       <c r="C51">
-        <v>0.007972782560043967</v>
+        <v>-0.05402939786035077</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>120</v>
       </c>
       <c r="C52">
-        <v>0.007788509384715425</v>
+        <v>-0.05598007425642826</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1368,7 +1368,7 @@
         <v>121</v>
       </c>
       <c r="C53">
-        <v>0.007444949291099512</v>
+        <v>-0.05739024966665585</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>122</v>
       </c>
       <c r="C54">
-        <v>0.006899677281493544</v>
+        <v>-0.05851133063121761</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>123</v>
       </c>
       <c r="C55">
-        <v>0.006529546146576193</v>
+        <v>-0.05927767211970192</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1401,7 +1401,7 @@
         <v>124</v>
       </c>
       <c r="C56">
-        <v>0.006258676686628828</v>
+        <v>-0.0606565034489317</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>125</v>
       </c>
       <c r="C57">
-        <v>0.006188616891727117</v>
+        <v>-0.06157825710895326</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>126</v>
       </c>
       <c r="C58">
-        <v>0.005462208913366906</v>
+        <v>-0.06290140395340349</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>127</v>
       </c>
       <c r="C59">
-        <v>0.00541106408391534</v>
+        <v>-0.06327106048809694</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>128</v>
       </c>
       <c r="C60">
-        <v>0.005377648585690675</v>
+        <v>-0.06624330995966221</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>129</v>
       </c>
       <c r="C61">
-        <v>0.004941337836248838</v>
+        <v>-0.06722762651040437</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>130</v>
       </c>
       <c r="C62">
-        <v>0.004394454399528014</v>
+        <v>-0.06803529108847761</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>131</v>
       </c>
       <c r="C63">
-        <v>0.004364232197965334</v>
+        <v>-0.07086089829701459</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>132</v>
       </c>
       <c r="C64">
-        <v>0.004265297261786261</v>
+        <v>-0.07096189329324509</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>133</v>
       </c>
       <c r="C65">
-        <v>-0.0003166989049773195</v>
+        <v>-0.07319358703406087</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>134</v>
       </c>
       <c r="C66">
-        <v>-0.002974388445894927</v>
+        <v>-0.07349207371241129</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>135</v>
       </c>
       <c r="C67">
-        <v>-0.003095508454775131</v>
+        <v>-0.0797655667315017</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>136</v>
       </c>
       <c r="C68">
-        <v>-0.01116490465120945</v>
+        <v>-0.08270150432856427</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/主题.xlsx
+++ b/FOF/data/主题.xlsx
@@ -25,406 +25,406 @@
     <t>代码</t>
   </si>
   <si>
+    <t>886043.WI</t>
+  </si>
+  <si>
+    <t>886040.WI</t>
+  </si>
+  <si>
+    <t>886063.WI</t>
+  </si>
+  <si>
+    <t>886062.WI</t>
+  </si>
+  <si>
+    <t>886025.WI</t>
+  </si>
+  <si>
+    <t>886049.WI</t>
+  </si>
+  <si>
+    <t>886039.WI</t>
+  </si>
+  <si>
+    <t>886050.WI</t>
+  </si>
+  <si>
+    <t>886051.WI</t>
+  </si>
+  <si>
+    <t>886048.WI</t>
+  </si>
+  <si>
+    <t>886001.WI</t>
+  </si>
+  <si>
+    <t>886066.WI</t>
+  </si>
+  <si>
+    <t>886028.WI</t>
+  </si>
+  <si>
+    <t>886061.WI</t>
+  </si>
+  <si>
+    <t>886002.WI</t>
+  </si>
+  <si>
+    <t>886021.WI</t>
+  </si>
+  <si>
+    <t>886036.WI</t>
+  </si>
+  <si>
+    <t>886045.WI</t>
+  </si>
+  <si>
+    <t>886029.WI</t>
+  </si>
+  <si>
+    <t>886060.WI</t>
+  </si>
+  <si>
+    <t>886034.WI</t>
+  </si>
+  <si>
+    <t>886068.WI</t>
+  </si>
+  <si>
+    <t>886038.WI</t>
+  </si>
+  <si>
     <t>886011.WI</t>
   </si>
   <si>
+    <t>886058.WI</t>
+  </si>
+  <si>
+    <t>886037.WI</t>
+  </si>
+  <si>
+    <t>886042.WI</t>
+  </si>
+  <si>
+    <t>886032.WI</t>
+  </si>
+  <si>
+    <t>886030.WI</t>
+  </si>
+  <si>
+    <t>886059.WI</t>
+  </si>
+  <si>
+    <t>886065.WI</t>
+  </si>
+  <si>
+    <t>886023.WI</t>
+  </si>
+  <si>
+    <t>886046.WI</t>
+  </si>
+  <si>
+    <t>886017.WI</t>
+  </si>
+  <si>
+    <t>886008.WI</t>
+  </si>
+  <si>
     <t>886052.WI</t>
   </si>
   <si>
-    <t>886029.WI</t>
+    <t>886031.WI</t>
+  </si>
+  <si>
+    <t>886020.WI</t>
+  </si>
+  <si>
+    <t>886006.WI</t>
+  </si>
+  <si>
+    <t>886019.WI</t>
+  </si>
+  <si>
+    <t>886010.WI</t>
+  </si>
+  <si>
+    <t>886057.WI</t>
+  </si>
+  <si>
+    <t>886027.WI</t>
+  </si>
+  <si>
+    <t>886026.WI</t>
+  </si>
+  <si>
+    <t>886044.WI</t>
+  </si>
+  <si>
+    <t>886007.WI</t>
+  </si>
+  <si>
+    <t>886035.WI</t>
+  </si>
+  <si>
+    <t>886067.WI</t>
+  </si>
+  <si>
+    <t>886009.WI</t>
+  </si>
+  <si>
+    <t>886004.WI</t>
+  </si>
+  <si>
+    <t>886022.WI</t>
+  </si>
+  <si>
+    <t>886033.WI</t>
+  </si>
+  <si>
+    <t>886016.WI</t>
+  </si>
+  <si>
+    <t>886041.WI</t>
+  </si>
+  <si>
+    <t>886024.WI</t>
+  </si>
+  <si>
+    <t>886012.WI</t>
+  </si>
+  <si>
+    <t>886003.WI</t>
+  </si>
+  <si>
+    <t>886013.WI</t>
+  </si>
+  <si>
+    <t>886055.WI</t>
+  </si>
+  <si>
+    <t>886053.WI</t>
+  </si>
+  <si>
+    <t>886015.WI</t>
+  </si>
+  <si>
+    <t>886064.WI</t>
+  </si>
+  <si>
+    <t>886014.WI</t>
+  </si>
+  <si>
+    <t>886005.WI</t>
+  </si>
+  <si>
+    <t>886018.WI</t>
+  </si>
+  <si>
+    <t>886069.WI</t>
   </si>
   <si>
     <t>886054.WI</t>
   </si>
   <si>
-    <t>886064.WI</t>
-  </si>
-  <si>
-    <t>886033.WI</t>
-  </si>
-  <si>
-    <t>886060.WI</t>
-  </si>
-  <si>
-    <t>886065.WI</t>
-  </si>
-  <si>
-    <t>886035.WI</t>
-  </si>
-  <si>
-    <t>886057.WI</t>
-  </si>
-  <si>
-    <t>886046.WI</t>
-  </si>
-  <si>
-    <t>886044.WI</t>
-  </si>
-  <si>
-    <t>886016.WI</t>
-  </si>
-  <si>
-    <t>886002.WI</t>
-  </si>
-  <si>
-    <t>886067.WI</t>
-  </si>
-  <si>
-    <t>886055.WI</t>
-  </si>
-  <si>
-    <t>886026.WI</t>
-  </si>
-  <si>
-    <t>886068.WI</t>
-  </si>
-  <si>
-    <t>886040.WI</t>
-  </si>
-  <si>
-    <t>886003.WI</t>
-  </si>
-  <si>
-    <t>886012.WI</t>
-  </si>
-  <si>
-    <t>886030.WI</t>
-  </si>
-  <si>
-    <t>886042.WI</t>
-  </si>
-  <si>
-    <t>886009.WI</t>
-  </si>
-  <si>
-    <t>886043.WI</t>
-  </si>
-  <si>
-    <t>886041.WI</t>
-  </si>
-  <si>
-    <t>886032.WI</t>
-  </si>
-  <si>
-    <t>886020.WI</t>
-  </si>
-  <si>
-    <t>886028.WI</t>
-  </si>
-  <si>
-    <t>886048.WI</t>
-  </si>
-  <si>
-    <t>886062.WI</t>
-  </si>
-  <si>
-    <t>886005.WI</t>
-  </si>
-  <si>
-    <t>886008.WI</t>
-  </si>
-  <si>
-    <t>886058.WI</t>
-  </si>
-  <si>
-    <t>886039.WI</t>
-  </si>
-  <si>
-    <t>886021.WI</t>
-  </si>
-  <si>
-    <t>886038.WI</t>
-  </si>
-  <si>
-    <t>886059.WI</t>
-  </si>
-  <si>
-    <t>886022.WI</t>
-  </si>
-  <si>
-    <t>886069.WI</t>
-  </si>
-  <si>
-    <t>886053.WI</t>
-  </si>
-  <si>
-    <t>886017.WI</t>
-  </si>
-  <si>
-    <t>886036.WI</t>
-  </si>
-  <si>
-    <t>886014.WI</t>
-  </si>
-  <si>
-    <t>886010.WI</t>
-  </si>
-  <si>
-    <t>886027.WI</t>
-  </si>
-  <si>
-    <t>886004.WI</t>
-  </si>
-  <si>
-    <t>886024.WI</t>
-  </si>
-  <si>
-    <t>886025.WI</t>
-  </si>
-  <si>
-    <t>886034.WI</t>
-  </si>
-  <si>
-    <t>886007.WI</t>
-  </si>
-  <si>
-    <t>886049.WI</t>
-  </si>
-  <si>
-    <t>886006.WI</t>
-  </si>
-  <si>
-    <t>886023.WI</t>
-  </si>
-  <si>
-    <t>886019.WI</t>
-  </si>
-  <si>
-    <t>886018.WI</t>
-  </si>
-  <si>
-    <t>886066.WI</t>
-  </si>
-  <si>
-    <t>886061.WI</t>
-  </si>
-  <si>
-    <t>886013.WI</t>
-  </si>
-  <si>
-    <t>886015.WI</t>
-  </si>
-  <si>
-    <t>886051.WI</t>
-  </si>
-  <si>
-    <t>886050.WI</t>
-  </si>
-  <si>
-    <t>886063.WI</t>
-  </si>
-  <si>
-    <t>886031.WI</t>
-  </si>
-  <si>
-    <t>886037.WI</t>
-  </si>
-  <si>
-    <t>886001.WI</t>
-  </si>
-  <si>
-    <t>886045.WI</t>
+    <t>酒类指数</t>
+  </si>
+  <si>
+    <t>教育指数</t>
+  </si>
+  <si>
+    <t>半导体指数</t>
+  </si>
+  <si>
+    <t>电子元器件指数</t>
+  </si>
+  <si>
+    <t>办公用品指数</t>
+  </si>
+  <si>
+    <t>医疗保健指数</t>
+  </si>
+  <si>
+    <t>餐饮旅游指数</t>
+  </si>
+  <si>
+    <t>生物科技指数</t>
+  </si>
+  <si>
+    <t>制药指数</t>
+  </si>
+  <si>
+    <t>日用化工指数</t>
+  </si>
+  <si>
+    <t>能源设备指数</t>
+  </si>
+  <si>
+    <t>燃气指数</t>
+  </si>
+  <si>
+    <t>陆路运输指数</t>
+  </si>
+  <si>
+    <t>电脑硬件指数</t>
+  </si>
+  <si>
+    <t>石油天然气指数</t>
+  </si>
+  <si>
+    <t>工业机械指数</t>
+  </si>
+  <si>
+    <t>家居用品指数</t>
+  </si>
+  <si>
+    <t>农业指数</t>
+  </si>
+  <si>
+    <t>机场指数</t>
+  </si>
+  <si>
+    <t>通信设备指数</t>
+  </si>
+  <si>
+    <t>摩托车指数</t>
+  </si>
+  <si>
+    <t>工程机械指数</t>
+  </si>
+  <si>
+    <t>纺织服装指数</t>
   </si>
   <si>
     <t>贵金属指数</t>
   </si>
   <si>
+    <t>互联网指数</t>
+  </si>
+  <si>
+    <t>休闲用品指数</t>
+  </si>
+  <si>
+    <t>零售指数</t>
+  </si>
+  <si>
+    <t>汽车零部件指数</t>
+  </si>
+  <si>
+    <t>公路指数</t>
+  </si>
+  <si>
+    <t>软件指数</t>
+  </si>
+  <si>
+    <t>电力指数</t>
+  </si>
+  <si>
+    <t>商业服务指数</t>
+  </si>
+  <si>
+    <t>食品指数</t>
+  </si>
+  <si>
+    <t>电工电网指数</t>
+  </si>
+  <si>
+    <t>建材指数</t>
+  </si>
+  <si>
     <t>银行指数</t>
   </si>
   <si>
-    <t>机场指数</t>
+    <t>港口指数</t>
+  </si>
+  <si>
+    <t>重型机械指数</t>
+  </si>
+  <si>
+    <t>精细化工指数</t>
+  </si>
+  <si>
+    <t>综合类指数</t>
+  </si>
+  <si>
+    <t>基本金属指数</t>
+  </si>
+  <si>
+    <t>房地产指数</t>
+  </si>
+  <si>
+    <t>海运指数</t>
+  </si>
+  <si>
+    <t>航空指数</t>
+  </si>
+  <si>
+    <t>软饮料指数</t>
+  </si>
+  <si>
+    <t>化肥农药指数</t>
+  </si>
+  <si>
+    <t>家用电器指数</t>
+  </si>
+  <si>
+    <t>水务指数</t>
+  </si>
+  <si>
+    <t>包装指数</t>
+  </si>
+  <si>
+    <t>化工原料指数</t>
+  </si>
+  <si>
+    <t>贸易指数</t>
+  </si>
+  <si>
+    <t>汽车指数</t>
+  </si>
+  <si>
+    <t>建筑指数</t>
+  </si>
+  <si>
+    <t>文化传媒指数</t>
+  </si>
+  <si>
+    <t>环保指数</t>
+  </si>
+  <si>
+    <t>钢铁指数</t>
+  </si>
+  <si>
+    <t>煤炭指数</t>
+  </si>
+  <si>
+    <t>林木指数</t>
+  </si>
+  <si>
+    <t>保险指数</t>
+  </si>
+  <si>
+    <t>多元金融指数</t>
+  </si>
+  <si>
+    <t>航天军工指数</t>
+  </si>
+  <si>
+    <t>电信指数</t>
+  </si>
+  <si>
+    <t>造纸指数</t>
+  </si>
+  <si>
+    <t>化纤指数</t>
+  </si>
+  <si>
+    <t>发电设备指数</t>
+  </si>
+  <si>
+    <t>石油化工指数</t>
   </si>
   <si>
     <t>券商指数</t>
-  </si>
-  <si>
-    <t>电信指数</t>
-  </si>
-  <si>
-    <t>汽车指数</t>
-  </si>
-  <si>
-    <t>通信设备指数</t>
-  </si>
-  <si>
-    <t>电力指数</t>
-  </si>
-  <si>
-    <t>家用电器指数</t>
-  </si>
-  <si>
-    <t>房地产指数</t>
-  </si>
-  <si>
-    <t>食品指数</t>
-  </si>
-  <si>
-    <t>软饮料指数</t>
-  </si>
-  <si>
-    <t>建筑指数</t>
-  </si>
-  <si>
-    <t>石油天然气指数</t>
-  </si>
-  <si>
-    <t>水务指数</t>
-  </si>
-  <si>
-    <t>保险指数</t>
-  </si>
-  <si>
-    <t>航空指数</t>
-  </si>
-  <si>
-    <t>工程机械指数</t>
-  </si>
-  <si>
-    <t>教育指数</t>
-  </si>
-  <si>
-    <t>煤炭指数</t>
-  </si>
-  <si>
-    <t>钢铁指数</t>
-  </si>
-  <si>
-    <t>公路指数</t>
-  </si>
-  <si>
-    <t>零售指数</t>
-  </si>
-  <si>
-    <t>包装指数</t>
-  </si>
-  <si>
-    <t>酒类指数</t>
-  </si>
-  <si>
-    <t>文化传媒指数</t>
-  </si>
-  <si>
-    <t>汽车零部件指数</t>
-  </si>
-  <si>
-    <t>重型机械指数</t>
-  </si>
-  <si>
-    <t>陆路运输指数</t>
-  </si>
-  <si>
-    <t>日用化工指数</t>
-  </si>
-  <si>
-    <t>电子元器件指数</t>
-  </si>
-  <si>
-    <t>化纤指数</t>
-  </si>
-  <si>
-    <t>建材指数</t>
-  </si>
-  <si>
-    <t>互联网指数</t>
-  </si>
-  <si>
-    <t>餐饮旅游指数</t>
-  </si>
-  <si>
-    <t>工业机械指数</t>
-  </si>
-  <si>
-    <t>纺织服装指数</t>
-  </si>
-  <si>
-    <t>软件指数</t>
-  </si>
-  <si>
-    <t>贸易指数</t>
-  </si>
-  <si>
-    <t>石油化工指数</t>
-  </si>
-  <si>
-    <t>多元金融指数</t>
-  </si>
-  <si>
-    <t>电工电网指数</t>
-  </si>
-  <si>
-    <t>家居用品指数</t>
-  </si>
-  <si>
-    <t>造纸指数</t>
-  </si>
-  <si>
-    <t>基本金属指数</t>
-  </si>
-  <si>
-    <t>海运指数</t>
-  </si>
-  <si>
-    <t>化工原料指数</t>
-  </si>
-  <si>
-    <t>环保指数</t>
-  </si>
-  <si>
-    <t>办公用品指数</t>
-  </si>
-  <si>
-    <t>摩托车指数</t>
-  </si>
-  <si>
-    <t>化肥农药指数</t>
-  </si>
-  <si>
-    <t>医疗保健指数</t>
-  </si>
-  <si>
-    <t>精细化工指数</t>
-  </si>
-  <si>
-    <t>商业服务指数</t>
-  </si>
-  <si>
-    <t>综合类指数</t>
-  </si>
-  <si>
-    <t>发电设备指数</t>
-  </si>
-  <si>
-    <t>燃气指数</t>
-  </si>
-  <si>
-    <t>电脑硬件指数</t>
-  </si>
-  <si>
-    <t>林木指数</t>
-  </si>
-  <si>
-    <t>航天军工指数</t>
-  </si>
-  <si>
-    <t>制药指数</t>
-  </si>
-  <si>
-    <t>生物科技指数</t>
-  </si>
-  <si>
-    <t>半导体指数</t>
-  </si>
-  <si>
-    <t>港口指数</t>
-  </si>
-  <si>
-    <t>休闲用品指数</t>
-  </si>
-  <si>
-    <t>能源设备指数</t>
-  </si>
-  <si>
-    <t>农业指数</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
         <v>70</v>
       </c>
       <c r="C2">
-        <v>0.05162635824657591</v>
+        <v>0.04440686819133877</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -818,7 +818,7 @@
         <v>71</v>
       </c>
       <c r="C3">
-        <v>0.006924403903519005</v>
+        <v>0.03204977012289167</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -829,7 +829,7 @@
         <v>72</v>
       </c>
       <c r="C4">
-        <v>-0.002858004176024664</v>
+        <v>0.02975922398027198</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -840,7 +840,7 @@
         <v>73</v>
       </c>
       <c r="C5">
-        <v>-0.004829356233825743</v>
+        <v>0.02542300486683824</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -851,7 +851,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>-0.006700804809839034</v>
+        <v>0.02040663076214977</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -862,7 +862,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>-0.007892510369626793</v>
+        <v>0.01095114720900425</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -873,7 +873,7 @@
         <v>76</v>
       </c>
       <c r="C8">
-        <v>-0.008954701762641237</v>
+        <v>0.009846056318321139</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -884,7 +884,7 @@
         <v>77</v>
       </c>
       <c r="C9">
-        <v>-0.01551089951977158</v>
+        <v>0.008228716487019172</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -895,7 +895,7 @@
         <v>78</v>
       </c>
       <c r="C10">
-        <v>-0.01602735543017131</v>
+        <v>0.007790619926128395</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -906,7 +906,7 @@
         <v>79</v>
       </c>
       <c r="C11">
-        <v>-0.01698424974545032</v>
+        <v>0.007249618524278745</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -917,7 +917,7 @@
         <v>80</v>
       </c>
       <c r="C12">
-        <v>-0.01911681275415478</v>
+        <v>0.005396757848727507</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -928,7 +928,7 @@
         <v>81</v>
       </c>
       <c r="C13">
-        <v>-0.01953408347883168</v>
+        <v>0.004842400830817439</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -939,7 +939,7 @@
         <v>82</v>
       </c>
       <c r="C14">
-        <v>-0.02077544265128806</v>
+        <v>0.003863105005400547</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -950,7 +950,7 @@
         <v>83</v>
       </c>
       <c r="C15">
-        <v>-0.02310950432876435</v>
+        <v>0.002764263174018344</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -961,7 +961,7 @@
         <v>84</v>
       </c>
       <c r="C16">
-        <v>-0.02331751646169866</v>
+        <v>0.002331292762488557</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -972,7 +972,7 @@
         <v>85</v>
       </c>
       <c r="C17">
-        <v>-0.02359263337017614</v>
+        <v>0.001027438684489734</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -983,7 +983,7 @@
         <v>86</v>
       </c>
       <c r="C18">
-        <v>-0.02413610777426844</v>
+        <v>0.0002174229017870566</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -994,7 +994,7 @@
         <v>87</v>
       </c>
       <c r="C19">
-        <v>-0.02575508683292893</v>
+        <v>-0.001552479974472942</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1005,7 +1005,7 @@
         <v>88</v>
       </c>
       <c r="C20">
-        <v>-0.02651003831378362</v>
+        <v>-0.001554097771658269</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1016,7 +1016,7 @@
         <v>89</v>
       </c>
       <c r="C21">
-        <v>-0.02950248725775029</v>
+        <v>-0.00230100999230276</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1027,7 +1027,7 @@
         <v>90</v>
       </c>
       <c r="C22">
-        <v>-0.03068010763774331</v>
+        <v>-0.002543570047115473</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>91</v>
       </c>
       <c r="C23">
-        <v>-0.0334372935772842</v>
+        <v>-0.003078483599453841</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>92</v>
       </c>
       <c r="C24">
-        <v>-0.03592586065422976</v>
+        <v>-0.004040555905004295</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>93</v>
       </c>
       <c r="C25">
-        <v>-0.03595403896965144</v>
+        <v>-0.005216008459421606</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1071,7 +1071,7 @@
         <v>94</v>
       </c>
       <c r="C26">
-        <v>-0.03602687336215671</v>
+        <v>-0.005289319125525771</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>95</v>
       </c>
       <c r="C27">
-        <v>-0.03846714003856644</v>
+        <v>-0.006398337248356256</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>96</v>
       </c>
       <c r="C28">
-        <v>-0.04014271564200012</v>
+        <v>-0.006593365315579858</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>97</v>
       </c>
       <c r="C29">
-        <v>-0.04020672993701202</v>
+        <v>-0.006642580460705871</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>98</v>
       </c>
       <c r="C30">
-        <v>-0.04136547013704428</v>
+        <v>-0.007432664558121305</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1126,7 +1126,7 @@
         <v>99</v>
       </c>
       <c r="C31">
-        <v>-0.04188636797710799</v>
+        <v>-0.008999575694781825</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>-0.04204683157143863</v>
+        <v>-0.01001173624660723</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>101</v>
       </c>
       <c r="C33">
-        <v>-0.04269897340212625</v>
+        <v>-0.01107647914922261</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>102</v>
       </c>
       <c r="C34">
-        <v>-0.04358390122917633</v>
+        <v>-0.01113563487157987</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>103</v>
       </c>
       <c r="C35">
-        <v>-0.04417865530842568</v>
+        <v>-0.01113568744873961</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1181,7 +1181,7 @@
         <v>104</v>
       </c>
       <c r="C36">
-        <v>-0.04461062706685703</v>
+        <v>-0.01123932662623361</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>105</v>
       </c>
       <c r="C37">
-        <v>-0.04500045803816943</v>
+        <v>-0.01134558455539225</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>106</v>
       </c>
       <c r="C38">
-        <v>-0.04597124536882702</v>
+        <v>-0.01187098776083062</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="C39">
-        <v>-0.04648855376956063</v>
+        <v>-0.01266721092652612</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>108</v>
       </c>
       <c r="C40">
-        <v>-0.0468460773863304</v>
+        <v>-0.01355025942824017</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>109</v>
       </c>
       <c r="C41">
-        <v>-0.04687136414431636</v>
+        <v>-0.01358594866384655</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>110</v>
       </c>
       <c r="C42">
-        <v>-0.04747371088394481</v>
+        <v>-0.01425091900607622</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>111</v>
       </c>
       <c r="C43">
-        <v>-0.04935436789503178</v>
+        <v>-0.01607094467136294</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>112</v>
       </c>
       <c r="C44">
-        <v>-0.05001793679724909</v>
+        <v>-0.01690628346957224</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="C45">
-        <v>-0.05062435672218879</v>
+        <v>-0.01706225232058656</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1291,7 +1291,7 @@
         <v>114</v>
       </c>
       <c r="C46">
-        <v>-0.05133169000821203</v>
+        <v>-0.01717552530754063</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="C47">
-        <v>-0.051694104375961</v>
+        <v>-0.01736635487769889</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>116</v>
       </c>
       <c r="C48">
-        <v>-0.05283541528166491</v>
+        <v>-0.01763412538959708</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>117</v>
       </c>
       <c r="C49">
-        <v>-0.05320236525091393</v>
+        <v>-0.01795560275462615</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>118</v>
       </c>
       <c r="C50">
-        <v>-0.0533381925011418</v>
+        <v>-0.01832618162643318</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>119</v>
       </c>
       <c r="C51">
-        <v>-0.05402939786035077</v>
+        <v>-0.01971483853509537</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>120</v>
       </c>
       <c r="C52">
-        <v>-0.05598007425642826</v>
+        <v>-0.01980823645838548</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1368,7 +1368,7 @@
         <v>121</v>
       </c>
       <c r="C53">
-        <v>-0.05739024966665585</v>
+        <v>-0.01989312713877633</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>122</v>
       </c>
       <c r="C54">
-        <v>-0.05851133063121761</v>
+        <v>-0.02062261204674432</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>123</v>
       </c>
       <c r="C55">
-        <v>-0.05927767211970192</v>
+        <v>-0.02318137023799671</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1401,7 +1401,7 @@
         <v>124</v>
       </c>
       <c r="C56">
-        <v>-0.0606565034489317</v>
+        <v>-0.02432229036945599</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>125</v>
       </c>
       <c r="C57">
-        <v>-0.06157825710895326</v>
+        <v>-0.02520090781176765</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>126</v>
       </c>
       <c r="C58">
-        <v>-0.06290140395340349</v>
+        <v>-0.02523292118697307</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>127</v>
       </c>
       <c r="C59">
-        <v>-0.06327106048809694</v>
+        <v>-0.02717984606252055</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>128</v>
       </c>
       <c r="C60">
-        <v>-0.06624330995966221</v>
+        <v>-0.02896233807802517</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>129</v>
       </c>
       <c r="C61">
-        <v>-0.06722762651040437</v>
+        <v>-0.02911045902824372</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>130</v>
       </c>
       <c r="C62">
-        <v>-0.06803529108847761</v>
+        <v>-0.02911094116864954</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>131</v>
       </c>
       <c r="C63">
-        <v>-0.07086089829701459</v>
+        <v>-0.03177277741157147</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>132</v>
       </c>
       <c r="C64">
-        <v>-0.07096189329324509</v>
+        <v>-0.03194768077363463</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>133</v>
       </c>
       <c r="C65">
-        <v>-0.07319358703406087</v>
+        <v>-0.03356593597527491</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>134</v>
       </c>
       <c r="C66">
-        <v>-0.07349207371241129</v>
+        <v>-0.03440320774690619</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>135</v>
       </c>
       <c r="C67">
-        <v>-0.0797655667315017</v>
+        <v>-0.03514862335989566</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>136</v>
       </c>
       <c r="C68">
-        <v>-0.08270150432856427</v>
+        <v>-0.04802262647580802</v>
       </c>
     </row>
   </sheetData>
